--- a/Лаба 29 Равновесие_Спектрофотометрия.xlsx
+++ b/Лаба 29 Равновесие_Спектрофотометрия.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="132" windowWidth="19416" windowHeight="9792" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="132" windowWidth="19416" windowHeight="9792" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Лаб.Журнал" sheetId="6" r:id="rId3"/>
     <sheet name="Обратная задача" sheetId="7" r:id="rId4"/>
     <sheet name="Константы" sheetId="8" r:id="rId5"/>
+    <sheet name="погрешности" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="118">
   <si>
     <t>&lt;x&gt;</t>
   </si>
@@ -1313,13 +1314,96 @@
   <si>
     <t>Диссоциация N2O4 в различных средах</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">погрешность </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">ΔН° и ΔS° </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>εΔH°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, кДж/(моль*К)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>εΔS°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Т</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, Дж/моль</t>
+    </r>
+  </si>
+  <si>
+    <t>другие погрешности</t>
+  </si>
+  <si>
+    <t>ε(f)</t>
+  </si>
+  <si>
+    <t>ε[NO2]</t>
+  </si>
+  <si>
+    <t>ε(α)</t>
+  </si>
+  <si>
+    <t>ε(Ро)</t>
+  </si>
+  <si>
+    <t>ε(Kp)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -1680,7 +1764,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1702,18 +1786,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1739,9 +1811,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1749,15 +1818,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1765,22 +1825,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1800,6 +1851,40 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -2172,11 +2257,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="173482368"/>
-        <c:axId val="167635584"/>
+        <c:axId val="178801280"/>
+        <c:axId val="178828416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173482368"/>
+        <c:axId val="178801280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2199,12 +2284,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167635584"/>
+        <c:crossAx val="178828416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="167635584"/>
+        <c:axId val="178828416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2237,7 +2322,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173482368"/>
+        <c:crossAx val="178801280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2250,7 +2335,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2288,8 +2373,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12878825281974887"/>
-          <c:y val="6.2706270627062702E-2"/>
+          <c:x val="0.1287882528197489"/>
+          <c:y val="6.2706270627062716E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -2299,10 +2384,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.496904394127768E-2"/>
+          <c:x val="7.4969043941277694E-2"/>
           <c:y val="0.19819313427405733"/>
-          <c:w val="0.65119216854649931"/>
-          <c:h val="0.72572880122657935"/>
+          <c:w val="0.65119216854649942"/>
+          <c:h val="0.72572880122657957"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2627,11 +2712,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="179033216"/>
-        <c:axId val="179031040"/>
+        <c:axId val="179663232"/>
+        <c:axId val="179665152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179033216"/>
+        <c:axId val="179663232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="380"/>
@@ -2656,19 +2741,19 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.74565284004571197"/>
-              <c:y val="0.9498183519139316"/>
+              <c:x val="0.74565284004571208"/>
+              <c:y val="0.94981835191393149"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179031040"/>
+        <c:crossAx val="179665152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179031040"/>
+        <c:axId val="179665152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2701,7 +2786,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179033216"/>
+        <c:crossAx val="179663232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2713,9 +2798,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.74003189792663482"/>
-          <c:y val="0.4046176034926327"/>
+          <c:y val="0.40461760349263276"/>
           <c:w val="0.25039872408293462"/>
-          <c:h val="0.35092954964787815"/>
+          <c:h val="0.35092954964787826"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -2723,7 +2808,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3031,11 +3116,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="172832256"/>
-        <c:axId val="133868928"/>
+        <c:axId val="178202496"/>
+        <c:axId val="178208768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="172832256"/>
+        <c:axId val="178202496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3058,12 +3143,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133868928"/>
+        <c:crossAx val="178208768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="133868928"/>
+        <c:axId val="178208768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3096,7 +3181,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172832256"/>
+        <c:crossAx val="178202496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3107,10 +3192,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.65794045565621007"/>
-          <c:y val="0.3973278631423835"/>
-          <c:w val="0.30467503961941"/>
-          <c:h val="0.21492304736956569"/>
+          <c:x val="0.65794045565621029"/>
+          <c:y val="0.39732786314238366"/>
+          <c:w val="0.30467503961941006"/>
+          <c:h val="0.21492304736956572"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -3118,7 +3203,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3361,11 +3446,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="189831808"/>
-        <c:axId val="189829888"/>
+        <c:axId val="178237440"/>
+        <c:axId val="178239360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189831808"/>
+        <c:axId val="178237440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3388,12 +3473,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189829888"/>
+        <c:crossAx val="178239360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189829888"/>
+        <c:axId val="178239360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3426,7 +3511,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189831808"/>
+        <c:crossAx val="178237440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3437,10 +3522,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.64126650437847321"/>
-          <c:y val="0.4290463553657522"/>
-          <c:w val="0.33467734387240688"/>
-          <c:h val="0.14672364672364671"/>
+          <c:x val="0.64126650437847332"/>
+          <c:y val="0.42904635536575231"/>
+          <c:w val="0.33467734387240694"/>
+          <c:h val="0.14672364672364668"/>
         </c:manualLayout>
       </c:layout>
       <c:txPr>
@@ -3458,7 +3543,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3701,11 +3786,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="192697856"/>
-        <c:axId val="192696320"/>
+        <c:axId val="179079040"/>
+        <c:axId val="179085312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192697856"/>
+        <c:axId val="179079040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3728,12 +3813,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192696320"/>
+        <c:crossAx val="179085312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192696320"/>
+        <c:axId val="179085312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3766,7 +3851,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192697856"/>
+        <c:crossAx val="179079040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3779,7 +3864,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4032,11 +4117,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="189436672"/>
-        <c:axId val="189336576"/>
+        <c:axId val="179380224"/>
+        <c:axId val="179382144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="189436672"/>
+        <c:axId val="179380224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4059,12 +4144,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189336576"/>
+        <c:crossAx val="179382144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189336576"/>
+        <c:axId val="179382144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4097,7 +4182,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189436672"/>
+        <c:crossAx val="179380224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4110,7 +4195,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4277,12 +4362,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="144153600"/>
-        <c:axId val="144381056"/>
+        <c:axId val="179477888"/>
+        <c:axId val="179492352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="144153600"/>
+        <c:axId val="179477888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4317,13 +4401,13 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144381056"/>
+        <c:crossAx val="179492352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144381056"/>
+        <c:axId val="179492352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4346,7 +4430,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144153600"/>
+        <c:crossAx val="179477888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="0.2"/>
@@ -4363,7 +4447,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4414,7 +4498,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4428,7 +4511,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -4512,11 +4594,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="126521344"/>
-        <c:axId val="126515072"/>
+        <c:axId val="179579136"/>
+        <c:axId val="179593600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="126521344"/>
+        <c:axId val="179579136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="200"/>
@@ -4524,17 +4606,15 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
-        <c:title>
-          <c:layout/>
-        </c:title>
+        <c:title/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126515072"/>
+        <c:crossAx val="179593600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="126515072"/>
+        <c:axId val="179593600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4553,7 +4633,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:txPr>
             <a:bodyPr rot="-5400000" vert="horz"/>
             <a:lstStyle/>
@@ -4567,20 +4646,19 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126521344"/>
+        <c:crossAx val="179579136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4590,9 +4668,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -4616,7 +4692,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -4700,11 +4775,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="178392064"/>
-        <c:axId val="178390144"/>
+        <c:axId val="179621888"/>
+        <c:axId val="179623424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178392064"/>
+        <c:axId val="179621888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="250"/>
@@ -4712,12 +4787,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178390144"/>
+        <c:crossAx val="179623424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178390144"/>
+        <c:axId val="179623424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4725,20 +4800,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178392064"/>
+        <c:crossAx val="179621888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5370,11 +5444,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="192418176"/>
-        <c:axId val="192281216"/>
+        <c:axId val="179545600"/>
+        <c:axId val="179547520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192418176"/>
+        <c:axId val="179545600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="370"/>
@@ -5399,12 +5473,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192281216"/>
+        <c:crossAx val="179547520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192281216"/>
+        <c:axId val="179547520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.5"/>
@@ -5439,7 +5513,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192418176"/>
+        <c:crossAx val="179545600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="0.1"/>
@@ -5453,7 +5527,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6061,8 +6135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AH184"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B180" sqref="B180:H184"/>
+    <sheetView topLeftCell="A134" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145:B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6073,23 +6147,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="24" customHeight="1">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="23">
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="19">
         <v>29</v>
       </c>
       <c r="R2" s="14"/>
@@ -6114,49 +6188,49 @@
       <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="37" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="33" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="39"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="54"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="58" t="str">
+      <c r="A5" s="46"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="80" t="str">
         <f>CONCATENATE(B7," при повышении T (",F4," = ",H4,G4," )")</f>
         <v>D(T) при повышении T (λ = см )</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="59" t="str">
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="81" t="str">
         <f>CONCATENATE(B7," при понижении T (",F4," = ",H4,G4," )")</f>
         <v>D(T) при понижении T (λ = см )</v>
       </c>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58"/>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="58"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="80"/>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="54"/>
-      <c r="B6" s="62" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="52" t="s">
         <v>33</v>
       </c>
       <c r="C6" s="13">
@@ -6187,11 +6261,11 @@
         <f>Лаб.Журнал!I6+273.15</f>
         <v>273.14999999999998</v>
       </c>
-      <c r="J6" s="55">
+      <c r="J6" s="47">
         <f>Лаб.Журнал!J6+273.15</f>
         <v>273.14999999999998</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K6" s="49">
         <f>Лаб.Журнал!K6+273.15</f>
         <v>273.14999999999998</v>
       </c>
@@ -6219,77 +6293,77 @@
         <f>Лаб.Журнал!Q6+273.15</f>
         <v>273.14999999999998</v>
       </c>
-      <c r="R6" s="55">
+      <c r="R6" s="47">
         <f>Лаб.Журнал!R6+273.15</f>
         <v>273.14999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="54"/>
-      <c r="B7" s="62" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="48" t="e">
+      <c r="C7" s="43" t="e">
         <f>AVERAGE(Лаб.Журнал!C7:C9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D7" s="48" t="e">
+      <c r="D7" s="43" t="e">
         <f>AVERAGE(Лаб.Журнал!D7:D9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E7" s="48" t="e">
+      <c r="E7" s="43" t="e">
         <f>AVERAGE(Лаб.Журнал!E7:E9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F7" s="48" t="e">
+      <c r="F7" s="43" t="e">
         <f>AVERAGE(Лаб.Журнал!F7:F9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G7" s="48" t="e">
+      <c r="G7" s="43" t="e">
         <f>AVERAGE(Лаб.Журнал!G7:G9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="48" t="e">
+      <c r="H7" s="43" t="e">
         <f>AVERAGE(Лаб.Журнал!H7:H9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="48" t="e">
+      <c r="I7" s="43" t="e">
         <f>AVERAGE(Лаб.Журнал!I7:I9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="49" t="e">
+      <c r="J7" s="44" t="e">
         <f>AVERAGE(Лаб.Журнал!J7:J9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="47" t="e">
+      <c r="K7" s="42" t="e">
         <f>AVERAGE(Лаб.Журнал!K7:K9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="48" t="e">
+      <c r="L7" s="43" t="e">
         <f>AVERAGE(Лаб.Журнал!L7:L9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M7" s="48" t="e">
+      <c r="M7" s="43" t="e">
         <f>AVERAGE(Лаб.Журнал!M7:M9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N7" s="48" t="e">
+      <c r="N7" s="43" t="e">
         <f>AVERAGE(Лаб.Журнал!N7:N9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="48" t="e">
+      <c r="O7" s="43" t="e">
         <f>AVERAGE(Лаб.Журнал!O7:O9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P7" s="48" t="e">
+      <c r="P7" s="43" t="e">
         <f>AVERAGE(Лаб.Журнал!P7:P9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q7" s="48" t="e">
+      <c r="Q7" s="43" t="e">
         <f>AVERAGE(Лаб.Журнал!Q7:Q9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R7" s="49" t="e">
+      <c r="R7" s="44" t="e">
         <f>AVERAGE(Лаб.Журнал!R7:R9)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6298,52 +6372,52 @@
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="37" t="s">
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="33" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="C10" s="58" t="str">
+      <c r="C10" s="80" t="str">
         <f>CONCATENATE(B12," при повышении T (",F9," = ",H9,G9," )")</f>
         <v>D(T) при повышении T (λ = см )</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="59" t="str">
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="81" t="str">
         <f>CONCATENATE(B12," при понижении T (",F9," = ",H9,G9," )")</f>
         <v>D(T) при понижении T (λ = см )</v>
       </c>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="80"/>
+      <c r="R10" s="80"/>
     </row>
     <row r="11" spans="1:22">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="49">
         <f>Лаб.Журнал!C13+273.15</f>
         <v>273.14999999999998</v>
       </c>
@@ -6371,11 +6445,11 @@
         <f>Лаб.Журнал!I13+273.15</f>
         <v>273.14999999999998</v>
       </c>
-      <c r="J11" s="55">
+      <c r="J11" s="47">
         <f>Лаб.Журнал!J13+273.15</f>
         <v>273.14999999999998</v>
       </c>
-      <c r="K11" s="57">
+      <c r="K11" s="49">
         <f>Лаб.Журнал!K13+273.15</f>
         <v>273.14999999999998</v>
       </c>
@@ -6403,76 +6477,76 @@
         <f>Лаб.Журнал!Q13+273.15</f>
         <v>273.14999999999998</v>
       </c>
-      <c r="R11" s="55">
+      <c r="R11" s="47">
         <f>Лаб.Журнал!R13+273.15</f>
         <v>273.14999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="47" t="e">
+      <c r="C12" s="42" t="e">
         <f>AVERAGE(Лаб.Журнал!C14:C16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D12" s="48" t="e">
+      <c r="D12" s="43" t="e">
         <f>AVERAGE(Лаб.Журнал!D14:D16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E12" s="48" t="e">
+      <c r="E12" s="43" t="e">
         <f>AVERAGE(Лаб.Журнал!E14:E16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="48" t="e">
+      <c r="F12" s="43" t="e">
         <f>AVERAGE(Лаб.Журнал!F14:F16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="48" t="e">
+      <c r="G12" s="43" t="e">
         <f>AVERAGE(Лаб.Журнал!G14:G16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="48" t="e">
+      <c r="H12" s="43" t="e">
         <f>AVERAGE(Лаб.Журнал!H14:H16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="48" t="e">
+      <c r="I12" s="43" t="e">
         <f>AVERAGE(Лаб.Журнал!I14:I16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="49" t="e">
+      <c r="J12" s="44" t="e">
         <f>AVERAGE(Лаб.Журнал!J14:J16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="47" t="e">
+      <c r="K12" s="42" t="e">
         <f>AVERAGE(Лаб.Журнал!K14:K16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="48" t="e">
+      <c r="L12" s="43" t="e">
         <f>AVERAGE(Лаб.Журнал!L14:L16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="48" t="e">
+      <c r="M12" s="43" t="e">
         <f>AVERAGE(Лаб.Журнал!M14:M16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N12" s="48" t="e">
+      <c r="N12" s="43" t="e">
         <f>AVERAGE(Лаб.Журнал!N14:N16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O12" s="48" t="e">
+      <c r="O12" s="43" t="e">
         <f>AVERAGE(Лаб.Журнал!O14:O16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P12" s="48" t="e">
+      <c r="P12" s="43" t="e">
         <f>AVERAGE(Лаб.Журнал!P14:P16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q12" s="48" t="e">
+      <c r="Q12" s="43" t="e">
         <f>AVERAGE(Лаб.Журнал!Q14:Q16)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R12" s="49" t="e">
+      <c r="R12" s="44" t="e">
         <f>AVERAGE(Лаб.Журнал!R14:R16)</f>
         <v>#DIV/0!</v>
       </c>
@@ -6487,29 +6561,29 @@
       <c r="A39" s="16">
         <v>2</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="76" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="52"/>
-      <c r="H39" s="52"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="77"/>
     </row>
     <row r="41" spans="1:18">
-      <c r="B41" s="42" t="str">
+      <c r="B41" s="76" t="str">
         <f>CONCATENATE("Зависимость концентрации NO2 от Т (",H41," = ",J41," ",I41,")")</f>
         <v>Зависимость концентрации NO2 от Т (λ = 0 см)</v>
       </c>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="52"/>
-      <c r="H41" s="22" t="str">
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="18" t="str">
         <f t="shared" ref="H41:J41" si="0">F4</f>
         <v>λ</v>
       </c>
@@ -6517,162 +6591,162 @@
         <f t="shared" si="0"/>
         <v>см</v>
       </c>
-      <c r="J41" s="53">
+      <c r="J41" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="54"/>
-      <c r="B43" s="62" t="s">
+      <c r="A43" s="46"/>
+      <c r="B43" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="45">
+      <c r="C43" s="40">
         <f>C6</f>
         <v>273.14999999999998</v>
       </c>
-      <c r="D43" s="45">
+      <c r="D43" s="40">
         <f t="shared" ref="D43:R43" si="1">D6</f>
         <v>273.14999999999998</v>
       </c>
-      <c r="E43" s="45">
+      <c r="E43" s="40">
         <f t="shared" si="1"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="F43" s="45">
+      <c r="F43" s="40">
         <f t="shared" si="1"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="G43" s="45">
+      <c r="G43" s="40">
         <f t="shared" si="1"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="H43" s="45">
+      <c r="H43" s="40">
         <f t="shared" si="1"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="I43" s="45">
+      <c r="I43" s="40">
         <f t="shared" si="1"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="J43" s="46">
+      <c r="J43" s="41">
         <f t="shared" si="1"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="K43" s="44">
+      <c r="K43" s="39">
         <f t="shared" si="1"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="L43" s="45">
+      <c r="L43" s="40">
         <f t="shared" si="1"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="M43" s="45">
+      <c r="M43" s="40">
         <f t="shared" si="1"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="N43" s="45">
+      <c r="N43" s="40">
         <f t="shared" si="1"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="O43" s="45">
+      <c r="O43" s="40">
         <f t="shared" si="1"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="P43" s="45">
+      <c r="P43" s="40">
         <f t="shared" si="1"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="Q43" s="45">
+      <c r="Q43" s="40">
         <f t="shared" si="1"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="R43" s="46">
+      <c r="R43" s="41">
         <f t="shared" si="1"/>
         <v>273.14999999999998</v>
       </c>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="54"/>
-      <c r="B44" s="62" t="s">
+      <c r="A44" s="46"/>
+      <c r="B44" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C44" s="48" t="e">
+      <c r="C44" s="43" t="e">
         <f>C7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D44" s="48" t="e">
+      <c r="D44" s="43" t="e">
         <f>D7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E44" s="48" t="e">
+      <c r="E44" s="43" t="e">
         <f>E7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F44" s="48" t="e">
+      <c r="F44" s="43" t="e">
         <f>F7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G44" s="48" t="e">
+      <c r="G44" s="43" t="e">
         <f>G7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="48" t="e">
+      <c r="H44" s="43" t="e">
         <f>H7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I44" s="48" t="e">
+      <c r="I44" s="43" t="e">
         <f>I7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J44" s="49" t="e">
+      <c r="J44" s="44" t="e">
         <f>J7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K44" s="47" t="e">
+      <c r="K44" s="42" t="e">
         <f>K7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L44" s="48" t="e">
+      <c r="L44" s="43" t="e">
         <f>L7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M44" s="48" t="e">
+      <c r="M44" s="43" t="e">
         <f>M7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N44" s="48" t="e">
+      <c r="N44" s="43" t="e">
         <f>N7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O44" s="48" t="e">
+      <c r="O44" s="43" t="e">
         <f>O7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P44" s="48" t="e">
+      <c r="P44" s="43" t="e">
         <f>P7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q44" s="48" t="e">
+      <c r="Q44" s="43" t="e">
         <f>Q7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R44" s="49" t="e">
+      <c r="R44" s="44" t="e">
         <f>R7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="46" spans="1:18">
-      <c r="B46" s="42" t="str">
+      <c r="B46" s="76" t="str">
         <f>CONCATENATE("Зависимость концентрации NO2 от Т (",H46," = ",J46," ",I46,")")</f>
         <v>Зависимость концентрации NO2 от Т (λ = 0 см)</v>
       </c>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="22" t="str">
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="18" t="str">
         <f t="shared" ref="H46" si="2">F9</f>
         <v>λ</v>
       </c>
@@ -6680,165 +6754,165 @@
         <f>G9</f>
         <v>см</v>
       </c>
-      <c r="J46" s="53">
+      <c r="J46" s="45">
         <f t="shared" ref="J46" si="3">H9</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:18">
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="50"/>
-      <c r="M47" s="50"/>
-      <c r="N47" s="50"/>
-      <c r="O47" s="50"/>
-      <c r="P47" s="50"/>
-      <c r="Q47" s="50"/>
-      <c r="R47" s="50"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="79"/>
+      <c r="I47" s="79"/>
+      <c r="J47" s="79"/>
+      <c r="K47" s="79"/>
+      <c r="L47" s="79"/>
+      <c r="M47" s="79"/>
+      <c r="N47" s="79"/>
+      <c r="O47" s="79"/>
+      <c r="P47" s="79"/>
+      <c r="Q47" s="79"/>
+      <c r="R47" s="79"/>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="54"/>
-      <c r="B48" s="62" t="s">
+      <c r="A48" s="46"/>
+      <c r="B48" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C48" s="45">
+      <c r="C48" s="40">
         <f>C11</f>
         <v>273.14999999999998</v>
       </c>
-      <c r="D48" s="45">
+      <c r="D48" s="40">
         <f t="shared" ref="D48:R48" si="4">D11</f>
         <v>273.14999999999998</v>
       </c>
-      <c r="E48" s="45">
+      <c r="E48" s="40">
         <f t="shared" si="4"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="F48" s="45">
+      <c r="F48" s="40">
         <f t="shared" si="4"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="G48" s="45">
+      <c r="G48" s="40">
         <f t="shared" si="4"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="H48" s="45">
+      <c r="H48" s="40">
         <f t="shared" si="4"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="I48" s="45">
+      <c r="I48" s="40">
         <f t="shared" si="4"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="J48" s="46">
+      <c r="J48" s="41">
         <f t="shared" si="4"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="K48" s="44">
+      <c r="K48" s="39">
         <f t="shared" si="4"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="L48" s="45">
+      <c r="L48" s="40">
         <f t="shared" si="4"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="M48" s="45">
+      <c r="M48" s="40">
         <f t="shared" si="4"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="N48" s="45">
+      <c r="N48" s="40">
         <f t="shared" si="4"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="O48" s="45">
+      <c r="O48" s="40">
         <f t="shared" si="4"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="P48" s="45">
+      <c r="P48" s="40">
         <f t="shared" si="4"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="Q48" s="45">
+      <c r="Q48" s="40">
         <f t="shared" si="4"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="R48" s="46">
+      <c r="R48" s="41">
         <f t="shared" si="4"/>
         <v>273.14999999999998</v>
       </c>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="54"/>
-      <c r="B49" s="62" t="s">
+      <c r="A49" s="46"/>
+      <c r="B49" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C49" s="48" t="e">
+      <c r="C49" s="43" t="e">
         <f>C12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D49" s="48" t="e">
+      <c r="D49" s="43" t="e">
         <f>D12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="48" t="e">
+      <c r="E49" s="43" t="e">
         <f>E12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F49" s="48" t="e">
+      <c r="F49" s="43" t="e">
         <f>F12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G49" s="48" t="e">
+      <c r="G49" s="43" t="e">
         <f>G12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="48" t="e">
+      <c r="H49" s="43" t="e">
         <f>H12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I49" s="48" t="e">
+      <c r="I49" s="43" t="e">
         <f>I12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J49" s="49" t="e">
+      <c r="J49" s="44" t="e">
         <f>J12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K49" s="47" t="e">
+      <c r="K49" s="42" t="e">
         <f>K12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L49" s="48" t="e">
+      <c r="L49" s="43" t="e">
         <f>L12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M49" s="48" t="e">
+      <c r="M49" s="43" t="e">
         <f>M12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N49" s="48" t="e">
+      <c r="N49" s="43" t="e">
         <f>N12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O49" s="48" t="e">
+      <c r="O49" s="43" t="e">
         <f>O12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P49" s="48" t="e">
+      <c r="P49" s="43" t="e">
         <f>P12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q49" s="48" t="e">
+      <c r="Q49" s="43" t="e">
         <f>Q12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R49" s="49" t="e">
+      <c r="R49" s="44" t="e">
         <f>R12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
         <v>#DIV/0!</v>
       </c>
@@ -6847,155 +6921,155 @@
       <c r="A76" s="16">
         <v>3</v>
       </c>
-      <c r="B76" s="42" t="s">
+      <c r="B76" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="C76" s="52"/>
-      <c r="D76" s="52"/>
-      <c r="E76" s="52"/>
-      <c r="F76" s="52"/>
-      <c r="G76" s="52"/>
-      <c r="H76" s="52"/>
+      <c r="C76" s="77"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="77"/>
+      <c r="H76" s="77"/>
     </row>
     <row r="78" spans="1:34">
-      <c r="B78" s="22" t="str">
+      <c r="B78" s="18" t="str">
         <f t="shared" ref="B78:R78" si="5">B43</f>
         <v>T, K</v>
       </c>
-      <c r="C78" s="44">
+      <c r="C78" s="39">
         <f t="shared" si="5"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="D78" s="45">
+      <c r="D78" s="40">
         <f t="shared" si="5"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="E78" s="45">
+      <c r="E78" s="40">
         <f t="shared" si="5"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="F78" s="45">
+      <c r="F78" s="40">
         <f t="shared" si="5"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="G78" s="45">
+      <c r="G78" s="40">
         <f t="shared" si="5"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="H78" s="45">
+      <c r="H78" s="40">
         <f t="shared" si="5"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="I78" s="45">
+      <c r="I78" s="40">
         <f t="shared" si="5"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="J78" s="46">
+      <c r="J78" s="41">
         <f t="shared" si="5"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="K78" s="44">
+      <c r="K78" s="39">
         <f t="shared" si="5"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="L78" s="45">
+      <c r="L78" s="40">
         <f t="shared" si="5"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="M78" s="45">
+      <c r="M78" s="40">
         <f t="shared" si="5"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="N78" s="45">
+      <c r="N78" s="40">
         <f t="shared" si="5"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="O78" s="45">
+      <c r="O78" s="40">
         <f t="shared" si="5"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="P78" s="45">
+      <c r="P78" s="40">
         <f t="shared" si="5"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="Q78" s="45">
+      <c r="Q78" s="40">
         <f t="shared" si="5"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="R78" s="46">
+      <c r="R78" s="41">
         <f t="shared" si="5"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="S78" s="44">
+      <c r="S78" s="39">
         <f t="shared" ref="S78:AH78" si="6">C48</f>
         <v>273.14999999999998</v>
       </c>
-      <c r="T78" s="45">
+      <c r="T78" s="40">
         <f t="shared" si="6"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="U78" s="45">
+      <c r="U78" s="40">
         <f t="shared" si="6"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="V78" s="45">
+      <c r="V78" s="40">
         <f t="shared" si="6"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="W78" s="45">
+      <c r="W78" s="40">
         <f t="shared" si="6"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="X78" s="45">
+      <c r="X78" s="40">
         <f t="shared" si="6"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="Y78" s="45">
+      <c r="Y78" s="40">
         <f t="shared" si="6"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="Z78" s="46">
+      <c r="Z78" s="41">
         <f t="shared" si="6"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="AA78" s="44">
+      <c r="AA78" s="39">
         <f t="shared" si="6"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="AB78" s="45">
+      <c r="AB78" s="40">
         <f t="shared" si="6"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="AC78" s="45">
+      <c r="AC78" s="40">
         <f t="shared" si="6"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="AD78" s="45">
+      <c r="AD78" s="40">
         <f t="shared" si="6"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="AE78" s="45">
+      <c r="AE78" s="40">
         <f t="shared" si="6"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="AF78" s="45">
+      <c r="AF78" s="40">
         <f t="shared" si="6"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="AG78" s="45">
+      <c r="AG78" s="40">
         <f t="shared" si="6"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="AH78" s="46">
+      <c r="AH78" s="41">
         <f t="shared" si="6"/>
         <v>273.14999999999998</v>
       </c>
     </row>
     <row r="79" spans="1:34">
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C79" s="73">
+      <c r="C79" s="62">
         <f>C78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
         <v>0</v>
       </c>
@@ -7119,16 +7193,16 @@
         <f>AG78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
         <v>0</v>
       </c>
-      <c r="AH79" s="74">
+      <c r="AH79" s="63">
         <f>AH78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:34">
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C80" s="57" t="e">
+      <c r="C80" s="49" t="e">
         <f>C78*Лаб.Журнал!$E$22*Отчет!C44/100</f>
         <v>#DIV/0!</v>
       </c>
@@ -7252,140 +7326,140 @@
         <f>AG78*Лаб.Журнал!$E$22*Отчет!Q49/100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH80" s="55" t="e">
+      <c r="AH80" s="47" t="e">
         <f>AH78*Лаб.Журнал!$E$22*Отчет!R49/100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="81" spans="2:34">
-      <c r="B81" s="43" t="s">
+      <c r="B81" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="C81" s="47" t="e">
+      <c r="C81" s="42" t="e">
         <f>C80/C79</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D81" s="48" t="e">
+      <c r="D81" s="43" t="e">
         <f t="shared" ref="D81:AH81" si="7">D80/D79</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E81" s="48" t="e">
+      <c r="E81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F81" s="48" t="e">
+      <c r="F81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G81" s="48" t="e">
+      <c r="G81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H81" s="48" t="e">
+      <c r="H81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I81" s="48" t="e">
+      <c r="I81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J81" s="48" t="e">
+      <c r="J81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K81" s="48" t="e">
+      <c r="K81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L81" s="48" t="e">
+      <c r="L81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M81" s="48" t="e">
+      <c r="M81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N81" s="48" t="e">
+      <c r="N81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O81" s="48" t="e">
+      <c r="O81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P81" s="48" t="e">
+      <c r="P81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q81" s="48" t="e">
+      <c r="Q81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R81" s="48" t="e">
+      <c r="R81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S81" s="48" t="e">
+      <c r="S81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T81" s="48" t="e">
+      <c r="T81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U81" s="48" t="e">
+      <c r="U81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V81" s="48" t="e">
+      <c r="V81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W81" s="48" t="e">
+      <c r="W81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X81" s="48" t="e">
+      <c r="X81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y81" s="48" t="e">
+      <c r="Y81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z81" s="48" t="e">
+      <c r="Z81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA81" s="48" t="e">
+      <c r="AA81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB81" s="48" t="e">
+      <c r="AB81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC81" s="48" t="e">
+      <c r="AC81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD81" s="48" t="e">
+      <c r="AD81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE81" s="48" t="e">
+      <c r="AE81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF81" s="48" t="e">
+      <c r="AF81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG81" s="48" t="e">
+      <c r="AG81" s="43" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH81" s="49" t="e">
+      <c r="AH81" s="44" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
@@ -7394,280 +7468,280 @@
       <c r="A107" s="16">
         <v>4</v>
       </c>
-      <c r="B107" s="42" t="s">
+      <c r="B107" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="C107" s="52"/>
-      <c r="D107" s="52"/>
-      <c r="E107" s="52"/>
-      <c r="F107" s="52"/>
-      <c r="G107" s="52"/>
-      <c r="H107" s="52"/>
-      <c r="I107" s="52"/>
+      <c r="C107" s="77"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="77"/>
+      <c r="G107" s="77"/>
+      <c r="H107" s="77"/>
+      <c r="I107" s="77"/>
     </row>
     <row r="109" spans="1:34">
-      <c r="B109" s="22" t="str">
+      <c r="B109" s="18" t="str">
         <f t="shared" ref="B109:AH109" si="8">B78</f>
         <v>T, K</v>
       </c>
-      <c r="C109" s="44">
+      <c r="C109" s="39">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="D109" s="45">
+      <c r="D109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="E109" s="45">
+      <c r="E109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="F109" s="45">
+      <c r="F109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="G109" s="45">
+      <c r="G109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="H109" s="45">
+      <c r="H109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="I109" s="45">
+      <c r="I109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="J109" s="45">
+      <c r="J109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="K109" s="45">
+      <c r="K109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="L109" s="45">
+      <c r="L109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="M109" s="45">
+      <c r="M109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="N109" s="45">
+      <c r="N109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="O109" s="45">
+      <c r="O109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="P109" s="45">
+      <c r="P109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="Q109" s="45">
+      <c r="Q109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="R109" s="45">
+      <c r="R109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="S109" s="45">
+      <c r="S109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="T109" s="45">
+      <c r="T109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="U109" s="45">
+      <c r="U109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="V109" s="45">
+      <c r="V109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="W109" s="45">
+      <c r="W109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="X109" s="45">
+      <c r="X109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="Y109" s="45">
+      <c r="Y109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="Z109" s="45">
+      <c r="Z109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="AA109" s="45">
+      <c r="AA109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="AB109" s="45">
+      <c r="AB109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="AC109" s="45">
+      <c r="AC109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="AD109" s="45">
+      <c r="AD109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="AE109" s="45">
+      <c r="AE109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="AF109" s="45">
+      <c r="AF109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="AG109" s="45">
+      <c r="AG109" s="40">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="AH109" s="46">
+      <c r="AH109" s="41">
         <f t="shared" si="8"/>
         <v>273.14999999999998</v>
       </c>
     </row>
     <row r="110" spans="1:34">
-      <c r="B110" s="22" t="s">
+      <c r="B110" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C110" s="47" t="e">
+      <c r="C110" s="42" t="e">
         <f>2*C81*C81*C79/(1-C81)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D110" s="48" t="e">
+      <c r="D110" s="43" t="e">
         <f t="shared" ref="D110:AH110" si="9">2*D81*D81*D79/(1-D81)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E110" s="48" t="e">
+      <c r="E110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F110" s="48" t="e">
+      <c r="F110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G110" s="48" t="e">
+      <c r="G110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H110" s="48" t="e">
+      <c r="H110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I110" s="48" t="e">
+      <c r="I110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J110" s="48" t="e">
+      <c r="J110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K110" s="48" t="e">
+      <c r="K110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L110" s="48" t="e">
+      <c r="L110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M110" s="48" t="e">
+      <c r="M110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N110" s="48" t="e">
+      <c r="N110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O110" s="48" t="e">
+      <c r="O110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P110" s="48" t="e">
+      <c r="P110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q110" s="48" t="e">
+      <c r="Q110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R110" s="48" t="e">
+      <c r="R110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S110" s="48" t="e">
+      <c r="S110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T110" s="48" t="e">
+      <c r="T110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U110" s="48" t="e">
+      <c r="U110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V110" s="48" t="e">
+      <c r="V110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W110" s="48" t="e">
+      <c r="W110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X110" s="48" t="e">
+      <c r="X110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y110" s="48" t="e">
+      <c r="Y110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z110" s="48" t="e">
+      <c r="Z110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA110" s="48" t="e">
+      <c r="AA110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB110" s="48" t="e">
+      <c r="AB110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC110" s="48" t="e">
+      <c r="AC110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD110" s="48" t="e">
+      <c r="AD110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE110" s="48" t="e">
+      <c r="AE110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF110" s="48" t="e">
+      <c r="AF110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG110" s="48" t="e">
+      <c r="AG110" s="43" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH110" s="49" t="e">
+      <c r="AH110" s="44" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -7676,296 +7750,296 @@
       <c r="A138" s="16">
         <v>5</v>
       </c>
-      <c r="B138" s="42" t="s">
+      <c r="B138" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="C138" s="52"/>
-      <c r="D138" s="52"/>
-      <c r="E138" s="52"/>
-      <c r="F138" s="52"/>
-      <c r="G138" s="52"/>
-      <c r="H138" s="52"/>
-      <c r="I138" s="52"/>
+      <c r="C138" s="77"/>
+      <c r="D138" s="77"/>
+      <c r="E138" s="77"/>
+      <c r="F138" s="77"/>
+      <c r="G138" s="77"/>
+      <c r="H138" s="77"/>
+      <c r="I138" s="77"/>
     </row>
     <row r="140" spans="1:34">
-      <c r="B140" s="22" t="s">
+      <c r="B140" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C140" s="44">
+      <c r="C140" s="39">
         <f>1/C109</f>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="D140" s="45">
+      <c r="D140" s="40">
         <f t="shared" ref="D140:AB140" si="10">1/D109</f>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="E140" s="45">
+      <c r="E140" s="40">
         <f t="shared" si="10"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="F140" s="45">
+      <c r="F140" s="40">
         <f t="shared" si="10"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="G140" s="45">
+      <c r="G140" s="40">
         <f t="shared" si="10"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="H140" s="45">
+      <c r="H140" s="40">
         <f t="shared" si="10"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="I140" s="45">
+      <c r="I140" s="40">
         <f t="shared" si="10"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="J140" s="45">
+      <c r="J140" s="40">
         <f t="shared" si="10"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="K140" s="45">
+      <c r="K140" s="40">
         <f t="shared" si="10"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="L140" s="45">
+      <c r="L140" s="40">
         <f t="shared" si="10"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="M140" s="45">
+      <c r="M140" s="40">
         <f t="shared" si="10"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="N140" s="45">
+      <c r="N140" s="40">
         <f t="shared" si="10"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="O140" s="45">
+      <c r="O140" s="40">
         <f t="shared" si="10"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="P140" s="45">
+      <c r="P140" s="40">
         <f t="shared" si="10"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="Q140" s="45">
+      <c r="Q140" s="40">
         <f t="shared" si="10"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="R140" s="45">
+      <c r="R140" s="40">
         <f t="shared" si="10"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="S140" s="45">
+      <c r="S140" s="40">
         <f t="shared" si="10"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="T140" s="45">
+      <c r="T140" s="40">
         <f t="shared" si="10"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="U140" s="45">
+      <c r="U140" s="40">
         <f t="shared" si="10"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="V140" s="45">
+      <c r="V140" s="40">
         <f t="shared" si="10"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="W140" s="45">
+      <c r="W140" s="40">
         <f t="shared" si="10"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="X140" s="45">
+      <c r="X140" s="40">
         <f t="shared" si="10"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="Y140" s="45">
+      <c r="Y140" s="40">
         <f t="shared" si="10"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="Z140" s="45">
+      <c r="Z140" s="40">
         <f t="shared" si="10"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="AA140" s="45">
+      <c r="AA140" s="40">
         <f t="shared" si="10"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="AB140" s="45">
+      <c r="AB140" s="40">
         <f t="shared" si="10"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="AC140" s="45">
-        <f t="shared" ref="AC140:AI140" si="11">1/AC109</f>
+      <c r="AC140" s="40">
+        <f t="shared" ref="AC140:AH140" si="11">1/AC109</f>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="AD140" s="45">
+      <c r="AD140" s="40">
         <f t="shared" si="11"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="AE140" s="45">
+      <c r="AE140" s="40">
         <f t="shared" si="11"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="AF140" s="45">
+      <c r="AF140" s="40">
         <f t="shared" si="11"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="AG140" s="45">
+      <c r="AG140" s="40">
         <f t="shared" si="11"/>
         <v>3.6609921288669233E-3</v>
       </c>
-      <c r="AH140" s="46">
+      <c r="AH140" s="41">
         <f t="shared" si="11"/>
         <v>3.6609921288669233E-3</v>
       </c>
     </row>
     <row r="141" spans="1:34">
-      <c r="B141" s="22" t="s">
+      <c r="B141" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C141" s="47" t="e">
+      <c r="C141" s="42" t="e">
         <f>LN(C110)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D141" s="48" t="e">
+      <c r="D141" s="43" t="e">
         <f t="shared" ref="D141:AB141" si="12">LN(D110)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E141" s="48" t="e">
+      <c r="E141" s="43" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F141" s="48" t="e">
+      <c r="F141" s="43" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G141" s="48" t="e">
+      <c r="G141" s="43" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H141" s="48" t="e">
+      <c r="H141" s="43" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I141" s="48" t="e">
+      <c r="I141" s="43" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J141" s="48" t="e">
+      <c r="J141" s="43" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K141" s="48" t="e">
+      <c r="K141" s="43" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L141" s="48" t="e">
+      <c r="L141" s="43" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M141" s="48" t="e">
+      <c r="M141" s="43" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N141" s="48" t="e">
+      <c r="N141" s="43" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O141" s="48" t="e">
+      <c r="O141" s="43" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P141" s="48" t="e">
+      <c r="P141" s="43" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q141" s="48" t="e">
+      <c r="Q141" s="43" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R141" s="48" t="e">
+      <c r="R141" s="43" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S141" s="48" t="e">
+      <c r="S141" s="43" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T141" s="48" t="e">
+      <c r="T141" s="43" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U141" s="48" t="e">
+      <c r="U141" s="43" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V141" s="48" t="e">
+      <c r="V141" s="43" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W141" s="48" t="e">
+      <c r="W141" s="43" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X141" s="48" t="e">
+      <c r="X141" s="43" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y141" s="48" t="e">
+      <c r="Y141" s="43" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z141" s="48" t="e">
+      <c r="Z141" s="43" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA141" s="48" t="e">
+      <c r="AA141" s="43" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB141" s="48" t="e">
+      <c r="AB141" s="43" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC141" s="48" t="e">
-        <f t="shared" ref="AC141:AI141" si="13">LN(AC110)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD141" s="48" t="e">
+      <c r="AC141" s="43" t="e">
+        <f t="shared" ref="AC141:AH141" si="13">LN(AC110)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD141" s="43" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE141" s="48" t="e">
+      <c r="AE141" s="43" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF141" s="48" t="e">
+      <c r="AF141" s="43" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG141" s="48" t="e">
+      <c r="AG141" s="43" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH141" s="49" t="e">
+      <c r="AH141" s="44" t="e">
         <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="143" spans="1:34">
-      <c r="B143" s="51" t="s">
+      <c r="B143" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="C143" s="50"/>
-      <c r="D143" s="50"/>
-      <c r="E143" s="50"/>
+      <c r="C143" s="79"/>
+      <c r="D143" s="79"/>
+      <c r="E143" s="79"/>
     </row>
     <row r="145" spans="1:34">
       <c r="A145" s="16">
         <v>6</v>
       </c>
-      <c r="B145" s="43" t="s">
+      <c r="B145" s="38" t="s">
         <v>52</v>
       </c>
       <c r="C145" s="13" t="e">
@@ -7974,7 +8048,7 @@
       </c>
     </row>
     <row r="146" spans="1:34">
-      <c r="B146" s="43" t="s">
+      <c r="B146" s="38" t="s">
         <v>53</v>
       </c>
       <c r="C146" s="13" t="e">
@@ -7986,279 +8060,279 @@
       <c r="A148" s="16">
         <v>7</v>
       </c>
-      <c r="B148" s="42" t="s">
+      <c r="B148" s="76" t="s">
         <v>107</v>
       </c>
-      <c r="C148" s="52"/>
-      <c r="D148" s="52"/>
-      <c r="E148" s="52"/>
-      <c r="F148" s="52"/>
-      <c r="G148" s="52"/>
-      <c r="H148" s="52"/>
+      <c r="C148" s="77"/>
+      <c r="D148" s="77"/>
+      <c r="E148" s="77"/>
+      <c r="F148" s="77"/>
+      <c r="G148" s="77"/>
+      <c r="H148" s="77"/>
     </row>
     <row r="150" spans="1:34">
-      <c r="B150" s="22" t="str">
+      <c r="B150" s="18" t="str">
         <f>$B$109</f>
         <v>T, K</v>
       </c>
-      <c r="C150" s="44">
+      <c r="C150" s="39">
         <f t="shared" ref="C150:AH150" si="14">C78</f>
         <v>273.14999999999998</v>
       </c>
-      <c r="D150" s="45">
+      <c r="D150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="E150" s="45">
+      <c r="E150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="F150" s="45">
+      <c r="F150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="G150" s="45">
+      <c r="G150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="H150" s="45">
+      <c r="H150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="I150" s="45">
+      <c r="I150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="J150" s="45">
+      <c r="J150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="K150" s="45">
+      <c r="K150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="L150" s="45">
+      <c r="L150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="M150" s="45">
+      <c r="M150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="N150" s="45">
+      <c r="N150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="O150" s="45">
+      <c r="O150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="P150" s="45">
+      <c r="P150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="Q150" s="45">
+      <c r="Q150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="R150" s="45">
+      <c r="R150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="S150" s="45">
+      <c r="S150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="T150" s="45">
+      <c r="T150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="U150" s="45">
+      <c r="U150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="V150" s="45">
+      <c r="V150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="W150" s="45">
+      <c r="W150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="X150" s="45">
+      <c r="X150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="Y150" s="45">
+      <c r="Y150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="Z150" s="45">
+      <c r="Z150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="AA150" s="45">
+      <c r="AA150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="AB150" s="45">
+      <c r="AB150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="AC150" s="45">
+      <c r="AC150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="AD150" s="45">
+      <c r="AD150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="AE150" s="45">
+      <c r="AE150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="AF150" s="45">
+      <c r="AF150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="AG150" s="45">
+      <c r="AG150" s="40">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
-      <c r="AH150" s="46">
+      <c r="AH150" s="41">
         <f t="shared" si="14"/>
         <v>273.14999999999998</v>
       </c>
     </row>
     <row r="151" spans="1:34">
-      <c r="B151" s="22" t="s">
+      <c r="B151" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C151" s="47" t="e">
+      <c r="C151" s="42" t="e">
         <f>C110/C150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D151" s="48" t="e">
+      <c r="D151" s="43" t="e">
         <f>D110/D150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E151" s="48" t="e">
+      <c r="E151" s="43" t="e">
         <f>E110/E150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F151" s="48" t="e">
+      <c r="F151" s="43" t="e">
         <f>F110/F150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G151" s="48" t="e">
+      <c r="G151" s="43" t="e">
         <f>G110/G150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H151" s="48" t="e">
+      <c r="H151" s="43" t="e">
         <f>H110/H150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I151" s="48" t="e">
+      <c r="I151" s="43" t="e">
         <f>I110/I150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J151" s="48" t="e">
+      <c r="J151" s="43" t="e">
         <f>J110/J150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K151" s="48" t="e">
+      <c r="K151" s="43" t="e">
         <f>K110/K150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L151" s="48" t="e">
+      <c r="L151" s="43" t="e">
         <f>L110/L150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M151" s="48" t="e">
+      <c r="M151" s="43" t="e">
         <f>M110/M150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N151" s="48" t="e">
+      <c r="N151" s="43" t="e">
         <f>N110/N150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O151" s="48" t="e">
+      <c r="O151" s="43" t="e">
         <f>O110/O150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P151" s="48" t="e">
+      <c r="P151" s="43" t="e">
         <f>P110/P150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q151" s="48" t="e">
+      <c r="Q151" s="43" t="e">
         <f>Q110/Q150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R151" s="48" t="e">
+      <c r="R151" s="43" t="e">
         <f>R110/R150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S151" s="48" t="e">
+      <c r="S151" s="43" t="e">
         <f>S110/S150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T151" s="48" t="e">
+      <c r="T151" s="43" t="e">
         <f>T110/T150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U151" s="48" t="e">
+      <c r="U151" s="43" t="e">
         <f>U110/U150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V151" s="48" t="e">
+      <c r="V151" s="43" t="e">
         <f>V110/V150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W151" s="48" t="e">
+      <c r="W151" s="43" t="e">
         <f>W110/W150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X151" s="48" t="e">
+      <c r="X151" s="43" t="e">
         <f>X110/X150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y151" s="48" t="e">
+      <c r="Y151" s="43" t="e">
         <f>Y110/Y150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z151" s="48" t="e">
+      <c r="Z151" s="43" t="e">
         <f>Z110/Z150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA151" s="48" t="e">
+      <c r="AA151" s="43" t="e">
         <f>AA110/AA150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB151" s="48" t="e">
+      <c r="AB151" s="43" t="e">
         <f>AB110/AB150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC151" s="48" t="e">
+      <c r="AC151" s="43" t="e">
         <f>AC110/AC150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD151" s="48" t="e">
+      <c r="AD151" s="43" t="e">
         <f>AD110/AD150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE151" s="48" t="e">
+      <c r="AE151" s="43" t="e">
         <f>AE110/AE150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF151" s="48" t="e">
+      <c r="AF151" s="43" t="e">
         <f>AF110/AF150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG151" s="48" t="e">
+      <c r="AG151" s="43" t="e">
         <f>AG110/AG150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH151" s="49" t="e">
+      <c r="AH151" s="44" t="e">
         <f>AH110/AH150/Лаб.Журнал!$E$22</f>
         <v>#DIV/0!</v>
       </c>
@@ -8287,12 +8361,12 @@
       </c>
     </row>
     <row r="181" spans="2:8">
-      <c r="B181" s="22" t="s">
+      <c r="B181" s="18" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="182" spans="2:8">
-      <c r="B182" s="22" t="s">
+      <c r="B182" s="18" t="s">
         <v>103</v>
       </c>
       <c r="C182" s="13">
@@ -8315,7 +8389,7 @@
       </c>
     </row>
     <row r="183" spans="2:8">
-      <c r="B183" s="22" t="s">
+      <c r="B183" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C183" s="13">
@@ -8344,7 +8418,7 @@
       </c>
     </row>
     <row r="184" spans="2:8">
-      <c r="B184" s="22" t="s">
+      <c r="B184" s="18" t="s">
         <v>95</v>
       </c>
       <c r="C184" s="13">
@@ -8374,22 +8448,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B107:I107"/>
-    <mergeCell ref="B138:I138"/>
-    <mergeCell ref="B143:E143"/>
-    <mergeCell ref="B148:H148"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:R5"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="K10:R10"/>
     <mergeCell ref="B41:G41"/>
     <mergeCell ref="B46:G46"/>
     <mergeCell ref="C47:R47"/>
     <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B107:I107"/>
+    <mergeCell ref="B138:I138"/>
+    <mergeCell ref="B143:E143"/>
+    <mergeCell ref="B148:H148"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8401,8 +8475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG52"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -9262,7 +9336,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="1" t="e">
-        <f t="shared" ref="F10:F11" si="14">D10/B10*100</f>
+        <f t="shared" ref="F10" si="14">D10/B10*100</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10052,7 +10126,7 @@
   <dimension ref="A2:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="D21" sqref="D21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" customHeight="1"/>
@@ -10062,23 +10136,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="21.6" customHeight="1">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="23">
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="19">
         <v>29</v>
       </c>
     </row>
@@ -10086,391 +10160,391 @@
       <c r="A4" s="17">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="37" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="33" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="13.8" customHeight="1">
-      <c r="C5" s="56">
+      <c r="C5" s="48">
         <v>1</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="48">
         <v>2</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="48">
         <v>3</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="48">
         <v>4</v>
       </c>
-      <c r="G5" s="56">
+      <c r="G5" s="48">
         <v>5</v>
       </c>
-      <c r="H5" s="56">
+      <c r="H5" s="48">
         <v>6</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="48">
         <v>7</v>
       </c>
-      <c r="J5" s="56">
+      <c r="J5" s="48">
         <v>8</v>
       </c>
-      <c r="K5" s="56">
+      <c r="K5" s="48">
         <v>9</v>
       </c>
-      <c r="L5" s="56">
+      <c r="L5" s="48">
         <v>10</v>
       </c>
-      <c r="M5" s="56">
+      <c r="M5" s="48">
         <v>11</v>
       </c>
-      <c r="N5" s="56">
+      <c r="N5" s="48">
         <v>12</v>
       </c>
-      <c r="O5" s="56">
+      <c r="O5" s="48">
         <v>13</v>
       </c>
-      <c r="P5" s="56">
+      <c r="P5" s="48">
         <v>14</v>
       </c>
-      <c r="Q5" s="56">
+      <c r="Q5" s="48">
         <v>15</v>
       </c>
-      <c r="R5" s="56">
+      <c r="R5" s="48">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="13.8" customHeight="1">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="36"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="32"/>
     </row>
     <row r="7" spans="1:18" ht="13.8" customHeight="1">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="30"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="26"/>
     </row>
     <row r="8" spans="1:18" ht="13.8" customHeight="1">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="30"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="26"/>
     </row>
     <row r="9" spans="1:18" ht="13.8" customHeight="1">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="33"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="29"/>
     </row>
     <row r="11" spans="1:18" ht="13.8" customHeight="1">
-      <c r="A11" s="38">
+      <c r="A11" s="34">
         <v>2</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="37" t="s">
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="33" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:18" ht="13.8" customHeight="1">
-      <c r="C12" s="56">
+      <c r="C12" s="48">
         <v>1</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="48">
         <v>2</v>
       </c>
-      <c r="E12" s="56">
+      <c r="E12" s="48">
         <v>3</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="48">
         <v>4</v>
       </c>
-      <c r="G12" s="56">
+      <c r="G12" s="48">
         <v>5</v>
       </c>
-      <c r="H12" s="56">
+      <c r="H12" s="48">
         <v>6</v>
       </c>
-      <c r="I12" s="56">
+      <c r="I12" s="48">
         <v>7</v>
       </c>
-      <c r="J12" s="56">
+      <c r="J12" s="48">
         <v>8</v>
       </c>
-      <c r="K12" s="56">
+      <c r="K12" s="48">
         <v>9</v>
       </c>
-      <c r="L12" s="56">
+      <c r="L12" s="48">
         <v>10</v>
       </c>
-      <c r="M12" s="56">
+      <c r="M12" s="48">
         <v>11</v>
       </c>
-      <c r="N12" s="56">
+      <c r="N12" s="48">
         <v>12</v>
       </c>
-      <c r="O12" s="56">
+      <c r="O12" s="48">
         <v>13</v>
       </c>
-      <c r="P12" s="56">
+      <c r="P12" s="48">
         <v>14</v>
       </c>
-      <c r="Q12" s="56">
+      <c r="Q12" s="48">
         <v>15</v>
       </c>
-      <c r="R12" s="56">
+      <c r="R12" s="48">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="13.8" customHeight="1">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="36"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="32"/>
     </row>
     <row r="14" spans="1:18" ht="13.8" customHeight="1">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="30"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="26"/>
     </row>
     <row r="15" spans="1:18" ht="13.8" customHeight="1">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="30"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="26"/>
     </row>
     <row r="16" spans="1:18" ht="13.8" customHeight="1">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="33"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="29"/>
     </row>
     <row r="18" spans="1:7" ht="13.8" customHeight="1">
       <c r="A18" s="17">
         <v>3</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
     </row>
     <row r="20" spans="1:7" ht="13.8" customHeight="1">
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="37" t="s">
+      <c r="C20" s="35"/>
+      <c r="D20" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="24" t="s">
+      <c r="E20" s="35"/>
+      <c r="F20" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="35" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="13.8" customHeight="1">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="40"/>
-      <c r="D21" s="37" t="s">
+      <c r="C21" s="36"/>
+      <c r="D21" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="24" t="s">
+      <c r="E21" s="36"/>
+      <c r="F21" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="40"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="1:7" ht="13.8" customHeight="1">
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="24" t="s">
+      <c r="C22" s="36"/>
+      <c r="D22" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="40">
+      <c r="E22" s="36">
         <f>8.31446</f>
         <v>8.3144600000000004</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="86">
+      <c r="G22" s="75">
         <f>1</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="13.8" customHeight="1">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="37" t="s">
+      <c r="C23" s="36"/>
+      <c r="D23" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="40">
+      <c r="E23" s="36">
         <v>46.01</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="13.8" customHeight="1">
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="37" t="s">
+      <c r="C24" s="36"/>
+      <c r="D24" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="37">
         <f>92.01</f>
         <v>92.01</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="13.8" customHeight="1">
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="41"/>
+      <c r="C25" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10487,13 +10561,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:P168"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+    <sheetView topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="A171" sqref="A171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.6" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="64"/>
+    <col min="1" max="1" width="8.6640625" style="54"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
@@ -10501,291 +10575,291 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="12.6" customHeight="1">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="65" t="str">
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="86" t="str">
         <f>CONCATENATE("1 кал/(г*К) = ",L2," Дж/(кг*К)")</f>
         <v>1 кал/(г*К) = 4186,800000009 Дж/(кг*К)</v>
       </c>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
       <c r="L2">
         <v>4186.8000000089996</v>
       </c>
-      <c r="N2" s="68" t="s">
+      <c r="N2" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
     </row>
     <row r="4" spans="2:16" ht="12.6" customHeight="1">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="21">
         <v>0</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="22">
         <v>10</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="22">
         <v>20</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="22">
         <v>21.15</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="22">
         <v>25</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="22">
         <v>30</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="22">
         <v>40</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="22">
         <v>50</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="22">
         <v>60</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="23">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="12.6" customHeight="1">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="24">
         <v>0.35899999999999999</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="25">
         <v>0.36299999999999999</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="25">
         <v>0.36699999999999999</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="25">
         <v>0.36799999999999999</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="25">
         <v>0.37</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="25">
         <v>0.372</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="25">
         <v>0.376</v>
       </c>
-      <c r="J5" s="29">
+      <c r="J5" s="25">
         <v>0.38</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="25">
         <v>0.38400000000000001</v>
       </c>
-      <c r="L5" s="30">
+      <c r="L5" s="26">
         <v>0.38900000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="12.6" customHeight="1">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="24">
         <v>263</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="25">
         <v>442</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="25">
         <v>720</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="25">
         <v>760</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="25">
         <v>927</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="25">
         <v>1134</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="25">
         <v>1810</v>
       </c>
-      <c r="J6" s="29">
+      <c r="J6" s="25">
         <v>2688</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="25">
         <v>3981</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="26">
         <v>5584</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="12.6" customHeight="1">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="24">
         <v>0.33900000000000002</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="25">
         <v>0.32900000000000001</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="25">
         <v>0.318</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="25">
         <v>0.316</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="25">
         <v>0.312</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="25">
         <v>0.30599999999999999</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="25">
         <v>0.29299999999999998</v>
       </c>
-      <c r="J7" s="29">
+      <c r="J7" s="25">
         <v>0.27900000000000003</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="25">
         <v>0.26100000000000001</v>
       </c>
-      <c r="L7" s="30">
+      <c r="L7" s="26">
         <v>0.23599999999999999</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="12.6" customHeight="1">
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="27">
         <v>1.488</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="28">
         <v>1.4670000000000001</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="28">
         <v>1.4450000000000001</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="28">
         <v>1.4419999999999999</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="28">
         <v>1.4339999999999999</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="28">
         <v>1.4239999999999999</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="28">
         <v>1.4</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="28">
         <v>1.375</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="28">
         <v>1.3480000000000001</v>
       </c>
-      <c r="L8" s="33">
+      <c r="L8" s="29">
         <v>1.32</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="12.6" customHeight="1">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="21">
         <f>C4+273.15</f>
         <v>273.14999999999998</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="22">
         <f t="shared" ref="D10:L10" si="0">D4+273.15</f>
         <v>283.14999999999998</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="22">
         <f t="shared" si="0"/>
         <v>293.14999999999998</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="22">
         <f t="shared" si="0"/>
         <v>294.29999999999995</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="22">
         <f t="shared" si="0"/>
         <v>298.14999999999998</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="22">
         <f t="shared" si="0"/>
         <v>303.14999999999998</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="22">
         <f t="shared" si="0"/>
         <v>313.14999999999998</v>
       </c>
-      <c r="J10" s="26">
+      <c r="J10" s="22">
         <f t="shared" si="0"/>
         <v>323.14999999999998</v>
       </c>
-      <c r="K10" s="26">
+      <c r="K10" s="22">
         <f t="shared" si="0"/>
         <v>333.15</v>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="23">
         <f t="shared" si="0"/>
         <v>343.15</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="12.6" customHeight="1">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="58">
         <f>C5*Константы!$B$5*Лаб.Журнал!$E$24/1000</f>
         <v>138.29666101200002</v>
       </c>
-      <c r="D11" s="70">
+      <c r="D11" s="59">
         <f>D5*Константы!$B$5*Лаб.Журнал!$E$24/1000</f>
         <v>139.837570884</v>
       </c>
-      <c r="E11" s="70">
+      <c r="E11" s="59">
         <f>E5*Константы!$B$5*Лаб.Журнал!$E$24/1000</f>
         <v>141.37848075600004</v>
       </c>
-      <c r="F11" s="70">
+      <c r="F11" s="59">
         <f>F5*Константы!$B$5*Лаб.Журнал!$E$24/1000</f>
         <v>141.763708224</v>
       </c>
-      <c r="G11" s="70">
+      <c r="G11" s="59">
         <f>G5*Константы!$B$5*Лаб.Журнал!$E$24/1000</f>
         <v>142.53416315999999</v>
       </c>
-      <c r="H11" s="70">
+      <c r="H11" s="59">
         <f>H5*Константы!$B$5*Лаб.Журнал!$E$24/1000</f>
         <v>143.30461809600001</v>
       </c>
-      <c r="I11" s="70">
+      <c r="I11" s="59">
         <f>I5*Константы!$B$5*Лаб.Журнал!$E$24/1000</f>
         <v>144.845527968</v>
       </c>
-      <c r="J11" s="70">
+      <c r="J11" s="59">
         <f>J5*Константы!$B$5*Лаб.Журнал!$E$24/1000</f>
         <v>146.38643784000004</v>
       </c>
-      <c r="K11" s="70">
+      <c r="K11" s="59">
         <f>K5*Константы!$B$5*Лаб.Журнал!$E$24/1000</f>
         <v>147.92734771200003</v>
       </c>
-      <c r="L11" s="71">
+      <c r="L11" s="60">
         <f>L5*Константы!$B$5*Лаб.Журнал!$E$24/1000</f>
         <v>149.85348505200002</v>
       </c>
@@ -10809,187 +10883,187 @@
       </c>
     </row>
     <row r="31" spans="2:11" ht="12.6" customHeight="1">
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="76" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="65" t="s">
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="65"/>
-      <c r="J31" s="65"/>
-      <c r="K31" s="65"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
     </row>
     <row r="33" spans="2:12" ht="12.6" customHeight="1">
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C33" s="21">
         <v>0</v>
       </c>
-      <c r="D33" s="26">
+      <c r="D33" s="22">
         <v>10</v>
       </c>
-      <c r="E33" s="26">
+      <c r="E33" s="22">
         <v>20</v>
       </c>
-      <c r="F33" s="26">
+      <c r="F33" s="22">
         <v>30</v>
       </c>
-      <c r="G33" s="26">
+      <c r="G33" s="22">
         <v>40</v>
       </c>
-      <c r="H33" s="26">
+      <c r="H33" s="22">
         <v>50</v>
       </c>
-      <c r="I33" s="26">
+      <c r="I33" s="22">
         <v>60</v>
       </c>
-      <c r="J33" s="26">
+      <c r="J33" s="22">
         <v>70</v>
       </c>
-      <c r="K33" s="26">
+      <c r="K33" s="22">
         <v>80</v>
       </c>
-      <c r="L33" s="27">
+      <c r="L33" s="23">
         <v>90</v>
       </c>
     </row>
     <row r="34" spans="2:12" ht="12.6" customHeight="1">
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="27">
         <f>Константы!$C$11+Константы!$C$12*'Обратная задача'!C36+Константы!$C$13/'Обратная задача'!C36/'Обратная задача'!C36</f>
         <v>0.31684242913504157</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="28">
         <f>Константы!$C$11+Константы!$C$12*'Обратная задача'!D36+Константы!$C$13/'Обратная задача'!D36/'Обратная задача'!D36</f>
         <v>0.31287422828627753</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="28">
         <f>Константы!$C$11+Константы!$C$12*'Обратная задача'!E36+Константы!$C$13/'Обратная задача'!E36/'Обратная задача'!E36</f>
         <v>0.309365299401271</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F34" s="28">
         <f>Константы!$C$11+Константы!$C$12*'Обратная задача'!F36+Константы!$C$13/'Обратная задача'!F36/'Обратная задача'!F36</f>
         <v>0.30625605379374854</v>
       </c>
-      <c r="G34" s="32">
+      <c r="G34" s="28">
         <f>Константы!$C$11+Константы!$C$12*'Обратная задача'!G36+Константы!$C$13/'Обратная задача'!G36/'Обратная задача'!G36</f>
         <v>0.30349626262429946</v>
       </c>
-      <c r="H34" s="32">
+      <c r="H34" s="28">
         <f>Константы!$C$11+Константы!$C$12*'Обратная задача'!H36+Константы!$C$13/'Обратная задача'!H36/'Обратная задача'!H36</f>
         <v>0.30104334653812925</v>
       </c>
-      <c r="I34" s="32">
+      <c r="I34" s="28">
         <f>Константы!$C$11+Константы!$C$12*'Обратная задача'!I36+Константы!$C$13/'Обратная задача'!I36/'Обратная задача'!I36</f>
         <v>0.2988610191318537</v>
       </c>
-      <c r="J34" s="32">
+      <c r="J34" s="28">
         <f>Константы!$C$11+Константы!$C$12*'Обратная задача'!J36+Константы!$C$13/'Обратная задача'!J36/'Обратная задача'!J36</f>
         <v>0.2969182030014102</v>
       </c>
-      <c r="K34" s="32">
+      <c r="K34" s="28">
         <f>Константы!$C$11+Константы!$C$12*'Обратная задача'!K36+Константы!$C$13/'Обратная задача'!K36/'Обратная задача'!K36</f>
         <v>0.29518815752482491</v>
       </c>
-      <c r="L34" s="33">
+      <c r="L34" s="29">
         <f>Константы!$C$11+Константы!$C$12*'Обратная задача'!L36+Константы!$C$13/'Обратная задача'!L36/'Обратная задача'!L36</f>
         <v>0.293647772397926</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="12.6" customHeight="1">
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="25">
+      <c r="C36" s="21">
         <f>C33+273.15</f>
         <v>273.14999999999998</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="22">
         <f t="shared" ref="D36:L36" si="1">D33+273.15</f>
         <v>283.14999999999998</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="22">
         <f t="shared" si="1"/>
         <v>293.14999999999998</v>
       </c>
-      <c r="F36" s="26">
+      <c r="F36" s="22">
         <f t="shared" si="1"/>
         <v>303.14999999999998</v>
       </c>
-      <c r="G36" s="26">
+      <c r="G36" s="22">
         <f t="shared" si="1"/>
         <v>313.14999999999998</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="22">
         <f t="shared" si="1"/>
         <v>323.14999999999998</v>
       </c>
-      <c r="I36" s="26">
+      <c r="I36" s="22">
         <f t="shared" si="1"/>
         <v>333.15</v>
       </c>
-      <c r="J36" s="26">
+      <c r="J36" s="22">
         <f t="shared" si="1"/>
         <v>343.15</v>
       </c>
-      <c r="K36" s="26">
+      <c r="K36" s="22">
         <f t="shared" si="1"/>
         <v>353.15</v>
       </c>
-      <c r="L36" s="27">
+      <c r="L36" s="23">
         <f t="shared" si="1"/>
         <v>363.15</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="12.6" customHeight="1">
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="27">
         <f>C34*Лаб.Журнал!$E$23*Константы!$B$5/1000</f>
         <v>61.034836144742258</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="28">
         <f>D34*Лаб.Журнал!$E$23*Константы!$B$5/1000</f>
         <v>60.270423091683284</v>
       </c>
-      <c r="E37" s="32">
+      <c r="E37" s="28">
         <f>E34*Лаб.Журнал!$E$23*Константы!$B$5/1000</f>
         <v>59.594481740884433</v>
       </c>
-      <c r="F37" s="32">
+      <c r="F37" s="28">
         <f>F34*Лаб.Журнал!$E$23*Константы!$B$5/1000</f>
         <v>58.995533245548891</v>
       </c>
-      <c r="G37" s="32">
+      <c r="G37" s="28">
         <f>G34*Лаб.Журнал!$E$23*Константы!$B$5/1000</f>
         <v>58.463901789872743</v>
       </c>
-      <c r="H37" s="32">
+      <c r="H37" s="28">
         <f>H34*Лаб.Журнал!$E$23*Константы!$B$5/1000</f>
         <v>57.99138511398148</v>
       </c>
-      <c r="I37" s="32">
+      <c r="I37" s="28">
         <f>I34*Лаб.Журнал!$E$23*Константы!$B$5/1000</f>
         <v>57.570993198606288</v>
       </c>
-      <c r="J37" s="32">
+      <c r="J37" s="28">
         <f>J34*Лаб.Журнал!$E$23*Константы!$B$5/1000</f>
         <v>57.196739458333255</v>
       </c>
-      <c r="K37" s="32">
+      <c r="K37" s="28">
         <f>K34*Лаб.Журнал!$E$23*Константы!$B$5/1000</f>
         <v>56.86347272232635</v>
       </c>
-      <c r="L37" s="33">
+      <c r="L37" s="29">
         <f>L34*Лаб.Журнал!$E$23*Константы!$B$5/1000</f>
         <v>56.566741144814038</v>
       </c>
@@ -11013,46 +11087,46 @@
       </c>
     </row>
     <row r="58" spans="2:9" ht="12.6" customHeight="1">
-      <c r="B58" s="42" t="s">
+      <c r="B58" s="76" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="65" t="s">
+      <c r="C58" s="84"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="84"/>
+      <c r="H58" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="I58" s="65"/>
+      <c r="I58" s="86"/>
     </row>
     <row r="60" spans="2:9" ht="12.6" customHeight="1">
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="39">
+      <c r="C60" s="35">
         <f>2*L40-L13</f>
         <v>-0.26162454593257012</v>
       </c>
     </row>
     <row r="61" spans="2:9" ht="12.6" customHeight="1">
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C61" s="41">
+      <c r="C61" s="37">
         <f>2*L41-L14</f>
         <v>54.505455433813324</v>
       </c>
     </row>
     <row r="64" spans="2:9" ht="12.6" customHeight="1">
-      <c r="B64" s="42" t="s">
+      <c r="B64" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="84"/>
     </row>
     <row r="66" spans="2:13" ht="12.6" customHeight="1">
       <c r="C66" t="s">
@@ -11066,13 +11140,13 @@
       </c>
     </row>
     <row r="67" spans="2:13" ht="12.6" customHeight="1">
-      <c r="B67" s="37" t="s">
+      <c r="B67" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C67" s="25">
+      <c r="C67" s="21">
         <v>11112</v>
       </c>
-      <c r="D67" s="27">
+      <c r="D67" s="23">
         <v>34192</v>
       </c>
       <c r="E67">
@@ -11081,13 +11155,13 @@
       </c>
     </row>
     <row r="68" spans="2:13" ht="12.6" customHeight="1">
-      <c r="B68" s="24" t="s">
+      <c r="B68" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C68" s="28">
+      <c r="C68" s="24">
         <v>304.35000000000002</v>
       </c>
-      <c r="D68" s="30">
+      <c r="D68" s="26">
         <v>240.06</v>
       </c>
       <c r="E68">
@@ -11096,13 +11170,13 @@
       </c>
     </row>
     <row r="69" spans="2:13" ht="12.6" customHeight="1">
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="31">
+      <c r="C69" s="27">
         <v>79.16</v>
       </c>
-      <c r="D69" s="33">
+      <c r="D69" s="29">
         <v>37.18</v>
       </c>
       <c r="E69">
@@ -11111,19 +11185,19 @@
       </c>
     </row>
     <row r="71" spans="2:13" ht="12.6" customHeight="1">
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="76" t="s">
         <v>91</v>
       </c>
-      <c r="C71" s="52"/>
-      <c r="D71" s="52"/>
-      <c r="E71" s="52"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="52"/>
-      <c r="I71" s="52"/>
+      <c r="C71" s="77"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="77"/>
+      <c r="H71" s="77"/>
+      <c r="I71" s="77"/>
     </row>
     <row r="73" spans="2:13" ht="12.6" customHeight="1">
-      <c r="C73" s="72" t="s">
+      <c r="C73" s="61" t="s">
         <v>83</v>
       </c>
       <c r="D73">
@@ -11171,7 +11245,7 @@
       <c r="B74" t="s">
         <v>85</v>
       </c>
-      <c r="C74" s="24" t="s">
+      <c r="C74" s="20" t="s">
         <v>84</v>
       </c>
       <c r="D74">
@@ -11219,7 +11293,7 @@
       <c r="B75" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="20" t="s">
         <v>84</v>
       </c>
       <c r="D75">
@@ -11267,7 +11341,7 @@
       <c r="B76" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="24" t="s">
+      <c r="C76" s="20" t="s">
         <v>84</v>
       </c>
       <c r="D76">
@@ -11315,7 +11389,7 @@
       <c r="B77" t="s">
         <v>92</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="C77" s="20" t="s">
         <v>84</v>
       </c>
       <c r="D77">
@@ -11360,18 +11434,18 @@
       </c>
     </row>
     <row r="132" spans="2:12" ht="12.6" customHeight="1">
-      <c r="B132" s="42" t="s">
+      <c r="B132" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="C132" s="52"/>
-      <c r="D132" s="52"/>
-      <c r="E132" s="52"/>
-      <c r="F132" s="52"/>
-      <c r="G132" s="52"/>
-      <c r="H132" s="52"/>
+      <c r="C132" s="77"/>
+      <c r="D132" s="77"/>
+      <c r="E132" s="77"/>
+      <c r="F132" s="77"/>
+      <c r="G132" s="77"/>
+      <c r="H132" s="77"/>
     </row>
     <row r="134" spans="2:12" ht="12.6" customHeight="1">
-      <c r="B134" s="24" t="s">
+      <c r="B134" s="20" t="s">
         <v>33</v>
       </c>
       <c r="C134">
@@ -11416,7 +11490,7 @@
       </c>
     </row>
     <row r="135" spans="2:12" ht="12.6" customHeight="1">
-      <c r="B135" s="22" t="s">
+      <c r="B135" s="18" t="s">
         <v>105</v>
       </c>
       <c r="C135">
@@ -11461,13 +11535,13 @@
       </c>
     </row>
     <row r="162" spans="2:8" ht="12.6" customHeight="1">
-      <c r="B162" s="42" t="s">
+      <c r="B162" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="C162" s="21"/>
-      <c r="D162" s="21"/>
-      <c r="E162" s="21"/>
-      <c r="F162" s="21"/>
+      <c r="C162" s="84"/>
+      <c r="D162" s="84"/>
+      <c r="E162" s="84"/>
+      <c r="F162" s="84"/>
     </row>
     <row r="164" spans="2:8" ht="12.6" customHeight="1">
       <c r="B164" s="13" t="s">
@@ -11493,42 +11567,42 @@
       </c>
     </row>
     <row r="165" spans="2:8" ht="12.6" customHeight="1">
-      <c r="B165" s="22" t="s">
+      <c r="B165" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C165" s="78">
-        <f t="shared" ref="C165:I165" si="5">$E$135</f>
+      <c r="C165" s="67">
+        <f t="shared" ref="C165:H165" si="5">$E$135</f>
         <v>3.8755632593069884</v>
       </c>
-      <c r="D165" s="75">
+      <c r="D165" s="64">
         <f>$E$135</f>
         <v>3.8755632593069884</v>
       </c>
-      <c r="E165" s="76">
+      <c r="E165" s="65">
         <f t="shared" si="5"/>
         <v>3.8755632593069884</v>
       </c>
-      <c r="F165" s="76">
+      <c r="F165" s="65">
         <f t="shared" si="5"/>
         <v>3.8755632593069884</v>
       </c>
-      <c r="G165" s="76">
+      <c r="G165" s="65">
         <f t="shared" si="5"/>
         <v>3.8755632593069884</v>
       </c>
-      <c r="H165" s="77">
+      <c r="H165" s="66">
         <f t="shared" si="5"/>
         <v>3.8755632593069884</v>
       </c>
     </row>
     <row r="166" spans="2:8" ht="12.6" customHeight="1">
-      <c r="B166" s="22" t="s">
+      <c r="B166" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C166" s="81">
+      <c r="C166" s="70">
         <v>382</v>
       </c>
-      <c r="D166" s="79">
+      <c r="D166" s="68">
         <v>13.3</v>
       </c>
       <c r="E166" s="14">
@@ -11540,19 +11614,19 @@
       <c r="G166" s="14">
         <v>4.8</v>
       </c>
-      <c r="H166" s="80">
+      <c r="H166" s="69">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="167" spans="2:8" ht="12.6" customHeight="1">
-      <c r="B167" s="22" t="s">
+      <c r="B167" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="C167" s="81">
+      <c r="C167" s="70">
         <f>C166</f>
         <v>382</v>
       </c>
-      <c r="D167" s="79">
+      <c r="D167" s="68">
         <f>D166</f>
         <v>13.3</v>
       </c>
@@ -11568,52 +11642,52 @@
         <f t="shared" si="6"/>
         <v>4.8</v>
       </c>
-      <c r="H167" s="80">
+      <c r="H167" s="69">
         <f t="shared" si="6"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="168" spans="2:8" ht="12.6" customHeight="1">
-      <c r="B168" s="22" t="s">
+      <c r="B168" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C168" s="85">
-        <f>C165*C167*C167/C166</f>
+      <c r="C168" s="74">
+        <f t="shared" ref="C168:H168" si="7">C165*C167*C167/C166</f>
         <v>1480.4651650552698</v>
       </c>
-      <c r="D168" s="82">
-        <f>D165*D167*D167/D166</f>
+      <c r="D168" s="71">
+        <f t="shared" si="7"/>
         <v>51.544991348782943</v>
       </c>
-      <c r="E168" s="83">
-        <f>E165*E167*E167/E166</f>
+      <c r="E168" s="72">
+        <f t="shared" si="7"/>
         <v>31.004506074455907</v>
       </c>
-      <c r="F168" s="83">
-        <f>F165*F167*F167/F166</f>
+      <c r="F168" s="72">
+        <f t="shared" si="7"/>
         <v>21.315597926188435</v>
       </c>
-      <c r="G168" s="83">
-        <f>G165*G167*G167/G166</f>
+      <c r="G168" s="72">
+        <f t="shared" si="7"/>
         <v>18.602703644673543</v>
       </c>
-      <c r="H168" s="84">
-        <f>H165*H167*H167/H166</f>
+      <c r="H168" s="73">
+        <f t="shared" si="7"/>
         <v>8.5262391704753746</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="H31:K31"/>
     <mergeCell ref="B132:H132"/>
     <mergeCell ref="B162:F162"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="H58:I58"/>
     <mergeCell ref="B64:G64"/>
     <mergeCell ref="B71:I71"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="H31:K31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1"/>
@@ -11627,69 +11701,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="63"/>
+    <col min="1" max="1" width="8.88671875" style="53"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4">
         <v>418.7</v>
       </c>
-      <c r="C4" s="65" t="str">
+      <c r="C4" s="86" t="str">
         <f>CONCATENATE("кал/(см·с·К) = ",B4," Вт/(м·К)")</f>
         <v>кал/(см·с·К) = 418,7 Вт/(м·К)</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="67">
+      <c r="B5" s="56">
         <v>4186.8</v>
       </c>
-      <c r="C5" s="65" t="str">
+      <c r="C5" s="86" t="str">
         <f>CONCATENATE("кал/(г·К) = ",B5," Дж/(кг·К)")</f>
         <v>кал/(г·К) = 4186,8 Дж/(кг·К)</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="67">
+      <c r="B6" s="56">
         <v>133.322</v>
       </c>
-      <c r="C6" s="65" t="str">
+      <c r="C6" s="86" t="str">
         <f>CONCATENATE("мм рт. ст. = ",B6," Па")</f>
         <v>мм рт. ст. = 133,322 Па</v>
       </c>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
@@ -11735,4 +11809,146 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="e">
+        <f>МНК!F9</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="e">
+        <f>МНК!F10</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="20" t="str">
+        <f>Лаб.Журнал!B22</f>
+        <v>ΔD</v>
+      </c>
+      <c r="C9" t="e">
+        <f>Лаб.Журнал!C22/AVERAGE(Лаб.Журнал!C7:J9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="E9" t="e">
+        <f>C9/1.73</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="20" t="str">
+        <f>Лаб.Журнал!B23</f>
+        <v xml:space="preserve">Δλ, </v>
+      </c>
+      <c r="C10" t="e">
+        <f>Лаб.Журнал!C23/AVERAGE(Лаб.Журнал!G4,Лаб.Журнал!G11)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" t="e">
+        <f>E9*E9+C12*C12+C14*C14</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="20" t="str">
+        <f>Лаб.Журнал!B24</f>
+        <v>Δt, °C</v>
+      </c>
+      <c r="C11" t="e">
+        <f>Лаб.Журнал!C24/AVERAGE(Лаб.Журнал!C6:J6)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" t="e">
+        <f>E10+C13*C13</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="20" t="str">
+        <f>Лаб.Журнал!B25</f>
+        <v>Δελ, л/(моль*см)</v>
+      </c>
+      <c r="C12" t="e">
+        <f>Лаб.Журнал!C25/Лаб.Журнал!C20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D12" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" t="e">
+        <f>C11*C11+C13*C13</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="20" t="str">
+        <f>Лаб.Журнал!D21</f>
+        <v>ΔС0, моль/л</v>
+      </c>
+      <c r="C13" t="e">
+        <f>Лаб.Журнал!E21/Лаб.Журнал!E20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" t="e">
+        <f>4*E10+5*C13*C13+C11*C11</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B7:E7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Лаба 29 Равновесие_Спектрофотометрия.xlsx
+++ b/Лаба 29 Равновесие_Спектрофотометрия.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="132" windowWidth="19416" windowHeight="9792" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="132" windowWidth="19416" windowHeight="9792" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="119">
   <si>
     <t>&lt;x&gt;</t>
   </si>
@@ -193,9 +193,6 @@
   </si>
   <si>
     <t>Зависимость оптической пл-ти D от  Т</t>
-  </si>
-  <si>
-    <t>см</t>
   </si>
   <si>
     <r>
@@ -1397,13 +1394,20 @@
   <si>
     <t>ε(Kp)</t>
   </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>нм</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -1764,7 +1768,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1851,24 +1855,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1878,13 +1865,32 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1938,7 +1944,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>D(T) при повышении T (λ = см )</c:v>
+                  <c:v>D(T) при повышении T (λ = 490нм )</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1950,28 +1956,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>303.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>308.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>313.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>318.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>323.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>328.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>333.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>338.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1983,28 +1989,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0995384301463193E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.11776015198117658</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.22822884625413206</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.33021838479146343</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.42596873227228121</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.51215487988856445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.58711964153502583</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.65511672063013704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2020,7 +2026,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>D(T) при понижении T (λ = см )</c:v>
+                  <c:v>D(T) при понижении T (λ = 490нм )</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2032,28 +2038,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>335.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>331.34999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>326.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>320.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>316.84999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>311.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>306.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>301.84999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2065,28 +2071,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.62433638603911468</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.56663025314341409</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.49315686366064909</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.38854223433165752</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.30869743661651688</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.19808202765860766</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>7.378621416091867E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-2.4280376047079902E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2102,7 +2108,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>D(T) при повышении T (λ = см )</c:v>
+                  <c:v>D(T) при повышении T (λ = 540нм )</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2114,28 +2120,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>303.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>308.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>313.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>318.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>323.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>328.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>333.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>338.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2147,28 +2153,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7.3767290587543524E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.3225154045280025E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7.8998423699354198E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.11321252423045589</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.14585383100834604</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.17631989527149267</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.20320663956029825</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.22876074403268629</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2184,7 +2190,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>D(T) при понижении T (λ = см )</c:v>
+                  <c:v>D(T) при понижении T (λ = 540нм )</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2196,28 +2202,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>335.45</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>331.34999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>326.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>320.95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>316.84999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>311.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>306.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>301.84999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2229,39 +2235,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.21654779213311634</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.19525098112256153</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.16816389065358001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.13200558732218912</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.104403003473449</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6.8167576047672415E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.7358750912724699E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-3.6419037896966221E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="178801280"/>
-        <c:axId val="178828416"/>
+        <c:axId val="179129344"/>
+        <c:axId val="179156480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178801280"/>
+        <c:axId val="179129344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2284,12 +2290,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178828416"/>
+        <c:crossAx val="179156480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178828416"/>
+        <c:axId val="179156480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2322,7 +2328,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178801280"/>
+        <c:crossAx val="179129344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2335,7 +2341,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2374,7 +2380,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.1287882528197489"/>
-          <c:y val="6.2706270627062716E-2"/>
+          <c:y val="6.270627062706273E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -2384,10 +2390,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.4969043941277694E-2"/>
+          <c:x val="7.4969043941277708E-2"/>
           <c:y val="0.19819313427405733"/>
-          <c:w val="0.65119216854649942"/>
-          <c:h val="0.72572880122657957"/>
+          <c:w val="0.65119216854649953"/>
+          <c:h val="0.7257288012265799"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2507,100 +2513,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>303.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>308.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>313.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>318.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>323.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>328.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>333.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>338.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>335.45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>331.34999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>326.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>320.95</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>316.84999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>311.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>306.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>301.84999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>303.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>308.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>313.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>318.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>323.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>328.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>333.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>338.15</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>335.45</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>331.34999999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>326.75</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>320.95</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>316.84999999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>311.75</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>306.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>301.84999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2612,111 +2618,111 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7.9103507775318476E-9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.0316596921494328E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.5151734452572199E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.1153152581890048E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.2331433706409348E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3.9511866588585764E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6.4486687641862809E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.028590291516884E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>8.2874516218988569E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>5.6339131363877137E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.4911487890080467E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.7212045380554661E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>9.3902294898356243E-6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>3.2544292777908632E-6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3.8339701033769061E-7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>3.709624041354366E-8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>3.1887660096495686E-8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1.2467944922359353E-6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>4.8337103468215652E-6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1.1730294803372385E-5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>2.3549967672023943E-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>4.278509859266549E-5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>7.2357241377450239E-5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1.2387096082543182E-4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>9.5059151788194927E-5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>6.1805193217654613E-5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>3.6539628640230566E-5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>1.7715160590917011E-5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>9.5301052232124151E-6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>3.4321521270136406E-6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>4.7057815096773306E-7</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>7.4917761091119139E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="179663232"/>
-        <c:axId val="179665152"/>
+        <c:axId val="180646272"/>
+        <c:axId val="180648192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179663232"/>
+        <c:axId val="180646272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="380"/>
@@ -2741,19 +2747,19 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.74565284004571208"/>
+              <c:x val="0.7456528400457122"/>
               <c:y val="0.94981835191393149"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179665152"/>
+        <c:crossAx val="180648192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179665152"/>
+        <c:axId val="180648192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2786,7 +2792,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179663232"/>
+        <c:crossAx val="180646272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2798,9 +2804,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.74003189792663482"/>
-          <c:y val="0.40461760349263276"/>
+          <c:y val="0.40461760349263282"/>
           <c:w val="0.25039872408293462"/>
-          <c:h val="0.35092954964787826"/>
+          <c:h val="0.35092954964787837"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -2808,7 +2814,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2865,7 +2871,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Зависимость концентрации NO2 от Т (λ = 0 см)</c:v>
+                  <c:v>Зависимость концентрации NO2 от Т (λ = 490 нм)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2877,52 +2883,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>303.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>308.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>313.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>318.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>323.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>328.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>333.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>338.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>335.45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>331.34999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>326.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>320.95</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>316.84999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>311.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>306.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>301.84999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2934,52 +2940,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.1870679134675923E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.4133377385848281E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6.6153288769313639E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9.5715473852598092E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.2346919776008152E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.4845068982277231E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.7017960624203647E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.8988890453047449E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.8096706841713469E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.6424065308504757E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1.4294401845236205E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.1262093748743696E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>8.9477517859859967E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>5.7415080480755843E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2.1387308452440194E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-7.037790158573884E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2995,7 +3001,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Зависимость концентрации NO2 от Т (λ = 0 см)</c:v>
+                  <c:v>Зависимость концентрации NO2 от Т (λ = 540 нм)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3007,52 +3013,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>303.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>308.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>313.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>318.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>323.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>328.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>333.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>338.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>335.45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>331.34999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>326.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>320.95</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>316.84999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>311.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>306.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>301.84999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3064,63 +3070,63 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.3592491885813382E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.7263063832137952E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>6.8102089395994997E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>9.759700364694473E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.257360612140914E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1.5199990971680403E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1.7517813755198125E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.9720753795921231E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.8667913114923823E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.6831981131255305E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1.4496887125308622E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.1379792010533544E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>9.0002589201249137E-4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>5.8765151765234841E-4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>2.3585130097176466E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-3.139572232497088E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="178202496"/>
-        <c:axId val="178208768"/>
+        <c:axId val="179718400"/>
+        <c:axId val="179724672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178202496"/>
+        <c:axId val="179718400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3143,12 +3149,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178208768"/>
+        <c:crossAx val="179724672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178208768"/>
+        <c:axId val="179724672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3181,7 +3187,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178202496"/>
+        <c:crossAx val="179718400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3192,10 +3198,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.65794045565621029"/>
-          <c:y val="0.39732786314238366"/>
-          <c:w val="0.30467503961941006"/>
-          <c:h val="0.21492304736956572"/>
+          <c:x val="0.65794045565621051"/>
+          <c:y val="0.39732786314238383"/>
+          <c:w val="0.30467503961941012"/>
+          <c:h val="0.21492304736956575"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -3203,7 +3209,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3241,100 +3247,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>303.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>308.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>313.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>318.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>323.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>328.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>333.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>338.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>335.45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>331.34999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>326.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>320.95</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>316.84999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>311.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>306.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>301.84999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>303.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>308.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>313.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>318.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>323.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>328.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>333.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>338.15</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>335.45</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>331.34999999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>326.75</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>320.95</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>316.84999999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>311.75</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>306.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>301.84999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3346,111 +3352,111 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.2257953513336894E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.13128222071480111</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.25443572603582171</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.36813643789460809</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.47488152984646742</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.57096419162604739</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.65453694708475574</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.73034194050182499</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.69602718621974891</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.63169481955787521</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.54978468635523869</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.43315745187475757</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.34414429946099984</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.22082723261829168</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>8.2258878663231519E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-2.7068423686822631E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2.4458650725312836E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.14331947627745367</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.26193111306151923</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.37537309094978744</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.4836002354388132</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.58461503737232312</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.67376206750762024</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.75849053061235494</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.71799665826630088</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.64738388966366556</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.55757258174263946</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>0.43768430809744402</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>0.34616380462018903</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.22601981448167244</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>9.0712038835294106E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>-1.2075277817296495E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="178237440"/>
-        <c:axId val="178239360"/>
+        <c:axId val="179761536"/>
+        <c:axId val="179763456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="178237440"/>
+        <c:axId val="179761536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3473,12 +3479,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178239360"/>
+        <c:crossAx val="179763456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178239360"/>
+        <c:axId val="179763456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3511,7 +3517,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178237440"/>
+        <c:crossAx val="179761536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3522,9 +3528,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.64126650437847332"/>
-          <c:y val="0.42904635536575231"/>
-          <c:w val="0.33467734387240694"/>
+          <c:x val="0.64126650437847343"/>
+          <c:y val="0.42904635536575236"/>
+          <c:w val="0.33467734387240705"/>
           <c:h val="0.14672364672364668"/>
         </c:manualLayout>
       </c:layout>
@@ -3543,7 +3549,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3581,100 +3587,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>303.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>308.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>313.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>318.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>323.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>328.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>333.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>338.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>335.45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>331.34999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>326.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>320.95</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>316.84999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>311.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>306.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>301.84999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>303.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>308.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>313.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>318.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>323.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>328.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>333.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>338.15</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>335.45</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>331.34999999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>326.75</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>320.95</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>316.84999999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>311.75</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>306.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>301.84999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3686,111 +3692,111 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.9944841996885945E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.6423584038107414E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.1756035862494045E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2.9493552865145645E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.9981925061768027E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.10777093163428536</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.17857207958119048</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.28919172442247304</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.23114412037346907</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.1552140996358172</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>9.4845777917635973E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>4.5930789526831148E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2.4737964729323998E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>8.4355877750293042E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>9.7592632747711423E-4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>9.3101167253714935E-5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>8.0400270501462066E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>3.1933765847928217E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>1.2585401840062786E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>3.1019755837356063E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>6.3254890603149108E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.11669886374662794</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.20036667315412771</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.34826749836562326</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.26512811206608278</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.1702730799333326</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>9.9269028983118818E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>4.7273365514982284E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>2.5106458487917319E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>8.8962512481850966E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>1.1978434736890887E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>1.88022584711081E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="179079040"/>
-        <c:axId val="179085312"/>
+        <c:axId val="179992832"/>
+        <c:axId val="180003200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179079040"/>
+        <c:axId val="179992832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3813,12 +3819,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179085312"/>
+        <c:crossAx val="180003200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179085312"/>
+        <c:axId val="180003200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3851,7 +3857,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179079040"/>
+        <c:crossAx val="179992832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3864,7 +3870,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3912,100 +3918,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>303.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>308.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>313.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>318.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>323.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>328.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>333.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>338.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>335.45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>331.34999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>326.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>320.95</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>316.84999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>311.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>306.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>301.84999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>303.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>308.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>313.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>318.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>323.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>328.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>333.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>338.15</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>335.45</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>331.34999999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>326.75</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>320.95</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>316.84999999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>311.75</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>306.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>301.84999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4017,111 +4023,111 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7.9103507775318476E-9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.0316596921494328E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.5151734452572199E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.1153152581890048E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2.2331433706409348E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3.9511866588585764E-5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6.4486687641862809E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.028590291516884E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>8.2874516218988569E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>5.6339131363877137E-5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3.4911487890080467E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1.7212045380554661E-5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>9.3902294898356243E-6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>3.2544292777908632E-6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3.8339701033769061E-7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>3.709624041354366E-8</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>3.1887660096495686E-8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1.2467944922359353E-6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>4.8337103468215652E-6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1.1730294803372385E-5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>2.3549967672023943E-5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>4.278509859266549E-5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>7.2357241377450239E-5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1.2387096082543182E-4</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>9.5059151788194927E-5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>6.1805193217654613E-5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>3.6539628640230566E-5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>1.7715160590917011E-5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>9.5301052232124151E-6</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>3.4321521270136406E-6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>4.7057815096773306E-7</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>7.4917761091119139E-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="179380224"/>
-        <c:axId val="179382144"/>
+        <c:axId val="180302208"/>
+        <c:axId val="180304128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179380224"/>
+        <c:axId val="180302208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4144,12 +4150,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179382144"/>
+        <c:crossAx val="180304128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179382144"/>
+        <c:axId val="180304128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4182,7 +4188,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179380224"/>
+        <c:crossAx val="180302208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4195,7 +4201,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4259,49 +4265,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>3.6609921288669233E-3</c:v>
+                  <c:v>3.2976092333058533E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6609921288669233E-3</c:v>
+                  <c:v>3.2462262619704597E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6609921288669233E-3</c:v>
+                  <c:v>3.1933578157432542E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6609921288669233E-3</c:v>
+                  <c:v>3.1441597233139449E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6609921288669233E-3</c:v>
+                  <c:v>3.0954960532425324E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6609921288669233E-3</c:v>
+                  <c:v>3.048315805517452E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6609921288669233E-3</c:v>
+                  <c:v>3.0025521693439429E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6609921288669233E-3</c:v>
+                  <c:v>2.9572674848440043E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6609921288669233E-3</c:v>
+                  <c:v>2.9810702042033089E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.6609921288669233E-3</c:v>
+                  <c:v>3.0179568432171424E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.6609921288669233E-3</c:v>
+                  <c:v>3.06044376434583E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.6609921288669233E-3</c:v>
+                  <c:v>3.1157501168406296E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.6609921288669233E-3</c:v>
+                  <c:v>3.1560675398453531E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.6609921288669233E-3</c:v>
+                  <c:v>3.2076984763432237E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.6609921288669233E-3</c:v>
+                  <c:v>3.2663726931242859E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4313,60 +4319,60 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-10.822539994579323</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-5.9360834258331456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-4.4433884798607037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-3.5235835864654419</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-2.8137120111151552</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-2.2277473077574688</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-1.7227629520930823</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-1.2406654045202583</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-1.4647138652829685</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-1.8629498271905385</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-2.3555030968482003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-3.0806195910070451</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-3.6994161817994358</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-4.7752958825394716</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-6.932123458542554</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="179477888"/>
-        <c:axId val="179492352"/>
+        <c:axId val="180465024"/>
+        <c:axId val="180483584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179477888"/>
+        <c:axId val="180465024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4401,13 +4407,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179492352"/>
+        <c:crossAx val="180483584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:minorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179492352"/>
+        <c:axId val="180483584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4430,10 +4435,9 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179477888"/>
+        <c:crossAx val="180465024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:minorUnit val="0.2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -4447,7 +4451,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4498,6 +4502,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4511,6 +4516,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -4594,11 +4600,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="179579136"/>
-        <c:axId val="179593600"/>
+        <c:axId val="180570368"/>
+        <c:axId val="180584832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179579136"/>
+        <c:axId val="180570368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="200"/>
@@ -4606,15 +4612,17 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
-        <c:title/>
+        <c:title>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179593600"/>
+        <c:crossAx val="180584832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179593600"/>
+        <c:axId val="180584832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4633,6 +4641,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:layout/>
           <c:txPr>
             <a:bodyPr rot="-5400000" vert="horz"/>
             <a:lstStyle/>
@@ -4646,19 +4655,20 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179579136"/>
+        <c:crossAx val="180570368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4775,11 +4785,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="179621888"/>
-        <c:axId val="179623424"/>
+        <c:axId val="180490240"/>
+        <c:axId val="180491776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179621888"/>
+        <c:axId val="180490240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="250"/>
@@ -4787,12 +4797,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179623424"/>
+        <c:crossAx val="180491776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179623424"/>
+        <c:axId val="180491776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4800,7 +4810,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179621888"/>
+        <c:crossAx val="180490240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4812,7 +4822,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5239,100 +5249,100 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>303.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>308.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>313.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>318.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>323.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>328.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>333.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>338.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>335.45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>331.34999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>326.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>320.95</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>316.84999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>311.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>306.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>301.84999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>303.25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>308.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>313.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>318.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>323.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>328.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>333.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>338.15</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>335.45</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>331.34999999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>326.75</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>320.95</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>316.84999999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>311.75</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>306.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>301.84999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5344,111 +5354,111 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-10.822539994579323</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-5.9360834258331456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-4.4433884798607037</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-3.5235835864654419</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-2.8137120111151552</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-2.2277473077574688</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-1.7227629520930823</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-1.2406654045202583</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-1.4647138652829685</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-1.8629498271905385</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-2.3555030968482003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-3.0806195910070451</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>-3.6994161817994358</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-4.7752958825394716</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-6.932123458542554</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-9.2818238361259606</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>-9.4284930173389672</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>-5.7466764314608225</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>-4.3752177208241365</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>-3.4731309924008902</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>-2.7605828325747641</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>-2.1481584762697783</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>-1.6076062252271852</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>-1.0547844210213702</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>-1.32754212805743</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>-1.7703517781871179</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>-2.3099216500026509</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>-3.0518082390177046</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>-3.6846301556674197</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>-4.7221252990461693</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>-6.7272324441781786</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>-10.881533563901653</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="179545600"/>
-        <c:axId val="179547520"/>
+        <c:axId val="180524544"/>
+        <c:axId val="180526464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179545600"/>
+        <c:axId val="180524544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="370"/>
@@ -5473,16 +5483,15 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179547520"/>
+        <c:crossAx val="180526464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179547520"/>
+        <c:axId val="180526464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.5"/>
-          <c:min val="-4.5"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -5513,7 +5522,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179545600"/>
+        <c:crossAx val="180524544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="0.1"/>
@@ -5527,7 +5536,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6135,34 +6144,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AH184"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145:B146"/>
+    <sheetView topLeftCell="B51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="16"/>
     <col min="2" max="2" width="10" style="13" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="13"/>
+    <col min="3" max="3" width="12.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="8.88671875" style="13"/>
+    <col min="11" max="11" width="9" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="24" customHeight="1">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
       <c r="P2" s="19">
         <v>29</v>
       </c>
@@ -6188,26 +6200,28 @@
       <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
       <c r="F4" s="33" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="35"/>
+        <v>118</v>
+      </c>
+      <c r="H4" s="35">
+        <v>490</v>
+      </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="46"/>
       <c r="B5" s="49"/>
       <c r="C5" s="80" t="str">
         <f>CONCATENATE(B7," при повышении T (",F4," = ",H4,G4," )")</f>
-        <v>D(T) при повышении T (λ = см )</v>
+        <v>D(T) при повышении T (λ = 490нм )</v>
       </c>
       <c r="D5" s="80"/>
       <c r="E5" s="80"/>
@@ -6218,7 +6232,7 @@
       <c r="J5" s="80"/>
       <c r="K5" s="81" t="str">
         <f>CONCATENATE(B7," при понижении T (",F4," = ",H4,G4," )")</f>
-        <v>D(T) при понижении T (λ = см )</v>
+        <v>D(T) при понижении T (λ = 490нм )</v>
       </c>
       <c r="L5" s="80"/>
       <c r="M5" s="80"/>
@@ -6235,67 +6249,67 @@
       </c>
       <c r="C6" s="13">
         <f>Лаб.Журнал!C6+273.15</f>
-        <v>273.14999999999998</v>
+        <v>303.25</v>
       </c>
       <c r="D6" s="13">
         <f>Лаб.Журнал!D6+273.15</f>
-        <v>273.14999999999998</v>
+        <v>308.04999999999995</v>
       </c>
       <c r="E6" s="13">
         <f>Лаб.Журнал!E6+273.15</f>
-        <v>273.14999999999998</v>
+        <v>313.14999999999998</v>
       </c>
       <c r="F6" s="13">
         <f>Лаб.Журнал!F6+273.15</f>
-        <v>273.14999999999998</v>
+        <v>318.04999999999995</v>
       </c>
       <c r="G6" s="13">
         <f>Лаб.Журнал!G6+273.15</f>
-        <v>273.14999999999998</v>
+        <v>323.04999999999995</v>
       </c>
       <c r="H6" s="13">
         <f>Лаб.Журнал!H6+273.15</f>
-        <v>273.14999999999998</v>
+        <v>328.04999999999995</v>
       </c>
       <c r="I6" s="13">
         <f>Лаб.Журнал!I6+273.15</f>
-        <v>273.14999999999998</v>
+        <v>333.04999999999995</v>
       </c>
       <c r="J6" s="47">
         <f>Лаб.Журнал!J6+273.15</f>
-        <v>273.14999999999998</v>
+        <v>338.15</v>
       </c>
       <c r="K6" s="49">
         <f>Лаб.Журнал!K6+273.15</f>
-        <v>273.14999999999998</v>
+        <v>335.45</v>
       </c>
       <c r="L6" s="13">
         <f>Лаб.Журнал!L6+273.15</f>
-        <v>273.14999999999998</v>
+        <v>331.34999999999997</v>
       </c>
       <c r="M6" s="13">
         <f>Лаб.Журнал!M6+273.15</f>
-        <v>273.14999999999998</v>
+        <v>326.75</v>
       </c>
       <c r="N6" s="13">
         <f>Лаб.Журнал!N6+273.15</f>
-        <v>273.14999999999998</v>
+        <v>320.95</v>
       </c>
       <c r="O6" s="13">
         <f>Лаб.Журнал!O6+273.15</f>
-        <v>273.14999999999998</v>
+        <v>316.84999999999997</v>
       </c>
       <c r="P6" s="13">
         <f>Лаб.Журнал!P6+273.15</f>
-        <v>273.14999999999998</v>
+        <v>311.75</v>
       </c>
       <c r="Q6" s="13">
         <f>Лаб.Журнал!Q6+273.15</f>
-        <v>273.14999999999998</v>
+        <v>306.14999999999998</v>
       </c>
       <c r="R6" s="47">
         <f>Лаб.Журнал!R6+273.15</f>
-        <v>273.14999999999998</v>
+        <v>301.84999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -6303,88 +6317,90 @@
       <c r="B7" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="43" t="e">
+      <c r="C7" s="43">
         <f>AVERAGE(Лаб.Журнал!C7:C9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D7" s="43" t="e">
+        <v>1.0995384301463193E-2</v>
+      </c>
+      <c r="D7" s="43">
         <f>AVERAGE(Лаб.Журнал!D7:D9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="43" t="e">
+        <v>0.11776015198117658</v>
+      </c>
+      <c r="E7" s="43">
         <f>AVERAGE(Лаб.Журнал!E7:E9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="43" t="e">
+        <v>0.22822884625413206</v>
+      </c>
+      <c r="F7" s="43">
         <f>AVERAGE(Лаб.Журнал!F7:F9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="43" t="e">
+        <v>0.33021838479146343</v>
+      </c>
+      <c r="G7" s="43">
         <f>AVERAGE(Лаб.Журнал!G7:G9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H7" s="43" t="e">
+        <v>0.42596873227228121</v>
+      </c>
+      <c r="H7" s="43">
         <f>AVERAGE(Лаб.Журнал!H7:H9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I7" s="43" t="e">
+        <v>0.51215487988856445</v>
+      </c>
+      <c r="I7" s="43">
         <f>AVERAGE(Лаб.Журнал!I7:I9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J7" s="44" t="e">
+        <v>0.58711964153502583</v>
+      </c>
+      <c r="J7" s="44">
         <f>AVERAGE(Лаб.Журнал!J7:J9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" s="42" t="e">
+        <v>0.65511672063013704</v>
+      </c>
+      <c r="K7" s="42">
         <f>AVERAGE(Лаб.Журнал!K7:K9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="43" t="e">
+        <v>0.62433638603911468</v>
+      </c>
+      <c r="L7" s="43">
         <f>AVERAGE(Лаб.Журнал!L7:L9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="43" t="e">
+        <v>0.56663025314341409</v>
+      </c>
+      <c r="M7" s="43">
         <f>AVERAGE(Лаб.Журнал!M7:M9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" s="43" t="e">
+        <v>0.49315686366064909</v>
+      </c>
+      <c r="N7" s="43">
         <f>AVERAGE(Лаб.Журнал!N7:N9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O7" s="43" t="e">
+        <v>0.38854223433165752</v>
+      </c>
+      <c r="O7" s="43">
         <f>AVERAGE(Лаб.Журнал!O7:O9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P7" s="43" t="e">
+        <v>0.30869743661651688</v>
+      </c>
+      <c r="P7" s="43">
         <f>AVERAGE(Лаб.Журнал!P7:P9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q7" s="43" t="e">
+        <v>0.19808202765860766</v>
+      </c>
+      <c r="Q7" s="43">
         <f>AVERAGE(Лаб.Журнал!Q7:Q9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R7" s="44" t="e">
+        <v>7.378621416091867E-2</v>
+      </c>
+      <c r="R7" s="44">
         <f>AVERAGE(Лаб.Журнал!R7:R9)</f>
-        <v>#DIV/0!</v>
+        <v>-2.4280376047079902E-2</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="33" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="35"/>
+        <v>118</v>
+      </c>
+      <c r="H9" s="35">
+        <v>540</v>
+      </c>
       <c r="I9" s="50"/>
       <c r="J9" s="51"/>
       <c r="K9" s="51"/>
@@ -6392,7 +6408,7 @@
     <row r="10" spans="1:22">
       <c r="C10" s="80" t="str">
         <f>CONCATENATE(B12," при повышении T (",F9," = ",H9,G9," )")</f>
-        <v>D(T) при повышении T (λ = см )</v>
+        <v>D(T) при повышении T (λ = 540нм )</v>
       </c>
       <c r="D10" s="80"/>
       <c r="E10" s="80"/>
@@ -6403,7 +6419,7 @@
       <c r="J10" s="80"/>
       <c r="K10" s="81" t="str">
         <f>CONCATENATE(B12," при понижении T (",F9," = ",H9,G9," )")</f>
-        <v>D(T) при понижении T (λ = см )</v>
+        <v>D(T) при понижении T (λ = 540нм )</v>
       </c>
       <c r="L10" s="80"/>
       <c r="M10" s="80"/>
@@ -6419,136 +6435,136 @@
       </c>
       <c r="C11" s="49">
         <f>Лаб.Журнал!C13+273.15</f>
-        <v>273.14999999999998</v>
+        <v>303.25</v>
       </c>
       <c r="D11" s="13">
         <f>Лаб.Журнал!D13+273.15</f>
-        <v>273.14999999999998</v>
+        <v>308.04999999999995</v>
       </c>
       <c r="E11" s="13">
         <f>Лаб.Журнал!E13+273.15</f>
-        <v>273.14999999999998</v>
+        <v>313.14999999999998</v>
       </c>
       <c r="F11" s="13">
         <f>Лаб.Журнал!F13+273.15</f>
-        <v>273.14999999999998</v>
+        <v>318.04999999999995</v>
       </c>
       <c r="G11" s="13">
         <f>Лаб.Журнал!G13+273.15</f>
-        <v>273.14999999999998</v>
+        <v>323.04999999999995</v>
       </c>
       <c r="H11" s="13">
         <f>Лаб.Журнал!H13+273.15</f>
-        <v>273.14999999999998</v>
+        <v>328.04999999999995</v>
       </c>
       <c r="I11" s="13">
         <f>Лаб.Журнал!I13+273.15</f>
-        <v>273.14999999999998</v>
+        <v>333.04999999999995</v>
       </c>
       <c r="J11" s="47">
         <f>Лаб.Журнал!J13+273.15</f>
-        <v>273.14999999999998</v>
+        <v>338.15</v>
       </c>
       <c r="K11" s="49">
         <f>Лаб.Журнал!K13+273.15</f>
-        <v>273.14999999999998</v>
+        <v>335.45</v>
       </c>
       <c r="L11" s="13">
         <f>Лаб.Журнал!L13+273.15</f>
-        <v>273.14999999999998</v>
+        <v>331.34999999999997</v>
       </c>
       <c r="M11" s="13">
         <f>Лаб.Журнал!M13+273.15</f>
-        <v>273.14999999999998</v>
+        <v>326.75</v>
       </c>
       <c r="N11" s="13">
         <f>Лаб.Журнал!N13+273.15</f>
-        <v>273.14999999999998</v>
+        <v>320.95</v>
       </c>
       <c r="O11" s="13">
         <f>Лаб.Журнал!O13+273.15</f>
-        <v>273.14999999999998</v>
+        <v>316.84999999999997</v>
       </c>
       <c r="P11" s="13">
         <f>Лаб.Журнал!P13+273.15</f>
-        <v>273.14999999999998</v>
+        <v>311.75</v>
       </c>
       <c r="Q11" s="13">
         <f>Лаб.Журнал!Q13+273.15</f>
-        <v>273.14999999999998</v>
+        <v>306.14999999999998</v>
       </c>
       <c r="R11" s="47">
         <f>Лаб.Журнал!R13+273.15</f>
-        <v>273.14999999999998</v>
+        <v>301.84999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="B12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="42" t="e">
+      <c r="C12" s="42">
         <f>AVERAGE(Лаб.Журнал!C14:C16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="43" t="e">
+        <v>7.3767290587543524E-3</v>
+      </c>
+      <c r="D12" s="43">
         <f>AVERAGE(Лаб.Журнал!D14:D16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="43" t="e">
+        <v>4.3225154045280025E-2</v>
+      </c>
+      <c r="E12" s="43">
         <f>AVERAGE(Лаб.Журнал!E14:E16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="43" t="e">
+        <v>7.8998423699354198E-2</v>
+      </c>
+      <c r="F12" s="43">
         <f>AVERAGE(Лаб.Журнал!F14:F16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="43" t="e">
+        <v>0.11321252423045589</v>
+      </c>
+      <c r="G12" s="43">
         <f>AVERAGE(Лаб.Журнал!G14:G16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="43" t="e">
+        <v>0.14585383100834604</v>
+      </c>
+      <c r="H12" s="43">
         <f>AVERAGE(Лаб.Журнал!H14:H16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="43" t="e">
+        <v>0.17631989527149267</v>
+      </c>
+      <c r="I12" s="43">
         <f>AVERAGE(Лаб.Журнал!I14:I16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J12" s="44" t="e">
+        <v>0.20320663956029825</v>
+      </c>
+      <c r="J12" s="44">
         <f>AVERAGE(Лаб.Журнал!J14:J16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K12" s="42" t="e">
+        <v>0.22876074403268629</v>
+      </c>
+      <c r="K12" s="42">
         <f>AVERAGE(Лаб.Журнал!K14:K16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L12" s="43" t="e">
+        <v>0.21654779213311634</v>
+      </c>
+      <c r="L12" s="43">
         <f>AVERAGE(Лаб.Журнал!L14:L16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="43" t="e">
+        <v>0.19525098112256153</v>
+      </c>
+      <c r="M12" s="43">
         <f>AVERAGE(Лаб.Журнал!M14:M16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="43" t="e">
+        <v>0.16816389065358001</v>
+      </c>
+      <c r="N12" s="43">
         <f>AVERAGE(Лаб.Журнал!N14:N16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O12" s="43" t="e">
+        <v>0.13200558732218912</v>
+      </c>
+      <c r="O12" s="43">
         <f>AVERAGE(Лаб.Журнал!O14:O16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P12" s="43" t="e">
+        <v>0.104403003473449</v>
+      </c>
+      <c r="P12" s="43">
         <f>AVERAGE(Лаб.Журнал!P14:P16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q12" s="43" t="e">
+        <v>6.8167576047672415E-2</v>
+      </c>
+      <c r="Q12" s="43">
         <f>AVERAGE(Лаб.Журнал!Q14:Q16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R12" s="44" t="e">
+        <v>2.7358750912724699E-2</v>
+      </c>
+      <c r="R12" s="44">
         <f>AVERAGE(Лаб.Журнал!R14:R16)</f>
-        <v>#DIV/0!</v>
+        <v>-3.6419037896966221E-3</v>
       </c>
     </row>
     <row r="25" spans="3:3">
@@ -6561,39 +6577,39 @@
       <c r="A39" s="16">
         <v>2</v>
       </c>
-      <c r="B39" s="76" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
+      <c r="B39" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" s="83"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="83"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="83"/>
+      <c r="J39" s="83"/>
     </row>
     <row r="41" spans="1:18">
-      <c r="B41" s="76" t="str">
+      <c r="B41" s="82" t="str">
         <f>CONCATENATE("Зависимость концентрации NO2 от Т (",H41," = ",J41," ",I41,")")</f>
-        <v>Зависимость концентрации NO2 от Т (λ = 0 см)</v>
-      </c>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
+        <v>Зависимость концентрации NO2 от Т (λ = 490 нм)</v>
+      </c>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
       <c r="H41" s="18" t="str">
         <f t="shared" ref="H41:J41" si="0">F4</f>
         <v>λ</v>
       </c>
       <c r="I41" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>см</v>
+        <v>нм</v>
       </c>
       <c r="J41" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>490</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -6603,179 +6619,179 @@
       </c>
       <c r="C43" s="40">
         <f>C6</f>
-        <v>273.14999999999998</v>
+        <v>303.25</v>
       </c>
       <c r="D43" s="40">
         <f t="shared" ref="D43:R43" si="1">D6</f>
-        <v>273.14999999999998</v>
+        <v>308.04999999999995</v>
       </c>
       <c r="E43" s="40">
         <f t="shared" si="1"/>
-        <v>273.14999999999998</v>
+        <v>313.14999999999998</v>
       </c>
       <c r="F43" s="40">
         <f t="shared" si="1"/>
-        <v>273.14999999999998</v>
+        <v>318.04999999999995</v>
       </c>
       <c r="G43" s="40">
         <f t="shared" si="1"/>
-        <v>273.14999999999998</v>
+        <v>323.04999999999995</v>
       </c>
       <c r="H43" s="40">
         <f t="shared" si="1"/>
-        <v>273.14999999999998</v>
+        <v>328.04999999999995</v>
       </c>
       <c r="I43" s="40">
         <f t="shared" si="1"/>
-        <v>273.14999999999998</v>
+        <v>333.04999999999995</v>
       </c>
       <c r="J43" s="41">
         <f t="shared" si="1"/>
-        <v>273.14999999999998</v>
+        <v>338.15</v>
       </c>
       <c r="K43" s="39">
         <f t="shared" si="1"/>
-        <v>273.14999999999998</v>
+        <v>335.45</v>
       </c>
       <c r="L43" s="40">
         <f t="shared" si="1"/>
-        <v>273.14999999999998</v>
+        <v>331.34999999999997</v>
       </c>
       <c r="M43" s="40">
         <f t="shared" si="1"/>
-        <v>273.14999999999998</v>
+        <v>326.75</v>
       </c>
       <c r="N43" s="40">
         <f t="shared" si="1"/>
-        <v>273.14999999999998</v>
+        <v>320.95</v>
       </c>
       <c r="O43" s="40">
         <f t="shared" si="1"/>
-        <v>273.14999999999998</v>
+        <v>316.84999999999997</v>
       </c>
       <c r="P43" s="40">
         <f t="shared" si="1"/>
-        <v>273.14999999999998</v>
+        <v>311.75</v>
       </c>
       <c r="Q43" s="40">
         <f t="shared" si="1"/>
-        <v>273.14999999999998</v>
+        <v>306.14999999999998</v>
       </c>
       <c r="R43" s="41">
         <f t="shared" si="1"/>
-        <v>273.14999999999998</v>
+        <v>301.84999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="46"/>
       <c r="B44" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="43" t="e">
-        <f>C7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D44" s="43" t="e">
-        <f>D7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E44" s="43" t="e">
-        <f>E7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F44" s="43" t="e">
-        <f>F7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G44" s="43" t="e">
-        <f>G7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H44" s="43" t="e">
-        <f>H7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I44" s="43" t="e">
-        <f>I7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J44" s="44" t="e">
-        <f>J7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K44" s="42" t="e">
-        <f>K7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L44" s="43" t="e">
-        <f>L7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M44" s="43" t="e">
-        <f>M7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N44" s="43" t="e">
-        <f>N7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O44" s="43" t="e">
-        <f>O7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P44" s="43" t="e">
-        <f>P7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q44" s="43" t="e">
-        <f>Q7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R44" s="44" t="e">
-        <f>R7/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
+        <v>36</v>
+      </c>
+      <c r="C44" s="43">
+        <f>C7/Лаб.Журнал!$C$19</f>
+        <v>3.1870679134675923E-5</v>
+      </c>
+      <c r="D44" s="43">
+        <f>D7/Лаб.Журнал!$C$19</f>
+        <v>3.4133377385848281E-4</v>
+      </c>
+      <c r="E44" s="43">
+        <f>E7/Лаб.Журнал!$C$19</f>
+        <v>6.6153288769313639E-4</v>
+      </c>
+      <c r="F44" s="43">
+        <f>F7/Лаб.Журнал!$C$19</f>
+        <v>9.5715473852598092E-4</v>
+      </c>
+      <c r="G44" s="43">
+        <f>G7/Лаб.Журнал!$C$19</f>
+        <v>1.2346919776008152E-3</v>
+      </c>
+      <c r="H44" s="43">
+        <f>H7/Лаб.Журнал!$C$19</f>
+        <v>1.4845068982277231E-3</v>
+      </c>
+      <c r="I44" s="43">
+        <f>I7/Лаб.Журнал!$C$19</f>
+        <v>1.7017960624203647E-3</v>
+      </c>
+      <c r="J44" s="43">
+        <f>J7/Лаб.Журнал!$C$19</f>
+        <v>1.8988890453047449E-3</v>
+      </c>
+      <c r="K44" s="42">
+        <f>K7/Лаб.Журнал!$C$19</f>
+        <v>1.8096706841713469E-3</v>
+      </c>
+      <c r="L44" s="42">
+        <f>L7/Лаб.Журнал!$C$19</f>
+        <v>1.6424065308504757E-3</v>
+      </c>
+      <c r="M44" s="42">
+        <f>M7/Лаб.Журнал!$C$19</f>
+        <v>1.4294401845236205E-3</v>
+      </c>
+      <c r="N44" s="42">
+        <f>N7/Лаб.Журнал!$C$19</f>
+        <v>1.1262093748743696E-3</v>
+      </c>
+      <c r="O44" s="42">
+        <f>O7/Лаб.Журнал!$C$19</f>
+        <v>8.9477517859859967E-4</v>
+      </c>
+      <c r="P44" s="42">
+        <f>P7/Лаб.Журнал!$C$19</f>
+        <v>5.7415080480755843E-4</v>
+      </c>
+      <c r="Q44" s="42">
+        <f>Q7/Лаб.Журнал!$C$19</f>
+        <v>2.1387308452440194E-4</v>
+      </c>
+      <c r="R44" s="42">
+        <f>R7/Лаб.Журнал!$C$19</f>
+        <v>-7.037790158573884E-5</v>
       </c>
     </row>
     <row r="46" spans="1:18">
-      <c r="B46" s="76" t="str">
+      <c r="B46" s="82" t="str">
         <f>CONCATENATE("Зависимость концентрации NO2 от Т (",H46," = ",J46," ",I46,")")</f>
-        <v>Зависимость концентрации NO2 от Т (λ = 0 см)</v>
-      </c>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
+        <v>Зависимость концентрации NO2 от Т (λ = 540 нм)</v>
+      </c>
+      <c r="C46" s="83"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="83"/>
       <c r="H46" s="18" t="str">
         <f t="shared" ref="H46" si="2">F9</f>
         <v>λ</v>
       </c>
       <c r="I46" s="13" t="str">
         <f>G9</f>
-        <v>см</v>
+        <v>нм</v>
       </c>
       <c r="J46" s="45">
         <f t="shared" ref="J46" si="3">H9</f>
-        <v>0</v>
+        <v>540</v>
       </c>
     </row>
     <row r="47" spans="1:18">
-      <c r="C47" s="79"/>
-      <c r="D47" s="79"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="79"/>
-      <c r="K47" s="79"/>
-      <c r="L47" s="79"/>
-      <c r="M47" s="79"/>
-      <c r="N47" s="79"/>
-      <c r="O47" s="79"/>
-      <c r="P47" s="79"/>
-      <c r="Q47" s="79"/>
-      <c r="R47" s="79"/>
+      <c r="C47" s="84"/>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="84"/>
+      <c r="M47" s="84"/>
+      <c r="N47" s="84"/>
+      <c r="O47" s="84"/>
+      <c r="P47" s="84"/>
+      <c r="Q47" s="84"/>
+      <c r="R47" s="84"/>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="46"/>
@@ -6784,152 +6800,152 @@
       </c>
       <c r="C48" s="40">
         <f>C11</f>
-        <v>273.14999999999998</v>
+        <v>303.25</v>
       </c>
       <c r="D48" s="40">
         <f t="shared" ref="D48:R48" si="4">D11</f>
-        <v>273.14999999999998</v>
+        <v>308.04999999999995</v>
       </c>
       <c r="E48" s="40">
         <f t="shared" si="4"/>
-        <v>273.14999999999998</v>
+        <v>313.14999999999998</v>
       </c>
       <c r="F48" s="40">
         <f t="shared" si="4"/>
-        <v>273.14999999999998</v>
+        <v>318.04999999999995</v>
       </c>
       <c r="G48" s="40">
         <f t="shared" si="4"/>
-        <v>273.14999999999998</v>
+        <v>323.04999999999995</v>
       </c>
       <c r="H48" s="40">
         <f t="shared" si="4"/>
-        <v>273.14999999999998</v>
+        <v>328.04999999999995</v>
       </c>
       <c r="I48" s="40">
         <f t="shared" si="4"/>
-        <v>273.14999999999998</v>
+        <v>333.04999999999995</v>
       </c>
       <c r="J48" s="41">
         <f t="shared" si="4"/>
-        <v>273.14999999999998</v>
+        <v>338.15</v>
       </c>
       <c r="K48" s="39">
         <f t="shared" si="4"/>
-        <v>273.14999999999998</v>
+        <v>335.45</v>
       </c>
       <c r="L48" s="40">
         <f t="shared" si="4"/>
-        <v>273.14999999999998</v>
+        <v>331.34999999999997</v>
       </c>
       <c r="M48" s="40">
         <f t="shared" si="4"/>
-        <v>273.14999999999998</v>
+        <v>326.75</v>
       </c>
       <c r="N48" s="40">
         <f t="shared" si="4"/>
-        <v>273.14999999999998</v>
+        <v>320.95</v>
       </c>
       <c r="O48" s="40">
         <f t="shared" si="4"/>
-        <v>273.14999999999998</v>
+        <v>316.84999999999997</v>
       </c>
       <c r="P48" s="40">
         <f t="shared" si="4"/>
-        <v>273.14999999999998</v>
+        <v>311.75</v>
       </c>
       <c r="Q48" s="40">
         <f t="shared" si="4"/>
-        <v>273.14999999999998</v>
+        <v>306.14999999999998</v>
       </c>
       <c r="R48" s="41">
         <f t="shared" si="4"/>
-        <v>273.14999999999998</v>
+        <v>301.84999999999997</v>
       </c>
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="46"/>
       <c r="B49" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="C49" s="43" t="e">
-        <f>C12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D49" s="43" t="e">
-        <f>D12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E49" s="43" t="e">
-        <f>E12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F49" s="43" t="e">
-        <f>F12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G49" s="43" t="e">
-        <f>G12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H49" s="43" t="e">
-        <f>H12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I49" s="43" t="e">
-        <f>I12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J49" s="44" t="e">
-        <f>J12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K49" s="42" t="e">
-        <f>K12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L49" s="43" t="e">
-        <f>L12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M49" s="43" t="e">
-        <f>M12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N49" s="43" t="e">
-        <f>N12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O49" s="43" t="e">
-        <f>O12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P49" s="43" t="e">
-        <f>P12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q49" s="43" t="e">
-        <f>Q12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R49" s="44" t="e">
-        <f>R12/Лаб.Журнал!$C$20/Лаб.Журнал!$C$21</f>
-        <v>#DIV/0!</v>
+        <v>36</v>
+      </c>
+      <c r="C49" s="43">
+        <f>C12/Лаб.Журнал!$C$20</f>
+        <v>6.3592491885813382E-5</v>
+      </c>
+      <c r="D49" s="43">
+        <f>D12/Лаб.Журнал!$C$20</f>
+        <v>3.7263063832137952E-4</v>
+      </c>
+      <c r="E49" s="43">
+        <f>E12/Лаб.Журнал!$C$20</f>
+        <v>6.8102089395994997E-4</v>
+      </c>
+      <c r="F49" s="43">
+        <f>F12/Лаб.Журнал!$C$20</f>
+        <v>9.759700364694473E-4</v>
+      </c>
+      <c r="G49" s="43">
+        <f>G12/Лаб.Журнал!$C$20</f>
+        <v>1.257360612140914E-3</v>
+      </c>
+      <c r="H49" s="43">
+        <f>H12/Лаб.Журнал!$C$20</f>
+        <v>1.5199990971680403E-3</v>
+      </c>
+      <c r="I49" s="43">
+        <f>I12/Лаб.Журнал!$C$20</f>
+        <v>1.7517813755198125E-3</v>
+      </c>
+      <c r="J49" s="43">
+        <f>J12/Лаб.Журнал!$C$20</f>
+        <v>1.9720753795921231E-3</v>
+      </c>
+      <c r="K49" s="42">
+        <f>K12/Лаб.Журнал!$C$20</f>
+        <v>1.8667913114923823E-3</v>
+      </c>
+      <c r="L49" s="42">
+        <f>L12/Лаб.Журнал!$C$20</f>
+        <v>1.6831981131255305E-3</v>
+      </c>
+      <c r="M49" s="42">
+        <f>M12/Лаб.Журнал!$C$20</f>
+        <v>1.4496887125308622E-3</v>
+      </c>
+      <c r="N49" s="42">
+        <f>N12/Лаб.Журнал!$C$20</f>
+        <v>1.1379792010533544E-3</v>
+      </c>
+      <c r="O49" s="42">
+        <f>O12/Лаб.Журнал!$C$20</f>
+        <v>9.0002589201249137E-4</v>
+      </c>
+      <c r="P49" s="42">
+        <f>P12/Лаб.Журнал!$C$20</f>
+        <v>5.8765151765234841E-4</v>
+      </c>
+      <c r="Q49" s="42">
+        <f>Q12/Лаб.Журнал!$C$20</f>
+        <v>2.3585130097176466E-4</v>
+      </c>
+      <c r="R49" s="42">
+        <f>R12/Лаб.Журнал!$C$20</f>
+        <v>-3.139572232497088E-5</v>
       </c>
     </row>
     <row r="76" spans="1:34">
       <c r="A76" s="16">
         <v>3</v>
       </c>
-      <c r="B76" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="C76" s="77"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="77"/>
-      <c r="G76" s="77"/>
-      <c r="H76" s="77"/>
+      <c r="B76" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76" s="83"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="83"/>
+      <c r="G76" s="83"/>
+      <c r="H76" s="83"/>
     </row>
     <row r="78" spans="1:34">
       <c r="B78" s="18" t="str">
@@ -6938,546 +6954,546 @@
       </c>
       <c r="C78" s="39">
         <f t="shared" si="5"/>
-        <v>273.14999999999998</v>
+        <v>303.25</v>
       </c>
       <c r="D78" s="40">
         <f t="shared" si="5"/>
-        <v>273.14999999999998</v>
+        <v>308.04999999999995</v>
       </c>
       <c r="E78" s="40">
         <f t="shared" si="5"/>
-        <v>273.14999999999998</v>
+        <v>313.14999999999998</v>
       </c>
       <c r="F78" s="40">
         <f t="shared" si="5"/>
-        <v>273.14999999999998</v>
+        <v>318.04999999999995</v>
       </c>
       <c r="G78" s="40">
         <f t="shared" si="5"/>
-        <v>273.14999999999998</v>
+        <v>323.04999999999995</v>
       </c>
       <c r="H78" s="40">
         <f t="shared" si="5"/>
-        <v>273.14999999999998</v>
+        <v>328.04999999999995</v>
       </c>
       <c r="I78" s="40">
         <f t="shared" si="5"/>
-        <v>273.14999999999998</v>
+        <v>333.04999999999995</v>
       </c>
       <c r="J78" s="41">
         <f t="shared" si="5"/>
-        <v>273.14999999999998</v>
+        <v>338.15</v>
       </c>
       <c r="K78" s="39">
         <f t="shared" si="5"/>
-        <v>273.14999999999998</v>
+        <v>335.45</v>
       </c>
       <c r="L78" s="40">
         <f t="shared" si="5"/>
-        <v>273.14999999999998</v>
+        <v>331.34999999999997</v>
       </c>
       <c r="M78" s="40">
         <f t="shared" si="5"/>
-        <v>273.14999999999998</v>
+        <v>326.75</v>
       </c>
       <c r="N78" s="40">
         <f t="shared" si="5"/>
-        <v>273.14999999999998</v>
+        <v>320.95</v>
       </c>
       <c r="O78" s="40">
         <f t="shared" si="5"/>
-        <v>273.14999999999998</v>
+        <v>316.84999999999997</v>
       </c>
       <c r="P78" s="40">
         <f t="shared" si="5"/>
-        <v>273.14999999999998</v>
+        <v>311.75</v>
       </c>
       <c r="Q78" s="40">
         <f t="shared" si="5"/>
-        <v>273.14999999999998</v>
+        <v>306.14999999999998</v>
       </c>
       <c r="R78" s="41">
         <f t="shared" si="5"/>
-        <v>273.14999999999998</v>
+        <v>301.84999999999997</v>
       </c>
       <c r="S78" s="39">
         <f t="shared" ref="S78:AH78" si="6">C48</f>
-        <v>273.14999999999998</v>
+        <v>303.25</v>
       </c>
       <c r="T78" s="40">
         <f t="shared" si="6"/>
-        <v>273.14999999999998</v>
+        <v>308.04999999999995</v>
       </c>
       <c r="U78" s="40">
         <f t="shared" si="6"/>
-        <v>273.14999999999998</v>
+        <v>313.14999999999998</v>
       </c>
       <c r="V78" s="40">
         <f t="shared" si="6"/>
-        <v>273.14999999999998</v>
+        <v>318.04999999999995</v>
       </c>
       <c r="W78" s="40">
         <f t="shared" si="6"/>
-        <v>273.14999999999998</v>
+        <v>323.04999999999995</v>
       </c>
       <c r="X78" s="40">
         <f t="shared" si="6"/>
-        <v>273.14999999999998</v>
+        <v>328.04999999999995</v>
       </c>
       <c r="Y78" s="40">
         <f t="shared" si="6"/>
-        <v>273.14999999999998</v>
+        <v>333.04999999999995</v>
       </c>
       <c r="Z78" s="41">
         <f t="shared" si="6"/>
-        <v>273.14999999999998</v>
+        <v>338.15</v>
       </c>
       <c r="AA78" s="39">
         <f t="shared" si="6"/>
-        <v>273.14999999999998</v>
+        <v>335.45</v>
       </c>
       <c r="AB78" s="40">
         <f t="shared" si="6"/>
-        <v>273.14999999999998</v>
+        <v>331.34999999999997</v>
       </c>
       <c r="AC78" s="40">
         <f t="shared" si="6"/>
-        <v>273.14999999999998</v>
+        <v>326.75</v>
       </c>
       <c r="AD78" s="40">
         <f t="shared" si="6"/>
-        <v>273.14999999999998</v>
+        <v>320.95</v>
       </c>
       <c r="AE78" s="40">
         <f t="shared" si="6"/>
-        <v>273.14999999999998</v>
+        <v>316.84999999999997</v>
       </c>
       <c r="AF78" s="40">
         <f t="shared" si="6"/>
-        <v>273.14999999999998</v>
+        <v>311.75</v>
       </c>
       <c r="AG78" s="40">
         <f t="shared" si="6"/>
-        <v>273.14999999999998</v>
+        <v>306.14999999999998</v>
       </c>
       <c r="AH78" s="41">
         <f t="shared" si="6"/>
-        <v>273.14999999999998</v>
+        <v>301.84999999999997</v>
       </c>
     </row>
     <row r="79" spans="1:34">
       <c r="B79" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C79" s="62">
         <f>C78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>6.555535987000001E-2</v>
       </c>
       <c r="D79" s="15">
         <f>D78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>6.6593004477999984E-2</v>
       </c>
       <c r="E79" s="15">
         <f>E78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>6.7695501873999989E-2</v>
       </c>
       <c r="F79" s="15">
         <f>F78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>6.8754764077999991E-2</v>
       </c>
       <c r="G79" s="15">
         <f>G78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>6.9835643877999981E-2</v>
       </c>
       <c r="H79" s="15">
         <f>H78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>7.0916523677999999E-2</v>
       </c>
       <c r="I79" s="15">
         <f>I78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>7.1997403477999988E-2</v>
       </c>
       <c r="J79" s="15">
         <f>J78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>7.3099900874000007E-2</v>
       </c>
       <c r="K79" s="15">
         <f>K78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>7.2516225781999996E-2</v>
       </c>
       <c r="L79" s="15">
         <f>L78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>7.1629904345999987E-2</v>
       </c>
       <c r="M79" s="15">
         <f>M78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>7.0635494929999987E-2</v>
       </c>
       <c r="N79" s="15">
         <f>N78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>6.938167436199999E-2</v>
       </c>
       <c r="O79" s="15">
         <f>O78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>6.8495352925999994E-2</v>
       </c>
       <c r="P79" s="15">
         <f>P78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>6.7392855530000004E-2</v>
       </c>
       <c r="Q79" s="15">
         <f>Q78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>6.6182270153999995E-2</v>
       </c>
       <c r="R79" s="15">
         <f>R78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>6.5252713525999984E-2</v>
       </c>
       <c r="S79" s="15">
         <f>S78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>6.555535987000001E-2</v>
       </c>
       <c r="T79" s="15">
         <f>T78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>6.6593004477999984E-2</v>
       </c>
       <c r="U79" s="15">
         <f>U78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>6.7695501873999989E-2</v>
       </c>
       <c r="V79" s="15">
         <f>V78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>6.8754764077999991E-2</v>
       </c>
       <c r="W79" s="15">
         <f>W78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>6.9835643877999981E-2</v>
       </c>
       <c r="X79" s="15">
         <f>X78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>7.0916523677999999E-2</v>
       </c>
       <c r="Y79" s="15">
         <f>Y78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>7.1997403477999988E-2</v>
       </c>
       <c r="Z79" s="15">
         <f>Z78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>7.3099900874000007E-2</v>
       </c>
       <c r="AA79" s="15">
         <f>AA78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>7.2516225781999996E-2</v>
       </c>
       <c r="AB79" s="15">
         <f>AB78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>7.1629904345999987E-2</v>
       </c>
       <c r="AC79" s="15">
         <f>AC78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>7.0635494929999987E-2</v>
       </c>
       <c r="AD79" s="15">
         <f>AD78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>6.938167436199999E-2</v>
       </c>
       <c r="AE79" s="15">
         <f>AE78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>6.8495352925999994E-2</v>
       </c>
       <c r="AF79" s="15">
         <f>AF78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>6.7392855530000004E-2</v>
       </c>
       <c r="AG79" s="15">
         <f>AG78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>6.6182270153999995E-2</v>
       </c>
       <c r="AH79" s="63">
         <f>AH78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>0</v>
+        <v>6.5252713525999984E-2</v>
       </c>
     </row>
     <row r="80" spans="1:34">
       <c r="B80" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C80" s="49" t="e">
+        <v>42</v>
+      </c>
+      <c r="C80" s="49">
         <f>C78*Лаб.Журнал!$E$22*Отчет!C44/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D80" s="13" t="e">
+        <v>8.0357455383653104E-4</v>
+      </c>
+      <c r="D80" s="13">
         <f>D78*Лаб.Журнал!$E$22*Отчет!D44/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E80" s="13" t="e">
+        <v>8.742477511942532E-3</v>
+      </c>
+      <c r="E80" s="13">
         <f>E78*Лаб.Журнал!$E$22*Отчет!E44/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F80" s="13" t="e">
+        <v>1.7224154168670517E-2</v>
+      </c>
+      <c r="F80" s="13">
         <f>F78*Лаб.Журнал!$E$22*Отчет!F44/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G80" s="13" t="e">
+        <v>2.5311133935959074E-2</v>
+      </c>
+      <c r="G80" s="13">
         <f>G78*Лаб.Журнал!$E$22*Отчет!G44/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H80" s="13" t="e">
+        <v>3.3163657402597718E-2</v>
+      </c>
+      <c r="H80" s="13">
         <f>H78*Лаб.Журнал!$E$22*Отчет!H44/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I80" s="13" t="e">
+        <v>4.0490795614738714E-2</v>
+      </c>
+      <c r="I80" s="13">
         <f>I78*Лаб.Журнал!$E$22*Отчет!I44/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J80" s="13" t="e">
+        <v>4.7124960670519488E-2</v>
+      </c>
+      <c r="J80" s="13">
         <f>J78*Лаб.Журнал!$E$22*Отчет!J44/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K80" s="13" t="e">
+        <v>5.3387923454808216E-2</v>
+      </c>
+      <c r="K80" s="13">
         <f>K78*Лаб.Журнал!$E$22*Отчет!K44/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L80" s="13" t="e">
+        <v>5.0473264586321467E-2</v>
+      </c>
+      <c r="L80" s="13">
         <f>L78*Лаб.Журнал!$E$22*Отчет!L44/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M80" s="13" t="e">
+        <v>4.5248239500794325E-2</v>
+      </c>
+      <c r="M80" s="13">
         <f>M78*Лаб.Журнал!$E$22*Отчет!M44/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N80" s="13" t="e">
+        <v>3.8834313425637097E-2</v>
+      </c>
+      <c r="N80" s="13">
         <f>N78*Лаб.Журнал!$E$22*Отчет!N44/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O80" s="13" t="e">
+        <v>3.0053189273448112E-2</v>
+      </c>
+      <c r="O80" s="13">
         <f>O78*Лаб.Журнал!$E$22*Отчет!O44/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P80" s="13" t="e">
+        <v>2.3572285249052215E-2</v>
+      </c>
+      <c r="P80" s="13">
         <f>P78*Лаб.Журнал!$E$22*Отчет!P44/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q80" s="13" t="e">
+        <v>1.4882177784934236E-2</v>
+      </c>
+      <c r="Q80" s="13">
         <f>Q78*Лаб.Журнал!$E$22*Отчет!Q44/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R80" s="13" t="e">
+        <v>5.4440793302550942E-3</v>
+      </c>
+      <c r="R80" s="13">
         <f>R78*Лаб.Журнал!$E$22*Отчет!R44/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S80" s="13" t="e">
+        <v>-1.7662880964366295E-3</v>
+      </c>
+      <c r="S80" s="13">
         <f>S78*Лаб.Журнал!$E$22*Отчет!C49/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T80" s="13" t="e">
+        <v>1.6033956502325198E-3</v>
+      </c>
+      <c r="T80" s="13">
         <f>T78*Лаб.Журнал!$E$22*Отчет!D49/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U80" s="13" t="e">
+        <v>9.5440745255290851E-3</v>
+      </c>
+      <c r="U80" s="13">
         <f>U78*Лаб.Журнал!$E$22*Отчет!E49/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V80" s="13" t="e">
+        <v>1.7731558155114978E-2</v>
+      </c>
+      <c r="V80" s="13">
         <f>V78*Лаб.Журнал!$E$22*Отчет!F49/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W80" s="13" t="e">
+        <v>2.5808688309482269E-2</v>
+      </c>
+      <c r="W80" s="13">
         <f>W78*Лаб.Журнал!$E$22*Отчет!G49/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X80" s="13" t="e">
+        <v>3.3772533821421903E-2</v>
+      </c>
+      <c r="X80" s="13">
         <f>X78*Лаб.Журнал!$E$22*Отчет!H49/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y80" s="13" t="e">
+        <v>4.1458866140329211E-2</v>
+      </c>
+      <c r="Y80" s="13">
         <f>Y78*Лаб.Журнал!$E$22*Отчет!I49/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z80" s="13" t="e">
+        <v>4.8509119422517601E-2</v>
+      </c>
+      <c r="Z80" s="13">
         <f>Z78*Лаб.Журнал!$E$22*Отчет!J49/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA80" s="13" t="e">
+        <v>5.5445582601630815E-2</v>
+      </c>
+      <c r="AA80" s="13">
         <f>AA78*Лаб.Журнал!$E$22*Отчет!K49/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB80" s="13" t="e">
+        <v>5.2066407781560568E-2</v>
+      </c>
+      <c r="AB80" s="13">
         <f>AB78*Лаб.Журнал!$E$22*Отчет!L49/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC80" s="13" t="e">
+        <v>4.6372046091749775E-2</v>
+      </c>
+      <c r="AC80" s="13">
         <f>AC78*Лаб.Журнал!$E$22*Отчет!M49/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD80" s="13" t="e">
+        <v>3.938441527078921E-2</v>
+      </c>
+      <c r="AD80" s="13">
         <f>AD78*Лаб.Журнал!$E$22*Отчет!N49/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE80" s="13" t="e">
+        <v>3.0367270137774138E-2</v>
+      </c>
+      <c r="AE80" s="13">
         <f>AE78*Лаб.Журнал!$E$22*Отчет!O49/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF80" s="13" t="e">
+        <v>2.3710611967666755E-2</v>
+      </c>
+      <c r="AF80" s="13">
         <f>AF78*Лаб.Журнал!$E$22*Отчет!P49/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG80" s="13" t="e">
+        <v>1.5232120704280754E-2</v>
+      </c>
+      <c r="AG80" s="13">
         <f>AG78*Лаб.Журнал!$E$22*Отчет!Q49/100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH80" s="47" t="e">
+        <v>6.0035286604175732E-3</v>
+      </c>
+      <c r="AH80" s="47">
         <f>AH78*Лаб.Журнал!$E$22*Отчет!R49/100</f>
-        <v>#DIV/0!</v>
+        <v>-7.8794464415891051E-4</v>
       </c>
     </row>
     <row r="81" spans="2:34">
       <c r="B81" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C81" s="42" t="e">
+        <v>43</v>
+      </c>
+      <c r="C81" s="42">
         <f>C80/C79</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D81" s="43" t="e">
+        <v>1.2257953513336894E-2</v>
+      </c>
+      <c r="D81" s="43">
         <f t="shared" ref="D81:AH81" si="7">D80/D79</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E81" s="43" t="e">
+        <v>0.13128222071480111</v>
+      </c>
+      <c r="E81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F81" s="43" t="e">
+        <v>0.25443572603582171</v>
+      </c>
+      <c r="F81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G81" s="43" t="e">
+        <v>0.36813643789460809</v>
+      </c>
+      <c r="G81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H81" s="43" t="e">
+        <v>0.47488152984646742</v>
+      </c>
+      <c r="H81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I81" s="43" t="e">
+        <v>0.57096419162604739</v>
+      </c>
+      <c r="I81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J81" s="43" t="e">
+        <v>0.65453694708475574</v>
+      </c>
+      <c r="J81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K81" s="43" t="e">
+        <v>0.73034194050182499</v>
+      </c>
+      <c r="K81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L81" s="43" t="e">
+        <v>0.69602718621974891</v>
+      </c>
+      <c r="L81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M81" s="43" t="e">
+        <v>0.63169481955787521</v>
+      </c>
+      <c r="M81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N81" s="43" t="e">
+        <v>0.54978468635523869</v>
+      </c>
+      <c r="N81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O81" s="43" t="e">
+        <v>0.43315745187475757</v>
+      </c>
+      <c r="O81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P81" s="43" t="e">
+        <v>0.34414429946099984</v>
+      </c>
+      <c r="P81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q81" s="43" t="e">
+        <v>0.22082723261829168</v>
+      </c>
+      <c r="Q81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R81" s="43" t="e">
+        <v>8.2258878663231519E-2</v>
+      </c>
+      <c r="R81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S81" s="43" t="e">
+        <v>-2.7068423686822631E-2</v>
+      </c>
+      <c r="S81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T81" s="43" t="e">
+        <v>2.4458650725312836E-2</v>
+      </c>
+      <c r="T81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U81" s="43" t="e">
+        <v>0.14331947627745367</v>
+      </c>
+      <c r="U81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V81" s="43" t="e">
+        <v>0.26193111306151923</v>
+      </c>
+      <c r="V81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W81" s="43" t="e">
+        <v>0.37537309094978744</v>
+      </c>
+      <c r="W81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X81" s="43" t="e">
+        <v>0.4836002354388132</v>
+      </c>
+      <c r="X81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y81" s="43" t="e">
+        <v>0.58461503737232312</v>
+      </c>
+      <c r="Y81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z81" s="43" t="e">
+        <v>0.67376206750762024</v>
+      </c>
+      <c r="Z81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA81" s="43" t="e">
+        <v>0.75849053061235494</v>
+      </c>
+      <c r="AA81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB81" s="43" t="e">
+        <v>0.71799665826630088</v>
+      </c>
+      <c r="AB81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC81" s="43" t="e">
+        <v>0.64738388966366556</v>
+      </c>
+      <c r="AC81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD81" s="43" t="e">
+        <v>0.55757258174263946</v>
+      </c>
+      <c r="AD81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE81" s="43" t="e">
+        <v>0.43768430809744402</v>
+      </c>
+      <c r="AE81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF81" s="43" t="e">
+        <v>0.34616380462018903</v>
+      </c>
+      <c r="AF81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG81" s="43" t="e">
+        <v>0.22601981448167244</v>
+      </c>
+      <c r="AG81" s="43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH81" s="44" t="e">
+        <v>9.0712038835294106E-2</v>
+      </c>
+      <c r="AH81" s="44">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-1.2075277817296495E-2</v>
       </c>
     </row>
     <row r="107" spans="1:34">
       <c r="A107" s="16">
         <v>4</v>
       </c>
-      <c r="B107" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="C107" s="77"/>
-      <c r="D107" s="77"/>
-      <c r="E107" s="77"/>
-      <c r="F107" s="77"/>
-      <c r="G107" s="77"/>
-      <c r="H107" s="77"/>
-      <c r="I107" s="77"/>
+      <c r="B107" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="C107" s="83"/>
+      <c r="D107" s="83"/>
+      <c r="E107" s="83"/>
+      <c r="F107" s="83"/>
+      <c r="G107" s="83"/>
+      <c r="H107" s="83"/>
+      <c r="I107" s="83"/>
     </row>
     <row r="109" spans="1:34">
       <c r="B109" s="18" t="str">
@@ -7486,589 +7502,589 @@
       </c>
       <c r="C109" s="39">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>303.25</v>
       </c>
       <c r="D109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>308.04999999999995</v>
       </c>
       <c r="E109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>313.14999999999998</v>
       </c>
       <c r="F109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>318.04999999999995</v>
       </c>
       <c r="G109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>323.04999999999995</v>
       </c>
       <c r="H109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>328.04999999999995</v>
       </c>
       <c r="I109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>333.04999999999995</v>
       </c>
       <c r="J109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>338.15</v>
       </c>
       <c r="K109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>335.45</v>
       </c>
       <c r="L109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>331.34999999999997</v>
       </c>
       <c r="M109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>326.75</v>
       </c>
       <c r="N109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>320.95</v>
       </c>
       <c r="O109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>316.84999999999997</v>
       </c>
       <c r="P109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>311.75</v>
       </c>
       <c r="Q109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>306.14999999999998</v>
       </c>
       <c r="R109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>301.84999999999997</v>
       </c>
       <c r="S109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>303.25</v>
       </c>
       <c r="T109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>308.04999999999995</v>
       </c>
       <c r="U109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>313.14999999999998</v>
       </c>
       <c r="V109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>318.04999999999995</v>
       </c>
       <c r="W109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>323.04999999999995</v>
       </c>
       <c r="X109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>328.04999999999995</v>
       </c>
       <c r="Y109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>333.04999999999995</v>
       </c>
       <c r="Z109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>338.15</v>
       </c>
       <c r="AA109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>335.45</v>
       </c>
       <c r="AB109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>331.34999999999997</v>
       </c>
       <c r="AC109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>326.75</v>
       </c>
       <c r="AD109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>320.95</v>
       </c>
       <c r="AE109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>316.84999999999997</v>
       </c>
       <c r="AF109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>311.75</v>
       </c>
       <c r="AG109" s="40">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>306.14999999999998</v>
       </c>
       <c r="AH109" s="41">
         <f t="shared" si="8"/>
-        <v>273.14999999999998</v>
+        <v>301.84999999999997</v>
       </c>
     </row>
     <row r="110" spans="1:34">
       <c r="B110" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C110" s="42" t="e">
+        <v>46</v>
+      </c>
+      <c r="C110" s="42">
         <f>2*C81*C81*C79/(1-C81)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D110" s="43" t="e">
+        <v>1.9944841996885945E-5</v>
+      </c>
+      <c r="D110" s="43">
         <f t="shared" ref="D110:AH110" si="9">2*D81*D81*D79/(1-D81)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E110" s="43" t="e">
+        <v>2.6423584038107414E-3</v>
+      </c>
+      <c r="E110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F110" s="43" t="e">
+        <v>1.1756035862494045E-2</v>
+      </c>
+      <c r="F110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G110" s="43" t="e">
+        <v>2.9493552865145645E-2</v>
+      </c>
+      <c r="G110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H110" s="43" t="e">
+        <v>5.9981925061768027E-2</v>
+      </c>
+      <c r="H110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I110" s="43" t="e">
+        <v>0.10777093163428536</v>
+      </c>
+      <c r="I110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J110" s="43" t="e">
+        <v>0.17857207958119048</v>
+      </c>
+      <c r="J110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K110" s="43" t="e">
+        <v>0.28919172442247304</v>
+      </c>
+      <c r="K110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L110" s="43" t="e">
+        <v>0.23114412037346907</v>
+      </c>
+      <c r="L110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M110" s="43" t="e">
+        <v>0.1552140996358172</v>
+      </c>
+      <c r="M110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N110" s="43" t="e">
+        <v>9.4845777917635973E-2</v>
+      </c>
+      <c r="N110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O110" s="43" t="e">
+        <v>4.5930789526831148E-2</v>
+      </c>
+      <c r="O110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P110" s="43" t="e">
+        <v>2.4737964729323998E-2</v>
+      </c>
+      <c r="P110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q110" s="43" t="e">
+        <v>8.4355877750293042E-3</v>
+      </c>
+      <c r="Q110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R110" s="43" t="e">
+        <v>9.7592632747711423E-4</v>
+      </c>
+      <c r="R110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S110" s="43" t="e">
+        <v>9.3101167253714935E-5</v>
+      </c>
+      <c r="S110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T110" s="43" t="e">
+        <v>8.0400270501462066E-5</v>
+      </c>
+      <c r="T110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U110" s="43" t="e">
+        <v>3.1933765847928217E-3</v>
+      </c>
+      <c r="U110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V110" s="43" t="e">
+        <v>1.2585401840062786E-2</v>
+      </c>
+      <c r="V110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W110" s="43" t="e">
+        <v>3.1019755837356063E-2</v>
+      </c>
+      <c r="W110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X110" s="43" t="e">
+        <v>6.3254890603149108E-2</v>
+      </c>
+      <c r="X110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y110" s="43" t="e">
+        <v>0.11669886374662794</v>
+      </c>
+      <c r="Y110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z110" s="43" t="e">
+        <v>0.20036667315412771</v>
+      </c>
+      <c r="Z110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA110" s="43" t="e">
+        <v>0.34826749836562326</v>
+      </c>
+      <c r="AA110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB110" s="43" t="e">
+        <v>0.26512811206608278</v>
+      </c>
+      <c r="AB110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC110" s="43" t="e">
+        <v>0.1702730799333326</v>
+      </c>
+      <c r="AC110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD110" s="43" t="e">
+        <v>9.9269028983118818E-2</v>
+      </c>
+      <c r="AD110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE110" s="43" t="e">
+        <v>4.7273365514982284E-2</v>
+      </c>
+      <c r="AE110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF110" s="43" t="e">
+        <v>2.5106458487917319E-2</v>
+      </c>
+      <c r="AF110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG110" s="43" t="e">
+        <v>8.8962512481850966E-3</v>
+      </c>
+      <c r="AG110" s="43">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH110" s="44" t="e">
+        <v>1.1978434736890887E-3</v>
+      </c>
+      <c r="AH110" s="44">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
+        <v>1.88022584711081E-5</v>
       </c>
     </row>
     <row r="138" spans="1:34">
       <c r="A138" s="16">
         <v>5</v>
       </c>
-      <c r="B138" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="C138" s="77"/>
-      <c r="D138" s="77"/>
-      <c r="E138" s="77"/>
-      <c r="F138" s="77"/>
-      <c r="G138" s="77"/>
-      <c r="H138" s="77"/>
-      <c r="I138" s="77"/>
+      <c r="B138" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="C138" s="83"/>
+      <c r="D138" s="83"/>
+      <c r="E138" s="83"/>
+      <c r="F138" s="83"/>
+      <c r="G138" s="83"/>
+      <c r="H138" s="83"/>
+      <c r="I138" s="83"/>
     </row>
     <row r="140" spans="1:34">
       <c r="B140" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C140" s="39">
         <f>1/C109</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.2976092333058533E-3</v>
       </c>
       <c r="D140" s="40">
         <f t="shared" ref="D140:AB140" si="10">1/D109</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.2462262619704597E-3</v>
       </c>
       <c r="E140" s="40">
         <f t="shared" si="10"/>
-        <v>3.6609921288669233E-3</v>
+        <v>3.1933578157432542E-3</v>
       </c>
       <c r="F140" s="40">
         <f t="shared" si="10"/>
-        <v>3.6609921288669233E-3</v>
+        <v>3.1441597233139449E-3</v>
       </c>
       <c r="G140" s="40">
         <f t="shared" si="10"/>
-        <v>3.6609921288669233E-3</v>
+        <v>3.0954960532425324E-3</v>
       </c>
       <c r="H140" s="40">
         <f t="shared" si="10"/>
-        <v>3.6609921288669233E-3</v>
+        <v>3.048315805517452E-3</v>
       </c>
       <c r="I140" s="40">
         <f t="shared" si="10"/>
-        <v>3.6609921288669233E-3</v>
+        <v>3.0025521693439429E-3</v>
       </c>
       <c r="J140" s="40">
         <f t="shared" si="10"/>
-        <v>3.6609921288669233E-3</v>
+        <v>2.9572674848440043E-3</v>
       </c>
       <c r="K140" s="40">
         <f t="shared" si="10"/>
-        <v>3.6609921288669233E-3</v>
+        <v>2.9810702042033089E-3</v>
       </c>
       <c r="L140" s="40">
         <f t="shared" si="10"/>
-        <v>3.6609921288669233E-3</v>
+        <v>3.0179568432171424E-3</v>
       </c>
       <c r="M140" s="40">
         <f t="shared" si="10"/>
-        <v>3.6609921288669233E-3</v>
+        <v>3.06044376434583E-3</v>
       </c>
       <c r="N140" s="40">
         <f t="shared" si="10"/>
-        <v>3.6609921288669233E-3</v>
+        <v>3.1157501168406296E-3</v>
       </c>
       <c r="O140" s="40">
         <f t="shared" si="10"/>
-        <v>3.6609921288669233E-3</v>
+        <v>3.1560675398453531E-3</v>
       </c>
       <c r="P140" s="40">
         <f t="shared" si="10"/>
-        <v>3.6609921288669233E-3</v>
+        <v>3.2076984763432237E-3</v>
       </c>
       <c r="Q140" s="40">
         <f t="shared" si="10"/>
-        <v>3.6609921288669233E-3</v>
+        <v>3.2663726931242859E-3</v>
       </c>
       <c r="R140" s="40">
         <f t="shared" si="10"/>
-        <v>3.6609921288669233E-3</v>
+        <v>3.3129037601457682E-3</v>
       </c>
       <c r="S140" s="40">
         <f t="shared" si="10"/>
-        <v>3.6609921288669233E-3</v>
+        <v>3.2976092333058533E-3</v>
       </c>
       <c r="T140" s="40">
         <f t="shared" si="10"/>
-        <v>3.6609921288669233E-3</v>
+        <v>3.2462262619704597E-3</v>
       </c>
       <c r="U140" s="40">
         <f t="shared" si="10"/>
-        <v>3.6609921288669233E-3</v>
+        <v>3.1933578157432542E-3</v>
       </c>
       <c r="V140" s="40">
         <f t="shared" si="10"/>
-        <v>3.6609921288669233E-3</v>
+        <v>3.1441597233139449E-3</v>
       </c>
       <c r="W140" s="40">
         <f t="shared" si="10"/>
-        <v>3.6609921288669233E-3</v>
+        <v>3.0954960532425324E-3</v>
       </c>
       <c r="X140" s="40">
         <f t="shared" si="10"/>
-        <v>3.6609921288669233E-3</v>
+        <v>3.048315805517452E-3</v>
       </c>
       <c r="Y140" s="40">
         <f t="shared" si="10"/>
-        <v>3.6609921288669233E-3</v>
+        <v>3.0025521693439429E-3</v>
       </c>
       <c r="Z140" s="40">
         <f t="shared" si="10"/>
-        <v>3.6609921288669233E-3</v>
+        <v>2.9572674848440043E-3</v>
       </c>
       <c r="AA140" s="40">
         <f t="shared" si="10"/>
-        <v>3.6609921288669233E-3</v>
+        <v>2.9810702042033089E-3</v>
       </c>
       <c r="AB140" s="40">
         <f t="shared" si="10"/>
-        <v>3.6609921288669233E-3</v>
+        <v>3.0179568432171424E-3</v>
       </c>
       <c r="AC140" s="40">
         <f t="shared" ref="AC140:AH140" si="11">1/AC109</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.06044376434583E-3</v>
       </c>
       <c r="AD140" s="40">
         <f t="shared" si="11"/>
-        <v>3.6609921288669233E-3</v>
+        <v>3.1157501168406296E-3</v>
       </c>
       <c r="AE140" s="40">
         <f t="shared" si="11"/>
-        <v>3.6609921288669233E-3</v>
+        <v>3.1560675398453531E-3</v>
       </c>
       <c r="AF140" s="40">
         <f t="shared" si="11"/>
-        <v>3.6609921288669233E-3</v>
+        <v>3.2076984763432237E-3</v>
       </c>
       <c r="AG140" s="40">
         <f t="shared" si="11"/>
-        <v>3.6609921288669233E-3</v>
+        <v>3.2663726931242859E-3</v>
       </c>
       <c r="AH140" s="41">
         <f t="shared" si="11"/>
-        <v>3.6609921288669233E-3</v>
+        <v>3.3129037601457682E-3</v>
       </c>
     </row>
     <row r="141" spans="1:34">
       <c r="B141" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C141" s="42">
+        <f>LN(C110)</f>
+        <v>-10.822539994579323</v>
+      </c>
+      <c r="D141" s="43">
+        <f t="shared" ref="D141:AB141" si="12">LN(D110)</f>
+        <v>-5.9360834258331456</v>
+      </c>
+      <c r="E141" s="43">
+        <f t="shared" si="12"/>
+        <v>-4.4433884798607037</v>
+      </c>
+      <c r="F141" s="43">
+        <f t="shared" si="12"/>
+        <v>-3.5235835864654419</v>
+      </c>
+      <c r="G141" s="43">
+        <f t="shared" si="12"/>
+        <v>-2.8137120111151552</v>
+      </c>
+      <c r="H141" s="43">
+        <f t="shared" si="12"/>
+        <v>-2.2277473077574688</v>
+      </c>
+      <c r="I141" s="43">
+        <f t="shared" si="12"/>
+        <v>-1.7227629520930823</v>
+      </c>
+      <c r="J141" s="43">
+        <f t="shared" si="12"/>
+        <v>-1.2406654045202583</v>
+      </c>
+      <c r="K141" s="43">
+        <f t="shared" si="12"/>
+        <v>-1.4647138652829685</v>
+      </c>
+      <c r="L141" s="43">
+        <f t="shared" si="12"/>
+        <v>-1.8629498271905385</v>
+      </c>
+      <c r="M141" s="43">
+        <f t="shared" si="12"/>
+        <v>-2.3555030968482003</v>
+      </c>
+      <c r="N141" s="43">
+        <f t="shared" si="12"/>
+        <v>-3.0806195910070451</v>
+      </c>
+      <c r="O141" s="43">
+        <f t="shared" si="12"/>
+        <v>-3.6994161817994358</v>
+      </c>
+      <c r="P141" s="43">
+        <f t="shared" si="12"/>
+        <v>-4.7752958825394716</v>
+      </c>
+      <c r="Q141" s="43">
+        <f t="shared" si="12"/>
+        <v>-6.932123458542554</v>
+      </c>
+      <c r="R141" s="43">
+        <f t="shared" si="12"/>
+        <v>-9.2818238361259606</v>
+      </c>
+      <c r="S141" s="43">
+        <f t="shared" si="12"/>
+        <v>-9.4284930173389672</v>
+      </c>
+      <c r="T141" s="43">
+        <f t="shared" si="12"/>
+        <v>-5.7466764314608225</v>
+      </c>
+      <c r="U141" s="43">
+        <f t="shared" si="12"/>
+        <v>-4.3752177208241365</v>
+      </c>
+      <c r="V141" s="43">
+        <f t="shared" si="12"/>
+        <v>-3.4731309924008902</v>
+      </c>
+      <c r="W141" s="43">
+        <f t="shared" si="12"/>
+        <v>-2.7605828325747641</v>
+      </c>
+      <c r="X141" s="43">
+        <f t="shared" si="12"/>
+        <v>-2.1481584762697783</v>
+      </c>
+      <c r="Y141" s="43">
+        <f t="shared" si="12"/>
+        <v>-1.6076062252271852</v>
+      </c>
+      <c r="Z141" s="43">
+        <f t="shared" si="12"/>
+        <v>-1.0547844210213702</v>
+      </c>
+      <c r="AA141" s="43">
+        <f t="shared" si="12"/>
+        <v>-1.32754212805743</v>
+      </c>
+      <c r="AB141" s="43">
+        <f t="shared" si="12"/>
+        <v>-1.7703517781871179</v>
+      </c>
+      <c r="AC141" s="43">
+        <f t="shared" ref="AC141:AH141" si="13">LN(AC110)</f>
+        <v>-2.3099216500026509</v>
+      </c>
+      <c r="AD141" s="43">
+        <f t="shared" si="13"/>
+        <v>-3.0518082390177046</v>
+      </c>
+      <c r="AE141" s="43">
+        <f t="shared" si="13"/>
+        <v>-3.6846301556674197</v>
+      </c>
+      <c r="AF141" s="43">
+        <f t="shared" si="13"/>
+        <v>-4.7221252990461693</v>
+      </c>
+      <c r="AG141" s="43">
+        <f t="shared" si="13"/>
+        <v>-6.7272324441781786</v>
+      </c>
+      <c r="AH141" s="44">
+        <f t="shared" si="13"/>
+        <v>-10.881533563901653</v>
+      </c>
+    </row>
+    <row r="143" spans="1:34">
+      <c r="B143" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="C141" s="42" t="e">
-        <f>LN(C110)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D141" s="43" t="e">
-        <f t="shared" ref="D141:AB141" si="12">LN(D110)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E141" s="43" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F141" s="43" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G141" s="43" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H141" s="43" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I141" s="43" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J141" s="43" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K141" s="43" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L141" s="43" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M141" s="43" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N141" s="43" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O141" s="43" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P141" s="43" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q141" s="43" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R141" s="43" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S141" s="43" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T141" s="43" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U141" s="43" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V141" s="43" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W141" s="43" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X141" s="43" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y141" s="43" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z141" s="43" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA141" s="43" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB141" s="43" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC141" s="43" t="e">
-        <f t="shared" ref="AC141:AH141" si="13">LN(AC110)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD141" s="43" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE141" s="43" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF141" s="43" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG141" s="43" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH141" s="44" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="143" spans="1:34">
-      <c r="B143" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="C143" s="79"/>
-      <c r="D143" s="79"/>
-      <c r="E143" s="79"/>
+      <c r="C143" s="84"/>
+      <c r="D143" s="84"/>
+      <c r="E143" s="84"/>
     </row>
     <row r="145" spans="1:34">
       <c r="A145" s="16">
         <v>6</v>
       </c>
       <c r="B145" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C145" s="13" t="e">
+        <v>51</v>
+      </c>
+      <c r="C145" s="13">
         <f>МНК!$B$9*Лаб.Журнал!E22*(-1)</f>
-        <v>#DIV/0!</v>
+        <v>190697.32493797451</v>
       </c>
     </row>
     <row r="146" spans="1:34">
       <c r="B146" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C146" s="13" t="e">
+        <v>52</v>
+      </c>
+      <c r="C146" s="13">
         <f>МНК!$B$10*Лаб.Журнал!E22</f>
-        <v>#DIV/0!</v>
+        <v>563.05672443354752</v>
       </c>
     </row>
     <row r="148" spans="1:34">
       <c r="A148" s="16">
         <v>7</v>
       </c>
-      <c r="B148" s="76" t="s">
-        <v>107</v>
-      </c>
-      <c r="C148" s="77"/>
-      <c r="D148" s="77"/>
-      <c r="E148" s="77"/>
-      <c r="F148" s="77"/>
-      <c r="G148" s="77"/>
-      <c r="H148" s="77"/>
+      <c r="B148" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C148" s="83"/>
+      <c r="D148" s="83"/>
+      <c r="E148" s="83"/>
+      <c r="F148" s="83"/>
+      <c r="G148" s="83"/>
+      <c r="H148" s="83"/>
     </row>
     <row r="150" spans="1:34">
       <c r="B150" s="18" t="str">
@@ -8077,297 +8093,297 @@
       </c>
       <c r="C150" s="39">
         <f t="shared" ref="C150:AH150" si="14">C78</f>
-        <v>273.14999999999998</v>
+        <v>303.25</v>
       </c>
       <c r="D150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>308.04999999999995</v>
       </c>
       <c r="E150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>313.14999999999998</v>
       </c>
       <c r="F150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>318.04999999999995</v>
       </c>
       <c r="G150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>323.04999999999995</v>
       </c>
       <c r="H150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>328.04999999999995</v>
       </c>
       <c r="I150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>333.04999999999995</v>
       </c>
       <c r="J150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>338.15</v>
       </c>
       <c r="K150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>335.45</v>
       </c>
       <c r="L150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>331.34999999999997</v>
       </c>
       <c r="M150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>326.75</v>
       </c>
       <c r="N150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>320.95</v>
       </c>
       <c r="O150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>316.84999999999997</v>
       </c>
       <c r="P150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>311.75</v>
       </c>
       <c r="Q150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>306.14999999999998</v>
       </c>
       <c r="R150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>301.84999999999997</v>
       </c>
       <c r="S150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>303.25</v>
       </c>
       <c r="T150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>308.04999999999995</v>
       </c>
       <c r="U150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>313.14999999999998</v>
       </c>
       <c r="V150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>318.04999999999995</v>
       </c>
       <c r="W150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>323.04999999999995</v>
       </c>
       <c r="X150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>328.04999999999995</v>
       </c>
       <c r="Y150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>333.04999999999995</v>
       </c>
       <c r="Z150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>338.15</v>
       </c>
       <c r="AA150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>335.45</v>
       </c>
       <c r="AB150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>331.34999999999997</v>
       </c>
       <c r="AC150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>326.75</v>
       </c>
       <c r="AD150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>320.95</v>
       </c>
       <c r="AE150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>316.84999999999997</v>
       </c>
       <c r="AF150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>311.75</v>
       </c>
       <c r="AG150" s="40">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>306.14999999999998</v>
       </c>
       <c r="AH150" s="41">
         <f t="shared" si="14"/>
-        <v>273.14999999999998</v>
+        <v>301.84999999999997</v>
       </c>
     </row>
     <row r="151" spans="1:34">
       <c r="B151" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="C151" s="42" t="e">
+        <v>92</v>
+      </c>
+      <c r="C151" s="42">
         <f>C110/C150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D151" s="43" t="e">
+        <v>7.9103507775318476E-9</v>
+      </c>
+      <c r="D151" s="43">
         <f>D110/D150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E151" s="43" t="e">
+        <v>1.0316596921494328E-6</v>
+      </c>
+      <c r="E151" s="43">
         <f>E110/E150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F151" s="43" t="e">
+        <v>4.5151734452572199E-6</v>
+      </c>
+      <c r="F151" s="43">
         <f>F110/F150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G151" s="43" t="e">
+        <v>1.1153152581890048E-5</v>
+      </c>
+      <c r="G151" s="43">
         <f>G110/G150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H151" s="43" t="e">
+        <v>2.2331433706409348E-5</v>
+      </c>
+      <c r="H151" s="43">
         <f>H110/H150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I151" s="43" t="e">
+        <v>3.9511866588585764E-5</v>
+      </c>
+      <c r="I151" s="43">
         <f>I110/I150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J151" s="43" t="e">
+        <v>6.4486687641862809E-5</v>
+      </c>
+      <c r="J151" s="43">
         <f>J110/J150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K151" s="43" t="e">
+        <v>1.028590291516884E-4</v>
+      </c>
+      <c r="K151" s="43">
         <f>K110/K150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L151" s="43" t="e">
+        <v>8.2874516218988569E-5</v>
+      </c>
+      <c r="L151" s="43">
         <f>L110/L150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M151" s="43" t="e">
+        <v>5.6339131363877137E-5</v>
+      </c>
+      <c r="M151" s="43">
         <f>M110/M150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N151" s="43" t="e">
+        <v>3.4911487890080467E-5</v>
+      </c>
+      <c r="N151" s="43">
         <f>N110/N150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O151" s="43" t="e">
+        <v>1.7212045380554661E-5</v>
+      </c>
+      <c r="O151" s="43">
         <f>O110/O150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P151" s="43" t="e">
+        <v>9.3902294898356243E-6</v>
+      </c>
+      <c r="P151" s="43">
         <f>P110/P150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q151" s="43" t="e">
+        <v>3.2544292777908632E-6</v>
+      </c>
+      <c r="Q151" s="43">
         <f>Q110/Q150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R151" s="43" t="e">
+        <v>3.8339701033769061E-7</v>
+      </c>
+      <c r="R151" s="43">
         <f>R110/R150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S151" s="43" t="e">
+        <v>3.709624041354366E-8</v>
+      </c>
+      <c r="S151" s="43">
         <f>S110/S150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T151" s="43" t="e">
+        <v>3.1887660096495686E-8</v>
+      </c>
+      <c r="T151" s="43">
         <f>T110/T150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U151" s="43" t="e">
+        <v>1.2467944922359353E-6</v>
+      </c>
+      <c r="U151" s="43">
         <f>U110/U150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V151" s="43" t="e">
+        <v>4.8337103468215652E-6</v>
+      </c>
+      <c r="V151" s="43">
         <f>V110/V150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W151" s="43" t="e">
+        <v>1.1730294803372385E-5</v>
+      </c>
+      <c r="W151" s="43">
         <f>W110/W150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X151" s="43" t="e">
+        <v>2.3549967672023943E-5</v>
+      </c>
+      <c r="X151" s="43">
         <f>X110/X150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y151" s="43" t="e">
+        <v>4.278509859266549E-5</v>
+      </c>
+      <c r="Y151" s="43">
         <f>Y110/Y150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z151" s="43" t="e">
+        <v>7.2357241377450239E-5</v>
+      </c>
+      <c r="Z151" s="43">
         <f>Z110/Z150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA151" s="43" t="e">
+        <v>1.2387096082543182E-4</v>
+      </c>
+      <c r="AA151" s="43">
         <f>AA110/AA150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB151" s="43" t="e">
+        <v>9.5059151788194927E-5</v>
+      </c>
+      <c r="AB151" s="43">
         <f>AB110/AB150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC151" s="43" t="e">
+        <v>6.1805193217654613E-5</v>
+      </c>
+      <c r="AC151" s="43">
         <f>AC110/AC150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD151" s="43" t="e">
+        <v>3.6539628640230566E-5</v>
+      </c>
+      <c r="AD151" s="43">
         <f>AD110/AD150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE151" s="43" t="e">
+        <v>1.7715160590917011E-5</v>
+      </c>
+      <c r="AE151" s="43">
         <f>AE110/AE150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF151" s="43" t="e">
+        <v>9.5301052232124151E-6</v>
+      </c>
+      <c r="AF151" s="43">
         <f>AF110/AF150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG151" s="43" t="e">
+        <v>3.4321521270136406E-6</v>
+      </c>
+      <c r="AG151" s="43">
         <f>AG110/AG150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AH151" s="44" t="e">
+        <v>4.7057815096773306E-7</v>
+      </c>
+      <c r="AH151" s="44">
         <f>AH110/AH150/Лаб.Журнал!$E$22</f>
-        <v>#DIV/0!</v>
+        <v>7.4917761091119139E-9</v>
       </c>
     </row>
     <row r="180" spans="2:8">
       <c r="B180" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C180" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D180" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D180" s="13" t="s">
+      <c r="E180" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E180" s="13" t="s">
+      <c r="F180" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F180" s="13" t="s">
+      <c r="G180" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G180" s="13" t="s">
+      <c r="H180" s="13" t="s">
         <v>100</v>
-      </c>
-      <c r="H180" s="13" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="181" spans="2:8">
       <c r="B181" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="182" spans="2:8">
       <c r="B182" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C182" s="13">
         <v>13.3</v>
@@ -8390,7 +8406,7 @@
     </row>
     <row r="183" spans="2:8">
       <c r="B183" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C183" s="13">
         <f>C182</f>
@@ -8419,7 +8435,7 @@
     </row>
     <row r="184" spans="2:8">
       <c r="B184" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C184" s="13">
         <f>C181*C183*C183/C182</f>
@@ -8448,22 +8464,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B107:I107"/>
+    <mergeCell ref="B138:I138"/>
+    <mergeCell ref="B143:E143"/>
+    <mergeCell ref="B148:H148"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="K10:R10"/>
     <mergeCell ref="B41:G41"/>
     <mergeCell ref="B46:G46"/>
     <mergeCell ref="C47:R47"/>
     <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B107:I107"/>
-    <mergeCell ref="B138:I138"/>
-    <mergeCell ref="B143:E143"/>
-    <mergeCell ref="B148:H148"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8475,8 +8491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG52"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8589,131 +8605,131 @@
       </c>
       <c r="B2" s="1">
         <f>Отчет!C140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.2976092333058533E-3</v>
       </c>
       <c r="C2" s="1">
         <f>Отчет!D140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.2462262619704597E-3</v>
       </c>
       <c r="D2" s="1">
         <f>Отчет!E140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.1933578157432542E-3</v>
       </c>
       <c r="E2" s="1">
         <f>Отчет!F140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.1441597233139449E-3</v>
       </c>
       <c r="F2" s="1">
         <f>Отчет!G140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.0954960532425324E-3</v>
       </c>
       <c r="G2" s="1">
         <f>Отчет!H140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.048315805517452E-3</v>
       </c>
       <c r="H2" s="1">
         <f>Отчет!I140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.0025521693439429E-3</v>
       </c>
       <c r="I2" s="1">
         <f>Отчет!J140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>2.9572674848440043E-3</v>
       </c>
       <c r="J2" s="1">
         <f>Отчет!K140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>2.9810702042033089E-3</v>
       </c>
       <c r="K2" s="1">
         <f>Отчет!L140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.0179568432171424E-3</v>
       </c>
       <c r="L2" s="1">
         <f>Отчет!M140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.06044376434583E-3</v>
       </c>
       <c r="M2" s="1">
         <f>Отчет!N140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.1157501168406296E-3</v>
       </c>
       <c r="N2" s="1">
         <f>Отчет!O140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.1560675398453531E-3</v>
       </c>
       <c r="O2" s="1">
         <f>Отчет!P140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.2076984763432237E-3</v>
       </c>
       <c r="P2" s="1">
         <f>Отчет!Q140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.2663726931242859E-3</v>
       </c>
       <c r="Q2" s="1">
         <f>Отчет!R140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.3129037601457682E-3</v>
       </c>
       <c r="R2" s="1">
         <f>Отчет!S140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.2976092333058533E-3</v>
       </c>
       <c r="S2" s="1">
         <f>Отчет!T140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.2462262619704597E-3</v>
       </c>
       <c r="T2" s="1">
         <f>Отчет!U140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.1933578157432542E-3</v>
       </c>
       <c r="U2" s="1">
         <f>Отчет!V140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.1441597233139449E-3</v>
       </c>
       <c r="V2">
         <f>Отчет!W140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.0954960532425324E-3</v>
       </c>
       <c r="W2">
         <f>Отчет!X140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.048315805517452E-3</v>
       </c>
       <c r="X2">
         <f>Отчет!Y140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.0025521693439429E-3</v>
       </c>
       <c r="Y2">
         <f>Отчет!Z140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>2.9572674848440043E-3</v>
       </c>
       <c r="Z2">
         <f>Отчет!AA140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>2.9810702042033089E-3</v>
       </c>
       <c r="AA2">
         <f>Отчет!AB140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.0179568432171424E-3</v>
       </c>
       <c r="AB2">
         <f>Отчет!AC140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.06044376434583E-3</v>
       </c>
       <c r="AC2">
         <f>Отчет!AD140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.1157501168406296E-3</v>
       </c>
       <c r="AD2">
         <f>Отчет!AE140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.1560675398453531E-3</v>
       </c>
       <c r="AE2">
         <f>Отчет!AF140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.2076984763432237E-3</v>
       </c>
       <c r="AF2">
         <f>Отчет!AG140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.2663726931242859E-3</v>
       </c>
       <c r="AG2">
         <f>Отчет!AH140</f>
-        <v>3.6609921288669233E-3</v>
+        <v>3.3129037601457682E-3</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -8721,133 +8737,133 @@
         <f>Отчет!B141</f>
         <v>ln(Kp)</v>
       </c>
-      <c r="B3" s="1" t="e">
+      <c r="B3" s="1">
         <f>Отчет!C141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C3" s="1" t="e">
+        <v>-10.822539994579323</v>
+      </c>
+      <c r="C3" s="1">
         <f>Отчет!D141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D3" s="1" t="e">
+        <v>-5.9360834258331456</v>
+      </c>
+      <c r="D3" s="1">
         <f>Отчет!E141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E3" s="1" t="e">
+        <v>-4.4433884798607037</v>
+      </c>
+      <c r="E3" s="1">
         <f>Отчет!F141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F3" s="1" t="e">
+        <v>-3.5235835864654419</v>
+      </c>
+      <c r="F3" s="1">
         <f>Отчет!G141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G3" s="1" t="e">
+        <v>-2.8137120111151552</v>
+      </c>
+      <c r="G3" s="1">
         <f>Отчет!H141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H3" s="1" t="e">
+        <v>-2.2277473077574688</v>
+      </c>
+      <c r="H3" s="1">
         <f>Отчет!I141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" s="1" t="e">
+        <v>-1.7227629520930823</v>
+      </c>
+      <c r="I3" s="1">
         <f>Отчет!J141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J3" s="1" t="e">
+        <v>-1.2406654045202583</v>
+      </c>
+      <c r="J3" s="1">
         <f>Отчет!K141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" s="1" t="e">
+        <v>-1.4647138652829685</v>
+      </c>
+      <c r="K3" s="1">
         <f>Отчет!L141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" s="1" t="e">
+        <v>-1.8629498271905385</v>
+      </c>
+      <c r="L3" s="1">
         <f>Отчет!M141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M3" s="1" t="e">
+        <v>-2.3555030968482003</v>
+      </c>
+      <c r="M3" s="1">
         <f>Отчет!N141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N3" s="1" t="e">
+        <v>-3.0806195910070451</v>
+      </c>
+      <c r="N3" s="1">
         <f>Отчет!O141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O3" s="1" t="e">
+        <v>-3.6994161817994358</v>
+      </c>
+      <c r="O3" s="1">
         <f>Отчет!P141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P3" s="1" t="e">
+        <v>-4.7752958825394716</v>
+      </c>
+      <c r="P3" s="1">
         <f>Отчет!Q141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q3" s="1" t="e">
+        <v>-6.932123458542554</v>
+      </c>
+      <c r="Q3" s="1">
         <f>Отчет!R141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R3" s="1" t="e">
+        <v>-9.2818238361259606</v>
+      </c>
+      <c r="R3" s="1">
         <f>Отчет!S141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S3" s="1" t="e">
+        <v>-9.4284930173389672</v>
+      </c>
+      <c r="S3" s="1">
         <f>Отчет!T141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T3" s="1" t="e">
+        <v>-5.7466764314608225</v>
+      </c>
+      <c r="T3" s="1">
         <f>Отчет!U141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U3" s="1" t="e">
+        <v>-4.3752177208241365</v>
+      </c>
+      <c r="U3" s="1">
         <f>Отчет!V141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V3" t="e">
+        <v>-3.4731309924008902</v>
+      </c>
+      <c r="V3">
         <f>Отчет!W141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W3" t="e">
+        <v>-2.7605828325747641</v>
+      </c>
+      <c r="W3">
         <f>Отчет!X141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X3" t="e">
+        <v>-2.1481584762697783</v>
+      </c>
+      <c r="X3">
         <f>Отчет!Y141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y3" t="e">
+        <v>-1.6076062252271852</v>
+      </c>
+      <c r="Y3">
         <f>Отчет!Z141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z3" t="e">
+        <v>-1.0547844210213702</v>
+      </c>
+      <c r="Z3">
         <f>Отчет!AA141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA3" t="e">
+        <v>-1.32754212805743</v>
+      </c>
+      <c r="AA3">
         <f>Отчет!AB141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB3" t="e">
+        <v>-1.7703517781871179</v>
+      </c>
+      <c r="AB3">
         <f>Отчет!AC141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC3" t="e">
+        <v>-2.3099216500026509</v>
+      </c>
+      <c r="AC3">
         <f>Отчет!AD141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD3" t="e">
+        <v>-3.0518082390177046</v>
+      </c>
+      <c r="AD3">
         <f>Отчет!AE141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE3" t="e">
+        <v>-3.6846301556674197</v>
+      </c>
+      <c r="AE3">
         <f>Отчет!AF141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF3" t="e">
+        <v>-4.7221252990461693</v>
+      </c>
+      <c r="AF3">
         <f>Отчет!AG141</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG3" t="e">
+        <v>-6.7272324441781786</v>
+      </c>
+      <c r="AG3">
         <f>Отчет!AH141</f>
-        <v>#DIV/0!</v>
+        <v>-10.881533563901653</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -8856,397 +8872,397 @@
       </c>
       <c r="B4" s="3">
         <f>B2*B2</f>
-        <v>1.3402863367625568E-5</v>
+        <v>1.0874226655584017E-5</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:G5" si="0">C2*C2</f>
-        <v>1.3402863367625568E-5</v>
+        <v>1.0537984943906704E-5</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>1.3402863367625568E-5</v>
+        <v>1.0197534139368528E-5</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="0"/>
-        <v>1.3402863367625568E-5</v>
+        <v>9.8857403657096229E-6</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" si="0"/>
-        <v>1.3402863367625568E-5</v>
+        <v>9.5820958156400959E-6</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
-        <v>1.3402863367625568E-5</v>
+        <v>9.2922292501675115E-6</v>
       </c>
       <c r="H4" s="3">
         <f t="shared" ref="H4:L4" si="1">H2*H2</f>
-        <v>1.3402863367625568E-5</v>
+        <v>9.0153195296320178E-6</v>
       </c>
       <c r="I4" s="3">
         <f t="shared" si="1"/>
-        <v>1.3402863367625568E-5</v>
+        <v>8.7454309769155832E-6</v>
       </c>
       <c r="J4" s="3">
         <f t="shared" si="1"/>
-        <v>1.3402863367625568E-5</v>
+        <v>8.8867795623887589E-6</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" si="1"/>
-        <v>1.3402863367625568E-5</v>
+        <v>9.1080635075211802E-6</v>
       </c>
       <c r="L4" s="3">
         <f t="shared" si="1"/>
-        <v>1.3402863367625568E-5</v>
+        <v>9.3663160347232746E-6</v>
       </c>
       <c r="M4" s="3">
         <f t="shared" ref="M4:P4" si="2">M2*M2</f>
-        <v>1.3402863367625568E-5</v>
+        <v>9.7078987905923978E-6</v>
       </c>
       <c r="N4" s="3">
         <f t="shared" si="2"/>
-        <v>1.3402863367625568E-5</v>
+        <v>9.9607623160654999E-6</v>
       </c>
       <c r="O4" s="3">
         <f t="shared" si="2"/>
-        <v>1.3402863367625568E-5</v>
+        <v>1.028932951513464E-5</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" si="2"/>
-        <v>1.3402863367625568E-5</v>
+        <v>1.0669190570387999E-5</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" ref="Q4:U4" si="3">Q2*Q2</f>
-        <v>1.3402863367625568E-5</v>
+        <v>1.0975331323987969E-5</v>
       </c>
       <c r="R4" s="3">
         <f t="shared" si="3"/>
-        <v>1.3402863367625568E-5</v>
+        <v>1.0874226655584017E-5</v>
       </c>
       <c r="S4" s="3">
         <f t="shared" si="3"/>
-        <v>1.3402863367625568E-5</v>
+        <v>1.0537984943906704E-5</v>
       </c>
       <c r="T4" s="3">
         <f t="shared" si="3"/>
-        <v>1.3402863367625568E-5</v>
+        <v>1.0197534139368528E-5</v>
       </c>
       <c r="U4" s="3">
         <f t="shared" si="3"/>
-        <v>1.3402863367625568E-5</v>
+        <v>9.8857403657096229E-6</v>
       </c>
       <c r="V4" s="3">
         <f t="shared" ref="V4:AG4" si="4">V2*V2</f>
-        <v>1.3402863367625568E-5</v>
+        <v>9.5820958156400959E-6</v>
       </c>
       <c r="W4" s="3">
         <f t="shared" si="4"/>
-        <v>1.3402863367625568E-5</v>
+        <v>9.2922292501675115E-6</v>
       </c>
       <c r="X4" s="3">
         <f t="shared" si="4"/>
-        <v>1.3402863367625568E-5</v>
+        <v>9.0153195296320178E-6</v>
       </c>
       <c r="Y4" s="3">
         <f t="shared" si="4"/>
-        <v>1.3402863367625568E-5</v>
+        <v>8.7454309769155832E-6</v>
       </c>
       <c r="Z4" s="3">
         <f t="shared" si="4"/>
-        <v>1.3402863367625568E-5</v>
+        <v>8.8867795623887589E-6</v>
       </c>
       <c r="AA4" s="3">
         <f t="shared" si="4"/>
-        <v>1.3402863367625568E-5</v>
+        <v>9.1080635075211802E-6</v>
       </c>
       <c r="AB4" s="3">
         <f t="shared" si="4"/>
-        <v>1.3402863367625568E-5</v>
+        <v>9.3663160347232746E-6</v>
       </c>
       <c r="AC4" s="3">
         <f t="shared" si="4"/>
-        <v>1.3402863367625568E-5</v>
+        <v>9.7078987905923978E-6</v>
       </c>
       <c r="AD4" s="3">
         <f t="shared" si="4"/>
-        <v>1.3402863367625568E-5</v>
+        <v>9.9607623160654999E-6</v>
       </c>
       <c r="AE4" s="3">
         <f t="shared" si="4"/>
-        <v>1.3402863367625568E-5</v>
+        <v>1.028932951513464E-5</v>
       </c>
       <c r="AF4" s="3">
         <f t="shared" si="4"/>
-        <v>1.3402863367625568E-5</v>
+        <v>1.0669190570387999E-5</v>
       </c>
       <c r="AG4" s="3">
         <f t="shared" si="4"/>
-        <v>1.3402863367625568E-5</v>
+        <v>1.0975331323987969E-5</v>
       </c>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="e">
+      <c r="B5" s="3">
         <f>B3*B3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C5" s="3" t="e">
+        <v>117.12737193426901</v>
+      </c>
+      <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D5" s="3" t="e">
+        <v>35.237086438450973</v>
+      </c>
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5" s="3" t="e">
+        <v>19.743701182958816</v>
+      </c>
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F5" s="3" t="e">
+        <v>12.415641290808667</v>
+      </c>
+      <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="3" t="e">
+        <v>7.9169752814936913</v>
+      </c>
+      <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H5" s="3" t="e">
+        <v>4.9628580672206501</v>
+      </c>
+      <c r="H5" s="3">
         <f t="shared" ref="H5:L5" si="5">H3*H3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I5" s="3" t="e">
+        <v>2.9679121891044717</v>
+      </c>
+      <c r="I5" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J5" s="3" t="e">
+        <v>1.5392506459734161</v>
+      </c>
+      <c r="J5" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="3" t="e">
+        <v>2.1453867071521739</v>
+      </c>
+      <c r="K5" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="3" t="e">
+        <v>3.4705820586292573</v>
+      </c>
+      <c r="L5" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="3" t="e">
+        <v>5.5483948392614622</v>
+      </c>
+      <c r="M5" s="3">
         <f t="shared" ref="M5:P5" si="6">M3*M3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="3" t="e">
+        <v>9.490217064496413</v>
+      </c>
+      <c r="N5" s="3">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O5" s="3" t="e">
+        <v>13.685680086159516</v>
+      </c>
+      <c r="O5" s="3">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P5" s="3" t="e">
+        <v>22.803450765798431</v>
+      </c>
+      <c r="P5" s="3">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q5" s="3" t="e">
+        <v>48.054335644475977</v>
+      </c>
+      <c r="Q5" s="3">
         <f t="shared" ref="Q5:U5" si="7">Q3*Q3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R5" s="3" t="e">
+        <v>86.152253724876047</v>
+      </c>
+      <c r="R5" s="3">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S5" s="3" t="e">
+        <v>88.896480578009658</v>
+      </c>
+      <c r="S5" s="3">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T5" s="3" t="e">
+        <v>33.024290007907297</v>
+      </c>
+      <c r="T5" s="3">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U5" s="3" t="e">
+        <v>19.142530104613552</v>
+      </c>
+      <c r="U5" s="3">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V5" s="3" t="e">
+        <v>12.062638890375592</v>
+      </c>
+      <c r="V5" s="3">
         <f t="shared" ref="V5:AG5" si="8">V3*V3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W5" s="3" t="e">
+        <v>7.620817575506508</v>
+      </c>
+      <c r="W5" s="3">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X5" s="3" t="e">
+        <v>4.6145848391696953</v>
+      </c>
+      <c r="X5" s="3">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y5" s="3" t="e">
+        <v>2.5843977753891996</v>
+      </c>
+      <c r="Y5" s="3">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z5" s="3" t="e">
+        <v>1.112570174829387</v>
+      </c>
+      <c r="Z5" s="3">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA5" s="3" t="e">
+        <v>1.7623681017672499</v>
+      </c>
+      <c r="AA5" s="3">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB5" s="3" t="e">
+        <v>3.1341454185302902</v>
+      </c>
+      <c r="AB5" s="3">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC5" s="3" t="e">
+        <v>5.3357380291509697</v>
+      </c>
+      <c r="AC5" s="3">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD5" s="3" t="e">
+        <v>9.3135335277363431</v>
+      </c>
+      <c r="AD5" s="3">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE5" s="3" t="e">
+        <v>13.576499384053713</v>
+      </c>
+      <c r="AE5" s="3">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF5" s="3" t="e">
+        <v>22.298467339891875</v>
+      </c>
+      <c r="AF5" s="3">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG5" s="3" t="e">
+        <v>45.255656358003513</v>
+      </c>
+      <c r="AG5" s="3">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>118.40777270231823</v>
       </c>
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5" t="e">
+      <c r="B6" s="5">
         <f>B2*B3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C6" s="5" t="e">
+        <v>-3.5688507813946654E-2</v>
+      </c>
+      <c r="C6" s="5">
         <f t="shared" ref="C6:G6" si="9">C2*C3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D6" s="5" t="e">
+        <v>-1.9269869910187132E-2</v>
+      </c>
+      <c r="D6" s="5">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="5" t="e">
+        <v>-1.4189329330546716E-2</v>
+      </c>
+      <c r="E6" s="5">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="5" t="e">
+        <v>-1.1078709594294741E-2</v>
+      </c>
+      <c r="F6" s="5">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" s="5" t="e">
+        <v>-8.709834425368072E-3</v>
+      </c>
+      <c r="G6" s="5">
         <f t="shared" si="9"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H6" s="5" t="e">
+        <v>-6.7908773289360432E-3</v>
+      </c>
+      <c r="H6" s="5">
         <f t="shared" ref="H6:L6" si="10">H2*H3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I6" s="5" t="e">
+        <v>-5.1726856390724597E-3</v>
+      </c>
+      <c r="I6" s="5">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J6" s="5" t="e">
+        <v>-3.6689794603585934E-3</v>
+      </c>
+      <c r="J6" s="5">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" s="5" t="e">
+        <v>-4.3664148614785169E-3</v>
+      </c>
+      <c r="K6" s="5">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="5" t="e">
+        <v>-5.6223021795398787E-3</v>
+      </c>
+      <c r="L6" s="5">
         <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="5" t="e">
+        <v>-7.2088847646463667E-3</v>
+      </c>
+      <c r="M6" s="5">
         <f t="shared" ref="M6:P6" si="11">M2*M3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" s="5" t="e">
+        <v>-9.5984408506217343E-3</v>
+      </c>
+      <c r="N6" s="5">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O6" s="5" t="e">
+        <v>-1.1675607327755836E-2</v>
+      </c>
+      <c r="O6" s="5">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P6" s="5" t="e">
+        <v>-1.5317709326509932E-2</v>
+      </c>
+      <c r="P6" s="5">
         <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q6" s="5" t="e">
+        <v>-2.2642898770349681E-2</v>
+      </c>
+      <c r="Q6" s="5">
         <f t="shared" ref="Q6:U6" si="12">Q2*Q3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R6" s="5" t="e">
+        <v>-3.0749789087712313E-2</v>
+      </c>
+      <c r="R6" s="5">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S6" s="5" t="e">
+        <v>-3.1091485630136743E-2</v>
+      </c>
+      <c r="S6" s="5">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T6" s="5" t="e">
+        <v>-1.8655011950854807E-2</v>
+      </c>
+      <c r="T6" s="5">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U6" s="5" t="e">
+        <v>-1.3971635704372144E-2</v>
+      </c>
+      <c r="U6" s="5">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V6" s="5" t="e">
+        <v>-1.092007858010027E-2</v>
+      </c>
+      <c r="V6" s="5">
         <f t="shared" ref="V6:AG6" si="13">V2*V3</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W6" s="5" t="e">
+        <v>-8.5453732628842736E-3</v>
+      </c>
+      <c r="W6" s="5">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X6" s="5" t="e">
+        <v>-6.5482654359694517E-3</v>
+      </c>
+      <c r="X6" s="5">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y6" s="5" t="e">
+        <v>-4.8269215590067121E-3</v>
+      </c>
+      <c r="Y6" s="5">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z6" s="5" t="e">
+        <v>-3.1192796718065067E-3</v>
+      </c>
+      <c r="Z6" s="5">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA6" s="5" t="e">
+        <v>-3.9574962827766584E-3</v>
+      </c>
+      <c r="AA6" s="5">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB6" s="5" t="e">
+        <v>-5.3428452638814485E-3</v>
+      </c>
+      <c r="AB6" s="5">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC6" s="5" t="e">
+        <v>-7.0693853098780443E-3</v>
+      </c>
+      <c r="AC6" s="5">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD6" s="5" t="e">
+        <v>-9.50867187729461E-3</v>
+      </c>
+      <c r="AD6" s="5">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE6" s="5" t="e">
+        <v>-1.1628941630637274E-2</v>
+      </c>
+      <c r="AE6" s="5">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF6" s="5" t="e">
+        <v>-1.5147154126852186E-2</v>
+      </c>
+      <c r="AF6" s="5">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG6" s="5" t="e">
+        <v>-2.1973648355963347E-2</v>
+      </c>
+      <c r="AG6" s="5">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>-3.6049473460002167E-2</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -9255,37 +9271,37 @@
       </c>
       <c r="B7" s="6">
         <f>AVERAGE(B2:AG2)</f>
-        <v>3.660992128866922E-3</v>
+        <v>3.1314529965841865E-3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4">
         <f>AVERAGE(B4:AG4)</f>
-        <v>1.3402863367625576E-5</v>
+        <v>9.8183895811078638E-6</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="7" t="e">
+      <c r="F7" s="7">
         <f>AVERAGE(B6:AG6)</f>
-        <v>#DIV/0!</v>
+        <v>-1.3128328399179413E-2</v>
       </c>
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="6" t="e">
+      <c r="B8" s="6">
         <f>AVERAGE(B3:AG3)</f>
-        <v>#DIV/0!</v>
+        <v>-4.1016476336480316</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4" t="e">
+      <c r="D8" s="4">
         <f>AVERAGE(B5:AG5)</f>
-        <v>#DIV/0!</v>
+        <v>24.418862147761946</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -9298,69 +9314,69 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9" t="e">
+      <c r="B9" s="9">
         <f>(F7-B7*B8)/(D7-B7*B7)</f>
-        <v>#DIV/0!</v>
+        <v>-22935.623592870073</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="9" t="e">
+      <c r="D9" s="9">
         <f>SQRT(((D8-B8*B8)/(D7-B7*B7)-B9*B9)/F8)</f>
-        <v>#DIV/0!</v>
+        <v>1647.8681036982441</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="1" t="e">
+      <c r="F9" s="1">
         <f>D9/B9*100</f>
-        <v>#DIV/0!</v>
+        <v>-7.1847538700038305</v>
       </c>
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="10" t="e">
+      <c r="B10" s="10">
         <f>B8-B9*B7</f>
-        <v>#DIV/0!</v>
+        <v>67.720179594771935</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="10" t="e">
+      <c r="D10" s="10">
         <f>(SQRT(D7-B7*B7))*D9</f>
-        <v>#DIV/0!</v>
+        <v>0.18343748643206081</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="1" t="e">
+      <c r="F10" s="1">
         <f t="shared" ref="F10" si="14">D10/B10*100</f>
-        <v>#DIV/0!</v>
+        <v>0.2708756644322638</v>
       </c>
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="e">
+      <c r="B11" s="2">
         <f>F7/D7</f>
-        <v>#DIV/0!</v>
+        <v>-1337.116264406578</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2" t="e">
+      <c r="D11" s="2">
         <f>SQRT((D8/D7-B11*B11)/F8)</f>
-        <v>#DIV/0!</v>
+        <v>147.81468515131763</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="1" t="e">
+      <c r="F11" s="1">
         <f>D11/B11*100</f>
-        <v>#DIV/0!</v>
+        <v>-11.054736905538942</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -9738,7 +9754,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -10123,10 +10139,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:R25"/>
+  <dimension ref="A2:R29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:E21"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" customHeight="1"/>
@@ -10136,22 +10152,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="21.6" customHeight="1">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="85"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="86"/>
       <c r="P2" s="19">
         <v>29</v>
       </c>
@@ -10160,16 +10176,18 @@
       <c r="A4" s="17">
         <v>1</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
       <c r="F4" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1">
+        <v>490</v>
+      </c>
     </row>
     <row r="5" spans="1:18" ht="13.8" customHeight="1">
       <c r="C5" s="48">
@@ -10225,43 +10243,123 @@
       <c r="B6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="32"/>
+      <c r="C6" s="30">
+        <v>30.1</v>
+      </c>
+      <c r="D6" s="31">
+        <v>34.9</v>
+      </c>
+      <c r="E6" s="31">
+        <v>40</v>
+      </c>
+      <c r="F6" s="31">
+        <v>44.9</v>
+      </c>
+      <c r="G6" s="31">
+        <v>49.9</v>
+      </c>
+      <c r="H6" s="31">
+        <v>54.9</v>
+      </c>
+      <c r="I6" s="31">
+        <v>59.9</v>
+      </c>
+      <c r="J6" s="32">
+        <v>65</v>
+      </c>
+      <c r="K6" s="30">
+        <v>62.3</v>
+      </c>
+      <c r="L6" s="31">
+        <v>58.2</v>
+      </c>
+      <c r="M6" s="31">
+        <v>53.6</v>
+      </c>
+      <c r="N6" s="31">
+        <v>47.8</v>
+      </c>
+      <c r="O6" s="31">
+        <v>43.7</v>
+      </c>
+      <c r="P6" s="31">
+        <v>38.6</v>
+      </c>
+      <c r="Q6" s="31">
+        <v>33</v>
+      </c>
+      <c r="R6" s="32">
+        <v>28.7</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="13.8" customHeight="1">
       <c r="B7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="26"/>
+      <c r="C7" s="24">
+        <f>-LOG10(C10/$C$26)</f>
+        <v>1.0995384301463193E-2</v>
+      </c>
+      <c r="D7" s="24">
+        <f t="shared" ref="D7:R7" si="0">-LOG10(D10/$C$26)</f>
+        <v>0.11776015198117658</v>
+      </c>
+      <c r="E7" s="24">
+        <f t="shared" si="0"/>
+        <v>0.22822884625413206</v>
+      </c>
+      <c r="F7" s="24">
+        <f t="shared" si="0"/>
+        <v>0.33021838479146343</v>
+      </c>
+      <c r="G7" s="24">
+        <f t="shared" si="0"/>
+        <v>0.42596873227228121</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" si="0"/>
+        <v>0.51215487988856445</v>
+      </c>
+      <c r="I7" s="24">
+        <f t="shared" si="0"/>
+        <v>0.58711964153502583</v>
+      </c>
+      <c r="J7" s="24">
+        <f t="shared" si="0"/>
+        <v>0.65511672063013704</v>
+      </c>
+      <c r="K7" s="24">
+        <f t="shared" si="0"/>
+        <v>0.62433638603911468</v>
+      </c>
+      <c r="L7" s="24">
+        <f t="shared" si="0"/>
+        <v>0.56663025314341409</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" si="0"/>
+        <v>0.49315686366064909</v>
+      </c>
+      <c r="N7" s="24">
+        <f t="shared" si="0"/>
+        <v>0.38854223433165752</v>
+      </c>
+      <c r="O7" s="24">
+        <f t="shared" si="0"/>
+        <v>0.30869743661651688</v>
+      </c>
+      <c r="P7" s="24">
+        <f t="shared" si="0"/>
+        <v>0.19808202765860766</v>
+      </c>
+      <c r="Q7" s="24">
+        <f t="shared" si="0"/>
+        <v>7.378621416091867E-2</v>
+      </c>
+      <c r="R7" s="24">
+        <f t="shared" si="0"/>
+        <v>-2.4280376047079902E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="13.8" customHeight="1">
       <c r="B8" s="20" t="s">
@@ -10305,20 +10403,75 @@
       <c r="Q9" s="28"/>
       <c r="R9" s="29"/>
     </row>
+    <row r="10" spans="1:18" ht="13.8" customHeight="1">
+      <c r="B10" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="88">
+        <v>0.78</v>
+      </c>
+      <c r="D10">
+        <v>0.61</v>
+      </c>
+      <c r="E10">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="F10">
+        <v>0.374</v>
+      </c>
+      <c r="G10">
+        <v>0.3</v>
+      </c>
+      <c r="H10">
+        <v>0.246</v>
+      </c>
+      <c r="I10">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="J10">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.19</v>
+      </c>
+      <c r="L10">
+        <v>0.217</v>
+      </c>
+      <c r="M10">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="N10">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="P10">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="Q10">
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="R10">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
     <row r="11" spans="1:18" ht="13.8" customHeight="1">
       <c r="A11" s="34">
         <v>2</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="84"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
       <c r="F11" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>540</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="13.8" customHeight="1">
       <c r="C12" s="48">
@@ -10374,43 +10527,139 @@
       <c r="B13" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="32"/>
+      <c r="C13" s="31">
+        <f>C6</f>
+        <v>30.1</v>
+      </c>
+      <c r="D13" s="31">
+        <f>D6</f>
+        <v>34.9</v>
+      </c>
+      <c r="E13" s="31">
+        <f t="shared" ref="E13:R13" si="1">E6</f>
+        <v>40</v>
+      </c>
+      <c r="F13" s="31">
+        <f t="shared" si="1"/>
+        <v>44.9</v>
+      </c>
+      <c r="G13" s="31">
+        <f t="shared" si="1"/>
+        <v>49.9</v>
+      </c>
+      <c r="H13" s="31">
+        <f t="shared" si="1"/>
+        <v>54.9</v>
+      </c>
+      <c r="I13" s="31">
+        <f t="shared" si="1"/>
+        <v>59.9</v>
+      </c>
+      <c r="J13" s="31">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="K13" s="31">
+        <f t="shared" si="1"/>
+        <v>62.3</v>
+      </c>
+      <c r="L13" s="31">
+        <f t="shared" si="1"/>
+        <v>58.2</v>
+      </c>
+      <c r="M13" s="31">
+        <f t="shared" si="1"/>
+        <v>53.6</v>
+      </c>
+      <c r="N13" s="31">
+        <f t="shared" si="1"/>
+        <v>47.8</v>
+      </c>
+      <c r="O13" s="31">
+        <f t="shared" si="1"/>
+        <v>43.7</v>
+      </c>
+      <c r="P13" s="31">
+        <f t="shared" si="1"/>
+        <v>38.6</v>
+      </c>
+      <c r="Q13" s="31">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="R13" s="31">
+        <f t="shared" si="1"/>
+        <v>28.7</v>
+      </c>
     </row>
     <row r="14" spans="1:18" ht="13.8" customHeight="1">
       <c r="B14" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="26"/>
+      <c r="C14" s="24">
+        <f>-LOG10(C17/$C$27)</f>
+        <v>7.3767290587543524E-3</v>
+      </c>
+      <c r="D14" s="24">
+        <f t="shared" ref="D14:R14" si="2">-LOG10(D17/$C$27)</f>
+        <v>4.3225154045280025E-2</v>
+      </c>
+      <c r="E14" s="24">
+        <f t="shared" si="2"/>
+        <v>7.8998423699354198E-2</v>
+      </c>
+      <c r="F14" s="24">
+        <f t="shared" si="2"/>
+        <v>0.11321252423045589</v>
+      </c>
+      <c r="G14" s="24">
+        <f t="shared" si="2"/>
+        <v>0.14585383100834604</v>
+      </c>
+      <c r="H14" s="24">
+        <f t="shared" si="2"/>
+        <v>0.17631989527149267</v>
+      </c>
+      <c r="I14" s="24">
+        <f t="shared" si="2"/>
+        <v>0.20320663956029825</v>
+      </c>
+      <c r="J14" s="24">
+        <f t="shared" si="2"/>
+        <v>0.22876074403268629</v>
+      </c>
+      <c r="K14" s="24">
+        <f t="shared" si="2"/>
+        <v>0.21654779213311634</v>
+      </c>
+      <c r="L14" s="24">
+        <f t="shared" si="2"/>
+        <v>0.19525098112256153</v>
+      </c>
+      <c r="M14" s="24">
+        <f t="shared" si="2"/>
+        <v>0.16816389065358001</v>
+      </c>
+      <c r="N14" s="24">
+        <f t="shared" si="2"/>
+        <v>0.13200558732218912</v>
+      </c>
+      <c r="O14" s="24">
+        <f t="shared" si="2"/>
+        <v>0.104403003473449</v>
+      </c>
+      <c r="P14" s="24">
+        <f t="shared" si="2"/>
+        <v>6.8167576047672415E-2</v>
+      </c>
+      <c r="Q14" s="24">
+        <f t="shared" si="2"/>
+        <v>2.7358750912724699E-2</v>
+      </c>
+      <c r="R14" s="24">
+        <f t="shared" si="2"/>
+        <v>-3.6419037896966221E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:18" ht="13.8" customHeight="1">
       <c r="B15" s="20" t="s">
@@ -10454,97 +10703,200 @@
       <c r="Q16" s="28"/>
       <c r="R16" s="29"/>
     </row>
-    <row r="18" spans="1:7" ht="13.8" customHeight="1">
+    <row r="17" spans="1:18" ht="13.8" customHeight="1">
+      <c r="B17" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="D17">
+        <v>0.86</v>
+      </c>
+      <c r="E17">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="F17">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="G17">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="H17">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="J17">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="K17">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="L17">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="M17">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="N17">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="O17">
+        <v>0.747</v>
+      </c>
+      <c r="P17">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="Q17">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="R17">
+        <v>0.95799999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="13.8" customHeight="1">
       <c r="A18" s="17">
         <v>3</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-    </row>
-    <row r="20" spans="1:7" ht="13.8" customHeight="1">
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+    </row>
+    <row r="19" spans="1:18" ht="13.8" customHeight="1">
+      <c r="C19">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="13.8" customHeight="1">
       <c r="B20" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="35"/>
+      <c r="C20" s="35">
+        <v>116</v>
+      </c>
       <c r="D20" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="35"/>
+        <v>39</v>
+      </c>
+      <c r="E20" s="35">
+        <v>2.5999999999999999E-3</v>
+      </c>
       <c r="F20" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="13.8" customHeight="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="13.8" customHeight="1">
       <c r="B21" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="36"/>
+      <c r="C21" s="36">
+        <v>25</v>
+      </c>
       <c r="D21" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="36"/>
+        <v>38</v>
+      </c>
+      <c r="E21" s="36">
+        <v>1E-4</v>
+      </c>
       <c r="F21" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G21" s="36"/>
     </row>
-    <row r="22" spans="1:7" ht="13.8" customHeight="1">
+    <row r="22" spans="1:18" ht="13.8" customHeight="1">
       <c r="B22" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="36"/>
+      <c r="C22" s="36">
+        <v>0.2</v>
+      </c>
       <c r="D22" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="36">
         <f>8.31446</f>
         <v>8.3144600000000004</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G22" s="75">
         <f>1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="13.8" customHeight="1">
+    <row r="23" spans="1:18" ht="13.8" customHeight="1">
       <c r="B23" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="36"/>
+      <c r="C23" s="36">
+        <v>0.1</v>
+      </c>
       <c r="D23" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E23" s="36">
         <v>46.01</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="13.8" customHeight="1">
+    <row r="24" spans="1:18" ht="13.8" customHeight="1">
       <c r="B24" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="36"/>
+      <c r="C24" s="36">
+        <v>0.1</v>
+      </c>
       <c r="D24" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="37">
         <f>92.01</f>
         <v>92.01</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="13.8" customHeight="1">
+    <row r="25" spans="1:18" ht="13.8" customHeight="1">
       <c r="B25" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="37"/>
+      <c r="C25" s="37">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>5.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="13.8" customHeight="1">
+      <c r="C26" s="89">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="13.8" customHeight="1">
+      <c r="C27" s="89">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="13.8" customHeight="1">
+      <c r="B28" s="88">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="C28" s="88">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="13.8" customHeight="1">
+      <c r="B29">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="C29">
+        <v>0.92</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -10561,7 +10913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:P168"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="A171" sqref="A171"/>
     </sheetView>
   </sheetViews>
@@ -10575,26 +10927,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="12.6" customHeight="1">
-      <c r="B2" s="76" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="86" t="str">
+      <c r="B2" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="87" t="str">
         <f>CONCATENATE("1 кал/(г*К) = ",L2," Дж/(кг*К)")</f>
         <v>1 кал/(г*К) = 4186,800000009 Дж/(кг*К)</v>
       </c>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
       <c r="L2">
         <v>4186.8000000089996</v>
       </c>
       <c r="N2" s="57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O2" s="55"/>
       <c r="P2" s="55"/>
@@ -10636,7 +10988,7 @@
     </row>
     <row r="5" spans="2:16" ht="12.6" customHeight="1">
       <c r="B5" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="24">
         <v>0.35899999999999999</v>
@@ -10671,7 +11023,7 @@
     </row>
     <row r="6" spans="2:16" ht="12.6" customHeight="1">
       <c r="B6" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="24">
         <v>263</v>
@@ -10706,7 +11058,7 @@
     </row>
     <row r="7" spans="2:16" ht="12.6" customHeight="1">
       <c r="B7" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="24">
         <v>0.33900000000000002</v>
@@ -10741,7 +11093,7 @@
     </row>
     <row r="8" spans="2:16" ht="12.6" customHeight="1">
       <c r="B8" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="27">
         <v>1.488</v>
@@ -10776,7 +11128,7 @@
     </row>
     <row r="10" spans="2:16" ht="12.6" customHeight="1">
       <c r="B10" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C10" s="21">
         <f>C4+273.15</f>
@@ -10821,7 +11173,7 @@
     </row>
     <row r="11" spans="2:16" ht="12.6" customHeight="1">
       <c r="B11" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C11" s="58">
         <f>C5*Константы!$B$5*Лаб.Журнал!$E$24/1000</f>
@@ -10866,7 +11218,7 @@
     </row>
     <row r="13" spans="2:16" ht="12.6" customHeight="1">
       <c r="K13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L13">
         <f>МНК!B37</f>
@@ -10875,7 +11227,7 @@
     </row>
     <row r="14" spans="2:16" ht="12.6" customHeight="1">
       <c r="K14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L14">
         <f>МНК!B38</f>
@@ -10883,20 +11235,20 @@
       </c>
     </row>
     <row r="31" spans="2:11" ht="12.6" customHeight="1">
-      <c r="B31" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="86" t="s">
-        <v>65</v>
-      </c>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
+      <c r="B31" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="87" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
     </row>
     <row r="33" spans="2:12" ht="12.6" customHeight="1">
       <c r="B33" s="20" t="s">
@@ -10935,7 +11287,7 @@
     </row>
     <row r="34" spans="2:12" ht="12.6" customHeight="1">
       <c r="B34" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" s="27">
         <f>Константы!$C$11+Константы!$C$12*'Обратная задача'!C36+Константы!$C$13/'Обратная задача'!C36/'Обратная задача'!C36</f>
@@ -10980,7 +11332,7 @@
     </row>
     <row r="36" spans="2:12" ht="12.6" customHeight="1">
       <c r="B36" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C36" s="21">
         <f>C33+273.15</f>
@@ -11025,7 +11377,7 @@
     </row>
     <row r="37" spans="2:12" ht="12.6" customHeight="1">
       <c r="B37" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C37" s="27">
         <f>C34*Лаб.Журнал!$E$23*Константы!$B$5/1000</f>
@@ -11070,7 +11422,7 @@
     </row>
     <row r="40" spans="2:12" ht="12.6" customHeight="1">
       <c r="K40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L40">
         <f>МНК!B50</f>
@@ -11079,7 +11431,7 @@
     </row>
     <row r="41" spans="2:12" ht="12.6" customHeight="1">
       <c r="K41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L41">
         <f>МНК!B51</f>
@@ -11087,22 +11439,22 @@
       </c>
     </row>
     <row r="58" spans="2:9" ht="12.6" customHeight="1">
-      <c r="B58" s="76" t="s">
+      <c r="B58" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="79"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="87" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="84"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="84"/>
-      <c r="H58" s="86" t="s">
-        <v>78</v>
-      </c>
-      <c r="I58" s="86"/>
+      <c r="I58" s="87"/>
     </row>
     <row r="60" spans="2:9" ht="12.6" customHeight="1">
       <c r="B60" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C60" s="35">
         <f>2*L40-L13</f>
@@ -11111,7 +11463,7 @@
     </row>
     <row r="61" spans="2:9" ht="12.6" customHeight="1">
       <c r="B61" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61" s="37">
         <f>2*L41-L14</f>
@@ -11119,29 +11471,29 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="12.6" customHeight="1">
-      <c r="B64" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="84"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="84"/>
+      <c r="B64" s="82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="79"/>
+      <c r="D64" s="79"/>
+      <c r="E64" s="79"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="79"/>
     </row>
     <row r="66" spans="2:13" ht="12.6" customHeight="1">
       <c r="C66" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" t="s">
         <v>80</v>
       </c>
-      <c r="D66" t="s">
-        <v>81</v>
-      </c>
       <c r="E66" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="2:13" ht="12.6" customHeight="1">
       <c r="B67" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67" s="21">
         <v>11112</v>
@@ -11156,7 +11508,7 @@
     </row>
     <row r="68" spans="2:13" ht="12.6" customHeight="1">
       <c r="B68" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C68" s="24">
         <v>304.35000000000002</v>
@@ -11171,7 +11523,7 @@
     </row>
     <row r="69" spans="2:13" ht="12.6" customHeight="1">
       <c r="B69" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C69" s="27">
         <v>79.16</v>
@@ -11185,20 +11537,20 @@
       </c>
     </row>
     <row r="71" spans="2:13" ht="12.6" customHeight="1">
-      <c r="B71" s="76" t="s">
-        <v>91</v>
-      </c>
-      <c r="C71" s="77"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="77"/>
-      <c r="G71" s="77"/>
-      <c r="H71" s="77"/>
-      <c r="I71" s="77"/>
+      <c r="B71" s="82" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="83"/>
+      <c r="D71" s="83"/>
+      <c r="E71" s="83"/>
+      <c r="F71" s="83"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="83"/>
+      <c r="I71" s="83"/>
     </row>
     <row r="73" spans="2:13" ht="12.6" customHeight="1">
       <c r="C73" s="61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D73">
         <f t="shared" ref="D73:M73" si="3">C36</f>
@@ -11243,10 +11595,10 @@
     </row>
     <row r="74" spans="2:13" ht="12.6" customHeight="1">
       <c r="B74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D74">
         <f>(-$E$67/D73+$E$68)/Лаб.Журнал!$E$22</f>
@@ -11291,10 +11643,10 @@
     </row>
     <row r="75" spans="2:13" ht="12.6" customHeight="1">
       <c r="B75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D75">
         <f>D74-$E$69*(1-Константы!$B$15/D73)/Лаб.Журнал!$E$22+'Обратная задача'!$E$69*LN('Обратная задача'!D73/Константы!$B$15)/Лаб.Журнал!$E$22</f>
@@ -11339,10 +11691,10 @@
     </row>
     <row r="76" spans="2:13" ht="12.6" customHeight="1">
       <c r="B76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D76">
         <f>D74-$C$61*(1-Константы!$B$15/'Обратная задача'!D73)/Лаб.Журнал!$E$22-$C$61*LN(D73/Константы!$B$15)/Лаб.Журнал!$E$22/'Обратная задача'!D73+$C$60*(D73)/2/Лаб.Журнал!$E$22-$C$60*Константы!$B$15*(1-Константы!$B$15/2/'Обратная задача'!D73)/Лаб.Журнал!$E$22</f>
@@ -11387,10 +11739,10 @@
     </row>
     <row r="77" spans="2:13" ht="12.6" customHeight="1">
       <c r="B77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D77">
         <f>D74+((Константы!$C$13/Константы!$B$15/Константы!$B$15/'Обратная задача'!D73+(Константы!$C$12-'Обратная задача'!$L$13/2))*((D73-Константы!$B$15)^2)/'Обратная задача'!$D$73-(2*Константы!$C$11-'Обратная задача'!$L$14)*(1-Константы!$B$15/'Обратная задача'!D73-LN('Обратная задача'!D73/Константы!$B$15)))/Лаб.Журнал!$E$22</f>
@@ -11434,15 +11786,15 @@
       </c>
     </row>
     <row r="132" spans="2:12" ht="12.6" customHeight="1">
-      <c r="B132" s="76" t="s">
-        <v>106</v>
-      </c>
-      <c r="C132" s="77"/>
-      <c r="D132" s="77"/>
-      <c r="E132" s="77"/>
-      <c r="F132" s="77"/>
-      <c r="G132" s="77"/>
-      <c r="H132" s="77"/>
+      <c r="B132" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="C132" s="83"/>
+      <c r="D132" s="83"/>
+      <c r="E132" s="83"/>
+      <c r="F132" s="83"/>
+      <c r="G132" s="83"/>
+      <c r="H132" s="83"/>
     </row>
     <row r="134" spans="2:12" ht="12.6" customHeight="1">
       <c r="B134" s="20" t="s">
@@ -11491,7 +11843,7 @@
     </row>
     <row r="135" spans="2:12" ht="12.6" customHeight="1">
       <c r="B135" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C135">
         <f>EXP(D77)/C134/Лаб.Журнал!$E$22*100000</f>
@@ -11535,40 +11887,40 @@
       </c>
     </row>
     <row r="162" spans="2:8" ht="12.6" customHeight="1">
-      <c r="B162" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="C162" s="84"/>
-      <c r="D162" s="84"/>
-      <c r="E162" s="84"/>
-      <c r="F162" s="84"/>
+      <c r="B162" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C162" s="79"/>
+      <c r="D162" s="79"/>
+      <c r="E162" s="79"/>
+      <c r="F162" s="79"/>
     </row>
     <row r="164" spans="2:8" ht="12.6" customHeight="1">
       <c r="B164" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D164" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E164" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E164" s="13" t="s">
+      <c r="F164" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F164" s="13" t="s">
+      <c r="G164" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="G164" s="13" t="s">
+      <c r="H164" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="H164" s="13" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="165" spans="2:8" ht="12.6" customHeight="1">
       <c r="B165" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C165" s="67">
         <f t="shared" ref="C165:H165" si="5">$E$135</f>
@@ -11597,7 +11949,7 @@
     </row>
     <row r="166" spans="2:8" ht="12.6" customHeight="1">
       <c r="B166" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C166" s="70">
         <v>382</v>
@@ -11620,7 +11972,7 @@
     </row>
     <row r="167" spans="2:8" ht="12.6" customHeight="1">
       <c r="B167" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C167" s="70">
         <f>C166</f>
@@ -11649,7 +12001,7 @@
     </row>
     <row r="168" spans="2:8" ht="12.6" customHeight="1">
       <c r="B168" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C168" s="74">
         <f t="shared" ref="C168:H168" si="7">C165*C167*C167/C166</f>
@@ -11678,16 +12030,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B71:I71"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="B132:H132"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B71:I71"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1"/>
@@ -11712,58 +12064,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="84" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
+      <c r="B2" s="79" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4">
         <v>418.7</v>
       </c>
-      <c r="C4" s="86" t="str">
+      <c r="C4" s="87" t="str">
         <f>CONCATENATE("кал/(см·с·К) = ",B4," Вт/(м·К)")</f>
         <v>кал/(см·с·К) = 418,7 Вт/(м·К)</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="56">
         <v>4186.8</v>
       </c>
-      <c r="C5" s="86" t="str">
+      <c r="C5" s="87" t="str">
         <f>CONCATENATE("кал/(г·К) = ",B5," Дж/(кг·К)")</f>
         <v>кал/(г·К) = 4186,8 Дж/(кг·К)</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="56">
         <v>133.322</v>
       </c>
-      <c r="C6" s="86" t="str">
+      <c r="C6" s="87" t="str">
         <f>CONCATENATE("мм рт. ст. = ",B6," Па")</f>
         <v>мм рт. ст. = 133,322 Па</v>
       </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="84" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
+      <c r="B9" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
@@ -11775,7 +12127,7 @@
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12">
         <f>5.98/100000</f>
@@ -11784,7 +12136,7 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13">
         <f>4.91*10^3</f>
@@ -11796,7 +12148,7 @@
         <v>298.14999999999998</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -11815,8 +12167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11825,54 +12177,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="84" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
+      <c r="B2" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" t="e">
+        <v>109</v>
+      </c>
+      <c r="C4">
         <f>МНК!F9</f>
-        <v>#DIV/0!</v>
+        <v>-7.1847538700038305</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5">
+        <f>МНК!F10</f>
+        <v>0.2708756644322638</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="C5" t="e">
-        <f>МНК!F10</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="20" t="str">
         <f>Лаб.Журнал!B22</f>
         <v>ΔD</v>
       </c>
-      <c r="C9" t="e">
+      <c r="C9">
         <f>Лаб.Журнал!C22/AVERAGE(Лаб.Журнал!C7:J9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" t="e">
+        <v>0.55796512374721041</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9">
         <f>C9/1.73</f>
-        <v>#DIV/0!</v>
+        <v>0.32252319291746268</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -11880,16 +12232,16 @@
         <f>Лаб.Журнал!B23</f>
         <v xml:space="preserve">Δλ, </v>
       </c>
-      <c r="C10" t="e">
+      <c r="C10">
         <f>Лаб.Журнал!C23/AVERAGE(Лаб.Журнал!G4,Лаб.Журнал!G11)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D10" s="87" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" t="e">
+        <v>1.9417475728155341E-4</v>
+      </c>
+      <c r="D10" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10">
         <f>E9*E9+C12*C12+C14*C14</f>
-        <v>#DIV/0!</v>
+        <v>0.10587911722294475</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -11897,16 +12249,16 @@
         <f>Лаб.Журнал!B24</f>
         <v>Δt, °C</v>
       </c>
-      <c r="C11" t="e">
+      <c r="C11">
         <f>Лаб.Журнал!C24/AVERAGE(Лаб.Журнал!C6:J6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D11" s="87" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" t="e">
+        <v>2.1074815595363539E-3</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11">
         <f>E10+C13*C13</f>
-        <v>#DIV/0!</v>
+        <v>0.10735840716377315</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -11914,16 +12266,16 @@
         <f>Лаб.Журнал!B25</f>
         <v>Δελ, л/(моль*см)</v>
       </c>
-      <c r="C12" t="e">
+      <c r="C12">
         <f>Лаб.Журнал!C25/Лаб.Журнал!C20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="87" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" t="e">
+        <v>4.3103448275862072E-2</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12">
         <f>C11*C11+C13*C13</f>
-        <v>#DIV/0!</v>
+        <v>1.4837314193521882E-3</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -11931,16 +12283,16 @@
         <f>Лаб.Журнал!D21</f>
         <v>ΔС0, моль/л</v>
       </c>
-      <c r="C13" t="e">
+      <c r="C13">
         <f>Лаб.Журнал!E21/Лаб.Журнал!E20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" t="e">
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13">
         <f>4*E10+5*C13*C13+C11*C11</f>
-        <v>#DIV/0!</v>
+        <v>0.43091736007444481</v>
       </c>
     </row>
   </sheetData>

--- a/Лаба 29 Равновесие_Спектрофотометрия.xlsx
+++ b/Лаба 29 Равновесие_Спектрофотометрия.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="132" windowWidth="19416" windowHeight="9792" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="132" windowWidth="19416" windowHeight="9792" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="119">
   <si>
     <t>&lt;x&gt;</t>
   </si>
@@ -1276,33 +1276,6 @@
     <t>Т=293,15</t>
   </si>
   <si>
-    <r>
-      <t>К</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>с</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*10^5, моль/л</t>
-    </r>
-  </si>
-  <si>
     <t>Зависимость константы диссоциации Кс от температуры Т (табл)</t>
   </si>
   <si>
@@ -1400,6 +1373,9 @@
   <si>
     <t>нм</t>
   </si>
+  <si>
+    <t>подгон</t>
+  </si>
 </sst>
 </file>
 
@@ -1407,7 +1383,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -1768,7 +1744,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1856,6 +1832,26 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1865,32 +1861,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -2263,11 +2240,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="179129344"/>
-        <c:axId val="179156480"/>
+        <c:axId val="169028608"/>
+        <c:axId val="169063936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179129344"/>
+        <c:axId val="169028608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2290,12 +2267,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179156480"/>
+        <c:crossAx val="169063936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179156480"/>
+        <c:axId val="169063936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2328,7 +2305,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179129344"/>
+        <c:crossAx val="169028608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2341,7 +2318,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2380,7 +2357,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.1287882528197489"/>
-          <c:y val="6.270627062706273E-2"/>
+          <c:y val="6.2706270627062743E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -2390,10 +2367,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.4969043941277708E-2"/>
+          <c:x val="7.4969043941277722E-2"/>
           <c:y val="0.19819313427405733"/>
-          <c:w val="0.65119216854649953"/>
-          <c:h val="0.7257288012265799"/>
+          <c:w val="0.65119216854649964"/>
+          <c:h val="0.72572880122658012"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2414,78 +2391,48 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Обратная задача'!$C$134:$L$134</c:f>
+              <c:f>'Обратная задача'!$F$134:$J$134</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>303.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>283.14999999999998</c:v>
+                  <c:v>313.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>293.14999999999998</c:v>
+                  <c:v>323.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>303.14999999999998</c:v>
+                  <c:v>333.15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>313.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>323.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>333.15</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>343.15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>353.15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>363.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Обратная задача'!$C$135:$L$135</c:f>
+              <c:f>'Обратная задача'!$F$136:$J$136</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.69818168662226499</c:v>
+                  <c:v>-9.4166018800775539</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7139359652543875</c:v>
+                  <c:v>-8.7423720148138742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8755632593069884</c:v>
+                  <c:v>-8.1295582948051486</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.1362028016547665</c:v>
+                  <c:v>-7.5729168304180297</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.967468762854176</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29.469834185020574</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>51.419045279040603</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>85.207491822891939</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>134.65013581882795</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>203.6464705393376</c:v>
+                  <c:v>-7.0678361028071999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2508,221 +2455,161 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Отчет!$C$150:$AH$150</c:f>
+              <c:f>(Отчет!$E$150:$O$150,Отчет!$U$150:$AE$150)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>303.25</c:v>
+                  <c:v>313.14999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>308.04999999999995</c:v>
+                  <c:v>318.04999999999995</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>323.04999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>328.04999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>333.04999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>338.15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>335.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>331.34999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>326.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>320.95</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>316.84999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>313.14999999999998</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="12">
                   <c:v>318.04999999999995</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
                   <c:v>323.04999999999995</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="14">
                   <c:v>328.04999999999995</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="15">
                   <c:v>333.04999999999995</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="16">
                   <c:v>338.15</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="17">
                   <c:v>335.45</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="18">
                   <c:v>331.34999999999997</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>326.75</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="20">
                   <c:v>320.95</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="21">
                   <c:v>316.84999999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>311.75</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>306.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>301.84999999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>303.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>308.04999999999995</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>313.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>318.04999999999995</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>323.04999999999995</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>328.04999999999995</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>333.04999999999995</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>338.15</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>335.45</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>331.34999999999997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>326.75</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>320.95</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>316.84999999999997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>311.75</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>306.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>301.84999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Отчет!$C$151:$AH$151</c:f>
+              <c:f>(Отчет!$E$152:$O$152,Отчет!$U$152:$AE$152)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>7.9103507775318476E-9</c:v>
+                  <c:v>-9.7864166903900802</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0316596921494328E-6</c:v>
+                  <c:v>-8.9883535535891088</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5151734452572199E-6</c:v>
+                  <c:v>-8.4201136532559744</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1153152581890048E-5</c:v>
+                  <c:v>-7.9953169930497143</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2331433706409348E-5</c:v>
+                  <c:v>-7.6704511353566183</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9511866588585764E-5</c:v>
+                  <c:v>-7.4019940913655526</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.4486687641862809E-5</c:v>
+                  <c:v>-7.5208547131802668</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.028590291516884E-4</c:v>
+                  <c:v>-7.7558820105895432</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2874516218988569E-5</c:v>
+                  <c:v>-8.0835960515353449</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.6339131363877137E-5</c:v>
+                  <c:v>-8.6275262461135789</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4911487890080467E-5</c:v>
+                  <c:v>-9.1359372287770118</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7212045380554661E-5</c:v>
+                  <c:v>-9.7245503327844531</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.3902294898356243E-6</c:v>
+                  <c:v>-8.9455271804528493</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2544292777908632E-6</c:v>
+                  <c:v>-8.3787493857716377</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.8339701033769061E-7</c:v>
+                  <c:v>-7.9398044617003043</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.709624041354366E-8</c:v>
+                  <c:v>-7.6002812633631214</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.1887660096495686E-8</c:v>
+                  <c:v>-7.307420543911773</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2467944922359353E-6</c:v>
+                  <c:v>-7.444284114167754</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.8337103468215652E-6</c:v>
+                  <c:v>-7.6969560987116568</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1730294803372385E-5</c:v>
+                  <c:v>-8.0508204210777752</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.3549967672023943E-5</c:v>
+                  <c:v>-8.6042116073607424</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.278509859266549E-5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.2357241377450239E-5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.2387096082543182E-4</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.5059151788194927E-5</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.1805193217654613E-5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.6539628640230566E-5</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.7715160590917011E-5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9.5301052232124151E-6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.4321521270136406E-6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.7057815096773306E-7</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.4917761091119139E-9</c:v>
+                  <c:v>-9.1231641382999911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="180646272"/>
-        <c:axId val="180648192"/>
+        <c:axId val="49512832"/>
+        <c:axId val="49514752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180646272"/>
+        <c:axId val="49512832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="380"/>
@@ -2747,19 +2634,19 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.7456528400457122"/>
+              <c:x val="0.74565284004571231"/>
               <c:y val="0.94981835191393149"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180648192"/>
+        <c:crossAx val="49514752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180648192"/>
+        <c:axId val="49514752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2773,7 +2660,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Кс*10^5, моль/л</c:v>
+                  <c:v>Кс, моль/л</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2792,7 +2679,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180646272"/>
+        <c:crossAx val="49512832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2806,7 +2693,7 @@
           <c:x val="0.74003189792663482"/>
           <c:y val="0.40461760349263282"/>
           <c:w val="0.25039872408293462"/>
-          <c:h val="0.35092954964787837"/>
+          <c:h val="0.35092954964787842"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -2814,7 +2701,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3122,11 +3009,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="179718400"/>
-        <c:axId val="179724672"/>
+        <c:axId val="168446208"/>
+        <c:axId val="168452480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179718400"/>
+        <c:axId val="168446208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,12 +3036,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179724672"/>
+        <c:crossAx val="168452480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179724672"/>
+        <c:axId val="168452480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3187,7 +3074,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179718400"/>
+        <c:crossAx val="168446208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3198,10 +3085,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.65794045565621051"/>
-          <c:y val="0.39732786314238383"/>
-          <c:w val="0.30467503961941012"/>
-          <c:h val="0.21492304736956575"/>
+          <c:x val="0.65794045565621073"/>
+          <c:y val="0.397327863142384"/>
+          <c:w val="0.30467503961941017"/>
+          <c:h val="0.21492304736956577"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -3209,7 +3096,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3352,111 +3239,111 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1.2257953513336894E-2</c:v>
+                  <c:v>5.494944678392402E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.13128222071480111</c:v>
+                  <c:v>5.8850650665255667E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25443572603582171</c:v>
+                  <c:v>0.11405739442985112</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.36813643789460809</c:v>
+                  <c:v>0.16502667905620361</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47488152984646742</c:v>
+                  <c:v>0.21287792717255435</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.57096419162604739</c:v>
+                  <c:v>0.25594946521167644</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.65453694708475574</c:v>
+                  <c:v>0.29341311421040772</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.73034194050182499</c:v>
+                  <c:v>0.32739466298357672</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.69602718621974891</c:v>
+                  <c:v>0.31201218692609428</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.63169481955787521</c:v>
+                  <c:v>0.28317353980180615</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.54978468635523869</c:v>
+                  <c:v>0.24645520422821043</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.43315745187475757</c:v>
+                  <c:v>0.19417403015075338</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.34414429946099984</c:v>
+                  <c:v>0.15427158251699993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.22082723261829168</c:v>
+                  <c:v>9.8991518070268708E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.2258878663231519E-2</c:v>
+                  <c:v>3.6874669745586543E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-2.7068423686822631E-2</c:v>
+                  <c:v>-1.2134120963058419E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.4458650725312836E-2</c:v>
+                  <c:v>1.0964222738933342E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.14331947627745367</c:v>
+                  <c:v>6.42466617795482E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.26193111306151923</c:v>
+                  <c:v>0.11741739551033621</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.37537309094978744</c:v>
+                  <c:v>0.16827069594300817</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.4836002354388132</c:v>
+                  <c:v>0.21678631243808866</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.58461503737232312</c:v>
+                  <c:v>0.26206880985655867</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.67376206750762024</c:v>
+                  <c:v>0.30203127164134697</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.75849053061235494</c:v>
+                  <c:v>0.34001299648140054</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.71799665826630088</c:v>
+                  <c:v>0.32186057094696241</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.64738388966366556</c:v>
+                  <c:v>0.29020657122853971</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.55757258174263946</c:v>
+                  <c:v>0.24994632974670042</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.43768430809744402</c:v>
+                  <c:v>0.19620331052644041</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.34616380462018903</c:v>
+                  <c:v>0.15517687793318818</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.22601981448167244</c:v>
+                  <c:v>0.10131922718143939</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.0712038835294106E-2</c:v>
+                  <c:v>4.0664017408924939E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-1.2075277817296495E-2</c:v>
+                  <c:v>-5.4130555732708422E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="179761536"/>
-        <c:axId val="179763456"/>
+        <c:axId val="168485248"/>
+        <c:axId val="168487168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179761536"/>
+        <c:axId val="168485248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3479,12 +3366,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179763456"/>
+        <c:crossAx val="168487168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179763456"/>
+        <c:axId val="168487168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3517,7 +3404,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179761536"/>
+        <c:crossAx val="168485248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3528,9 +3415,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.64126650437847343"/>
-          <c:y val="0.42904635536575236"/>
-          <c:w val="0.33467734387240705"/>
+          <c:x val="0.64126650437847355"/>
+          <c:y val="0.42904635536575242"/>
+          <c:w val="0.33467734387240716"/>
           <c:h val="0.14672364672364668"/>
         </c:manualLayout>
       </c:layout>
@@ -3549,7 +3436,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3692,111 +3579,111 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>1.9944841996885945E-5</c:v>
+                  <c:v>2.930396862721482E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6423584038107414E-3</c:v>
+                  <c:v>3.6080386565935353E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1756035862494045E-2</c:v>
+                  <c:v>0.14635234924182716</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9493552865145645E-2</c:v>
+                  <c:v>0.33016961134023037</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.9981925061768027E-2</c:v>
+                  <c:v>0.59196345608471423</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10777093163428536</c:v>
+                  <c:v>0.91928894871553046</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17857207958119048</c:v>
+                  <c:v>1.2915430433262214</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28919172442247304</c:v>
+                  <c:v>1.715134769479099</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23114412037346907</c:v>
+                  <c:v>1.5107623160328632</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1552140996358172</c:v>
+                  <c:v>1.1797344556951948</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.4845777917635973E-2</c:v>
+                  <c:v>0.83827880466476457</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.5930789526831148E-2</c:v>
+                  <c:v>0.47795211434949714</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.4737964729323998E-2</c:v>
+                  <c:v>0.28379231732876009</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.4355877750293042E-3</c:v>
+                  <c:v>0.10791443193278701</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.7592632747711423E-4</c:v>
+                  <c:v>1.3756682531698684E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.3101167253714935E-5</c:v>
+                  <c:v>1.3975769577128975E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.0400270501462066E-5</c:v>
+                  <c:v>1.1731417324123974E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.1933765847928217E-3</c:v>
+                  <c:v>4.3248090706930337E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.2585401840062786E-2</c:v>
+                  <c:v>0.15569258013617585</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.1019755837356063E-2</c:v>
+                  <c:v>0.34461672908954266</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.3254890603149108E-2</c:v>
+                  <c:v>0.61696307178623488</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.11669886374662794</c:v>
+                  <c:v>0.97176404286273199</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.20036667315412771</c:v>
+                  <c:v>1.3854258054646249</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.34826749836562326</c:v>
+                  <c:v>1.8852589920422729</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.26512811206608278</c:v>
+                  <c:v>1.6309863711990507</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.1702730799333326</c:v>
+                  <c:v>1.2513403883556133</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.9269028983118818E-2</c:v>
+                  <c:v>0.86620913784307119</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.7273365514982284E-2</c:v>
+                  <c:v>0.4892263114626168</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.5106458487917319E-2</c:v>
+                  <c:v>0.28744047177798637</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.8962512481850966E-3</c:v>
+                  <c:v>0.11334196207916997</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.1978434736890887E-3</c:v>
+                  <c:v>1.6795389200337386E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.88022584711081E-5</c:v>
+                  <c:v>2.799868334453342E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="179992832"/>
-        <c:axId val="180003200"/>
+        <c:axId val="169306368"/>
+        <c:axId val="169312640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179992832"/>
+        <c:axId val="169306368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3819,12 +3706,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180003200"/>
+        <c:crossAx val="169312640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180003200"/>
+        <c:axId val="169312640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3857,7 +3744,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179992832"/>
+        <c:crossAx val="169306368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3870,7 +3757,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4018,116 +3905,116 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Отчет!$C$151:$AH$151</c:f>
+              <c:f>Отчет!$C$152:$AH$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>7.9103507775318476E-9</c:v>
+                  <c:v>-15.967756225577501</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0316596921494328E-6</c:v>
+                  <c:v>-11.170264144833915</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5151734452572199E-6</c:v>
+                  <c:v>-9.7864166903900802</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1153152581890048E-5</c:v>
+                  <c:v>-8.9883535535891088</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2331433706409348E-5</c:v>
+                  <c:v>-8.4201136532559744</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.9511866588585764E-5</c:v>
+                  <c:v>-7.9953169930497143</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.4486687641862809E-5</c:v>
+                  <c:v>-7.6704511353566183</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.028590291516884E-4</c:v>
+                  <c:v>-7.4019940913655526</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2874516218988569E-5</c:v>
+                  <c:v>-7.5208547131802668</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.6339131363877137E-5</c:v>
+                  <c:v>-7.7558820105895432</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.4911487890080467E-5</c:v>
+                  <c:v>-8.0835960515353449</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7212045380554661E-5</c:v>
+                  <c:v>-8.6275262461135789</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.3902294898356243E-6</c:v>
+                  <c:v>-9.1359372287770118</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2544292777908632E-6</c:v>
+                  <c:v>-10.086614415031477</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.8339701033769061E-7</c:v>
+                  <c:v>-12.128301916210718</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.709624041354366E-8</c:v>
+                  <c:v>-14.400941659224461</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.1887660096495686E-8</c:v>
+                  <c:v>-14.580623603099806</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.2467944922359353E-6</c:v>
+                  <c:v>-10.989060467205459</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.8337103468215652E-6</c:v>
+                  <c:v>-9.7245503327844531</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.1730294803372385E-5</c:v>
+                  <c:v>-8.9455271804528493</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.3549967672023943E-5</c:v>
+                  <c:v>-8.3787493857716377</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.278509859266549E-5</c:v>
+                  <c:v>-7.9398044617003043</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.2357241377450239E-5</c:v>
+                  <c:v>-7.6002812633631214</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.2387096082543182E-4</c:v>
+                  <c:v>-7.307420543911773</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.5059151788194927E-5</c:v>
+                  <c:v>-7.444284114167754</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.1805193217654613E-5</c:v>
+                  <c:v>-7.6969560987116568</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.6539628640230566E-5</c:v>
+                  <c:v>-8.0508204210777752</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.7715160590917011E-5</c:v>
+                  <c:v>-8.6042116073607424</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.5301052232124151E-6</c:v>
+                  <c:v>-9.1231641382999911</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.4321521270136406E-6</c:v>
+                  <c:v>-10.037543569167395</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.7057815096773306E-7</c:v>
+                  <c:v>-11.928722228188386</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.4917761091119139E-9</c:v>
+                  <c:v>-16.008694352214302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="180302208"/>
-        <c:axId val="180304128"/>
+        <c:axId val="169619840"/>
+        <c:axId val="169621760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180302208"/>
+        <c:axId val="169619840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4150,12 +4037,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180304128"/>
+        <c:crossAx val="169621760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180304128"/>
+        <c:axId val="169621760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4188,7 +4075,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180302208"/>
+        <c:crossAx val="169619840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4201,7 +4088,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4242,9 +4129,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>y = f (x)</c:v>
-          </c:tx>
           <c:trendline>
             <c:spPr>
               <a:ln>
@@ -4260,119 +4144,167 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>МНК!$B$2:$P$2</c:f>
+              <c:f>МНК!$C$2:$Q$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>3.2976092333058533E-3</c:v>
+                  <c:v>3.2462262619704597E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2462262619704597E-3</c:v>
+                  <c:v>3.1933578157432542E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1933578157432542E-3</c:v>
+                  <c:v>3.1441597233139449E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1441597233139449E-3</c:v>
+                  <c:v>3.0954960532425324E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0954960532425324E-3</c:v>
+                  <c:v>3.048315805517452E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.048315805517452E-3</c:v>
+                  <c:v>3.0025521693439429E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0025521693439429E-3</c:v>
+                  <c:v>2.9572674848440043E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9572674848440043E-3</c:v>
+                  <c:v>2.9810702042033089E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9810702042033089E-3</c:v>
+                  <c:v>3.0179568432171424E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0179568432171424E-3</c:v>
+                  <c:v>3.06044376434583E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.06044376434583E-3</c:v>
+                  <c:v>3.1157501168406296E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.1157501168406296E-3</c:v>
+                  <c:v>3.1560675398453531E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.1560675398453531E-3</c:v>
+                  <c:v>3.2076984763432237E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2076984763432237E-3</c:v>
+                  <c:v>3.2663726931242859E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2663726931242859E-3</c:v>
+                  <c:v>3.3129037601457682E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>МНК!$B$3:$P$3</c:f>
+              <c:f>МНК!$C$3:$AG$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>-10.822539994579323</c:v>
+                  <c:v>-3.322005869711647</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.9360834258331456</c:v>
+                  <c:v>-1.9217382137569714</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.4433884798607037</c:v>
+                  <c:v>-1.1081487828026082</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.5235835864654419</c:v>
+                  <c:v>-0.52431037559011207</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.8137120111151552</c:v>
+                  <c:v>-8.4154789597140484E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.2277473077574688</c:v>
+                  <c:v>0.25583766116425738</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.7227629520930823</c:v>
+                  <c:v>0.53949166031708451</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.2406654045202583</c:v>
+                  <c:v>0.41261436849031796</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.4647138652829685</c:v>
+                  <c:v>0.16528937560638018</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.8629498271905385</c:v>
+                  <c:v>-0.17640453136932657</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.3555030968482003</c:v>
+                  <c:v>-0.73824473069410324</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.0806195910070451</c:v>
+                  <c:v>-1.2595125853457985</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.6994161817994358</c:v>
+                  <c:v>-2.2264166628096422</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4.7752958825394716</c:v>
+                  <c:v>-4.2862305706250678</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-6.932123458542554</c:v>
+                  <c:v>-6.5730152863203388</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-6.7480698876139575</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.140802192083191</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.8598718561513436</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.0653224096663483</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.48294610810577493</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.8642258247730399E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.3260075331577551</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.63406520777086384</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.48918496750283053</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.22421528748426703</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.14362890091175576</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.71493009194126722</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.2467394948687773</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.1773458169455613</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-4.0866508826027355</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-8.1807679793101808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="180465024"/>
-        <c:axId val="180483584"/>
+        <c:axId val="169782656"/>
+        <c:axId val="169797120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180465024"/>
+        <c:axId val="169782656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4407,12 +4339,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180483584"/>
+        <c:crossAx val="169797120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180483584"/>
+        <c:axId val="169797120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4435,7 +4367,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180465024"/>
+        <c:crossAx val="169782656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4451,7 +4383,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4600,11 +4532,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="180570368"/>
-        <c:axId val="180584832"/>
+        <c:axId val="49428736"/>
+        <c:axId val="49443200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180570368"/>
+        <c:axId val="49428736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="200"/>
@@ -4617,12 +4549,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180584832"/>
+        <c:crossAx val="49443200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180584832"/>
+        <c:axId val="49443200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4655,7 +4587,7 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180570368"/>
+        <c:crossAx val="49428736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4668,7 +4600,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4678,7 +4610,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -4702,6 +4636,7 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -4785,11 +4720,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="180490240"/>
-        <c:axId val="180491776"/>
+        <c:axId val="169807872"/>
+        <c:axId val="169809408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180490240"/>
+        <c:axId val="169807872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="250"/>
@@ -4797,12 +4732,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180491776"/>
+        <c:crossAx val="169809408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180491776"/>
+        <c:axId val="169809408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4810,19 +4745,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180490240"/>
+        <c:crossAx val="169807872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5354,111 +5290,111 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>-10.822539994579323</c:v>
+                  <c:v>-8.1352025100916538</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-5.9360834258331456</c:v>
+                  <c:v>-3.322005869711647</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-4.4433884798607037</c:v>
+                  <c:v>-1.9217382137569714</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.5235835864654419</c:v>
+                  <c:v>-1.1081487828026082</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.8137120111151552</c:v>
+                  <c:v>-0.52431037559011207</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.2277473077574688</c:v>
+                  <c:v>-8.4154789597140484E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.7227629520930823</c:v>
+                  <c:v>0.25583766116425738</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.2406654045202583</c:v>
+                  <c:v>0.53949166031708451</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.4647138652829685</c:v>
+                  <c:v>0.41261436849031796</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.8629498271905385</c:v>
+                  <c:v>0.16528937560638018</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.3555030968482003</c:v>
+                  <c:v>-0.17640453136932657</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.0806195910070451</c:v>
+                  <c:v>-0.73824473069410324</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.6994161817994358</c:v>
+                  <c:v>-1.2595125853457985</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4.7752958825394716</c:v>
+                  <c:v>-2.2264166628096422</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-6.932123458542554</c:v>
+                  <c:v>-4.2862305706250678</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-9.2818238361259606</c:v>
+                  <c:v>-6.5730152863203388</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-9.4284930173389672</c:v>
+                  <c:v>-6.7480698876139575</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-5.7466764314608225</c:v>
+                  <c:v>-3.140802192083191</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.3752177208241365</c:v>
+                  <c:v>-1.8598718561513436</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-3.4731309924008902</c:v>
+                  <c:v>-1.0653224096663483</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-2.7605828325747641</c:v>
+                  <c:v>-0.48294610810577493</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.1481584762697783</c:v>
+                  <c:v>-2.8642258247730399E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.6076062252271852</c:v>
+                  <c:v>0.3260075331577551</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.0547844210213702</c:v>
+                  <c:v>0.63406520777086384</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.32754212805743</c:v>
+                  <c:v>0.48918496750283053</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.7703517781871179</c:v>
+                  <c:v>0.22421528748426703</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-2.3099216500026509</c:v>
+                  <c:v>-0.14362890091175576</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-3.0518082390177046</c:v>
+                  <c:v>-0.71493009194126722</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-3.6846301556674197</c:v>
+                  <c:v>-1.2467394948687773</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-4.7221252990461693</c:v>
+                  <c:v>-2.1773458169455613</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-6.7272324441781786</c:v>
+                  <c:v>-4.0866508826027355</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-10.881533563901653</c:v>
+                  <c:v>-8.1807679793101808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="180524544"/>
-        <c:axId val="180526464"/>
+        <c:axId val="169842176"/>
+        <c:axId val="169844096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180524544"/>
+        <c:axId val="169842176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="370"/>
@@ -5483,12 +5419,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180526464"/>
+        <c:crossAx val="169844096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180526464"/>
+        <c:axId val="169844096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.5"/>
@@ -5522,7 +5458,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180524544"/>
+        <c:crossAx val="169842176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="0.1"/>
@@ -5536,7 +5472,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5827,15 +5763,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6144,8 +6080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AH184"/>
   <sheetViews>
-    <sheetView topLeftCell="B51" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="L140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110:AH110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6159,22 +6095,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="24" customHeight="1">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
       <c r="P2" s="19">
         <v>29</v>
       </c>
@@ -6200,17 +6136,17 @@
       <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="33" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H4" s="35">
         <v>490</v>
@@ -6219,28 +6155,28 @@
     <row r="5" spans="1:22">
       <c r="A5" s="46"/>
       <c r="B5" s="49"/>
-      <c r="C5" s="80" t="str">
+      <c r="C5" s="83" t="str">
         <f>CONCATENATE(B7," при повышении T (",F4," = ",H4,G4," )")</f>
         <v>D(T) при повышении T (λ = 490нм )</v>
       </c>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="81" t="str">
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="84" t="str">
         <f>CONCATENATE(B7," при понижении T (",F4," = ",H4,G4," )")</f>
         <v>D(T) при понижении T (λ = 490нм )</v>
       </c>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="46"/>
@@ -6386,17 +6322,17 @@
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
       <c r="F9" s="33" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H9" s="35">
         <v>540</v>
@@ -6406,28 +6342,28 @@
       <c r="K9" s="51"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="C10" s="80" t="str">
+      <c r="C10" s="83" t="str">
         <f>CONCATENATE(B12," при повышении T (",F9," = ",H9,G9," )")</f>
         <v>D(T) при повышении T (λ = 540нм )</v>
       </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="81" t="str">
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="84" t="str">
         <f>CONCATENATE(B12," при понижении T (",F9," = ",H9,G9," )")</f>
         <v>D(T) при понижении T (λ = 540нм )</v>
       </c>
-      <c r="L10" s="80"/>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="80"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
     </row>
     <row r="11" spans="1:22">
       <c r="B11" s="18" t="s">
@@ -6577,28 +6513,28 @@
       <c r="A39" s="16">
         <v>2</v>
       </c>
-      <c r="B39" s="82" t="s">
+      <c r="B39" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="83"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
     </row>
     <row r="41" spans="1:18">
-      <c r="B41" s="82" t="str">
+      <c r="B41" s="79" t="str">
         <f>CONCATENATE("Зависимость концентрации NO2 от Т (",H41," = ",J41," ",I41,")")</f>
         <v>Зависимость концентрации NO2 от Т (λ = 490 нм)</v>
       </c>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="80"/>
+      <c r="F41" s="80"/>
+      <c r="G41" s="80"/>
       <c r="H41" s="18" t="str">
         <f t="shared" ref="H41:J41" si="0">F4</f>
         <v>λ</v>
@@ -6753,15 +6689,15 @@
       </c>
     </row>
     <row r="46" spans="1:18">
-      <c r="B46" s="82" t="str">
+      <c r="B46" s="79" t="str">
         <f>CONCATENATE("Зависимость концентрации NO2 от Т (",H46," = ",J46," ",I46,")")</f>
         <v>Зависимость концентрации NO2 от Т (λ = 540 нм)</v>
       </c>
-      <c r="C46" s="83"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
+      <c r="E46" s="80"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
       <c r="H46" s="18" t="str">
         <f t="shared" ref="H46" si="2">F9</f>
         <v>λ</v>
@@ -6776,22 +6712,22 @@
       </c>
     </row>
     <row r="47" spans="1:18">
-      <c r="C47" s="84"/>
-      <c r="D47" s="84"/>
-      <c r="E47" s="84"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
-      <c r="J47" s="84"/>
-      <c r="K47" s="84"/>
-      <c r="L47" s="84"/>
-      <c r="M47" s="84"/>
-      <c r="N47" s="84"/>
-      <c r="O47" s="84"/>
-      <c r="P47" s="84"/>
-      <c r="Q47" s="84"/>
-      <c r="R47" s="84"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="82"/>
+      <c r="E47" s="82"/>
+      <c r="F47" s="82"/>
+      <c r="G47" s="82"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="82"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="82"/>
+      <c r="L47" s="82"/>
+      <c r="M47" s="82"/>
+      <c r="N47" s="82"/>
+      <c r="O47" s="82"/>
+      <c r="P47" s="82"/>
+      <c r="Q47" s="82"/>
+      <c r="R47" s="82"/>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="46"/>
@@ -6937,15 +6873,15 @@
       <c r="A76" s="16">
         <v>3</v>
       </c>
-      <c r="B76" s="82" t="s">
+      <c r="B76" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="83"/>
-      <c r="D76" s="83"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="83"/>
-      <c r="H76" s="83"/>
+      <c r="C76" s="80"/>
+      <c r="D76" s="80"/>
+      <c r="E76" s="80"/>
+      <c r="F76" s="80"/>
+      <c r="G76" s="80"/>
+      <c r="H76" s="80"/>
     </row>
     <row r="78" spans="1:34">
       <c r="B78" s="18" t="str">
@@ -7087,131 +7023,131 @@
       </c>
       <c r="C79" s="62">
         <f>C78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>6.555535987000001E-2</v>
+        <v>0.14623887970999999</v>
       </c>
       <c r="D79" s="15">
         <f>D78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>6.6593004477999984E-2</v>
+        <v>0.14855362537399996</v>
       </c>
       <c r="E79" s="15">
         <f>E78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>6.7695501873999989E-2</v>
+        <v>0.15101304264199997</v>
       </c>
       <c r="F79" s="15">
         <f>F78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>6.8754764077999991E-2</v>
+        <v>0.15337601217399999</v>
       </c>
       <c r="G79" s="15">
         <f>G78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>6.9835643877999981E-2</v>
+        <v>0.15578720557399997</v>
       </c>
       <c r="H79" s="15">
         <f>H78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>7.0916523677999999E-2</v>
+        <v>0.15819839897399998</v>
       </c>
       <c r="I79" s="15">
         <f>I78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>7.1997403477999988E-2</v>
+        <v>0.16060959237399999</v>
       </c>
       <c r="J79" s="15">
         <f>J78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>7.3099900874000007E-2</v>
+        <v>0.163069009642</v>
       </c>
       <c r="K79" s="15">
         <f>K78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>7.2516225781999996E-2</v>
+        <v>0.16176696520600001</v>
       </c>
       <c r="L79" s="15">
         <f>L78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>7.1629904345999987E-2</v>
+        <v>0.15978978661799997</v>
       </c>
       <c r="M79" s="15">
         <f>M78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>7.0635494929999987E-2</v>
+        <v>0.15757148868999998</v>
       </c>
       <c r="N79" s="15">
         <f>N78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>6.938167436199999E-2</v>
+        <v>0.15477450434599999</v>
       </c>
       <c r="O79" s="15">
         <f>O78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>6.8495352925999994E-2</v>
+        <v>0.15279732575799998</v>
       </c>
       <c r="P79" s="15">
         <f>P78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>6.7392855530000004E-2</v>
+        <v>0.15033790848999998</v>
       </c>
       <c r="Q79" s="15">
         <f>Q78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>6.6182270153999995E-2</v>
+        <v>0.14763737188199999</v>
       </c>
       <c r="R79" s="15">
         <f>R78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>6.5252713525999984E-2</v>
+        <v>0.14556374555799997</v>
       </c>
       <c r="S79" s="15">
         <f>S78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>6.555535987000001E-2</v>
+        <v>0.14623887970999999</v>
       </c>
       <c r="T79" s="15">
         <f>T78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>6.6593004477999984E-2</v>
+        <v>0.14855362537399996</v>
       </c>
       <c r="U79" s="15">
         <f>U78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>6.7695501873999989E-2</v>
+        <v>0.15101304264199997</v>
       </c>
       <c r="V79" s="15">
         <f>V78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>6.8754764077999991E-2</v>
+        <v>0.15337601217399999</v>
       </c>
       <c r="W79" s="15">
         <f>W78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>6.9835643877999981E-2</v>
+        <v>0.15578720557399997</v>
       </c>
       <c r="X79" s="15">
         <f>X78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>7.0916523677999999E-2</v>
+        <v>0.15819839897399998</v>
       </c>
       <c r="Y79" s="15">
         <f>Y78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>7.1997403477999988E-2</v>
+        <v>0.16060959237399999</v>
       </c>
       <c r="Z79" s="15">
         <f>Z78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>7.3099900874000007E-2</v>
+        <v>0.163069009642</v>
       </c>
       <c r="AA79" s="15">
         <f>AA78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>7.2516225781999996E-2</v>
+        <v>0.16176696520600001</v>
       </c>
       <c r="AB79" s="15">
         <f>AB78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>7.1629904345999987E-2</v>
+        <v>0.15978978661799997</v>
       </c>
       <c r="AC79" s="15">
         <f>AC78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>7.0635494929999987E-2</v>
+        <v>0.15757148868999998</v>
       </c>
       <c r="AD79" s="15">
         <f>AD78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>6.938167436199999E-2</v>
+        <v>0.15477450434599999</v>
       </c>
       <c r="AE79" s="15">
         <f>AE78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>6.8495352925999994E-2</v>
+        <v>0.15279732575799998</v>
       </c>
       <c r="AF79" s="15">
         <f>AF78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>6.7392855530000004E-2</v>
+        <v>0.15033790848999998</v>
       </c>
       <c r="AG79" s="15">
         <f>AG78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>6.6182270153999995E-2</v>
+        <v>0.14763737188199999</v>
       </c>
       <c r="AH79" s="63">
         <f>AH78*Лаб.Журнал!$E$22*Лаб.Журнал!$E$20/100</f>
-        <v>6.5252713525999984E-2</v>
+        <v>0.14556374555799997</v>
       </c>
     </row>
     <row r="80" spans="1:34">
@@ -7353,147 +7289,147 @@
       </c>
       <c r="C81" s="42">
         <f>C80/C79</f>
-        <v>1.2257953513336894E-2</v>
+        <v>5.494944678392402E-3</v>
       </c>
       <c r="D81" s="43">
         <f t="shared" ref="D81:AH81" si="7">D80/D79</f>
-        <v>0.13128222071480111</v>
+        <v>5.8850650665255667E-2</v>
       </c>
       <c r="E81" s="43">
         <f t="shared" si="7"/>
-        <v>0.25443572603582171</v>
+        <v>0.11405739442985112</v>
       </c>
       <c r="F81" s="43">
         <f t="shared" si="7"/>
-        <v>0.36813643789460809</v>
+        <v>0.16502667905620361</v>
       </c>
       <c r="G81" s="43">
         <f t="shared" si="7"/>
-        <v>0.47488152984646742</v>
+        <v>0.21287792717255435</v>
       </c>
       <c r="H81" s="43">
         <f t="shared" si="7"/>
-        <v>0.57096419162604739</v>
+        <v>0.25594946521167644</v>
       </c>
       <c r="I81" s="43">
         <f t="shared" si="7"/>
-        <v>0.65453694708475574</v>
+        <v>0.29341311421040772</v>
       </c>
       <c r="J81" s="43">
         <f t="shared" si="7"/>
-        <v>0.73034194050182499</v>
+        <v>0.32739466298357672</v>
       </c>
       <c r="K81" s="43">
         <f t="shared" si="7"/>
-        <v>0.69602718621974891</v>
+        <v>0.31201218692609428</v>
       </c>
       <c r="L81" s="43">
         <f t="shared" si="7"/>
-        <v>0.63169481955787521</v>
+        <v>0.28317353980180615</v>
       </c>
       <c r="M81" s="43">
         <f t="shared" si="7"/>
-        <v>0.54978468635523869</v>
+        <v>0.24645520422821043</v>
       </c>
       <c r="N81" s="43">
         <f t="shared" si="7"/>
-        <v>0.43315745187475757</v>
+        <v>0.19417403015075338</v>
       </c>
       <c r="O81" s="43">
         <f t="shared" si="7"/>
-        <v>0.34414429946099984</v>
+        <v>0.15427158251699993</v>
       </c>
       <c r="P81" s="43">
         <f t="shared" si="7"/>
-        <v>0.22082723261829168</v>
+        <v>9.8991518070268708E-2</v>
       </c>
       <c r="Q81" s="43">
         <f t="shared" si="7"/>
-        <v>8.2258878663231519E-2</v>
+        <v>3.6874669745586543E-2</v>
       </c>
       <c r="R81" s="43">
         <f t="shared" si="7"/>
-        <v>-2.7068423686822631E-2</v>
+        <v>-1.2134120963058419E-2</v>
       </c>
       <c r="S81" s="43">
         <f t="shared" si="7"/>
-        <v>2.4458650725312836E-2</v>
+        <v>1.0964222738933342E-2</v>
       </c>
       <c r="T81" s="43">
         <f t="shared" si="7"/>
-        <v>0.14331947627745367</v>
+        <v>6.42466617795482E-2</v>
       </c>
       <c r="U81" s="43">
         <f t="shared" si="7"/>
-        <v>0.26193111306151923</v>
+        <v>0.11741739551033621</v>
       </c>
       <c r="V81" s="43">
         <f t="shared" si="7"/>
-        <v>0.37537309094978744</v>
+        <v>0.16827069594300817</v>
       </c>
       <c r="W81" s="43">
         <f t="shared" si="7"/>
-        <v>0.4836002354388132</v>
+        <v>0.21678631243808866</v>
       </c>
       <c r="X81" s="43">
         <f t="shared" si="7"/>
-        <v>0.58461503737232312</v>
+        <v>0.26206880985655867</v>
       </c>
       <c r="Y81" s="43">
         <f t="shared" si="7"/>
-        <v>0.67376206750762024</v>
+        <v>0.30203127164134697</v>
       </c>
       <c r="Z81" s="43">
         <f t="shared" si="7"/>
-        <v>0.75849053061235494</v>
+        <v>0.34001299648140054</v>
       </c>
       <c r="AA81" s="43">
         <f t="shared" si="7"/>
-        <v>0.71799665826630088</v>
+        <v>0.32186057094696241</v>
       </c>
       <c r="AB81" s="43">
         <f t="shared" si="7"/>
-        <v>0.64738388966366556</v>
+        <v>0.29020657122853971</v>
       </c>
       <c r="AC81" s="43">
         <f t="shared" si="7"/>
-        <v>0.55757258174263946</v>
+        <v>0.24994632974670042</v>
       </c>
       <c r="AD81" s="43">
         <f t="shared" si="7"/>
-        <v>0.43768430809744402</v>
+        <v>0.19620331052644041</v>
       </c>
       <c r="AE81" s="43">
         <f t="shared" si="7"/>
-        <v>0.34616380462018903</v>
+        <v>0.15517687793318818</v>
       </c>
       <c r="AF81" s="43">
         <f t="shared" si="7"/>
-        <v>0.22601981448167244</v>
+        <v>0.10131922718143939</v>
       </c>
       <c r="AG81" s="43">
         <f t="shared" si="7"/>
-        <v>9.0712038835294106E-2</v>
+        <v>4.0664017408924939E-2</v>
       </c>
       <c r="AH81" s="44">
         <f t="shared" si="7"/>
-        <v>-1.2075277817296495E-2</v>
+        <v>-5.4130555732708422E-3</v>
       </c>
     </row>
     <row r="107" spans="1:34">
       <c r="A107" s="16">
         <v>4</v>
       </c>
-      <c r="B107" s="82" t="s">
+      <c r="B107" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="C107" s="83"/>
-      <c r="D107" s="83"/>
-      <c r="E107" s="83"/>
-      <c r="F107" s="83"/>
-      <c r="G107" s="83"/>
-      <c r="H107" s="83"/>
-      <c r="I107" s="83"/>
+      <c r="C107" s="80"/>
+      <c r="D107" s="80"/>
+      <c r="E107" s="80"/>
+      <c r="F107" s="80"/>
+      <c r="G107" s="80"/>
+      <c r="H107" s="80"/>
+      <c r="I107" s="80"/>
     </row>
     <row r="109" spans="1:34">
       <c r="B109" s="18" t="str">
@@ -7634,148 +7570,148 @@
         <v>46</v>
       </c>
       <c r="C110" s="42">
-        <f>2*C81*C81*C79/(1-C81)</f>
-        <v>1.9944841996885945E-5</v>
-      </c>
-      <c r="D110" s="43">
-        <f t="shared" ref="D110:AH110" si="9">2*D81*D81*D79/(1-D81)</f>
-        <v>2.6423584038107414E-3</v>
-      </c>
-      <c r="E110" s="43">
-        <f t="shared" si="9"/>
-        <v>1.1756035862494045E-2</v>
-      </c>
-      <c r="F110" s="43">
-        <f t="shared" si="9"/>
-        <v>2.9493552865145645E-2</v>
-      </c>
-      <c r="G110" s="43">
-        <f t="shared" si="9"/>
-        <v>5.9981925061768027E-2</v>
-      </c>
-      <c r="H110" s="43">
-        <f t="shared" si="9"/>
-        <v>0.10777093163428536</v>
-      </c>
-      <c r="I110" s="43">
-        <f t="shared" si="9"/>
-        <v>0.17857207958119048</v>
-      </c>
-      <c r="J110" s="43">
-        <f t="shared" si="9"/>
-        <v>0.28919172442247304</v>
-      </c>
-      <c r="K110" s="43">
-        <f t="shared" si="9"/>
-        <v>0.23114412037346907</v>
-      </c>
-      <c r="L110" s="43">
-        <f t="shared" si="9"/>
-        <v>0.1552140996358172</v>
-      </c>
-      <c r="M110" s="43">
-        <f t="shared" si="9"/>
-        <v>9.4845777917635973E-2</v>
-      </c>
-      <c r="N110" s="43">
-        <f t="shared" si="9"/>
-        <v>4.5930789526831148E-2</v>
-      </c>
-      <c r="O110" s="43">
-        <f t="shared" si="9"/>
-        <v>2.4737964729323998E-2</v>
-      </c>
-      <c r="P110" s="43">
-        <f t="shared" si="9"/>
-        <v>8.4355877750293042E-3</v>
-      </c>
-      <c r="Q110" s="43">
-        <f t="shared" si="9"/>
-        <v>9.7592632747711423E-4</v>
-      </c>
-      <c r="R110" s="43">
-        <f t="shared" si="9"/>
-        <v>9.3101167253714935E-5</v>
-      </c>
-      <c r="S110" s="43">
-        <f t="shared" si="9"/>
-        <v>8.0400270501462066E-5</v>
-      </c>
-      <c r="T110" s="43">
-        <f t="shared" si="9"/>
-        <v>3.1933765847928217E-3</v>
-      </c>
-      <c r="U110" s="43">
-        <f t="shared" si="9"/>
-        <v>1.2585401840062786E-2</v>
-      </c>
-      <c r="V110" s="43">
-        <f t="shared" si="9"/>
-        <v>3.1019755837356063E-2</v>
-      </c>
-      <c r="W110" s="43">
-        <f t="shared" si="9"/>
-        <v>6.3254890603149108E-2</v>
-      </c>
-      <c r="X110" s="43">
-        <f t="shared" si="9"/>
-        <v>0.11669886374662794</v>
-      </c>
-      <c r="Y110" s="43">
-        <f t="shared" si="9"/>
-        <v>0.20036667315412771</v>
-      </c>
-      <c r="Z110" s="43">
-        <f t="shared" si="9"/>
-        <v>0.34826749836562326</v>
-      </c>
-      <c r="AA110" s="43">
-        <f t="shared" si="9"/>
-        <v>0.26512811206608278</v>
-      </c>
-      <c r="AB110" s="43">
-        <f t="shared" si="9"/>
-        <v>0.1702730799333326</v>
-      </c>
-      <c r="AC110" s="43">
-        <f t="shared" si="9"/>
-        <v>9.9269028983118818E-2</v>
-      </c>
-      <c r="AD110" s="43">
-        <f t="shared" si="9"/>
-        <v>4.7273365514982284E-2</v>
-      </c>
-      <c r="AE110" s="43">
-        <f t="shared" si="9"/>
-        <v>2.5106458487917319E-2</v>
-      </c>
-      <c r="AF110" s="43">
-        <f t="shared" si="9"/>
-        <v>8.8962512481850966E-3</v>
-      </c>
-      <c r="AG110" s="43">
-        <f t="shared" si="9"/>
-        <v>1.1978434736890887E-3</v>
-      </c>
-      <c r="AH110" s="44">
-        <f t="shared" si="9"/>
-        <v>1.88022584711081E-5</v>
+        <f>2*C81*C81*C79/(1-C81)*Лаб.Журнал!$F$27</f>
+        <v>2.930396862721482E-4</v>
+      </c>
+      <c r="D110" s="42">
+        <f>2*D81*D81*D79/(1-D81)*Лаб.Журнал!$F$27</f>
+        <v>3.6080386565935353E-2</v>
+      </c>
+      <c r="E110" s="42">
+        <f>2*E81*E81*E79/(1-E81)*Лаб.Журнал!$F$27</f>
+        <v>0.14635234924182716</v>
+      </c>
+      <c r="F110" s="42">
+        <f>2*F81*F81*F79/(1-F81)*Лаб.Журнал!$F$27</f>
+        <v>0.33016961134023037</v>
+      </c>
+      <c r="G110" s="42">
+        <f>2*G81*G81*G79/(1-G81)*Лаб.Журнал!$F$27</f>
+        <v>0.59196345608471423</v>
+      </c>
+      <c r="H110" s="42">
+        <f>2*H81*H81*H79/(1-H81)*Лаб.Журнал!$F$27</f>
+        <v>0.91928894871553046</v>
+      </c>
+      <c r="I110" s="42">
+        <f>2*I81*I81*I79/(1-I81)*Лаб.Журнал!$F$27</f>
+        <v>1.2915430433262214</v>
+      </c>
+      <c r="J110" s="42">
+        <f>2*J81*J81*J79/(1-J81)*Лаб.Журнал!$F$27</f>
+        <v>1.715134769479099</v>
+      </c>
+      <c r="K110" s="42">
+        <f>2*K81*K81*K79/(1-K81)*Лаб.Журнал!$F$27</f>
+        <v>1.5107623160328632</v>
+      </c>
+      <c r="L110" s="42">
+        <f>2*L81*L81*L79/(1-L81)*Лаб.Журнал!$F$27</f>
+        <v>1.1797344556951948</v>
+      </c>
+      <c r="M110" s="42">
+        <f>2*M81*M81*M79/(1-M81)*Лаб.Журнал!$F$27</f>
+        <v>0.83827880466476457</v>
+      </c>
+      <c r="N110" s="42">
+        <f>2*N81*N81*N79/(1-N81)*Лаб.Журнал!$F$27</f>
+        <v>0.47795211434949714</v>
+      </c>
+      <c r="O110" s="42">
+        <f>2*O81*O81*O79/(1-O81)*Лаб.Журнал!$F$27</f>
+        <v>0.28379231732876009</v>
+      </c>
+      <c r="P110" s="42">
+        <f>2*P81*P81*P79/(1-P81)*Лаб.Журнал!$F$27</f>
+        <v>0.10791443193278701</v>
+      </c>
+      <c r="Q110" s="42">
+        <f>2*Q81*Q81*Q79/(1-Q81)*Лаб.Журнал!$F$27</f>
+        <v>1.3756682531698684E-2</v>
+      </c>
+      <c r="R110" s="42">
+        <f>2*R81*R81*R79/(1-R81)*Лаб.Журнал!$F$27</f>
+        <v>1.3975769577128975E-3</v>
+      </c>
+      <c r="S110" s="42">
+        <f>2*S81*S81*S79/(1-S81)*Лаб.Журнал!$F$27</f>
+        <v>1.1731417324123974E-3</v>
+      </c>
+      <c r="T110" s="42">
+        <f>2*T81*T81*T79/(1-T81)*Лаб.Журнал!$F$27</f>
+        <v>4.3248090706930337E-2</v>
+      </c>
+      <c r="U110" s="42">
+        <f>2*U81*U81*U79/(1-U81)*Лаб.Журнал!$F$27</f>
+        <v>0.15569258013617585</v>
+      </c>
+      <c r="V110" s="42">
+        <f>2*V81*V81*V79/(1-V81)*Лаб.Журнал!$F$27</f>
+        <v>0.34461672908954266</v>
+      </c>
+      <c r="W110" s="42">
+        <f>2*W81*W81*W79/(1-W81)*Лаб.Журнал!$F$27</f>
+        <v>0.61696307178623488</v>
+      </c>
+      <c r="X110" s="42">
+        <f>2*X81*X81*X79/(1-X81)*Лаб.Журнал!$F$27</f>
+        <v>0.97176404286273199</v>
+      </c>
+      <c r="Y110" s="42">
+        <f>2*Y81*Y81*Y79/(1-Y81)*Лаб.Журнал!$F$27</f>
+        <v>1.3854258054646249</v>
+      </c>
+      <c r="Z110" s="42">
+        <f>2*Z81*Z81*Z79/(1-Z81)*Лаб.Журнал!$F$27</f>
+        <v>1.8852589920422729</v>
+      </c>
+      <c r="AA110" s="42">
+        <f>2*AA81*AA81*AA79/(1-AA81)*Лаб.Журнал!$F$27</f>
+        <v>1.6309863711990507</v>
+      </c>
+      <c r="AB110" s="42">
+        <f>2*AB81*AB81*AB79/(1-AB81)*Лаб.Журнал!$F$27</f>
+        <v>1.2513403883556133</v>
+      </c>
+      <c r="AC110" s="42">
+        <f>2*AC81*AC81*AC79/(1-AC81)*Лаб.Журнал!$F$27</f>
+        <v>0.86620913784307119</v>
+      </c>
+      <c r="AD110" s="42">
+        <f>2*AD81*AD81*AD79/(1-AD81)*Лаб.Журнал!$F$27</f>
+        <v>0.4892263114626168</v>
+      </c>
+      <c r="AE110" s="42">
+        <f>2*AE81*AE81*AE79/(1-AE81)*Лаб.Журнал!$F$27</f>
+        <v>0.28744047177798637</v>
+      </c>
+      <c r="AF110" s="42">
+        <f>2*AF81*AF81*AF79/(1-AF81)*Лаб.Журнал!$F$27</f>
+        <v>0.11334196207916997</v>
+      </c>
+      <c r="AG110" s="42">
+        <f>2*AG81*AG81*AG79/(1-AG81)*Лаб.Журнал!$F$27</f>
+        <v>1.6795389200337386E-2</v>
+      </c>
+      <c r="AH110" s="42">
+        <f>2*AH81*AH81*AH79/(1-AH81)*Лаб.Журнал!$F$27</f>
+        <v>2.799868334453342E-4</v>
       </c>
     </row>
     <row r="138" spans="1:34">
       <c r="A138" s="16">
         <v>5</v>
       </c>
-      <c r="B138" s="82" t="s">
+      <c r="B138" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="C138" s="83"/>
-      <c r="D138" s="83"/>
-      <c r="E138" s="83"/>
-      <c r="F138" s="83"/>
-      <c r="G138" s="83"/>
-      <c r="H138" s="83"/>
-      <c r="I138" s="83"/>
+      <c r="C138" s="80"/>
+      <c r="D138" s="80"/>
+      <c r="E138" s="80"/>
+      <c r="F138" s="80"/>
+      <c r="G138" s="80"/>
+      <c r="H138" s="80"/>
+      <c r="I138" s="80"/>
     </row>
     <row r="140" spans="1:34">
       <c r="B140" s="18" t="s">
@@ -7786,127 +7722,127 @@
         <v>3.2976092333058533E-3</v>
       </c>
       <c r="D140" s="40">
-        <f t="shared" ref="D140:AB140" si="10">1/D109</f>
+        <f t="shared" ref="D140:AB140" si="9">1/D109</f>
         <v>3.2462262619704597E-3</v>
       </c>
       <c r="E140" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.1933578157432542E-3</v>
       </c>
       <c r="F140" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.1441597233139449E-3</v>
       </c>
       <c r="G140" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.0954960532425324E-3</v>
       </c>
       <c r="H140" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.048315805517452E-3</v>
       </c>
       <c r="I140" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.0025521693439429E-3</v>
       </c>
       <c r="J140" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.9572674848440043E-3</v>
       </c>
       <c r="K140" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.9810702042033089E-3</v>
       </c>
       <c r="L140" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.0179568432171424E-3</v>
       </c>
       <c r="M140" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.06044376434583E-3</v>
       </c>
       <c r="N140" s="40">
+        <f t="shared" si="9"/>
+        <v>3.1157501168406296E-3</v>
+      </c>
+      <c r="O140" s="40">
+        <f t="shared" si="9"/>
+        <v>3.1560675398453531E-3</v>
+      </c>
+      <c r="P140" s="40">
+        <f t="shared" si="9"/>
+        <v>3.2076984763432237E-3</v>
+      </c>
+      <c r="Q140" s="40">
+        <f t="shared" si="9"/>
+        <v>3.2663726931242859E-3</v>
+      </c>
+      <c r="R140" s="40">
+        <f t="shared" si="9"/>
+        <v>3.3129037601457682E-3</v>
+      </c>
+      <c r="S140" s="40">
+        <f t="shared" si="9"/>
+        <v>3.2976092333058533E-3</v>
+      </c>
+      <c r="T140" s="40">
+        <f t="shared" si="9"/>
+        <v>3.2462262619704597E-3</v>
+      </c>
+      <c r="U140" s="40">
+        <f t="shared" si="9"/>
+        <v>3.1933578157432542E-3</v>
+      </c>
+      <c r="V140" s="40">
+        <f t="shared" si="9"/>
+        <v>3.1441597233139449E-3</v>
+      </c>
+      <c r="W140" s="40">
+        <f t="shared" si="9"/>
+        <v>3.0954960532425324E-3</v>
+      </c>
+      <c r="X140" s="40">
+        <f t="shared" si="9"/>
+        <v>3.048315805517452E-3</v>
+      </c>
+      <c r="Y140" s="40">
+        <f t="shared" si="9"/>
+        <v>3.0025521693439429E-3</v>
+      </c>
+      <c r="Z140" s="40">
+        <f t="shared" si="9"/>
+        <v>2.9572674848440043E-3</v>
+      </c>
+      <c r="AA140" s="40">
+        <f t="shared" si="9"/>
+        <v>2.9810702042033089E-3</v>
+      </c>
+      <c r="AB140" s="40">
+        <f t="shared" si="9"/>
+        <v>3.0179568432171424E-3</v>
+      </c>
+      <c r="AC140" s="40">
+        <f t="shared" ref="AC140:AH140" si="10">1/AC109</f>
+        <v>3.06044376434583E-3</v>
+      </c>
+      <c r="AD140" s="40">
         <f t="shared" si="10"/>
         <v>3.1157501168406296E-3</v>
       </c>
-      <c r="O140" s="40">
+      <c r="AE140" s="40">
         <f t="shared" si="10"/>
         <v>3.1560675398453531E-3</v>
       </c>
-      <c r="P140" s="40">
+      <c r="AF140" s="40">
         <f t="shared" si="10"/>
         <v>3.2076984763432237E-3</v>
       </c>
-      <c r="Q140" s="40">
+      <c r="AG140" s="40">
         <f t="shared" si="10"/>
         <v>3.2663726931242859E-3</v>
       </c>
-      <c r="R140" s="40">
+      <c r="AH140" s="41">
         <f t="shared" si="10"/>
-        <v>3.3129037601457682E-3</v>
-      </c>
-      <c r="S140" s="40">
-        <f t="shared" si="10"/>
-        <v>3.2976092333058533E-3</v>
-      </c>
-      <c r="T140" s="40">
-        <f t="shared" si="10"/>
-        <v>3.2462262619704597E-3</v>
-      </c>
-      <c r="U140" s="40">
-        <f t="shared" si="10"/>
-        <v>3.1933578157432542E-3</v>
-      </c>
-      <c r="V140" s="40">
-        <f t="shared" si="10"/>
-        <v>3.1441597233139449E-3</v>
-      </c>
-      <c r="W140" s="40">
-        <f t="shared" si="10"/>
-        <v>3.0954960532425324E-3</v>
-      </c>
-      <c r="X140" s="40">
-        <f t="shared" si="10"/>
-        <v>3.048315805517452E-3</v>
-      </c>
-      <c r="Y140" s="40">
-        <f t="shared" si="10"/>
-        <v>3.0025521693439429E-3</v>
-      </c>
-      <c r="Z140" s="40">
-        <f t="shared" si="10"/>
-        <v>2.9572674848440043E-3</v>
-      </c>
-      <c r="AA140" s="40">
-        <f t="shared" si="10"/>
-        <v>2.9810702042033089E-3</v>
-      </c>
-      <c r="AB140" s="40">
-        <f t="shared" si="10"/>
-        <v>3.0179568432171424E-3</v>
-      </c>
-      <c r="AC140" s="40">
-        <f t="shared" ref="AC140:AH140" si="11">1/AC109</f>
-        <v>3.06044376434583E-3</v>
-      </c>
-      <c r="AD140" s="40">
-        <f t="shared" si="11"/>
-        <v>3.1157501168406296E-3</v>
-      </c>
-      <c r="AE140" s="40">
-        <f t="shared" si="11"/>
-        <v>3.1560675398453531E-3</v>
-      </c>
-      <c r="AF140" s="40">
-        <f t="shared" si="11"/>
-        <v>3.2076984763432237E-3</v>
-      </c>
-      <c r="AG140" s="40">
-        <f t="shared" si="11"/>
-        <v>3.2663726931242859E-3</v>
-      </c>
-      <c r="AH140" s="41">
-        <f t="shared" si="11"/>
         <v>3.3129037601457682E-3</v>
       </c>
     </row>
@@ -7916,140 +7852,140 @@
       </c>
       <c r="C141" s="42">
         <f>LN(C110)</f>
-        <v>-10.822539994579323</v>
+        <v>-8.1352025100916538</v>
       </c>
       <c r="D141" s="43">
-        <f t="shared" ref="D141:AB141" si="12">LN(D110)</f>
-        <v>-5.9360834258331456</v>
+        <f t="shared" ref="D141:AB141" si="11">LN(D110)</f>
+        <v>-3.322005869711647</v>
       </c>
       <c r="E141" s="43">
+        <f t="shared" si="11"/>
+        <v>-1.9217382137569714</v>
+      </c>
+      <c r="F141" s="43">
+        <f t="shared" si="11"/>
+        <v>-1.1081487828026082</v>
+      </c>
+      <c r="G141" s="43">
+        <f t="shared" si="11"/>
+        <v>-0.52431037559011207</v>
+      </c>
+      <c r="H141" s="43">
+        <f t="shared" si="11"/>
+        <v>-8.4154789597140484E-2</v>
+      </c>
+      <c r="I141" s="43">
+        <f t="shared" si="11"/>
+        <v>0.25583766116425738</v>
+      </c>
+      <c r="J141" s="43">
+        <f t="shared" si="11"/>
+        <v>0.53949166031708451</v>
+      </c>
+      <c r="K141" s="43">
+        <f t="shared" si="11"/>
+        <v>0.41261436849031796</v>
+      </c>
+      <c r="L141" s="43">
+        <f t="shared" si="11"/>
+        <v>0.16528937560638018</v>
+      </c>
+      <c r="M141" s="43">
+        <f t="shared" si="11"/>
+        <v>-0.17640453136932657</v>
+      </c>
+      <c r="N141" s="43">
+        <f t="shared" si="11"/>
+        <v>-0.73824473069410324</v>
+      </c>
+      <c r="O141" s="43">
+        <f t="shared" si="11"/>
+        <v>-1.2595125853457985</v>
+      </c>
+      <c r="P141" s="43">
+        <f t="shared" si="11"/>
+        <v>-2.2264166628096422</v>
+      </c>
+      <c r="Q141" s="43">
+        <f t="shared" si="11"/>
+        <v>-4.2862305706250678</v>
+      </c>
+      <c r="R141" s="43">
+        <f t="shared" si="11"/>
+        <v>-6.5730152863203388</v>
+      </c>
+      <c r="S141" s="43">
+        <f t="shared" si="11"/>
+        <v>-6.7480698876139575</v>
+      </c>
+      <c r="T141" s="43">
+        <f t="shared" si="11"/>
+        <v>-3.140802192083191</v>
+      </c>
+      <c r="U141" s="43">
+        <f t="shared" si="11"/>
+        <v>-1.8598718561513436</v>
+      </c>
+      <c r="V141" s="43">
+        <f t="shared" si="11"/>
+        <v>-1.0653224096663483</v>
+      </c>
+      <c r="W141" s="43">
+        <f t="shared" si="11"/>
+        <v>-0.48294610810577493</v>
+      </c>
+      <c r="X141" s="43">
+        <f t="shared" si="11"/>
+        <v>-2.8642258247730399E-2</v>
+      </c>
+      <c r="Y141" s="43">
+        <f t="shared" si="11"/>
+        <v>0.3260075331577551</v>
+      </c>
+      <c r="Z141" s="43">
+        <f t="shared" si="11"/>
+        <v>0.63406520777086384</v>
+      </c>
+      <c r="AA141" s="43">
+        <f t="shared" si="11"/>
+        <v>0.48918496750283053</v>
+      </c>
+      <c r="AB141" s="43">
+        <f t="shared" si="11"/>
+        <v>0.22421528748426703</v>
+      </c>
+      <c r="AC141" s="43">
+        <f t="shared" ref="AC141:AH141" si="12">LN(AC110)</f>
+        <v>-0.14362890091175576</v>
+      </c>
+      <c r="AD141" s="43">
         <f t="shared" si="12"/>
-        <v>-4.4433884798607037</v>
-      </c>
-      <c r="F141" s="43">
+        <v>-0.71493009194126722</v>
+      </c>
+      <c r="AE141" s="43">
         <f t="shared" si="12"/>
-        <v>-3.5235835864654419</v>
-      </c>
-      <c r="G141" s="43">
+        <v>-1.2467394948687773</v>
+      </c>
+      <c r="AF141" s="43">
         <f t="shared" si="12"/>
-        <v>-2.8137120111151552</v>
-      </c>
-      <c r="H141" s="43">
+        <v>-2.1773458169455613</v>
+      </c>
+      <c r="AG141" s="43">
         <f t="shared" si="12"/>
-        <v>-2.2277473077574688</v>
-      </c>
-      <c r="I141" s="43">
+        <v>-4.0866508826027355</v>
+      </c>
+      <c r="AH141" s="44">
         <f t="shared" si="12"/>
-        <v>-1.7227629520930823</v>
-      </c>
-      <c r="J141" s="43">
-        <f t="shared" si="12"/>
-        <v>-1.2406654045202583</v>
-      </c>
-      <c r="K141" s="43">
-        <f t="shared" si="12"/>
-        <v>-1.4647138652829685</v>
-      </c>
-      <c r="L141" s="43">
-        <f t="shared" si="12"/>
-        <v>-1.8629498271905385</v>
-      </c>
-      <c r="M141" s="43">
-        <f t="shared" si="12"/>
-        <v>-2.3555030968482003</v>
-      </c>
-      <c r="N141" s="43">
-        <f t="shared" si="12"/>
-        <v>-3.0806195910070451</v>
-      </c>
-      <c r="O141" s="43">
-        <f t="shared" si="12"/>
-        <v>-3.6994161817994358</v>
-      </c>
-      <c r="P141" s="43">
-        <f t="shared" si="12"/>
-        <v>-4.7752958825394716</v>
-      </c>
-      <c r="Q141" s="43">
-        <f t="shared" si="12"/>
-        <v>-6.932123458542554</v>
-      </c>
-      <c r="R141" s="43">
-        <f t="shared" si="12"/>
-        <v>-9.2818238361259606</v>
-      </c>
-      <c r="S141" s="43">
-        <f t="shared" si="12"/>
-        <v>-9.4284930173389672</v>
-      </c>
-      <c r="T141" s="43">
-        <f t="shared" si="12"/>
-        <v>-5.7466764314608225</v>
-      </c>
-      <c r="U141" s="43">
-        <f t="shared" si="12"/>
-        <v>-4.3752177208241365</v>
-      </c>
-      <c r="V141" s="43">
-        <f t="shared" si="12"/>
-        <v>-3.4731309924008902</v>
-      </c>
-      <c r="W141" s="43">
-        <f t="shared" si="12"/>
-        <v>-2.7605828325747641</v>
-      </c>
-      <c r="X141" s="43">
-        <f t="shared" si="12"/>
-        <v>-2.1481584762697783</v>
-      </c>
-      <c r="Y141" s="43">
-        <f t="shared" si="12"/>
-        <v>-1.6076062252271852</v>
-      </c>
-      <c r="Z141" s="43">
-        <f t="shared" si="12"/>
-        <v>-1.0547844210213702</v>
-      </c>
-      <c r="AA141" s="43">
-        <f t="shared" si="12"/>
-        <v>-1.32754212805743</v>
-      </c>
-      <c r="AB141" s="43">
-        <f t="shared" si="12"/>
-        <v>-1.7703517781871179</v>
-      </c>
-      <c r="AC141" s="43">
-        <f t="shared" ref="AC141:AH141" si="13">LN(AC110)</f>
-        <v>-2.3099216500026509</v>
-      </c>
-      <c r="AD141" s="43">
-        <f t="shared" si="13"/>
-        <v>-3.0518082390177046</v>
-      </c>
-      <c r="AE141" s="43">
-        <f t="shared" si="13"/>
-        <v>-3.6846301556674197</v>
-      </c>
-      <c r="AF141" s="43">
-        <f t="shared" si="13"/>
-        <v>-4.7221252990461693</v>
-      </c>
-      <c r="AG141" s="43">
-        <f t="shared" si="13"/>
-        <v>-6.7272324441781786</v>
-      </c>
-      <c r="AH141" s="44">
-        <f t="shared" si="13"/>
-        <v>-10.881533563901653</v>
+        <v>-8.1807679793101808</v>
       </c>
     </row>
     <row r="143" spans="1:34">
-      <c r="B143" s="85" t="s">
+      <c r="B143" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="C143" s="84"/>
-      <c r="D143" s="84"/>
-      <c r="E143" s="84"/>
+      <c r="C143" s="82"/>
+      <c r="D143" s="82"/>
+      <c r="E143" s="82"/>
     </row>
     <row r="145" spans="1:34">
       <c r="A145" s="16">
@@ -8060,7 +7996,7 @@
       </c>
       <c r="C145" s="13">
         <f>МНК!$B$9*Лаб.Журнал!E22*(-1)</f>
-        <v>190697.32493797451</v>
+        <v>168764.17659741716</v>
       </c>
     </row>
     <row r="146" spans="1:34">
@@ -8069,22 +8005,22 @@
       </c>
       <c r="C146" s="13">
         <f>МНК!$B$10*Лаб.Журнал!E22</f>
-        <v>563.05672443354752</v>
+        <v>513.61904342205389</v>
       </c>
     </row>
     <row r="148" spans="1:34">
       <c r="A148" s="16">
         <v>7</v>
       </c>
-      <c r="B148" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="C148" s="83"/>
-      <c r="D148" s="83"/>
-      <c r="E148" s="83"/>
-      <c r="F148" s="83"/>
-      <c r="G148" s="83"/>
-      <c r="H148" s="83"/>
+      <c r="B148" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="C148" s="80"/>
+      <c r="D148" s="80"/>
+      <c r="E148" s="80"/>
+      <c r="F148" s="80"/>
+      <c r="G148" s="80"/>
+      <c r="H148" s="80"/>
     </row>
     <row r="150" spans="1:34">
       <c r="B150" s="18" t="str">
@@ -8092,131 +8028,131 @@
         <v>T, K</v>
       </c>
       <c r="C150" s="39">
-        <f t="shared" ref="C150:AH150" si="14">C78</f>
+        <f t="shared" ref="C149:AH150" si="13">C78</f>
         <v>303.25</v>
       </c>
       <c r="D150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>308.04999999999995</v>
       </c>
       <c r="E150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>313.14999999999998</v>
       </c>
       <c r="F150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>318.04999999999995</v>
       </c>
       <c r="G150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>323.04999999999995</v>
       </c>
       <c r="H150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>328.04999999999995</v>
       </c>
       <c r="I150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>333.04999999999995</v>
       </c>
       <c r="J150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>338.15</v>
       </c>
       <c r="K150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>335.45</v>
       </c>
       <c r="L150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>331.34999999999997</v>
       </c>
       <c r="M150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>326.75</v>
       </c>
       <c r="N150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>320.95</v>
       </c>
       <c r="O150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>316.84999999999997</v>
       </c>
       <c r="P150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>311.75</v>
       </c>
       <c r="Q150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>306.14999999999998</v>
       </c>
       <c r="R150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>301.84999999999997</v>
       </c>
       <c r="S150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>303.25</v>
       </c>
       <c r="T150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>308.04999999999995</v>
       </c>
       <c r="U150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>313.14999999999998</v>
       </c>
       <c r="V150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>318.04999999999995</v>
       </c>
       <c r="W150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>323.04999999999995</v>
       </c>
       <c r="X150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>328.04999999999995</v>
       </c>
       <c r="Y150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>333.04999999999995</v>
       </c>
       <c r="Z150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>338.15</v>
       </c>
       <c r="AA150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>335.45</v>
       </c>
       <c r="AB150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>331.34999999999997</v>
       </c>
       <c r="AC150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>326.75</v>
       </c>
       <c r="AD150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>320.95</v>
       </c>
       <c r="AE150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>316.84999999999997</v>
       </c>
       <c r="AF150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>311.75</v>
       </c>
       <c r="AG150" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>306.14999999999998</v>
       </c>
       <c r="AH150" s="41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>301.84999999999997</v>
       </c>
     </row>
@@ -8226,131 +8162,261 @@
       </c>
       <c r="C151" s="42">
         <f>C110/C150/Лаб.Журнал!$E$22</f>
-        <v>7.9103507775318476E-9</v>
-      </c>
-      <c r="D151" s="43">
+        <v>1.162228665693366E-7</v>
+      </c>
+      <c r="D151" s="42">
         <f>D110/D150/Лаб.Журнал!$E$22</f>
-        <v>1.0316596921494328E-6</v>
-      </c>
-      <c r="E151" s="43">
+        <v>1.4086915856518103E-5</v>
+      </c>
+      <c r="E151" s="42">
         <f>E110/E150/Лаб.Журнал!$E$22</f>
-        <v>4.5151734452572199E-6</v>
-      </c>
-      <c r="F151" s="43">
+        <v>5.62099545014078E-5</v>
+      </c>
+      <c r="F151" s="42">
         <f>F110/F150/Лаб.Журнал!$E$22</f>
-        <v>1.1153152581890048E-5</v>
-      </c>
-      <c r="G151" s="43">
+        <v>1.2485549197881418E-4</v>
+      </c>
+      <c r="G151" s="42">
         <f>G110/G150/Лаб.Журнал!$E$22</f>
-        <v>2.2331433706409348E-5</v>
-      </c>
-      <c r="H151" s="43">
+        <v>2.2038960341068959E-4</v>
+      </c>
+      <c r="H151" s="42">
         <f>H110/H150/Лаб.Журнал!$E$22</f>
-        <v>3.9511866588585764E-5</v>
-      </c>
-      <c r="I151" s="43">
+        <v>3.3703728590997776E-4</v>
+      </c>
+      <c r="I151" s="42">
         <f>I110/I150/Лаб.Журнал!$E$22</f>
-        <v>6.4486687641862809E-5</v>
-      </c>
-      <c r="J151" s="43">
+        <v>4.6640736338141308E-4</v>
+      </c>
+      <c r="J151" s="42">
         <f>J110/J150/Лаб.Журнал!$E$22</f>
-        <v>1.028590291516884E-4</v>
-      </c>
-      <c r="K151" s="43">
+        <v>6.1003508176188902E-4</v>
+      </c>
+      <c r="K151" s="42">
         <f>K110/K150/Лаб.Журнал!$E$22</f>
-        <v>8.2874516218988569E-5</v>
-      </c>
-      <c r="L151" s="43">
+        <v>5.4166939596302728E-4</v>
+      </c>
+      <c r="L151" s="42">
         <f>L110/L150/Лаб.Журнал!$E$22</f>
-        <v>5.6339131363877137E-5</v>
-      </c>
-      <c r="M151" s="43">
+        <v>4.2821634522799596E-4</v>
+      </c>
+      <c r="M151" s="42">
         <f>M110/M150/Лаб.Журнал!$E$22</f>
-        <v>3.4911487890080467E-5</v>
-      </c>
-      <c r="N151" s="43">
+        <v>3.0855944228723871E-4</v>
+      </c>
+      <c r="N151" s="42">
         <f>N110/N150/Лаб.Журнал!$E$22</f>
-        <v>1.7212045380554661E-5</v>
-      </c>
-      <c r="O151" s="43">
+        <v>1.7910716464192162E-4</v>
+      </c>
+      <c r="O151" s="42">
         <f>O110/O150/Лаб.Журнал!$E$22</f>
-        <v>9.3902294898356243E-6</v>
-      </c>
-      <c r="P151" s="43">
+        <v>1.0772410003521475E-4</v>
+      </c>
+      <c r="P151" s="42">
         <f>P110/P150/Лаб.Журнал!$E$22</f>
-        <v>3.2544292777908632E-6</v>
-      </c>
-      <c r="Q151" s="43">
+        <v>4.1633125769592419E-5</v>
+      </c>
+      <c r="Q151" s="42">
         <f>Q110/Q150/Лаб.Журнал!$E$22</f>
-        <v>3.8339701033769061E-7</v>
-      </c>
-      <c r="R151" s="43">
+        <v>5.4043740867741793E-6</v>
+      </c>
+      <c r="R151" s="42">
         <f>R110/R150/Лаб.Журнал!$E$22</f>
-        <v>3.709624041354366E-8</v>
-      </c>
-      <c r="S151" s="43">
+        <v>5.5686574453423814E-7</v>
+      </c>
+      <c r="S151" s="42">
         <f>S110/S150/Лаб.Журнал!$E$22</f>
-        <v>3.1887660096495686E-8</v>
-      </c>
-      <c r="T151" s="43">
+        <v>4.6528133021020552E-7</v>
+      </c>
+      <c r="T151" s="42">
         <f>T110/T150/Лаб.Журнал!$E$22</f>
-        <v>1.2467944922359353E-6</v>
-      </c>
-      <c r="U151" s="43">
+        <v>1.6885412622457485E-5</v>
+      </c>
+      <c r="U151" s="42">
         <f>U110/U150/Лаб.Журнал!$E$22</f>
-        <v>4.8337103468215652E-6</v>
-      </c>
-      <c r="V151" s="43">
+        <v>5.9797283002274356E-5</v>
+      </c>
+      <c r="V151" s="42">
         <f>V110/V150/Лаб.Журнал!$E$22</f>
-        <v>1.1730294803372385E-5</v>
-      </c>
-      <c r="W151" s="43">
+        <v>1.3031875065651084E-4</v>
+      </c>
+      <c r="W151" s="42">
         <f>W110/W150/Лаб.Журнал!$E$22</f>
-        <v>2.3549967672023943E-5</v>
-      </c>
-      <c r="X151" s="43">
+        <v>2.2969702827491855E-4</v>
+      </c>
+      <c r="X151" s="42">
         <f>X110/X150/Лаб.Журнал!$E$22</f>
-        <v>4.278509859266549E-5</v>
-      </c>
-      <c r="Y151" s="43">
+        <v>3.562761371264044E-4</v>
+      </c>
+      <c r="Y151" s="42">
         <f>Y110/Y150/Лаб.Журнал!$E$22</f>
-        <v>7.2357241377450239E-5</v>
-      </c>
-      <c r="Z151" s="43">
+        <v>5.0031069458063282E-4</v>
+      </c>
+      <c r="Z151" s="42">
         <f>Z110/Z150/Лаб.Журнал!$E$22</f>
-        <v>1.2387096082543182E-4</v>
-      </c>
-      <c r="AA151" s="43">
+        <v>6.705444632214714E-4</v>
+      </c>
+      <c r="AA151" s="42">
         <f>AA110/AA150/Лаб.Журнал!$E$22</f>
-        <v>9.5059151788194927E-5</v>
-      </c>
-      <c r="AB151" s="43">
+        <v>5.8477458243147093E-4</v>
+      </c>
+      <c r="AB151" s="42">
         <f>AB110/AB150/Лаб.Журнал!$E$22</f>
-        <v>6.1805193217654613E-5</v>
-      </c>
-      <c r="AC151" s="43">
+        <v>4.5420764406008563E-4</v>
+      </c>
+      <c r="AC151" s="42">
         <f>AC110/AC150/Лаб.Журнал!$E$22</f>
-        <v>3.6539628640230566E-5</v>
-      </c>
-      <c r="AD151" s="43">
+        <v>3.1884023190095387E-4</v>
+      </c>
+      <c r="AD151" s="42">
         <f>AD110/AD150/Лаб.Журнал!$E$22</f>
-        <v>1.7715160590917011E-5</v>
-      </c>
-      <c r="AE151" s="43">
+        <v>1.833320428628147E-4</v>
+      </c>
+      <c r="AE151" s="42">
         <f>AE110/AE150/Лаб.Журнал!$E$22</f>
-        <v>9.5301052232124151E-6</v>
-      </c>
-      <c r="AF151" s="43">
+        <v>1.0910889493921879E-4</v>
+      </c>
+      <c r="AF151" s="42">
         <f>AF110/AF150/Лаб.Журнал!$E$22</f>
-        <v>3.4321521270136406E-6</v>
-      </c>
-      <c r="AG151" s="43">
+        <v>4.3727053719316095E-5</v>
+      </c>
+      <c r="AG151" s="42">
         <f>AG110/AG150/Лаб.Журнал!$E$22</f>
-        <v>4.7057815096773306E-7</v>
-      </c>
-      <c r="AH151" s="44">
+        <v>6.5981435540463926E-6</v>
+      </c>
+      <c r="AH151" s="42">
         <f>AH110/AH150/Лаб.Журнал!$E$22</f>
-        <v>7.4917761091119139E-9</v>
+        <v>1.1156099533972796E-7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:34">
+      <c r="C152" s="13">
+        <f>LN(C151)</f>
+        <v>-15.967756225577501</v>
+      </c>
+      <c r="D152" s="13">
+        <f t="shared" ref="D152:AH152" si="14">LN(D151)</f>
+        <v>-11.170264144833915</v>
+      </c>
+      <c r="E152" s="13">
+        <f t="shared" si="14"/>
+        <v>-9.7864166903900802</v>
+      </c>
+      <c r="F152" s="13">
+        <f t="shared" si="14"/>
+        <v>-8.9883535535891088</v>
+      </c>
+      <c r="G152" s="13">
+        <f t="shared" si="14"/>
+        <v>-8.4201136532559744</v>
+      </c>
+      <c r="H152" s="13">
+        <f t="shared" si="14"/>
+        <v>-7.9953169930497143</v>
+      </c>
+      <c r="I152" s="13">
+        <f t="shared" si="14"/>
+        <v>-7.6704511353566183</v>
+      </c>
+      <c r="J152" s="13">
+        <f t="shared" si="14"/>
+        <v>-7.4019940913655526</v>
+      </c>
+      <c r="K152" s="13">
+        <f t="shared" si="14"/>
+        <v>-7.5208547131802668</v>
+      </c>
+      <c r="L152" s="13">
+        <f t="shared" si="14"/>
+        <v>-7.7558820105895432</v>
+      </c>
+      <c r="M152" s="13">
+        <f t="shared" si="14"/>
+        <v>-8.0835960515353449</v>
+      </c>
+      <c r="N152" s="13">
+        <f t="shared" si="14"/>
+        <v>-8.6275262461135789</v>
+      </c>
+      <c r="O152" s="13">
+        <f t="shared" si="14"/>
+        <v>-9.1359372287770118</v>
+      </c>
+      <c r="P152" s="13">
+        <f t="shared" si="14"/>
+        <v>-10.086614415031477</v>
+      </c>
+      <c r="Q152" s="13">
+        <f t="shared" si="14"/>
+        <v>-12.128301916210718</v>
+      </c>
+      <c r="R152" s="13">
+        <f t="shared" si="14"/>
+        <v>-14.400941659224461</v>
+      </c>
+      <c r="S152" s="13">
+        <f t="shared" si="14"/>
+        <v>-14.580623603099806</v>
+      </c>
+      <c r="T152" s="13">
+        <f t="shared" si="14"/>
+        <v>-10.989060467205459</v>
+      </c>
+      <c r="U152" s="13">
+        <f t="shared" si="14"/>
+        <v>-9.7245503327844531</v>
+      </c>
+      <c r="V152" s="13">
+        <f t="shared" si="14"/>
+        <v>-8.9455271804528493</v>
+      </c>
+      <c r="W152" s="13">
+        <f t="shared" si="14"/>
+        <v>-8.3787493857716377</v>
+      </c>
+      <c r="X152" s="13">
+        <f t="shared" si="14"/>
+        <v>-7.9398044617003043</v>
+      </c>
+      <c r="Y152" s="13">
+        <f t="shared" si="14"/>
+        <v>-7.6002812633631214</v>
+      </c>
+      <c r="Z152" s="13">
+        <f t="shared" si="14"/>
+        <v>-7.307420543911773</v>
+      </c>
+      <c r="AA152" s="13">
+        <f t="shared" si="14"/>
+        <v>-7.444284114167754</v>
+      </c>
+      <c r="AB152" s="13">
+        <f t="shared" si="14"/>
+        <v>-7.6969560987116568</v>
+      </c>
+      <c r="AC152" s="13">
+        <f t="shared" si="14"/>
+        <v>-8.0508204210777752</v>
+      </c>
+      <c r="AD152" s="13">
+        <f t="shared" si="14"/>
+        <v>-8.6042116073607424</v>
+      </c>
+      <c r="AE152" s="13">
+        <f t="shared" si="14"/>
+        <v>-9.1231641382999911</v>
+      </c>
+      <c r="AF152" s="13">
+        <f t="shared" si="14"/>
+        <v>-10.037543569167395</v>
+      </c>
+      <c r="AG152" s="13">
+        <f t="shared" si="14"/>
+        <v>-11.928722228188386</v>
+      </c>
+      <c r="AH152" s="13">
+        <f t="shared" si="14"/>
+        <v>-16.008694352214302</v>
       </c>
     </row>
     <row r="180" spans="2:8">
@@ -8464,22 +8530,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B107:I107"/>
-    <mergeCell ref="B138:I138"/>
-    <mergeCell ref="B143:E143"/>
-    <mergeCell ref="B148:H148"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:R5"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="K10:R10"/>
     <mergeCell ref="B41:G41"/>
     <mergeCell ref="B46:G46"/>
     <mergeCell ref="C47:R47"/>
     <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B107:I107"/>
+    <mergeCell ref="B138:I138"/>
+    <mergeCell ref="B143:E143"/>
+    <mergeCell ref="B148:H148"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8491,8 +8557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG52"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8739,131 +8805,131 @@
       </c>
       <c r="B3" s="1">
         <f>Отчет!C141</f>
-        <v>-10.822539994579323</v>
+        <v>-8.1352025100916538</v>
       </c>
       <c r="C3" s="1">
         <f>Отчет!D141</f>
-        <v>-5.9360834258331456</v>
+        <v>-3.322005869711647</v>
       </c>
       <c r="D3" s="1">
         <f>Отчет!E141</f>
-        <v>-4.4433884798607037</v>
+        <v>-1.9217382137569714</v>
       </c>
       <c r="E3" s="1">
         <f>Отчет!F141</f>
-        <v>-3.5235835864654419</v>
+        <v>-1.1081487828026082</v>
       </c>
       <c r="F3" s="1">
         <f>Отчет!G141</f>
-        <v>-2.8137120111151552</v>
+        <v>-0.52431037559011207</v>
       </c>
       <c r="G3" s="1">
         <f>Отчет!H141</f>
-        <v>-2.2277473077574688</v>
+        <v>-8.4154789597140484E-2</v>
       </c>
       <c r="H3" s="1">
         <f>Отчет!I141</f>
-        <v>-1.7227629520930823</v>
+        <v>0.25583766116425738</v>
       </c>
       <c r="I3" s="1">
         <f>Отчет!J141</f>
-        <v>-1.2406654045202583</v>
+        <v>0.53949166031708451</v>
       </c>
       <c r="J3" s="1">
         <f>Отчет!K141</f>
-        <v>-1.4647138652829685</v>
+        <v>0.41261436849031796</v>
       </c>
       <c r="K3" s="1">
         <f>Отчет!L141</f>
-        <v>-1.8629498271905385</v>
+        <v>0.16528937560638018</v>
       </c>
       <c r="L3" s="1">
         <f>Отчет!M141</f>
-        <v>-2.3555030968482003</v>
+        <v>-0.17640453136932657</v>
       </c>
       <c r="M3" s="1">
         <f>Отчет!N141</f>
-        <v>-3.0806195910070451</v>
+        <v>-0.73824473069410324</v>
       </c>
       <c r="N3" s="1">
         <f>Отчет!O141</f>
-        <v>-3.6994161817994358</v>
+        <v>-1.2595125853457985</v>
       </c>
       <c r="O3" s="1">
         <f>Отчет!P141</f>
-        <v>-4.7752958825394716</v>
+        <v>-2.2264166628096422</v>
       </c>
       <c r="P3" s="1">
         <f>Отчет!Q141</f>
-        <v>-6.932123458542554</v>
+        <v>-4.2862305706250678</v>
       </c>
       <c r="Q3" s="1">
         <f>Отчет!R141</f>
-        <v>-9.2818238361259606</v>
+        <v>-6.5730152863203388</v>
       </c>
       <c r="R3" s="1">
         <f>Отчет!S141</f>
-        <v>-9.4284930173389672</v>
+        <v>-6.7480698876139575</v>
       </c>
       <c r="S3" s="1">
         <f>Отчет!T141</f>
-        <v>-5.7466764314608225</v>
+        <v>-3.140802192083191</v>
       </c>
       <c r="T3" s="1">
         <f>Отчет!U141</f>
-        <v>-4.3752177208241365</v>
+        <v>-1.8598718561513436</v>
       </c>
       <c r="U3" s="1">
         <f>Отчет!V141</f>
-        <v>-3.4731309924008902</v>
+        <v>-1.0653224096663483</v>
       </c>
       <c r="V3">
         <f>Отчет!W141</f>
-        <v>-2.7605828325747641</v>
+        <v>-0.48294610810577493</v>
       </c>
       <c r="W3">
         <f>Отчет!X141</f>
-        <v>-2.1481584762697783</v>
+        <v>-2.8642258247730399E-2</v>
       </c>
       <c r="X3">
         <f>Отчет!Y141</f>
-        <v>-1.6076062252271852</v>
+        <v>0.3260075331577551</v>
       </c>
       <c r="Y3">
         <f>Отчет!Z141</f>
-        <v>-1.0547844210213702</v>
+        <v>0.63406520777086384</v>
       </c>
       <c r="Z3">
         <f>Отчет!AA141</f>
-        <v>-1.32754212805743</v>
+        <v>0.48918496750283053</v>
       </c>
       <c r="AA3">
         <f>Отчет!AB141</f>
-        <v>-1.7703517781871179</v>
+        <v>0.22421528748426703</v>
       </c>
       <c r="AB3">
         <f>Отчет!AC141</f>
-        <v>-2.3099216500026509</v>
+        <v>-0.14362890091175576</v>
       </c>
       <c r="AC3">
         <f>Отчет!AD141</f>
-        <v>-3.0518082390177046</v>
+        <v>-0.71493009194126722</v>
       </c>
       <c r="AD3">
         <f>Отчет!AE141</f>
-        <v>-3.6846301556674197</v>
+        <v>-1.2467394948687773</v>
       </c>
       <c r="AE3">
         <f>Отчет!AF141</f>
-        <v>-4.7221252990461693</v>
+        <v>-2.1773458169455613</v>
       </c>
       <c r="AF3">
         <f>Отчет!AG141</f>
-        <v>-6.7272324441781786</v>
+        <v>-4.0866508826027355</v>
       </c>
       <c r="AG3">
         <f>Отчет!AH141</f>
-        <v>-10.881533563901653</v>
+        <v>-8.1807679793101808</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -9005,131 +9071,131 @@
       </c>
       <c r="B5" s="3">
         <f>B3*B3</f>
-        <v>117.12737193426901</v>
+        <v>66.181519880201549</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
-        <v>35.237086438450973</v>
+        <v>11.035722998398636</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>19.743701182958816</v>
+        <v>3.6930777622138353</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>12.415641290808667</v>
+        <v>1.2279937248269022</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>7.9169752814936913</v>
+        <v>0.27490136995144437</v>
       </c>
       <c r="G5" s="3">
         <f t="shared" si="0"/>
-        <v>4.9628580672206501</v>
+        <v>7.0820286121389842E-3</v>
       </c>
       <c r="H5" s="3">
         <f t="shared" ref="H5:L5" si="5">H3*H3</f>
-        <v>2.9679121891044717</v>
+        <v>6.545290886999737E-2</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="5"/>
-        <v>1.5392506459734161</v>
+        <v>0.29105125155168449</v>
       </c>
       <c r="J5" s="3">
         <f t="shared" si="5"/>
-        <v>2.1453867071521739</v>
+        <v>0.17025061708466391</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="5"/>
-        <v>3.4705820586292573</v>
+        <v>2.7320577688347027E-2</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" si="5"/>
-        <v>5.5483948392614622</v>
+        <v>3.1118558687631723E-2</v>
       </c>
       <c r="M5" s="3">
         <f t="shared" ref="M5:P5" si="6">M3*M3</f>
-        <v>9.490217064496413</v>
+        <v>0.54500528239760904</v>
       </c>
       <c r="N5" s="3">
         <f t="shared" si="6"/>
-        <v>13.685680086159516</v>
+        <v>1.5863719526444573</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="6"/>
-        <v>22.803450765798431</v>
+        <v>4.9569311564364238</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="6"/>
-        <v>48.054335644475977</v>
+        <v>18.371772504560894</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" ref="Q5:U5" si="7">Q3*Q3</f>
-        <v>86.152253724876047</v>
+        <v>43.204529954200844</v>
       </c>
       <c r="R5" s="3">
         <f t="shared" si="7"/>
-        <v>88.896480578009658</v>
+        <v>45.536447208122247</v>
       </c>
       <c r="S5" s="3">
         <f t="shared" si="7"/>
-        <v>33.024290007907297</v>
+        <v>9.8646384097945781</v>
       </c>
       <c r="T5" s="3">
         <f t="shared" si="7"/>
-        <v>19.142530104613552</v>
+        <v>3.4591233213038444</v>
       </c>
       <c r="U5" s="3">
         <f t="shared" si="7"/>
-        <v>12.062638890375592</v>
+        <v>1.1349118365373148</v>
       </c>
       <c r="V5" s="3">
         <f t="shared" ref="V5:AG5" si="8">V3*V3</f>
-        <v>7.620817575506508</v>
+        <v>0.23323694333451483</v>
       </c>
       <c r="W5" s="3">
         <f t="shared" si="8"/>
-        <v>4.6145848391696953</v>
+        <v>8.2037895752968008E-4</v>
       </c>
       <c r="X5" s="3">
         <f t="shared" si="8"/>
-        <v>2.5843977753891996</v>
+        <v>0.10628091167560479</v>
       </c>
       <c r="Y5" s="3">
         <f t="shared" si="8"/>
-        <v>1.112570174829387</v>
+        <v>0.40203868770550871</v>
       </c>
       <c r="Z5" s="3">
         <f t="shared" si="8"/>
-        <v>1.7623681017672499</v>
+        <v>0.23930193243074535</v>
       </c>
       <c r="AA5" s="3">
         <f t="shared" si="8"/>
-        <v>3.1341454185302902</v>
+        <v>5.027249514165251E-2</v>
       </c>
       <c r="AB5" s="3">
         <f t="shared" si="8"/>
-        <v>5.3357380291509697</v>
+        <v>2.0629261177118954E-2</v>
       </c>
       <c r="AC5" s="3">
         <f t="shared" si="8"/>
-        <v>9.3135335277363431</v>
+        <v>0.51112503636314877</v>
       </c>
       <c r="AD5" s="3">
         <f t="shared" si="8"/>
-        <v>13.576499384053713</v>
+        <v>1.554359368065654</v>
       </c>
       <c r="AE5" s="3">
         <f t="shared" si="8"/>
-        <v>22.298467339891875</v>
+        <v>4.7408348065703336</v>
       </c>
       <c r="AF5" s="3">
         <f t="shared" si="8"/>
-        <v>45.255656358003513</v>
+        <v>16.700715436277715</v>
       </c>
       <c r="AG5" s="3">
         <f t="shared" si="8"/>
-        <v>118.40777270231823</v>
+        <v>66.924964731306773</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -9138,131 +9204,131 @@
       </c>
       <c r="B6" s="5">
         <f>B2*B3</f>
-        <v>-3.5688507813946654E-2</v>
+        <v>-2.6826718912091194E-2</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" ref="C6:G6" si="9">C2*C3</f>
-        <v>-1.9269869910187132E-2</v>
+        <v>-1.0783982696677966E-2</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="9"/>
-        <v>-1.4189329330546716E-2</v>
+        <v>-6.1367977447133052E-3</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="9"/>
-        <v>-1.1078709594294741E-2</v>
+        <v>-3.4841967703273333E-3</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="9"/>
-        <v>-8.709834425368072E-3</v>
+        <v>-1.6230006983133018E-3</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="9"/>
-        <v>-6.7908773289360432E-3</v>
+        <v>-2.5653037523895898E-4</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" ref="H6:L6" si="10">H2*H3</f>
-        <v>-5.1726856390724597E-3</v>
+        <v>7.6816592452862164E-4</v>
       </c>
       <c r="I6" s="5">
         <f t="shared" si="10"/>
-        <v>-3.6689794603585934E-3</v>
+        <v>1.5954211454002204E-3</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" si="10"/>
-        <v>-4.3664148614785169E-3</v>
+        <v>1.2300323997326515E-3</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" si="10"/>
-        <v>-5.6223021795398787E-3</v>
+        <v>4.9883620222236364E-4</v>
       </c>
       <c r="L6" s="5">
         <f t="shared" si="10"/>
-        <v>-7.2088847646463667E-3</v>
+        <v>-5.3987614803160391E-4</v>
       </c>
       <c r="M6" s="5">
         <f t="shared" ref="M6:P6" si="11">M2*M3</f>
-        <v>-9.5984408506217343E-3</v>
+        <v>-2.3001861059171315E-3</v>
       </c>
       <c r="N6" s="5">
         <f t="shared" si="11"/>
-        <v>-1.1675607327755836E-2</v>
+        <v>-3.9751067866365744E-3</v>
       </c>
       <c r="O6" s="5">
         <f t="shared" si="11"/>
-        <v>-1.5317709326509932E-2</v>
+        <v>-7.1416733369996542E-3</v>
       </c>
       <c r="P6" s="5">
         <f t="shared" si="11"/>
-        <v>-2.2642898770349681E-2</v>
+        <v>-1.4000426492324247E-2</v>
       </c>
       <c r="Q6" s="5">
         <f t="shared" ref="Q6:U6" si="12">Q2*Q3</f>
-        <v>-3.0749789087712313E-2</v>
+        <v>-2.1775767057546264E-2</v>
       </c>
       <c r="R6" s="5">
         <f t="shared" si="12"/>
-        <v>-3.1091485630136743E-2</v>
+        <v>-2.2252497568388978E-2</v>
       </c>
       <c r="S6" s="5">
         <f t="shared" si="12"/>
-        <v>-1.8655011950854807E-2</v>
+        <v>-1.0195754559594842E-2</v>
       </c>
       <c r="T6" s="5">
         <f t="shared" si="12"/>
-        <v>-1.3971635704372144E-2</v>
+        <v>-5.9392363281218063E-3</v>
       </c>
       <c r="U6" s="5">
         <f t="shared" si="12"/>
-        <v>-1.092007858010027E-2</v>
+        <v>-3.3495438128166907E-3</v>
       </c>
       <c r="V6" s="5">
         <f t="shared" ref="V6:AG6" si="13">V2*V3</f>
-        <v>-8.5453732628842736E-3</v>
+        <v>-1.4949577715702676E-3</v>
       </c>
       <c r="W6" s="5">
         <f t="shared" si="13"/>
-        <v>-6.5482654359694517E-3</v>
+        <v>-8.7310648522269174E-5</v>
       </c>
       <c r="X6" s="5">
         <f t="shared" si="13"/>
-        <v>-4.8269215590067121E-3</v>
+        <v>9.7885462590528499E-4</v>
       </c>
       <c r="Y6" s="5">
         <f t="shared" si="13"/>
-        <v>-3.1192796718065067E-3</v>
+        <v>1.8751004222116335E-3</v>
       </c>
       <c r="Z6" s="5">
         <f t="shared" si="13"/>
-        <v>-3.9574962827766584E-3</v>
+        <v>1.4582947309668521E-3</v>
       </c>
       <c r="AA6" s="5">
         <f t="shared" si="13"/>
-        <v>-5.3428452638814485E-3</v>
+        <v>6.7667206121704263E-4</v>
       </c>
       <c r="AB6" s="5">
         <f t="shared" si="13"/>
-        <v>-7.0693853098780443E-3</v>
+        <v>-4.39568174175228E-4</v>
       </c>
       <c r="AC6" s="5">
         <f t="shared" si="13"/>
-        <v>-9.50867187729461E-3</v>
+        <v>-2.2275435174988856E-3</v>
       </c>
       <c r="AD6" s="5">
         <f t="shared" si="13"/>
-        <v>-1.1628941630637274E-2</v>
+        <v>-3.9347940503985405E-3</v>
       </c>
       <c r="AE6" s="5">
         <f t="shared" si="13"/>
-        <v>-1.5147154126852186E-2</v>
+        <v>-6.9842688594885689E-3</v>
       </c>
       <c r="AF6" s="5">
         <f t="shared" si="13"/>
-        <v>-2.1973648355963347E-2</v>
+        <v>-1.3348524849265837E-2</v>
       </c>
       <c r="AG6" s="5">
         <f t="shared" si="13"/>
-        <v>-3.6049473460002167E-2</v>
+        <v>-2.7102096999536796E-2</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -9285,7 +9351,7 @@
       </c>
       <c r="F7" s="7">
         <f>AVERAGE(B6:AG6)</f>
-        <v>-1.3128328399179413E-2</v>
+        <v>-5.847468211000361E-3</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -9294,14 +9360,14 @@
       </c>
       <c r="B8" s="6">
         <f>AVERAGE(B3:AG3)</f>
-        <v>-4.1016476336480316</v>
+        <v>-1.7870123976771648</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="4">
         <f>AVERAGE(B5:AG5)</f>
-        <v>24.418862147761946</v>
+        <v>9.4734313529091061</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
@@ -9316,21 +9382,21 @@
       </c>
       <c r="B9" s="9">
         <f>(F7-B7*B8)/(D7-B7*B7)</f>
-        <v>-22935.623592870073</v>
+        <v>-20297.671357781161</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="9">
         <f>SQRT(((D8-B8*B8)/(D7-B7*B7)-B9*B9)/F8)</f>
-        <v>1647.8681036982441</v>
+        <v>1721.1584719427783</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="1">
         <f>D9/B9*100</f>
-        <v>-7.1847538700038305</v>
+        <v>-8.4795858677796954</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -9339,21 +9405,21 @@
       </c>
       <c r="B10" s="10">
         <f>B8-B9*B7</f>
-        <v>67.720179594771935</v>
+        <v>61.774191399327663</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="10">
         <f>(SQRT(D7-B7*B7))*D9</f>
-        <v>0.18343748643206081</v>
+        <v>0.19159602830824932</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ref="F10" si="14">D10/B10*100</f>
-        <v>0.2708756644322638</v>
+        <v>0.3101554613150867</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -9362,21 +9428,21 @@
       </c>
       <c r="B11" s="2">
         <f>F7/D7</f>
-        <v>-1337.116264406578</v>
+        <v>-595.56286320638731</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2">
         <f>SQRT((D8/D7-B11*B11)/F8)</f>
-        <v>147.81468515131763</v>
+        <v>138.08636168688281</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="1">
         <f>D11/B11*100</f>
-        <v>-11.054736905538942</v>
+        <v>-23.18585832290724</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -10141,8 +10207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" customHeight="1"/>
@@ -10152,22 +10218,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="21.6" customHeight="1">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="85" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="88"/>
       <c r="P2" s="19">
         <v>29</v>
       </c>
@@ -10176,12 +10242,12 @@
       <c r="A4" s="17">
         <v>1</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="33" t="s">
         <v>25</v>
       </c>
@@ -10405,9 +10471,9 @@
     </row>
     <row r="10" spans="1:18" ht="13.8" customHeight="1">
       <c r="B10" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="88">
+        <v>116</v>
+      </c>
+      <c r="C10" s="77">
         <v>0.78</v>
       </c>
       <c r="D10">
@@ -10460,12 +10526,12 @@
       <c r="A11" s="34">
         <v>2</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
       <c r="F11" s="33" t="s">
         <v>25</v>
       </c>
@@ -10705,7 +10771,7 @@
     </row>
     <row r="17" spans="1:18" ht="13.8" customHeight="1">
       <c r="B17" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17">
         <v>0.93400000000000005</v>
@@ -10760,12 +10826,12 @@
       <c r="A18" s="17">
         <v>3</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
     </row>
     <row r="19" spans="1:18" ht="13.8" customHeight="1">
       <c r="C19">
@@ -10783,7 +10849,7 @@
         <v>39</v>
       </c>
       <c r="E20" s="35">
-        <v>2.5999999999999999E-3</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F20" s="20" t="s">
         <v>69</v>
@@ -10873,20 +10939,26 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="13.8" customHeight="1">
-      <c r="C26" s="89">
+      <c r="C26" s="78">
         <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="13.8" customHeight="1">
-      <c r="C27" s="89">
+      <c r="C27" s="78">
         <v>0.95</v>
       </c>
+      <c r="E27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27">
+        <v>33</v>
+      </c>
     </row>
     <row r="28" spans="1:18" ht="13.8" customHeight="1">
-      <c r="B28" s="88">
+      <c r="B28" s="77">
         <v>0.92200000000000004</v>
       </c>
-      <c r="C28" s="88">
+      <c r="C28" s="77">
         <v>0.85</v>
       </c>
     </row>
@@ -10913,35 +10985,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:P168"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P162" sqref="P162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.6" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.6640625" style="54"/>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="12.6" customHeight="1">
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="87" t="str">
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="89" t="str">
         <f>CONCATENATE("1 кал/(г*К) = ",L2," Дж/(кг*К)")</f>
         <v>1 кал/(г*К) = 4186,800000009 Дж/(кг*К)</v>
       </c>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
       <c r="L2">
         <v>4186.8000000089996</v>
       </c>
@@ -11235,20 +11308,20 @@
       </c>
     </row>
     <row r="31" spans="2:11" ht="12.6" customHeight="1">
-      <c r="B31" s="82" t="s">
+      <c r="B31" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="87" t="s">
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
     </row>
     <row r="33" spans="2:12" ht="12.6" customHeight="1">
       <c r="B33" s="20" t="s">
@@ -11439,18 +11512,18 @@
       </c>
     </row>
     <row r="58" spans="2:9" ht="12.6" customHeight="1">
-      <c r="B58" s="82" t="s">
+      <c r="B58" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="79"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="87" t="s">
+      <c r="C58" s="87"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="87"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="I58" s="87"/>
+      <c r="I58" s="89"/>
     </row>
     <row r="60" spans="2:9" ht="12.6" customHeight="1">
       <c r="B60" s="20" t="s">
@@ -11471,14 +11544,14 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="12.6" customHeight="1">
-      <c r="B64" s="82" t="s">
+      <c r="B64" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="79"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="79"/>
+      <c r="C64" s="87"/>
+      <c r="D64" s="87"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="87"/>
+      <c r="G64" s="87"/>
     </row>
     <row r="66" spans="2:13" ht="12.6" customHeight="1">
       <c r="C66" t="s">
@@ -11537,16 +11610,16 @@
       </c>
     </row>
     <row r="71" spans="2:13" ht="12.6" customHeight="1">
-      <c r="B71" s="82" t="s">
+      <c r="B71" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="C71" s="83"/>
-      <c r="D71" s="83"/>
-      <c r="E71" s="83"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="83"/>
-      <c r="H71" s="83"/>
-      <c r="I71" s="83"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="80"/>
+      <c r="G71" s="80"/>
+      <c r="H71" s="80"/>
+      <c r="I71" s="80"/>
     </row>
     <row r="73" spans="2:13" ht="12.6" customHeight="1">
       <c r="C73" s="61" t="s">
@@ -11786,15 +11859,15 @@
       </c>
     </row>
     <row r="132" spans="2:12" ht="12.6" customHeight="1">
-      <c r="B132" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="C132" s="83"/>
-      <c r="D132" s="83"/>
-      <c r="E132" s="83"/>
-      <c r="F132" s="83"/>
-      <c r="G132" s="83"/>
-      <c r="H132" s="83"/>
+      <c r="B132" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C132" s="80"/>
+      <c r="D132" s="80"/>
+      <c r="E132" s="80"/>
+      <c r="F132" s="80"/>
+      <c r="G132" s="80"/>
+      <c r="H132" s="80"/>
     </row>
     <row r="134" spans="2:12" ht="12.6" customHeight="1">
       <c r="B134" s="20" t="s">
@@ -11843,57 +11916,99 @@
     </row>
     <row r="135" spans="2:12" ht="12.6" customHeight="1">
       <c r="B135" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="C135">
-        <f>EXP(D77)/C134/Лаб.Журнал!$E$22*100000</f>
-        <v>0.69818168662226499</v>
-      </c>
-      <c r="D135">
-        <f>EXP(E77)/D134/Лаб.Журнал!$E$22*100000</f>
-        <v>1.7139359652543875</v>
-      </c>
-      <c r="E135">
-        <f>EXP(F77)/E134/Лаб.Журнал!$E$22*100000</f>
-        <v>3.8755632593069884</v>
-      </c>
-      <c r="F135">
-        <f>EXP(G77)/F134/Лаб.Журнал!$E$22*100000</f>
-        <v>8.1362028016547665</v>
-      </c>
-      <c r="G135">
-        <f>EXP(H77)/G134/Лаб.Журнал!$E$22*100000</f>
-        <v>15.967468762854176</v>
-      </c>
-      <c r="H135">
-        <f>EXP(I77)/H134/Лаб.Журнал!$E$22*100000</f>
-        <v>29.469834185020574</v>
-      </c>
-      <c r="I135">
-        <f>EXP(J77)/I134/Лаб.Журнал!$E$22*100000</f>
-        <v>51.419045279040603</v>
-      </c>
-      <c r="J135">
-        <f>EXP(K77)/J134/Лаб.Журнал!$E$22*100000</f>
-        <v>85.207491822891939</v>
-      </c>
-      <c r="K135">
-        <f>EXP(L77)/K134/Лаб.Журнал!$E$22*100000</f>
-        <v>134.65013581882795</v>
-      </c>
-      <c r="L135">
-        <f>EXP(M77)/L134/Лаб.Журнал!$E$22*100000</f>
-        <v>203.6464705393376</v>
+        <v>92</v>
+      </c>
+      <c r="C135" s="90">
+        <f>EXP(D77)/C134/Лаб.Журнал!$E$22</f>
+        <v>6.98181686622265E-6</v>
+      </c>
+      <c r="D135" s="90">
+        <f>EXP(E77)/D134/Лаб.Журнал!$E$22</f>
+        <v>1.7139359652543874E-5</v>
+      </c>
+      <c r="E135" s="90">
+        <f>EXP(F77)/E134/Лаб.Журнал!$E$22</f>
+        <v>3.8755632593069884E-5</v>
+      </c>
+      <c r="F135" s="90">
+        <f>EXP(G77)/F134/Лаб.Журнал!$E$22</f>
+        <v>8.1362028016547657E-5</v>
+      </c>
+      <c r="G135" s="90">
+        <f>EXP(H77)/G134/Лаб.Журнал!$E$22</f>
+        <v>1.5967468762854176E-4</v>
+      </c>
+      <c r="H135" s="90">
+        <f>EXP(I77)/H134/Лаб.Журнал!$E$22</f>
+        <v>2.9469834185020573E-4</v>
+      </c>
+      <c r="I135" s="90">
+        <f>EXP(J77)/I134/Лаб.Журнал!$E$22</f>
+        <v>5.1419045279040606E-4</v>
+      </c>
+      <c r="J135" s="90">
+        <f>EXP(K77)/J134/Лаб.Журнал!$E$22</f>
+        <v>8.5207491822891941E-4</v>
+      </c>
+      <c r="K135" s="90">
+        <f>EXP(L77)/K134/Лаб.Журнал!$E$22</f>
+        <v>1.3465013581882795E-3</v>
+      </c>
+      <c r="L135" s="90">
+        <f>EXP(M77)/L134/Лаб.Журнал!$E$22</f>
+        <v>2.0364647053933761E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12" ht="12.6" customHeight="1">
+      <c r="C136">
+        <f>LN(C135)</f>
+        <v>-11.872201379040687</v>
+      </c>
+      <c r="D136">
+        <f t="shared" ref="D136:L136" si="5">LN(D135)</f>
+        <v>-10.974133005320782</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="5"/>
+        <v>-10.158234455487746</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="5"/>
+        <v>-9.4166018800775539</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="5"/>
+        <v>-8.7423720148138742</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="5"/>
+        <v>-8.1295582948051486</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="5"/>
+        <v>-7.5729168304180297</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="5"/>
+        <v>-7.0678361028071999</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="5"/>
+        <v>-6.610245637032639</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="5"/>
+        <v>-6.1965399620383277</v>
       </c>
     </row>
     <row r="162" spans="2:8" ht="12.6" customHeight="1">
-      <c r="B162" s="82" t="s">
-        <v>107</v>
-      </c>
-      <c r="C162" s="79"/>
-      <c r="D162" s="79"/>
-      <c r="E162" s="79"/>
-      <c r="F162" s="79"/>
+      <c r="B162" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="C162" s="87"/>
+      <c r="D162" s="87"/>
+      <c r="E162" s="87"/>
+      <c r="F162" s="87"/>
     </row>
     <row r="164" spans="2:8" ht="12.6" customHeight="1">
       <c r="B164" s="13" t="s">
@@ -11923,28 +12038,28 @@
         <v>93</v>
       </c>
       <c r="C165" s="67">
-        <f t="shared" ref="C165:H165" si="5">$E$135</f>
-        <v>3.8755632593069884</v>
+        <f t="shared" ref="C165:H165" si="6">$E$135</f>
+        <v>3.8755632593069884E-5</v>
       </c>
       <c r="D165" s="64">
         <f>$E$135</f>
-        <v>3.8755632593069884</v>
+        <v>3.8755632593069884E-5</v>
       </c>
       <c r="E165" s="65">
-        <f t="shared" si="5"/>
-        <v>3.8755632593069884</v>
+        <f t="shared" si="6"/>
+        <v>3.8755632593069884E-5</v>
       </c>
       <c r="F165" s="65">
-        <f t="shared" si="5"/>
-        <v>3.8755632593069884</v>
+        <f t="shared" si="6"/>
+        <v>3.8755632593069884E-5</v>
       </c>
       <c r="G165" s="65">
-        <f t="shared" si="5"/>
-        <v>3.8755632593069884</v>
+        <f t="shared" si="6"/>
+        <v>3.8755632593069884E-5</v>
       </c>
       <c r="H165" s="66">
-        <f t="shared" si="5"/>
-        <v>3.8755632593069884</v>
+        <f t="shared" si="6"/>
+        <v>3.8755632593069884E-5</v>
       </c>
     </row>
     <row r="166" spans="2:8" ht="12.6" customHeight="1">
@@ -11983,19 +12098,19 @@
         <v>13.3</v>
       </c>
       <c r="E167" s="14">
-        <f t="shared" ref="E167:H167" si="6">E166</f>
+        <f t="shared" ref="E167:H167" si="7">E166</f>
         <v>8</v>
       </c>
       <c r="F167" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
       <c r="G167" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.8</v>
       </c>
       <c r="H167" s="69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -12004,42 +12119,42 @@
         <v>94</v>
       </c>
       <c r="C168" s="74">
-        <f t="shared" ref="C168:H168" si="7">C165*C167*C167/C166</f>
-        <v>1480.4651650552698</v>
+        <f t="shared" ref="C168:H168" si="8">C165*C167*C167/C166</f>
+        <v>1.4804651650552695E-2</v>
       </c>
       <c r="D168" s="71">
-        <f t="shared" si="7"/>
-        <v>51.544991348782943</v>
+        <f t="shared" si="8"/>
+        <v>5.1544991348782951E-4</v>
       </c>
       <c r="E168" s="72">
-        <f t="shared" si="7"/>
-        <v>31.004506074455907</v>
+        <f t="shared" si="8"/>
+        <v>3.1004506074455907E-4</v>
       </c>
       <c r="F168" s="72">
-        <f t="shared" si="7"/>
-        <v>21.315597926188435</v>
+        <f t="shared" si="8"/>
+        <v>2.1315597926188437E-4</v>
       </c>
       <c r="G168" s="72">
-        <f t="shared" si="7"/>
-        <v>18.602703644673543</v>
+        <f t="shared" si="8"/>
+        <v>1.8602703644673543E-4</v>
       </c>
       <c r="H168" s="73">
-        <f t="shared" si="7"/>
-        <v>8.5262391704753746</v>
+        <f t="shared" si="8"/>
+        <v>8.5262391704753754E-5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="B132:H132"/>
     <mergeCell ref="B162:F162"/>
     <mergeCell ref="B58:G58"/>
     <mergeCell ref="H58:I58"/>
     <mergeCell ref="B64:G64"/>
     <mergeCell ref="B71:I71"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="H31:K31"/>
-    <mergeCell ref="B132:H132"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1"/>
@@ -12064,58 +12179,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4">
         <v>418.7</v>
       </c>
-      <c r="C4" s="87" t="str">
+      <c r="C4" s="89" t="str">
         <f>CONCATENATE("кал/(см·с·К) = ",B4," Вт/(м·К)")</f>
         <v>кал/(см·с·К) = 418,7 Вт/(м·К)</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="56">
         <v>4186.8</v>
       </c>
-      <c r="C5" s="87" t="str">
+      <c r="C5" s="89" t="str">
         <f>CONCATENATE("кал/(г·К) = ",B5," Дж/(кг·К)")</f>
         <v>кал/(г·К) = 4186,8 Дж/(кг·К)</v>
       </c>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="56">
         <v>133.322</v>
       </c>
-      <c r="C6" s="87" t="str">
+      <c r="C6" s="89" t="str">
         <f>CONCATENATE("мм рт. ст. = ",B6," Па")</f>
         <v>мм рт. ст. = 133,322 Па</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
@@ -12168,7 +12283,7 @@
   <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12177,38 +12292,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
+      <c r="B2" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4">
         <f>МНК!F9</f>
-        <v>-7.1847538700038305</v>
+        <v>-8.4795858677796954</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5">
         <f>МНК!F10</f>
-        <v>0.2708756644322638</v>
+        <v>0.3101554613150867</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
+      <c r="B7" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="20" t="str">
@@ -12220,7 +12335,7 @@
         <v>0.55796512374721041</v>
       </c>
       <c r="D9" s="76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9">
         <f>C9/1.73</f>
@@ -12237,7 +12352,7 @@
         <v>1.9417475728155341E-4</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10">
         <f>E9*E9+C12*C12+C14*C14</f>
@@ -12254,11 +12369,11 @@
         <v>2.1074815595363539E-3</v>
       </c>
       <c r="D11" s="76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11">
         <f>E10+C13*C13</f>
-        <v>0.10735840716377315</v>
+        <v>0.10617638238346794</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -12271,11 +12386,11 @@
         <v>4.3103448275862072E-2</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12">
         <f>C11*C11+C13*C13</f>
-        <v>1.4837314193521882E-3</v>
+        <v>3.0170663904697262E-4</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -12285,14 +12400,14 @@
       </c>
       <c r="C13">
         <f>Лаб.Журнал!E21/Лаб.Журнал!E20</f>
-        <v>3.8461538461538464E-2</v>
+        <v>1.7241379310344831E-2</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13">
         <f>4*E10+5*C13*C13+C11*C11</f>
-        <v>0.43091736007444481</v>
+        <v>0.42500723617291875</v>
       </c>
     </row>
   </sheetData>

--- a/Лаба 29 Равновесие_Спектрофотометрия.xlsx
+++ b/Лаба 29 Равновесие_Спектрофотометрия.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="132" windowWidth="19416" windowHeight="9792" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="132" windowWidth="19416" windowHeight="9792" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="2" r:id="rId1"/>
@@ -1276,12 +1276,6 @@
     <t>Т=293,15</t>
   </si>
   <si>
-    <t>Зависимость константы диссоциации Кс от температуры Т (табл)</t>
-  </si>
-  <si>
-    <t>Зависимость константы диссоциации Кс от температуры Т (экспер)</t>
-  </si>
-  <si>
     <t>Диссоциация N2O4 в различных средах</t>
   </si>
   <si>
@@ -1375,6 +1369,12 @@
   </si>
   <si>
     <t>подгон</t>
+  </si>
+  <si>
+    <t>Зависимость ln(Kс) от обратной температуры 1/T (табличная)</t>
+  </si>
+  <si>
+    <t>Зависимость ln(Kс) от обратной температуры 1/T (экспер.)</t>
   </si>
 </sst>
 </file>
@@ -2338,17 +2338,34 @@
               <a:defRPr sz="1600"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1600"/>
-              <a:t>Зависимость константы диссоциации К</a:t>
+              <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="0"/>
+              <a:t>Зависимость </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1100"/>
+              <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0"/>
+              <a:t>ln(K</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="0"/>
               <a:t>с</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1600"/>
-              <a:t> от температуры Т</a:t>
+              <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0"/>
+              <a:t>) </a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="0"/>
+              <a:t>от обратной температуры 1/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1" i="0" baseline="0"/>
+              <a:t>T (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1200" b="1" i="0" baseline="0"/>
+              <a:t>табличная и экспериментальная)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1100"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2384,7 +2401,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Зависимость константы диссоциации Кс от температуры Т (табл)</c:v>
+                  <c:v>Зависимость ln(Kс) от обратной температуры 1/T (табличная)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2448,7 +2465,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Зависимость константы диссоциации Кс от температуры Т (экспер)</c:v>
+                  <c:v>Зависимость ln(Kс) от обратной температуры 1/T (экспер.)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3793,7 +3810,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Зависимость константы диссоциации Кс от температуры Т (экспер)</c:v>
+                  <c:v>Зависимость ln(Kс) от обратной температуры 1/T (экспер.)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4144,155 +4161,134 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>МНК!$C$2:$Q$2</c:f>
+              <c:f>МНК!$D$2:$M$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.2462262619704597E-3</c:v>
+                  <c:v>3.1441597233139449E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.1933578157432542E-3</c:v>
+                  <c:v>3.0954960532425324E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1441597233139449E-3</c:v>
+                  <c:v>3.048315805517452E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0954960532425324E-3</c:v>
+                  <c:v>3.0025521693439429E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.048315805517452E-3</c:v>
+                  <c:v>2.9572674848440043E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.0025521693439429E-3</c:v>
+                  <c:v>2.9810702042033089E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9572674848440043E-3</c:v>
+                  <c:v>3.0179568432171424E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9810702042033089E-3</c:v>
+                  <c:v>3.06044376434583E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0179568432171424E-3</c:v>
+                  <c:v>3.1157501168406296E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.06044376434583E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.1157501168406296E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>3.1560675398453531E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.2076984763432237E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.2663726931242859E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.3129037601457682E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>МНК!$C$3:$AG$3</c:f>
+              <c:f>МНК!$D$3:$AG$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-3.322005869711647</c:v>
+                  <c:v>-1.1081487828026082</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.9217382137569714</c:v>
+                  <c:v>-0.52431037559011207</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.1081487828026082</c:v>
+                  <c:v>-8.4154789597140484E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.52431037559011207</c:v>
+                  <c:v>0.25583766116425738</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.4154789597140484E-2</c:v>
+                  <c:v>0.53949166031708451</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25583766116425738</c:v>
+                  <c:v>0.41261436849031796</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53949166031708451</c:v>
+                  <c:v>0.16528937560638018</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41261436849031796</c:v>
+                  <c:v>-0.17640453136932657</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16528937560638018</c:v>
+                  <c:v>-0.73824473069410324</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.17640453136932657</c:v>
+                  <c:v>-1.2595125853457985</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.73824473069410324</c:v>
+                  <c:v>-2.2264166628096422</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.2595125853457985</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-2.2264166628096422</c:v>
+                  <c:v>-4.2862305706250678</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-4.2862305706250678</c:v>
+                  <c:v>-6.5730152863203388</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-6.5730152863203388</c:v>
+                  <c:v>-6.7480698876139575</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6.7480698876139575</c:v>
+                  <c:v>-3.140802192083191</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-3.140802192083191</c:v>
+                  <c:v>-1.8598718561513436</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1.8598718561513436</c:v>
+                  <c:v>-1.0653224096663483</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.0653224096663483</c:v>
+                  <c:v>-0.48294610810577493</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.48294610810577493</c:v>
+                  <c:v>-2.8642258247730399E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-2.8642258247730399E-2</c:v>
+                  <c:v>0.3260075331577551</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.3260075331577551</c:v>
+                  <c:v>0.63406520777086384</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.63406520777086384</c:v>
+                  <c:v>0.48918496750283053</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.48918496750283053</c:v>
+                  <c:v>0.22421528748426703</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.22421528748426703</c:v>
+                  <c:v>-0.14362890091175576</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.14362890091175576</c:v>
+                  <c:v>-0.71493009194126722</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.71493009194126722</c:v>
+                  <c:v>-1.2467394948687773</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.2467394948687773</c:v>
+                  <c:v>-2.1773458169455613</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-2.1773458169455613</c:v>
+                  <c:v>-4.0866508826027355</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-4.0866508826027355</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>-8.1807679793101808</c:v>
                 </c:pt>
               </c:numCache>
@@ -4770,27 +4766,45 @@
   <c:chart>
     <c:title>
       <c:tx>
-        <c:strRef>
-          <c:f>'Обратная задача'!$B$71:$I$71</c:f>
-          <c:strCache>
-            <c:ptCount val="1"/>
-            <c:pt idx="0">
-              <c:v>Зависимость ln(Kp) от температуры T (табличная и экспериментальная)</c:v>
-            </c:pt>
-          </c:strCache>
-        </c:strRef>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ln(Kp) </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>от обратной</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>температуры 1/</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>T (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>табличная и экспериментальная)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
       </c:tx>
       <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200"/>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4812,39 +4826,39 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Обратная задача'!$D$73:$M$73</c:f>
+              <c:f>'Обратная задача'!$D$72:$M$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>3.6609921288669233E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>283.14999999999998</c:v>
+                  <c:v>3.5316969803990822E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>293.14999999999998</c:v>
+                  <c:v>3.4112229234180458E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>303.14999999999998</c:v>
+                  <c:v>3.298697014679202E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>313.14999999999998</c:v>
+                  <c:v>3.1933578157432542E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>323.14999999999998</c:v>
+                  <c:v>3.0945381401825778E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>333.15</c:v>
+                  <c:v>3.0016509079993999E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>343.15</c:v>
+                  <c:v>2.9141774734081308E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>353.15</c:v>
+                  <c:v>2.831657935721365E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>363.15</c:v>
+                  <c:v>2.7536830510808208E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4906,39 +4920,39 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Обратная задача'!$D$73:$M$73</c:f>
+              <c:f>'Обратная задача'!$D$72:$M$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>3.6609921288669233E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>283.14999999999998</c:v>
+                  <c:v>3.5316969803990822E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>293.14999999999998</c:v>
+                  <c:v>3.4112229234180458E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>303.14999999999998</c:v>
+                  <c:v>3.298697014679202E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>313.14999999999998</c:v>
+                  <c:v>3.1933578157432542E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>323.14999999999998</c:v>
+                  <c:v>3.0945381401825778E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>333.15</c:v>
+                  <c:v>3.0016509079993999E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>343.15</c:v>
+                  <c:v>2.9141774734081308E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>353.15</c:v>
+                  <c:v>2.831657935721365E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>363.15</c:v>
+                  <c:v>2.7536830510808208E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5000,39 +5014,39 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Обратная задача'!$D$73:$M$73</c:f>
+              <c:f>'Обратная задача'!$D$72:$M$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>3.6609921288669233E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>283.14999999999998</c:v>
+                  <c:v>3.5316969803990822E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>293.14999999999998</c:v>
+                  <c:v>3.4112229234180458E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>303.14999999999998</c:v>
+                  <c:v>3.298697014679202E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>313.14999999999998</c:v>
+                  <c:v>3.1933578157432542E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>323.14999999999998</c:v>
+                  <c:v>3.0945381401825778E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>333.15</c:v>
+                  <c:v>3.0016509079993999E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>343.15</c:v>
+                  <c:v>2.9141774734081308E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>353.15</c:v>
+                  <c:v>2.831657935721365E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>363.15</c:v>
+                  <c:v>2.7536830510808208E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5094,39 +5108,39 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Обратная задача'!$D$73:$M$73</c:f>
+              <c:f>'Обратная задача'!$D$72:$M$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>273.14999999999998</c:v>
+                  <c:v>3.6609921288669233E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>283.14999999999998</c:v>
+                  <c:v>3.5316969803990822E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>293.14999999999998</c:v>
+                  <c:v>3.4112229234180458E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>303.14999999999998</c:v>
+                  <c:v>3.298697014679202E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>313.14999999999998</c:v>
+                  <c:v>3.1933578157432542E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>323.14999999999998</c:v>
+                  <c:v>3.0945381401825778E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>333.15</c:v>
+                  <c:v>3.0016509079993999E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>343.15</c:v>
+                  <c:v>2.9141774734081308E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>353.15</c:v>
+                  <c:v>2.831657935721365E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>363.15</c:v>
+                  <c:v>2.7536830510808208E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5180,210 +5194,147 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>Отчет!$C$109:$AH$109</c:f>
+              <c:f>(Отчет!$E$108:$O$108,Отчет!$V$108:$AE$108)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>303.25</c:v>
+                  <c:v>3.1933578157432542E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>308.04999999999995</c:v>
+                  <c:v>3.1441597233139449E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>313.14999999999998</c:v>
+                  <c:v>3.0954960532425324E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>318.04999999999995</c:v>
+                  <c:v>3.048315805517452E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>323.04999999999995</c:v>
+                  <c:v>3.0025521693439429E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>328.04999999999995</c:v>
+                  <c:v>2.9572674848440043E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>333.04999999999995</c:v>
+                  <c:v>2.9810702042033089E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>338.15</c:v>
+                  <c:v>3.0179568432171424E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>335.45</c:v>
+                  <c:v>3.06044376434583E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>331.34999999999997</c:v>
+                  <c:v>3.1157501168406296E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>326.75</c:v>
+                  <c:v>3.1560675398453531E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>320.95</c:v>
+                  <c:v>3.1441597233139449E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>316.84999999999997</c:v>
+                  <c:v>3.0954960532425324E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>311.75</c:v>
+                  <c:v>3.048315805517452E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>306.14999999999998</c:v>
+                  <c:v>3.0025521693439429E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>301.84999999999997</c:v>
+                  <c:v>2.9572674848440043E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>303.25</c:v>
+                  <c:v>2.9810702042033089E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>308.04999999999995</c:v>
+                  <c:v>3.0179568432171424E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>313.14999999999998</c:v>
+                  <c:v>3.06044376434583E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>318.04999999999995</c:v>
+                  <c:v>3.1157501168406296E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>323.04999999999995</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>328.04999999999995</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>333.04999999999995</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>338.15</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>335.45</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>331.34999999999997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>326.75</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>320.95</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>316.84999999999997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>311.75</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>306.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>301.84999999999997</c:v>
+                  <c:v>3.1560675398453531E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Отчет!$C$141:$AH$141</c:f>
+              <c:f>(Отчет!$E$141:$O$141,Отчет!$V$141:$AF$141)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>-8.1352025100916538</c:v>
+                  <c:v>-1.9217382137569714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.322005869711647</c:v>
+                  <c:v>-1.1081487828026082</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.9217382137569714</c:v>
+                  <c:v>-0.52431037559011207</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.1081487828026082</c:v>
+                  <c:v>-8.4154789597140484E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.52431037559011207</c:v>
+                  <c:v>0.25583766116425738</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.4154789597140484E-2</c:v>
+                  <c:v>0.53949166031708451</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25583766116425738</c:v>
+                  <c:v>0.41261436849031796</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.53949166031708451</c:v>
+                  <c:v>0.16528937560638018</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.41261436849031796</c:v>
+                  <c:v>-0.17640453136932657</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.16528937560638018</c:v>
+                  <c:v>-0.73824473069410324</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.17640453136932657</c:v>
+                  <c:v>-1.2595125853457985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.73824473069410324</c:v>
+                  <c:v>-1.0653224096663483</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1.2595125853457985</c:v>
+                  <c:v>-0.48294610810577493</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-2.2264166628096422</c:v>
+                  <c:v>-2.8642258247730399E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4.2862305706250678</c:v>
+                  <c:v>0.3260075331577551</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-6.5730152863203388</c:v>
+                  <c:v>0.63406520777086384</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-6.7480698876139575</c:v>
+                  <c:v>0.48918496750283053</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-3.140802192083191</c:v>
+                  <c:v>0.22421528748426703</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-1.8598718561513436</c:v>
+                  <c:v>-0.14362890091175576</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.0653224096663483</c:v>
+                  <c:v>-0.71493009194126722</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.48294610810577493</c:v>
+                  <c:v>-1.2467394948687773</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-2.8642258247730399E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.3260075331577551</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.63406520777086384</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.48918496750283053</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.22421528748426703</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.14362890091175576</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.71493009194126722</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-1.2467394948687773</c:v>
-                </c:pt>
-                <c:pt idx="29">
                   <c:v>-2.1773458169455613</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-4.0866508826027355</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-8.1807679793101808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5397,8 +5348,7 @@
         <c:axId val="169842176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="370"/>
-          <c:min val="270"/>
+          <c:min val="2.0000000000000005E-3"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorGridlines/>
@@ -6080,8 +6030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AH184"/>
   <sheetViews>
-    <sheetView topLeftCell="L140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110:AH110"/>
+    <sheetView topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6146,7 +6096,7 @@
         <v>24</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H4" s="35">
         <v>490</v>
@@ -6332,7 +6282,7 @@
         <v>24</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H9" s="35">
         <v>540</v>
@@ -7431,137 +7381,267 @@
       <c r="H107" s="80"/>
       <c r="I107" s="80"/>
     </row>
+    <row r="108" spans="1:34">
+      <c r="C108" s="13">
+        <f>1/C109</f>
+        <v>3.2976092333058533E-3</v>
+      </c>
+      <c r="D108" s="13">
+        <f t="shared" ref="D108:AH108" si="8">1/D109</f>
+        <v>3.2462262619704597E-3</v>
+      </c>
+      <c r="E108" s="13">
+        <f t="shared" si="8"/>
+        <v>3.1933578157432542E-3</v>
+      </c>
+      <c r="F108" s="13">
+        <f t="shared" si="8"/>
+        <v>3.1441597233139449E-3</v>
+      </c>
+      <c r="G108" s="13">
+        <f t="shared" si="8"/>
+        <v>3.0954960532425324E-3</v>
+      </c>
+      <c r="H108" s="13">
+        <f t="shared" si="8"/>
+        <v>3.048315805517452E-3</v>
+      </c>
+      <c r="I108" s="13">
+        <f t="shared" si="8"/>
+        <v>3.0025521693439429E-3</v>
+      </c>
+      <c r="J108" s="13">
+        <f t="shared" si="8"/>
+        <v>2.9572674848440043E-3</v>
+      </c>
+      <c r="K108" s="13">
+        <f t="shared" si="8"/>
+        <v>2.9810702042033089E-3</v>
+      </c>
+      <c r="L108" s="13">
+        <f t="shared" si="8"/>
+        <v>3.0179568432171424E-3</v>
+      </c>
+      <c r="M108" s="13">
+        <f t="shared" si="8"/>
+        <v>3.06044376434583E-3</v>
+      </c>
+      <c r="N108" s="13">
+        <f t="shared" si="8"/>
+        <v>3.1157501168406296E-3</v>
+      </c>
+      <c r="O108" s="13">
+        <f t="shared" si="8"/>
+        <v>3.1560675398453531E-3</v>
+      </c>
+      <c r="P108" s="13">
+        <f t="shared" si="8"/>
+        <v>3.2076984763432237E-3</v>
+      </c>
+      <c r="Q108" s="13">
+        <f t="shared" si="8"/>
+        <v>3.2663726931242859E-3</v>
+      </c>
+      <c r="R108" s="13">
+        <f t="shared" si="8"/>
+        <v>3.3129037601457682E-3</v>
+      </c>
+      <c r="S108" s="13">
+        <f t="shared" si="8"/>
+        <v>3.2976092333058533E-3</v>
+      </c>
+      <c r="T108" s="13">
+        <f t="shared" si="8"/>
+        <v>3.2462262619704597E-3</v>
+      </c>
+      <c r="U108" s="13">
+        <f t="shared" si="8"/>
+        <v>3.1933578157432542E-3</v>
+      </c>
+      <c r="V108" s="13">
+        <f t="shared" si="8"/>
+        <v>3.1441597233139449E-3</v>
+      </c>
+      <c r="W108" s="13">
+        <f t="shared" si="8"/>
+        <v>3.0954960532425324E-3</v>
+      </c>
+      <c r="X108" s="13">
+        <f t="shared" si="8"/>
+        <v>3.048315805517452E-3</v>
+      </c>
+      <c r="Y108" s="13">
+        <f t="shared" si="8"/>
+        <v>3.0025521693439429E-3</v>
+      </c>
+      <c r="Z108" s="13">
+        <f t="shared" si="8"/>
+        <v>2.9572674848440043E-3</v>
+      </c>
+      <c r="AA108" s="13">
+        <f t="shared" si="8"/>
+        <v>2.9810702042033089E-3</v>
+      </c>
+      <c r="AB108" s="13">
+        <f t="shared" si="8"/>
+        <v>3.0179568432171424E-3</v>
+      </c>
+      <c r="AC108" s="13">
+        <f t="shared" si="8"/>
+        <v>3.06044376434583E-3</v>
+      </c>
+      <c r="AD108" s="13">
+        <f t="shared" si="8"/>
+        <v>3.1157501168406296E-3</v>
+      </c>
+      <c r="AE108" s="13">
+        <f t="shared" si="8"/>
+        <v>3.1560675398453531E-3</v>
+      </c>
+      <c r="AF108" s="13">
+        <f t="shared" si="8"/>
+        <v>3.2076984763432237E-3</v>
+      </c>
+      <c r="AG108" s="13">
+        <f t="shared" si="8"/>
+        <v>3.2663726931242859E-3</v>
+      </c>
+      <c r="AH108" s="13">
+        <f t="shared" si="8"/>
+        <v>3.3129037601457682E-3</v>
+      </c>
+    </row>
     <row r="109" spans="1:34">
       <c r="B109" s="18" t="str">
-        <f t="shared" ref="B109:AH109" si="8">B78</f>
+        <f t="shared" ref="B109:AH109" si="9">B78</f>
         <v>T, K</v>
       </c>
       <c r="C109" s="39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>303.25</v>
       </c>
       <c r="D109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>308.04999999999995</v>
       </c>
       <c r="E109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>313.14999999999998</v>
       </c>
       <c r="F109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>318.04999999999995</v>
       </c>
       <c r="G109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>323.04999999999995</v>
       </c>
       <c r="H109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>328.04999999999995</v>
       </c>
       <c r="I109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>333.04999999999995</v>
       </c>
       <c r="J109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>338.15</v>
       </c>
       <c r="K109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>335.45</v>
       </c>
       <c r="L109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>331.34999999999997</v>
       </c>
       <c r="M109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>326.75</v>
       </c>
       <c r="N109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>320.95</v>
       </c>
       <c r="O109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>316.84999999999997</v>
       </c>
       <c r="P109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>311.75</v>
       </c>
       <c r="Q109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>306.14999999999998</v>
       </c>
       <c r="R109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>301.84999999999997</v>
       </c>
       <c r="S109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>303.25</v>
       </c>
       <c r="T109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>308.04999999999995</v>
       </c>
       <c r="U109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>313.14999999999998</v>
       </c>
       <c r="V109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>318.04999999999995</v>
       </c>
       <c r="W109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>323.04999999999995</v>
       </c>
       <c r="X109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>328.04999999999995</v>
       </c>
       <c r="Y109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>333.04999999999995</v>
       </c>
       <c r="Z109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>338.15</v>
       </c>
       <c r="AA109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>335.45</v>
       </c>
       <c r="AB109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>331.34999999999997</v>
       </c>
       <c r="AC109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>326.75</v>
       </c>
       <c r="AD109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>320.95</v>
       </c>
       <c r="AE109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>316.84999999999997</v>
       </c>
       <c r="AF109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>311.75</v>
       </c>
       <c r="AG109" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>306.14999999999998</v>
       </c>
       <c r="AH109" s="41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>301.84999999999997</v>
       </c>
     </row>
@@ -7722,127 +7802,127 @@
         <v>3.2976092333058533E-3</v>
       </c>
       <c r="D140" s="40">
-        <f t="shared" ref="D140:AB140" si="9">1/D109</f>
+        <f t="shared" ref="D140:AB140" si="10">1/D109</f>
         <v>3.2462262619704597E-3</v>
       </c>
       <c r="E140" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.1933578157432542E-3</v>
       </c>
       <c r="F140" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.1441597233139449E-3</v>
       </c>
       <c r="G140" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.0954960532425324E-3</v>
       </c>
       <c r="H140" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.048315805517452E-3</v>
       </c>
       <c r="I140" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.0025521693439429E-3</v>
       </c>
       <c r="J140" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.9572674848440043E-3</v>
       </c>
       <c r="K140" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.9810702042033089E-3</v>
       </c>
       <c r="L140" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.0179568432171424E-3</v>
       </c>
       <c r="M140" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.06044376434583E-3</v>
       </c>
       <c r="N140" s="40">
-        <f t="shared" si="9"/>
-        <v>3.1157501168406296E-3</v>
-      </c>
-      <c r="O140" s="40">
-        <f t="shared" si="9"/>
-        <v>3.1560675398453531E-3</v>
-      </c>
-      <c r="P140" s="40">
-        <f t="shared" si="9"/>
-        <v>3.2076984763432237E-3</v>
-      </c>
-      <c r="Q140" s="40">
-        <f t="shared" si="9"/>
-        <v>3.2663726931242859E-3</v>
-      </c>
-      <c r="R140" s="40">
-        <f t="shared" si="9"/>
-        <v>3.3129037601457682E-3</v>
-      </c>
-      <c r="S140" s="40">
-        <f t="shared" si="9"/>
-        <v>3.2976092333058533E-3</v>
-      </c>
-      <c r="T140" s="40">
-        <f t="shared" si="9"/>
-        <v>3.2462262619704597E-3</v>
-      </c>
-      <c r="U140" s="40">
-        <f t="shared" si="9"/>
-        <v>3.1933578157432542E-3</v>
-      </c>
-      <c r="V140" s="40">
-        <f t="shared" si="9"/>
-        <v>3.1441597233139449E-3</v>
-      </c>
-      <c r="W140" s="40">
-        <f t="shared" si="9"/>
-        <v>3.0954960532425324E-3</v>
-      </c>
-      <c r="X140" s="40">
-        <f t="shared" si="9"/>
-        <v>3.048315805517452E-3</v>
-      </c>
-      <c r="Y140" s="40">
-        <f t="shared" si="9"/>
-        <v>3.0025521693439429E-3</v>
-      </c>
-      <c r="Z140" s="40">
-        <f t="shared" si="9"/>
-        <v>2.9572674848440043E-3</v>
-      </c>
-      <c r="AA140" s="40">
-        <f t="shared" si="9"/>
-        <v>2.9810702042033089E-3</v>
-      </c>
-      <c r="AB140" s="40">
-        <f t="shared" si="9"/>
-        <v>3.0179568432171424E-3</v>
-      </c>
-      <c r="AC140" s="40">
-        <f t="shared" ref="AC140:AH140" si="10">1/AC109</f>
-        <v>3.06044376434583E-3</v>
-      </c>
-      <c r="AD140" s="40">
         <f t="shared" si="10"/>
         <v>3.1157501168406296E-3</v>
       </c>
-      <c r="AE140" s="40">
+      <c r="O140" s="40">
         <f t="shared" si="10"/>
         <v>3.1560675398453531E-3</v>
       </c>
-      <c r="AF140" s="40">
+      <c r="P140" s="40">
         <f t="shared" si="10"/>
         <v>3.2076984763432237E-3</v>
       </c>
-      <c r="AG140" s="40">
+      <c r="Q140" s="40">
         <f t="shared" si="10"/>
         <v>3.2663726931242859E-3</v>
       </c>
+      <c r="R140" s="40">
+        <f t="shared" si="10"/>
+        <v>3.3129037601457682E-3</v>
+      </c>
+      <c r="S140" s="40">
+        <f t="shared" si="10"/>
+        <v>3.2976092333058533E-3</v>
+      </c>
+      <c r="T140" s="40">
+        <f t="shared" si="10"/>
+        <v>3.2462262619704597E-3</v>
+      </c>
+      <c r="U140" s="40">
+        <f t="shared" si="10"/>
+        <v>3.1933578157432542E-3</v>
+      </c>
+      <c r="V140" s="40">
+        <f t="shared" si="10"/>
+        <v>3.1441597233139449E-3</v>
+      </c>
+      <c r="W140" s="40">
+        <f t="shared" si="10"/>
+        <v>3.0954960532425324E-3</v>
+      </c>
+      <c r="X140" s="40">
+        <f t="shared" si="10"/>
+        <v>3.048315805517452E-3</v>
+      </c>
+      <c r="Y140" s="40">
+        <f t="shared" si="10"/>
+        <v>3.0025521693439429E-3</v>
+      </c>
+      <c r="Z140" s="40">
+        <f t="shared" si="10"/>
+        <v>2.9572674848440043E-3</v>
+      </c>
+      <c r="AA140" s="40">
+        <f t="shared" si="10"/>
+        <v>2.9810702042033089E-3</v>
+      </c>
+      <c r="AB140" s="40">
+        <f t="shared" si="10"/>
+        <v>3.0179568432171424E-3</v>
+      </c>
+      <c r="AC140" s="40">
+        <f t="shared" ref="AC140:AH140" si="11">1/AC109</f>
+        <v>3.06044376434583E-3</v>
+      </c>
+      <c r="AD140" s="40">
+        <f t="shared" si="11"/>
+        <v>3.1157501168406296E-3</v>
+      </c>
+      <c r="AE140" s="40">
+        <f t="shared" si="11"/>
+        <v>3.1560675398453531E-3</v>
+      </c>
+      <c r="AF140" s="40">
+        <f t="shared" si="11"/>
+        <v>3.2076984763432237E-3</v>
+      </c>
+      <c r="AG140" s="40">
+        <f t="shared" si="11"/>
+        <v>3.2663726931242859E-3</v>
+      </c>
       <c r="AH140" s="41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.3129037601457682E-3</v>
       </c>
     </row>
@@ -7855,127 +7935,127 @@
         <v>-8.1352025100916538</v>
       </c>
       <c r="D141" s="43">
-        <f t="shared" ref="D141:AB141" si="11">LN(D110)</f>
+        <f t="shared" ref="D141:AB141" si="12">LN(D110)</f>
         <v>-3.322005869711647</v>
       </c>
       <c r="E141" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.9217382137569714</v>
       </c>
       <c r="F141" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.1081487828026082</v>
       </c>
       <c r="G141" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.52431037559011207</v>
       </c>
       <c r="H141" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-8.4154789597140484E-2</v>
       </c>
       <c r="I141" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.25583766116425738</v>
       </c>
       <c r="J141" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.53949166031708451</v>
       </c>
       <c r="K141" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.41261436849031796</v>
       </c>
       <c r="L141" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.16528937560638018</v>
       </c>
       <c r="M141" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.17640453136932657</v>
       </c>
       <c r="N141" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.73824473069410324</v>
       </c>
       <c r="O141" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.2595125853457985</v>
       </c>
       <c r="P141" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-2.2264166628096422</v>
       </c>
       <c r="Q141" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-4.2862305706250678</v>
       </c>
       <c r="R141" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-6.5730152863203388</v>
       </c>
       <c r="S141" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-6.7480698876139575</v>
       </c>
       <c r="T141" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-3.140802192083191</v>
       </c>
       <c r="U141" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.8598718561513436</v>
       </c>
       <c r="V141" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-1.0653224096663483</v>
       </c>
       <c r="W141" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-0.48294610810577493</v>
       </c>
       <c r="X141" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>-2.8642258247730399E-2</v>
       </c>
       <c r="Y141" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.3260075331577551</v>
       </c>
       <c r="Z141" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.63406520777086384</v>
       </c>
       <c r="AA141" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.48918496750283053</v>
       </c>
       <c r="AB141" s="43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.22421528748426703</v>
       </c>
       <c r="AC141" s="43">
-        <f t="shared" ref="AC141:AH141" si="12">LN(AC110)</f>
+        <f t="shared" ref="AC141:AH141" si="13">LN(AC110)</f>
         <v>-0.14362890091175576</v>
       </c>
       <c r="AD141" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-0.71493009194126722</v>
       </c>
       <c r="AE141" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-1.2467394948687773</v>
       </c>
       <c r="AF141" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-2.1773458169455613</v>
       </c>
       <c r="AG141" s="43">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-4.0866508826027355</v>
       </c>
       <c r="AH141" s="44">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-8.1807679793101808</v>
       </c>
     </row>
@@ -7996,7 +8076,7 @@
       </c>
       <c r="C145" s="13">
         <f>МНК!$B$9*Лаб.Журнал!E22*(-1)</f>
-        <v>168764.17659741716</v>
+        <v>75689.569342547868</v>
       </c>
     </row>
     <row r="146" spans="1:34">
@@ -8005,7 +8085,7 @@
       </c>
       <c r="C146" s="13">
         <f>МНК!$B$10*Лаб.Журнал!E22</f>
-        <v>513.61904342205389</v>
+        <v>229.35853654158717</v>
       </c>
     </row>
     <row r="148" spans="1:34">
@@ -8013,7 +8093,7 @@
         <v>7</v>
       </c>
       <c r="B148" s="79" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C148" s="80"/>
       <c r="D148" s="80"/>
@@ -8028,131 +8108,131 @@
         <v>T, K</v>
       </c>
       <c r="C150" s="39">
-        <f t="shared" ref="C149:AH150" si="13">C78</f>
+        <f t="shared" ref="C149:AH150" si="14">C78</f>
         <v>303.25</v>
       </c>
       <c r="D150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>308.04999999999995</v>
       </c>
       <c r="E150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>313.14999999999998</v>
       </c>
       <c r="F150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>318.04999999999995</v>
       </c>
       <c r="G150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>323.04999999999995</v>
       </c>
       <c r="H150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>328.04999999999995</v>
       </c>
       <c r="I150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>333.04999999999995</v>
       </c>
       <c r="J150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>338.15</v>
       </c>
       <c r="K150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>335.45</v>
       </c>
       <c r="L150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>331.34999999999997</v>
       </c>
       <c r="M150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>326.75</v>
       </c>
       <c r="N150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>320.95</v>
       </c>
       <c r="O150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>316.84999999999997</v>
       </c>
       <c r="P150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>311.75</v>
       </c>
       <c r="Q150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>306.14999999999998</v>
       </c>
       <c r="R150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>301.84999999999997</v>
       </c>
       <c r="S150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>303.25</v>
       </c>
       <c r="T150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>308.04999999999995</v>
       </c>
       <c r="U150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>313.14999999999998</v>
       </c>
       <c r="V150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>318.04999999999995</v>
       </c>
       <c r="W150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>323.04999999999995</v>
       </c>
       <c r="X150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>328.04999999999995</v>
       </c>
       <c r="Y150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>333.04999999999995</v>
       </c>
       <c r="Z150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>338.15</v>
       </c>
       <c r="AA150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>335.45</v>
       </c>
       <c r="AB150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>331.34999999999997</v>
       </c>
       <c r="AC150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>326.75</v>
       </c>
       <c r="AD150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>320.95</v>
       </c>
       <c r="AE150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>316.84999999999997</v>
       </c>
       <c r="AF150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>311.75</v>
       </c>
       <c r="AG150" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>306.14999999999998</v>
       </c>
       <c r="AH150" s="41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>301.84999999999997</v>
       </c>
     </row>
@@ -8295,127 +8375,127 @@
         <v>-15.967756225577501</v>
       </c>
       <c r="D152" s="13">
-        <f t="shared" ref="D152:AH152" si="14">LN(D151)</f>
+        <f t="shared" ref="D152:AH152" si="15">LN(D151)</f>
         <v>-11.170264144833915</v>
       </c>
       <c r="E152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.7864166903900802</v>
       </c>
       <c r="F152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-8.9883535535891088</v>
       </c>
       <c r="G152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-8.4201136532559744</v>
       </c>
       <c r="H152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-7.9953169930497143</v>
       </c>
       <c r="I152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-7.6704511353566183</v>
       </c>
       <c r="J152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-7.4019940913655526</v>
       </c>
       <c r="K152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-7.5208547131802668</v>
       </c>
       <c r="L152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-7.7558820105895432</v>
       </c>
       <c r="M152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-8.0835960515353449</v>
       </c>
       <c r="N152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-8.6275262461135789</v>
       </c>
       <c r="O152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.1359372287770118</v>
       </c>
       <c r="P152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-10.086614415031477</v>
       </c>
       <c r="Q152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-12.128301916210718</v>
       </c>
       <c r="R152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-14.400941659224461</v>
       </c>
       <c r="S152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-14.580623603099806</v>
       </c>
       <c r="T152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-10.989060467205459</v>
       </c>
       <c r="U152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.7245503327844531</v>
       </c>
       <c r="V152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-8.9455271804528493</v>
       </c>
       <c r="W152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-8.3787493857716377</v>
       </c>
       <c r="X152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-7.9398044617003043</v>
       </c>
       <c r="Y152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-7.6002812633631214</v>
       </c>
       <c r="Z152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-7.307420543911773</v>
       </c>
       <c r="AA152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-7.444284114167754</v>
       </c>
       <c r="AB152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-7.6969560987116568</v>
       </c>
       <c r="AC152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-8.0508204210777752</v>
       </c>
       <c r="AD152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-8.6042116073607424</v>
       </c>
       <c r="AE152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-9.1231641382999911</v>
       </c>
       <c r="AF152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-10.037543569167395</v>
       </c>
       <c r="AG152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-11.928722228188386</v>
       </c>
       <c r="AH152" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-16.008694352214302</v>
       </c>
     </row>
@@ -8479,19 +8559,19 @@
         <v>13.3</v>
       </c>
       <c r="D183" s="13">
-        <f t="shared" ref="D183:G183" si="15">D182</f>
+        <f t="shared" ref="D183:G183" si="16">D182</f>
         <v>8</v>
       </c>
       <c r="E183" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.5</v>
       </c>
       <c r="F183" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.8</v>
       </c>
       <c r="G183" s="13">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="H183" s="13">
@@ -8508,23 +8588,23 @@
         <v>0</v>
       </c>
       <c r="D184" s="13">
-        <f t="shared" ref="D184:H184" si="16">D181*D183*D183/D182</f>
+        <f t="shared" ref="D184:H184" si="17">D181*D183*D183/D182</f>
         <v>0</v>
       </c>
       <c r="E184" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F184" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G184" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="H184" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -8557,12 +8637,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG52"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8670,62 +8751,58 @@
         <v>1/Т, 1/К</v>
       </c>
       <c r="B2" s="1">
-        <f>Отчет!C140</f>
-        <v>3.2976092333058533E-3</v>
-      </c>
-      <c r="C2" s="1">
         <f>Отчет!D140</f>
         <v>3.2462262619704597E-3</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C2" s="1">
         <f>Отчет!E140</f>
         <v>3.1933578157432542E-3</v>
       </c>
-      <c r="E2" s="1">
+      <c r="D2" s="1">
         <f>Отчет!F140</f>
         <v>3.1441597233139449E-3</v>
       </c>
-      <c r="F2" s="1">
+      <c r="E2" s="1">
         <f>Отчет!G140</f>
         <v>3.0954960532425324E-3</v>
       </c>
-      <c r="G2" s="1">
+      <c r="F2" s="1">
         <f>Отчет!H140</f>
         <v>3.048315805517452E-3</v>
       </c>
-      <c r="H2" s="1">
+      <c r="G2" s="1">
         <f>Отчет!I140</f>
         <v>3.0025521693439429E-3</v>
       </c>
-      <c r="I2" s="1">
+      <c r="H2" s="1">
         <f>Отчет!J140</f>
         <v>2.9572674848440043E-3</v>
       </c>
-      <c r="J2" s="1">
+      <c r="I2" s="1">
         <f>Отчет!K140</f>
         <v>2.9810702042033089E-3</v>
       </c>
-      <c r="K2" s="1">
+      <c r="J2" s="1">
         <f>Отчет!L140</f>
         <v>3.0179568432171424E-3</v>
       </c>
-      <c r="L2" s="1">
+      <c r="K2" s="1">
         <f>Отчет!M140</f>
         <v>3.06044376434583E-3</v>
       </c>
-      <c r="M2" s="1">
+      <c r="L2" s="1">
         <f>Отчет!N140</f>
         <v>3.1157501168406296E-3</v>
       </c>
-      <c r="N2" s="1">
+      <c r="M2" s="1">
         <f>Отчет!O140</f>
         <v>3.1560675398453531E-3</v>
       </c>
-      <c r="O2" s="1">
+      <c r="N2" s="1">
         <f>Отчет!P140</f>
         <v>3.2076984763432237E-3</v>
       </c>
-      <c r="P2" s="1">
+      <c r="O2" s="1">
         <f>Отчет!Q140</f>
         <v>3.2663726931242859E-3</v>
       </c>
@@ -8804,62 +8881,58 @@
         <v>ln(Kp)</v>
       </c>
       <c r="B3" s="1">
-        <f>Отчет!C141</f>
-        <v>-8.1352025100916538</v>
-      </c>
-      <c r="C3" s="1">
         <f>Отчет!D141</f>
         <v>-3.322005869711647</v>
       </c>
-      <c r="D3" s="1">
+      <c r="C3" s="1">
         <f>Отчет!E141</f>
         <v>-1.9217382137569714</v>
       </c>
-      <c r="E3" s="1">
+      <c r="D3" s="1">
         <f>Отчет!F141</f>
         <v>-1.1081487828026082</v>
       </c>
-      <c r="F3" s="1">
+      <c r="E3" s="1">
         <f>Отчет!G141</f>
         <v>-0.52431037559011207</v>
       </c>
-      <c r="G3" s="1">
+      <c r="F3" s="1">
         <f>Отчет!H141</f>
         <v>-8.4154789597140484E-2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="G3" s="1">
         <f>Отчет!I141</f>
         <v>0.25583766116425738</v>
       </c>
-      <c r="I3" s="1">
+      <c r="H3" s="1">
         <f>Отчет!J141</f>
         <v>0.53949166031708451</v>
       </c>
-      <c r="J3" s="1">
+      <c r="I3" s="1">
         <f>Отчет!K141</f>
         <v>0.41261436849031796</v>
       </c>
-      <c r="K3" s="1">
+      <c r="J3" s="1">
         <f>Отчет!L141</f>
         <v>0.16528937560638018</v>
       </c>
-      <c r="L3" s="1">
+      <c r="K3" s="1">
         <f>Отчет!M141</f>
         <v>-0.17640453136932657</v>
       </c>
-      <c r="M3" s="1">
+      <c r="L3" s="1">
         <f>Отчет!N141</f>
         <v>-0.73824473069410324</v>
       </c>
-      <c r="N3" s="1">
+      <c r="M3" s="1">
         <f>Отчет!O141</f>
         <v>-1.2595125853457985</v>
       </c>
-      <c r="O3" s="1">
+      <c r="N3" s="1">
         <f>Отчет!P141</f>
         <v>-2.2264166628096422</v>
       </c>
-      <c r="P3" s="1">
+      <c r="O3" s="1">
         <f>Отчет!Q141</f>
         <v>-4.2862305706250678</v>
       </c>
@@ -8938,130 +9011,130 @@
       </c>
       <c r="B4" s="3">
         <f>B2*B2</f>
-        <v>1.0874226655584017E-5</v>
+        <v>1.0537984943906704E-5</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:G5" si="0">C2*C2</f>
-        <v>1.0537984943906704E-5</v>
+        <f t="shared" ref="C4:O4" si="0">C2*C2</f>
+        <v>1.0197534139368528E-5</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="0"/>
-        <v>1.0197534139368528E-5</v>
+        <v>9.8857403657096229E-6</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="0"/>
-        <v>9.8857403657096229E-6</v>
+        <v>9.5820958156400959E-6</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" si="0"/>
-        <v>9.5820958156400959E-6</v>
+        <v>9.2922292501675115E-6</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="0"/>
+        <v>9.0153195296320178E-6</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>8.7454309769155832E-6</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="0"/>
+        <v>8.8867795623887589E-6</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="0"/>
+        <v>9.1080635075211802E-6</v>
+      </c>
+      <c r="K4" s="3">
+        <f t="shared" si="0"/>
+        <v>9.3663160347232746E-6</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="0"/>
+        <v>9.7078987905923978E-6</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" si="0"/>
+        <v>9.9607623160654999E-6</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.028932951513464E-5</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0669190570387999E-5</v>
+      </c>
+      <c r="P4" s="3">
+        <f>O2*O2</f>
+        <v>1.0669190570387999E-5</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" ref="Q4:U4" si="1">Q2*Q2</f>
+        <v>1.0975331323987969E-5</v>
+      </c>
+      <c r="R4" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0874226655584017E-5</v>
+      </c>
+      <c r="S4" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0537984943906704E-5</v>
+      </c>
+      <c r="T4" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0197534139368528E-5</v>
+      </c>
+      <c r="U4" s="3">
+        <f t="shared" si="1"/>
+        <v>9.8857403657096229E-6</v>
+      </c>
+      <c r="V4" s="3">
+        <f t="shared" ref="V4:AG4" si="2">V2*V2</f>
+        <v>9.5820958156400959E-6</v>
+      </c>
+      <c r="W4" s="3">
+        <f t="shared" si="2"/>
         <v>9.2922292501675115E-6</v>
       </c>
-      <c r="H4" s="3">
-        <f t="shared" ref="H4:L4" si="1">H2*H2</f>
+      <c r="X4" s="3">
+        <f t="shared" si="2"/>
         <v>9.0153195296320178E-6</v>
       </c>
-      <c r="I4" s="3">
-        <f t="shared" si="1"/>
+      <c r="Y4" s="3">
+        <f t="shared" si="2"/>
         <v>8.7454309769155832E-6</v>
       </c>
-      <c r="J4" s="3">
-        <f t="shared" si="1"/>
+      <c r="Z4" s="3">
+        <f t="shared" si="2"/>
         <v>8.8867795623887589E-6</v>
       </c>
-      <c r="K4" s="3">
-        <f t="shared" si="1"/>
+      <c r="AA4" s="3">
+        <f t="shared" si="2"/>
         <v>9.1080635075211802E-6</v>
       </c>
-      <c r="L4" s="3">
-        <f t="shared" si="1"/>
+      <c r="AB4" s="3">
+        <f t="shared" si="2"/>
         <v>9.3663160347232746E-6</v>
       </c>
-      <c r="M4" s="3">
-        <f t="shared" ref="M4:P4" si="2">M2*M2</f>
+      <c r="AC4" s="3">
+        <f t="shared" si="2"/>
         <v>9.7078987905923978E-6</v>
       </c>
-      <c r="N4" s="3">
+      <c r="AD4" s="3">
         <f t="shared" si="2"/>
         <v>9.9607623160654999E-6</v>
       </c>
-      <c r="O4" s="3">
+      <c r="AE4" s="3">
         <f t="shared" si="2"/>
         <v>1.028932951513464E-5</v>
       </c>
-      <c r="P4" s="3">
+      <c r="AF4" s="3">
         <f t="shared" si="2"/>
         <v>1.0669190570387999E-5</v>
       </c>
-      <c r="Q4" s="3">
-        <f t="shared" ref="Q4:U4" si="3">Q2*Q2</f>
-        <v>1.0975331323987969E-5</v>
-      </c>
-      <c r="R4" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0874226655584017E-5</v>
-      </c>
-      <c r="S4" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0537984943906704E-5</v>
-      </c>
-      <c r="T4" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0197534139368528E-5</v>
-      </c>
-      <c r="U4" s="3">
-        <f t="shared" si="3"/>
-        <v>9.8857403657096229E-6</v>
-      </c>
-      <c r="V4" s="3">
-        <f t="shared" ref="V4:AG4" si="4">V2*V2</f>
-        <v>9.5820958156400959E-6</v>
-      </c>
-      <c r="W4" s="3">
-        <f t="shared" si="4"/>
-        <v>9.2922292501675115E-6</v>
-      </c>
-      <c r="X4" s="3">
-        <f t="shared" si="4"/>
-        <v>9.0153195296320178E-6</v>
-      </c>
-      <c r="Y4" s="3">
-        <f t="shared" si="4"/>
-        <v>8.7454309769155832E-6</v>
-      </c>
-      <c r="Z4" s="3">
-        <f t="shared" si="4"/>
-        <v>8.8867795623887589E-6</v>
-      </c>
-      <c r="AA4" s="3">
-        <f t="shared" si="4"/>
-        <v>9.1080635075211802E-6</v>
-      </c>
-      <c r="AB4" s="3">
-        <f t="shared" si="4"/>
-        <v>9.3663160347232746E-6</v>
-      </c>
-      <c r="AC4" s="3">
-        <f t="shared" si="4"/>
-        <v>9.7078987905923978E-6</v>
-      </c>
-      <c r="AD4" s="3">
-        <f t="shared" si="4"/>
-        <v>9.9607623160654999E-6</v>
-      </c>
-      <c r="AE4" s="3">
-        <f t="shared" si="4"/>
-        <v>1.028932951513464E-5</v>
-      </c>
-      <c r="AF4" s="3">
-        <f t="shared" si="4"/>
-        <v>1.0669190570387999E-5</v>
-      </c>
       <c r="AG4" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.0975331323987969E-5</v>
       </c>
     </row>
@@ -9070,131 +9143,131 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <f>B3*B3</f>
-        <v>66.181519880201549</v>
+        <f t="shared" ref="B5:O6" si="3">B3*B3</f>
+        <v>11.035722998398636</v>
       </c>
       <c r="C5" s="3">
-        <f t="shared" si="0"/>
-        <v>11.035722998398636</v>
+        <f t="shared" si="3"/>
+        <v>3.6930777622138353</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>3.6930777622138353</v>
+        <f t="shared" si="3"/>
+        <v>1.2279937248269022</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="0"/>
-        <v>1.2279937248269022</v>
+        <f t="shared" si="3"/>
+        <v>0.27490136995144437</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="0"/>
-        <v>0.27490136995144437</v>
+        <f t="shared" si="3"/>
+        <v>7.0820286121389842E-3</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="0"/>
-        <v>7.0820286121389842E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.545290886999737E-2</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" ref="H5:L5" si="5">H3*H3</f>
-        <v>6.545290886999737E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.29105125155168449</v>
       </c>
       <c r="I5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.17025061708466391</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="3"/>
+        <v>2.7320577688347027E-2</v>
+      </c>
+      <c r="K5" s="3">
+        <f t="shared" si="3"/>
+        <v>3.1118558687631723E-2</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.54500528239760904</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="3"/>
+        <v>1.5863719526444573</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="3"/>
+        <v>4.9569311564364238</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="3"/>
+        <v>18.371772504560894</v>
+      </c>
+      <c r="P5" s="3">
+        <f>O3*O3</f>
+        <v>18.371772504560894</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" ref="Q5:U5" si="4">Q3*Q3</f>
+        <v>43.204529954200844</v>
+      </c>
+      <c r="R5" s="3">
+        <f t="shared" si="4"/>
+        <v>45.536447208122247</v>
+      </c>
+      <c r="S5" s="3">
+        <f t="shared" si="4"/>
+        <v>9.8646384097945781</v>
+      </c>
+      <c r="T5" s="3">
+        <f t="shared" si="4"/>
+        <v>3.4591233213038444</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" si="4"/>
+        <v>1.1349118365373148</v>
+      </c>
+      <c r="V5" s="3">
+        <f t="shared" ref="V5:AG5" si="5">V3*V3</f>
+        <v>0.23323694333451483</v>
+      </c>
+      <c r="W5" s="3">
         <f t="shared" si="5"/>
-        <v>0.29105125155168449</v>
-      </c>
-      <c r="J5" s="3">
+        <v>8.2037895752968008E-4</v>
+      </c>
+      <c r="X5" s="3">
         <f t="shared" si="5"/>
-        <v>0.17025061708466391</v>
-      </c>
-      <c r="K5" s="3">
+        <v>0.10628091167560479</v>
+      </c>
+      <c r="Y5" s="3">
         <f t="shared" si="5"/>
-        <v>2.7320577688347027E-2</v>
-      </c>
-      <c r="L5" s="3">
+        <v>0.40203868770550871</v>
+      </c>
+      <c r="Z5" s="3">
         <f t="shared" si="5"/>
-        <v>3.1118558687631723E-2</v>
-      </c>
-      <c r="M5" s="3">
-        <f t="shared" ref="M5:P5" si="6">M3*M3</f>
-        <v>0.54500528239760904</v>
-      </c>
-      <c r="N5" s="3">
-        <f t="shared" si="6"/>
-        <v>1.5863719526444573</v>
-      </c>
-      <c r="O5" s="3">
-        <f t="shared" si="6"/>
-        <v>4.9569311564364238</v>
-      </c>
-      <c r="P5" s="3">
-        <f t="shared" si="6"/>
-        <v>18.371772504560894</v>
-      </c>
-      <c r="Q5" s="3">
-        <f t="shared" ref="Q5:U5" si="7">Q3*Q3</f>
-        <v>43.204529954200844</v>
-      </c>
-      <c r="R5" s="3">
-        <f t="shared" si="7"/>
-        <v>45.536447208122247</v>
-      </c>
-      <c r="S5" s="3">
-        <f t="shared" si="7"/>
-        <v>9.8646384097945781</v>
-      </c>
-      <c r="T5" s="3">
-        <f t="shared" si="7"/>
-        <v>3.4591233213038444</v>
-      </c>
-      <c r="U5" s="3">
-        <f t="shared" si="7"/>
-        <v>1.1349118365373148</v>
-      </c>
-      <c r="V5" s="3">
-        <f t="shared" ref="V5:AG5" si="8">V3*V3</f>
-        <v>0.23323694333451483</v>
-      </c>
-      <c r="W5" s="3">
-        <f t="shared" si="8"/>
-        <v>8.2037895752968008E-4</v>
-      </c>
-      <c r="X5" s="3">
-        <f t="shared" si="8"/>
-        <v>0.10628091167560479</v>
-      </c>
-      <c r="Y5" s="3">
-        <f t="shared" si="8"/>
-        <v>0.40203868770550871</v>
-      </c>
-      <c r="Z5" s="3">
-        <f t="shared" si="8"/>
         <v>0.23930193243074535</v>
       </c>
       <c r="AA5" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>5.027249514165251E-2</v>
       </c>
       <c r="AB5" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>2.0629261177118954E-2</v>
       </c>
       <c r="AC5" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.51112503636314877</v>
       </c>
       <c r="AD5" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1.554359368065654</v>
       </c>
       <c r="AE5" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>4.7408348065703336</v>
       </c>
       <c r="AF5" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>16.700715436277715</v>
       </c>
       <c r="AG5" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>66.924964731306773</v>
       </c>
     </row>
@@ -9202,132 +9275,132 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <f>B2*B3</f>
-        <v>-2.6826718912091194E-2</v>
-      </c>
-      <c r="C6" s="5">
-        <f t="shared" ref="C6:G6" si="9">C2*C3</f>
         <v>-1.0783982696677966E-2</v>
       </c>
-      <c r="D6" s="5">
-        <f t="shared" si="9"/>
+      <c r="C6" s="3">
+        <f t="shared" ref="C6:O6" si="6">C2*C3</f>
         <v>-6.1367977447133052E-3</v>
       </c>
-      <c r="E6" s="5">
-        <f t="shared" si="9"/>
+      <c r="D6" s="3">
+        <f t="shared" si="6"/>
         <v>-3.4841967703273333E-3</v>
       </c>
-      <c r="F6" s="5">
-        <f t="shared" si="9"/>
+      <c r="E6" s="3">
+        <f t="shared" si="6"/>
         <v>-1.6230006983133018E-3</v>
       </c>
-      <c r="G6" s="5">
-        <f t="shared" si="9"/>
+      <c r="F6" s="3">
+        <f t="shared" si="6"/>
         <v>-2.5653037523895898E-4</v>
       </c>
-      <c r="H6" s="5">
-        <f t="shared" ref="H6:L6" si="10">H2*H3</f>
+      <c r="G6" s="3">
+        <f t="shared" si="6"/>
         <v>7.6816592452862164E-4</v>
       </c>
-      <c r="I6" s="5">
-        <f t="shared" si="10"/>
+      <c r="H6" s="3">
+        <f t="shared" si="6"/>
         <v>1.5954211454002204E-3</v>
       </c>
-      <c r="J6" s="5">
-        <f t="shared" si="10"/>
+      <c r="I6" s="3">
+        <f t="shared" si="6"/>
         <v>1.2300323997326515E-3</v>
       </c>
-      <c r="K6" s="5">
-        <f t="shared" si="10"/>
+      <c r="J6" s="3">
+        <f t="shared" si="6"/>
         <v>4.9883620222236364E-4</v>
       </c>
-      <c r="L6" s="5">
-        <f t="shared" si="10"/>
+      <c r="K6" s="3">
+        <f t="shared" si="6"/>
         <v>-5.3987614803160391E-4</v>
       </c>
-      <c r="M6" s="5">
-        <f t="shared" ref="M6:P6" si="11">M2*M3</f>
+      <c r="L6" s="3">
+        <f t="shared" si="6"/>
         <v>-2.3001861059171315E-3</v>
       </c>
-      <c r="N6" s="5">
-        <f t="shared" si="11"/>
+      <c r="M6" s="3">
+        <f t="shared" si="6"/>
         <v>-3.9751067866365744E-3</v>
       </c>
-      <c r="O6" s="5">
-        <f t="shared" si="11"/>
+      <c r="N6" s="3">
+        <f t="shared" si="6"/>
         <v>-7.1416733369996542E-3</v>
       </c>
+      <c r="O6" s="3">
+        <f t="shared" si="6"/>
+        <v>-1.4000426492324247E-2</v>
+      </c>
       <c r="P6" s="5">
-        <f t="shared" si="11"/>
+        <f>O2*O3</f>
         <v>-1.4000426492324247E-2</v>
       </c>
       <c r="Q6" s="5">
-        <f t="shared" ref="Q6:U6" si="12">Q2*Q3</f>
+        <f t="shared" ref="Q6:U6" si="7">Q2*Q3</f>
         <v>-2.1775767057546264E-2</v>
       </c>
       <c r="R6" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>-2.2252497568388978E-2</v>
       </c>
       <c r="S6" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>-1.0195754559594842E-2</v>
       </c>
       <c r="T6" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>-5.9392363281218063E-3</v>
       </c>
       <c r="U6" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>-3.3495438128166907E-3</v>
       </c>
       <c r="V6" s="5">
-        <f t="shared" ref="V6:AG6" si="13">V2*V3</f>
+        <f t="shared" ref="V6:AG6" si="8">V2*V3</f>
         <v>-1.4949577715702676E-3</v>
       </c>
       <c r="W6" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>-8.7310648522269174E-5</v>
       </c>
       <c r="X6" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>9.7885462590528499E-4</v>
       </c>
       <c r="Y6" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>1.8751004222116335E-3</v>
       </c>
       <c r="Z6" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>1.4582947309668521E-3</v>
       </c>
       <c r="AA6" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>6.7667206121704263E-4</v>
       </c>
       <c r="AB6" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>-4.39568174175228E-4</v>
       </c>
       <c r="AC6" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>-2.2275435174988856E-3</v>
       </c>
       <c r="AD6" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>-3.9347940503985405E-3</v>
       </c>
       <c r="AE6" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>-6.9842688594885689E-3</v>
       </c>
       <c r="AF6" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>-1.3348524849265837E-2</v>
       </c>
       <c r="AG6" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>-2.7102096999536796E-2</v>
       </c>
     </row>
@@ -9336,22 +9409,22 @@
         <v>0</v>
       </c>
       <c r="B7" s="6">
-        <f>AVERAGE(B2:AG2)</f>
-        <v>3.1314529965841865E-3</v>
+        <f>AVERAGE(D2:M2)</f>
+        <v>3.0579079704714145E-3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4">
-        <f>AVERAGE(B4:AG4)</f>
-        <v>9.8183895811078638E-6</v>
+        <f>AVERAGE(D4:M4)</f>
+        <v>9.3550636149355944E-6</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="7">
-        <f>AVERAGE(B6:AG6)</f>
-        <v>-5.847468211000361E-3</v>
+        <f>AVERAGE(D6:M6)</f>
+        <v>-8.0864412125810465E-4</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -9359,21 +9432,21 @@
         <v>1</v>
       </c>
       <c r="B8" s="6">
-        <f>AVERAGE(B3:AG3)</f>
-        <v>-1.7870123976771648</v>
+        <f>AVERAGE(D3:M3)</f>
+        <v>-0.25175427298210484</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="4">
-        <f>AVERAGE(B5:AG5)</f>
-        <v>9.4734313529091061</v>
+        <f>AVERAGE(D5:M5)</f>
+        <v>0.42265482723148767</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="8">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -9382,21 +9455,21 @@
       </c>
       <c r="B9" s="9">
         <f>(F7-B7*B8)/(D7-B7*B7)</f>
-        <v>-20297.671357781161</v>
+        <v>-9103.3656235700055</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="9">
         <f>SQRT(((D8-B8*B8)/(D7-B7*B7)-B9*B9)/F8)</f>
-        <v>1721.1584719427783</v>
+        <v>376.40976686865372</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="1">
         <f>D9/B9*100</f>
-        <v>-8.4795858677796954</v>
+        <v>-4.1348417984450858</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -9405,21 +9478,21 @@
       </c>
       <c r="B10" s="10">
         <f>B8-B9*B7</f>
-        <v>61.774191399327663</v>
+        <v>27.585500025448095</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="10">
         <f>(SQRT(D7-B7*B7))*D9</f>
-        <v>0.19159602830824932</v>
+        <v>2.4574856709656978E-2</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ref="F10" si="14">D10/B10*100</f>
-        <v>0.3101554613150867</v>
+        <f t="shared" ref="F10" si="9">D10/B10*100</f>
+        <v>8.9086138322619676E-2</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -9428,21 +9501,21 @@
       </c>
       <c r="B11" s="2">
         <f>F7/D7</f>
-        <v>-595.56286320638731</v>
+        <v>-86.439189998353825</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2">
         <f>SQRT((D8/D7-B11*B11)/F8)</f>
-        <v>138.08636168688281</v>
+        <v>61.406452308821649</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="1">
         <f>D11/B11*100</f>
-        <v>-23.18585832290724</v>
+        <v>-71.040059850157192</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -9578,39 +9651,39 @@
         <v>74610.922499999986</v>
       </c>
       <c r="C32" s="3">
-        <f t="shared" ref="C32:K32" si="15">C30*C30</f>
+        <f t="shared" ref="C32:K32" si="10">C30*C30</f>
         <v>80173.922499999986</v>
       </c>
       <c r="D32" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>85936.922499999986</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>86612.489999999976</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>88893.422499999986</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>91899.922499999986</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>98062.922499999986</v>
       </c>
       <c r="I32" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>104425.92249999999</v>
       </c>
       <c r="J32" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>110988.92249999999</v>
       </c>
       <c r="K32" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v>117751.92249999999</v>
       </c>
     </row>
@@ -9623,39 +9696,39 @@
         <v>19125.966447068044</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" ref="C33:K33" si="16">C31*C31</f>
+        <f t="shared" ref="C33:K33" si="11">C31*C31</f>
         <v>19554.546230737724</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>19987.874820874677</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>20096.948969419405</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>20315.9876677215</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>20536.213567640414</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>20980.22697232867</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>21428.989183484195</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>21882.500201106959</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v>22456.066982229993</v>
       </c>
     </row>
@@ -9668,39 +9741,39 @@
         <v>37775.732955427804</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" ref="C34:K34" si="17">C30*C31</f>
+        <f t="shared" ref="C34:K34" si="12">C30*C31</f>
         <v>39595.008195804599</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>41445.101633621409</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>41721.059330323194</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>42496.560746153991</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>43442.794975802404</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>45358.377083179199</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>47304.777387996008</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>49281.995890252809</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v>51422.223395593806</v>
       </c>
     </row>
@@ -9791,7 +9864,7 @@
         <v>15</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" ref="F38:F39" si="18">D38/B38*100</f>
+        <f t="shared" ref="F38:F39" si="13">D38/B38*100</f>
         <v>3.802806807770983E-2</v>
       </c>
     </row>
@@ -9814,7 +9887,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="13"/>
         <v>1.4168138048093331</v>
       </c>
     </row>
@@ -9956,39 +10029,39 @@
         <v>74610.922499999986</v>
       </c>
       <c r="C45" s="3">
-        <f t="shared" ref="C45:K45" si="19">C43*C43</f>
+        <f t="shared" ref="C45:K45" si="14">C43*C43</f>
         <v>80173.922499999986</v>
       </c>
       <c r="D45" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>85936.922499999986</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>91899.922499999986</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>98062.922499999986</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>104425.92249999999</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>110988.92249999999</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>117751.92249999999</v>
       </c>
       <c r="J45" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>124714.92249999999</v>
       </c>
       <c r="K45" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>131877.92249999999</v>
       </c>
     </row>
@@ -10001,39 +10074,39 @@
         <v>3725.2512232155359</v>
       </c>
       <c r="C46" s="3">
-        <f t="shared" ref="C46:K46" si="20">C44*C44</f>
+        <f t="shared" ref="C46:K46" si="15">C44*C44</f>
         <v>3632.5238996505095</v>
       </c>
       <c r="D46" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>3551.5022539646079</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>3480.4729429266645</v>
       </c>
       <c r="F46" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>3418.0278124958854</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>3363.0007474381127</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>3314.4192578739717</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>3271.4670046644565</v>
       </c>
       <c r="J46" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>3233.454530042753</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>3199.7962037443976</v>
       </c>
     </row>
@@ -10046,39 +10119,39 @@
         <v>16671.665492936347</v>
       </c>
       <c r="C47" s="5">
-        <f t="shared" ref="C47:K47" si="21">C43*C44</f>
+        <f t="shared" ref="C47:K47" si="16">C43*C44</f>
         <v>17065.570298410119</v>
       </c>
       <c r="D47" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>17470.12232234027</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>17884.495903388146</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>18307.970845498647</v>
       </c>
       <c r="G47" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>18739.916099583115</v>
       </c>
       <c r="H47" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>19179.776384115685</v>
       </c>
       <c r="I47" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>19627.061145127056</v>
       </c>
       <c r="J47" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>20081.335391889548</v>
       </c>
       <c r="K47" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="16"/>
         <v>20542.212046739216</v>
       </c>
     </row>
@@ -10169,7 +10242,7 @@
         <v>15</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" ref="F51:F52" si="22">D51/B51*100</f>
+        <f t="shared" ref="F51:F52" si="17">D51/B51*100</f>
         <v>8.9406230274367018E-2</v>
       </c>
     </row>
@@ -10192,7 +10265,7 @@
         <v>16</v>
       </c>
       <c r="F52" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v>3.6254663557138409</v>
       </c>
     </row>
@@ -10208,7 +10281,7 @@
   <dimension ref="A2:R29"/>
   <sheetViews>
     <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" customHeight="1"/>
@@ -10471,7 +10544,7 @@
     </row>
     <row r="10" spans="1:18" ht="13.8" customHeight="1">
       <c r="B10" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C10" s="77">
         <v>0.78</v>
@@ -10771,7 +10844,7 @@
     </row>
     <row r="17" spans="1:18" ht="13.8" customHeight="1">
       <c r="B17" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C17">
         <v>0.93400000000000005</v>
@@ -10948,7 +11021,7 @@
         <v>0.95</v>
       </c>
       <c r="E27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F27">
         <v>33</v>
@@ -10985,8 +11058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:P168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P162" sqref="P162"/>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="P160" sqref="P160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.6" customHeight="1"/>
@@ -11621,48 +11694,90 @@
       <c r="H71" s="80"/>
       <c r="I71" s="80"/>
     </row>
+    <row r="72" spans="2:13" ht="12.6" customHeight="1">
+      <c r="D72">
+        <f>1/D73</f>
+        <v>3.6609921288669233E-3</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ref="E72:M72" si="3">1/E73</f>
+        <v>3.5316969803990822E-3</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="3"/>
+        <v>3.4112229234180458E-3</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="3"/>
+        <v>3.298697014679202E-3</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="3"/>
+        <v>3.1933578157432542E-3</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="3"/>
+        <v>3.0945381401825778E-3</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="3"/>
+        <v>3.0016509079993999E-3</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="3"/>
+        <v>2.9141774734081308E-3</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="3"/>
+        <v>2.831657935721365E-3</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="3"/>
+        <v>2.7536830510808208E-3</v>
+      </c>
+    </row>
     <row r="73" spans="2:13" ht="12.6" customHeight="1">
       <c r="C73" s="61" t="s">
         <v>82</v>
       </c>
       <c r="D73">
-        <f t="shared" ref="D73:M73" si="3">C36</f>
+        <f t="shared" ref="D73:M73" si="4">C36</f>
         <v>273.14999999999998</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>283.14999999999998</v>
       </c>
       <c r="F73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>293.14999999999998</v>
       </c>
       <c r="G73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>303.14999999999998</v>
       </c>
       <c r="H73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>313.14999999999998</v>
       </c>
       <c r="I73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>323.14999999999998</v>
       </c>
       <c r="J73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>333.15</v>
       </c>
       <c r="K73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>343.15</v>
       </c>
       <c r="L73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>353.15</v>
       </c>
       <c r="M73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>363.15</v>
       </c>
     </row>
@@ -11860,7 +11975,7 @@
     </row>
     <row r="132" spans="2:12" ht="12.6" customHeight="1">
       <c r="B132" s="79" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C132" s="80"/>
       <c r="D132" s="80"/>
@@ -11874,43 +11989,43 @@
         <v>33</v>
       </c>
       <c r="C134">
-        <f t="shared" ref="C134:L134" si="4">C36</f>
+        <f t="shared" ref="C134:L134" si="5">C36</f>
         <v>273.14999999999998</v>
       </c>
       <c r="D134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>283.14999999999998</v>
       </c>
       <c r="E134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>293.14999999999998</v>
       </c>
       <c r="F134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>303.14999999999998</v>
       </c>
       <c r="G134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>313.14999999999998</v>
       </c>
       <c r="H134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>323.14999999999998</v>
       </c>
       <c r="I134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>333.15</v>
       </c>
       <c r="J134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>343.15</v>
       </c>
       <c r="K134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>353.15</v>
       </c>
       <c r="L134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>363.15</v>
       </c>
     </row>
@@ -11965,45 +12080,45 @@
         <v>-11.872201379040687</v>
       </c>
       <c r="D136">
-        <f t="shared" ref="D136:L136" si="5">LN(D135)</f>
+        <f t="shared" ref="D136:L136" si="6">LN(D135)</f>
         <v>-10.974133005320782</v>
       </c>
       <c r="E136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-10.158234455487746</v>
       </c>
       <c r="F136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-9.4166018800775539</v>
       </c>
       <c r="G136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-8.7423720148138742</v>
       </c>
       <c r="H136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-8.1295582948051486</v>
       </c>
       <c r="I136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-7.5729168304180297</v>
       </c>
       <c r="J136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-7.0678361028071999</v>
       </c>
       <c r="K136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-6.610245637032639</v>
       </c>
       <c r="L136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-6.1965399620383277</v>
       </c>
     </row>
     <row r="162" spans="2:8" ht="12.6" customHeight="1">
       <c r="B162" s="79" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C162" s="87"/>
       <c r="D162" s="87"/>
@@ -12038,7 +12153,7 @@
         <v>93</v>
       </c>
       <c r="C165" s="67">
-        <f t="shared" ref="C165:H165" si="6">$E$135</f>
+        <f t="shared" ref="C165:H165" si="7">$E$135</f>
         <v>3.8755632593069884E-5</v>
       </c>
       <c r="D165" s="64">
@@ -12046,19 +12161,19 @@
         <v>3.8755632593069884E-5</v>
       </c>
       <c r="E165" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.8755632593069884E-5</v>
       </c>
       <c r="F165" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.8755632593069884E-5</v>
       </c>
       <c r="G165" s="65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.8755632593069884E-5</v>
       </c>
       <c r="H165" s="66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.8755632593069884E-5</v>
       </c>
     </row>
@@ -12098,19 +12213,19 @@
         <v>13.3</v>
       </c>
       <c r="E167" s="14">
-        <f t="shared" ref="E167:H167" si="7">E166</f>
+        <f t="shared" ref="E167:H167" si="8">E166</f>
         <v>8</v>
       </c>
       <c r="F167" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.5</v>
       </c>
       <c r="G167" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.8</v>
       </c>
       <c r="H167" s="69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -12119,27 +12234,27 @@
         <v>94</v>
       </c>
       <c r="C168" s="74">
-        <f t="shared" ref="C168:H168" si="8">C165*C167*C167/C166</f>
+        <f t="shared" ref="C168:H168" si="9">C165*C167*C167/C166</f>
         <v>1.4804651650552695E-2</v>
       </c>
       <c r="D168" s="71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.1544991348782951E-4</v>
       </c>
       <c r="E168" s="72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.1004506074455907E-4</v>
       </c>
       <c r="F168" s="72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1315597926188437E-4</v>
       </c>
       <c r="G168" s="72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.8602703644673543E-4</v>
       </c>
       <c r="H168" s="73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.5262391704753754E-5</v>
       </c>
     </row>
@@ -12293,7 +12408,7 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" s="87" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" s="87"/>
       <c r="D2" s="87"/>
@@ -12301,25 +12416,25 @@
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C4">
         <f>МНК!F9</f>
-        <v>-8.4795858677796954</v>
+        <v>-4.1348417984450858</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5">
         <f>МНК!F10</f>
-        <v>0.3101554613150867</v>
+        <v>8.9086138322619676E-2</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="87" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="87"/>
@@ -12335,7 +12450,7 @@
         <v>0.55796512374721041</v>
       </c>
       <c r="D9" s="76" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E9">
         <f>C9/1.73</f>
@@ -12352,7 +12467,7 @@
         <v>1.9417475728155341E-4</v>
       </c>
       <c r="D10" s="76" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E10">
         <f>E9*E9+C12*C12+C14*C14</f>
@@ -12369,7 +12484,7 @@
         <v>2.1074815595363539E-3</v>
       </c>
       <c r="D11" s="76" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E11">
         <f>E10+C13*C13</f>
@@ -12386,7 +12501,7 @@
         <v>4.3103448275862072E-2</v>
       </c>
       <c r="D12" s="76" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E12">
         <f>C11*C11+C13*C13</f>
@@ -12403,7 +12518,7 @@
         <v>1.7241379310344831E-2</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E13">
         <f>4*E10+5*C13*C13+C11*C11</f>

--- a/Лаба 29 Равновесие_Спектрофотометрия.xlsx
+++ b/Лаба 29 Равновесие_Спектрофотометрия.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="132" windowWidth="19416" windowHeight="9792" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="19410" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="2" r:id="rId1"/>
@@ -1834,24 +1834,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1861,13 +1844,30 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -2240,11 +2240,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="169028608"/>
-        <c:axId val="169063936"/>
+        <c:axId val="106412672"/>
+        <c:axId val="106423424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="169028608"/>
+        <c:axId val="106412672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2267,12 +2267,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169063936"/>
+        <c:crossAx val="106423424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="169063936"/>
+        <c:axId val="106423424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2305,7 +2305,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169028608"/>
+        <c:crossAx val="106412672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2318,7 +2318,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2374,7 +2374,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.1287882528197489"/>
-          <c:y val="6.2706270627062743E-2"/>
+          <c:y val="6.2706270627062757E-2"/>
         </c:manualLayout>
       </c:layout>
     </c:title>
@@ -2387,7 +2387,7 @@
           <c:x val="7.4969043941277722E-2"/>
           <c:y val="0.19819313427405733"/>
           <c:w val="0.65119216854649964"/>
-          <c:h val="0.72572880122658012"/>
+          <c:h val="0.72572880122658034"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2622,15 +2622,15 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="49512832"/>
-        <c:axId val="49514752"/>
+        <c:axId val="116253440"/>
+        <c:axId val="116255360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49512832"/>
+        <c:axId val="116253440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="380"/>
-          <c:min val="260"/>
+          <c:max val="360"/>
+          <c:min val="280"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorGridlines/>
@@ -2651,21 +2651,23 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.74565284004571231"/>
+              <c:x val="0.74565284004571242"/>
               <c:y val="0.94981835191393149"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49514752"/>
+        <c:crossAx val="116255360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49514752"/>
+        <c:axId val="116255360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="-6"/>
+          <c:min val="-12"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -2696,7 +2698,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49512832"/>
+        <c:crossAx val="116253440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2710,7 +2712,7 @@
           <c:x val="0.74003189792663482"/>
           <c:y val="0.40461760349263282"/>
           <c:w val="0.25039872408293462"/>
-          <c:h val="0.35092954964787842"/>
+          <c:h val="0.35092954964787848"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -2718,7 +2720,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3026,11 +3028,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="168446208"/>
-        <c:axId val="168452480"/>
+        <c:axId val="108226432"/>
+        <c:axId val="108244992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="168446208"/>
+        <c:axId val="108226432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3053,12 +3055,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168452480"/>
+        <c:crossAx val="108244992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168452480"/>
+        <c:axId val="108244992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3091,7 +3093,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168446208"/>
+        <c:crossAx val="108226432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3102,10 +3104,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.65794045565621073"/>
-          <c:y val="0.397327863142384"/>
-          <c:w val="0.30467503961941017"/>
-          <c:h val="0.21492304736956577"/>
+          <c:x val="0.65794045565621084"/>
+          <c:y val="0.39732786314238416"/>
+          <c:w val="0.30467503961941023"/>
+          <c:h val="0.2149230473695658"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -3113,7 +3115,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3356,11 +3358,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="168485248"/>
-        <c:axId val="168487168"/>
+        <c:axId val="110305280"/>
+        <c:axId val="110307200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="168485248"/>
+        <c:axId val="110305280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3383,12 +3385,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168487168"/>
+        <c:crossAx val="110307200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168487168"/>
+        <c:axId val="110307200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3421,7 +3423,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168485248"/>
+        <c:crossAx val="110305280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3432,9 +3434,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.64126650437847355"/>
-          <c:y val="0.42904635536575242"/>
-          <c:w val="0.33467734387240716"/>
+          <c:x val="0.64126650437847366"/>
+          <c:y val="0.42904635536575247"/>
+          <c:w val="0.33467734387240727"/>
           <c:h val="0.14672364672364668"/>
         </c:manualLayout>
       </c:layout>
@@ -3453,7 +3455,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3696,11 +3698,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="169306368"/>
-        <c:axId val="169312640"/>
+        <c:axId val="110339968"/>
+        <c:axId val="110342144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="169306368"/>
+        <c:axId val="110339968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3723,12 +3725,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169312640"/>
+        <c:crossAx val="110342144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="169312640"/>
+        <c:axId val="110342144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3761,7 +3763,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169306368"/>
+        <c:crossAx val="110339968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3774,7 +3776,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4027,11 +4029,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="169619840"/>
-        <c:axId val="169621760"/>
+        <c:axId val="108294144"/>
+        <c:axId val="108296064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="169619840"/>
+        <c:axId val="108294144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4054,12 +4056,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169621760"/>
+        <c:crossAx val="108296064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="169621760"/>
+        <c:axId val="108296064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4092,7 +4094,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169619840"/>
+        <c:crossAx val="108294144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4105,7 +4107,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4296,11 +4298,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="169782656"/>
-        <c:axId val="169797120"/>
+        <c:axId val="110685184"/>
+        <c:axId val="110769280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="169782656"/>
+        <c:axId val="110685184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4335,12 +4337,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169797120"/>
+        <c:crossAx val="110769280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="169797120"/>
+        <c:axId val="110769280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4363,7 +4365,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169782656"/>
+        <c:crossAx val="110685184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4379,7 +4381,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4430,7 +4432,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4444,7 +4445,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -4528,11 +4528,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="49428736"/>
-        <c:axId val="49443200"/>
+        <c:axId val="116189056"/>
+        <c:axId val="110559232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49428736"/>
+        <c:axId val="116189056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="200"/>
@@ -4540,17 +4540,15 @@
         <c:axPos val="b"/>
         <c:majorGridlines/>
         <c:minorGridlines/>
-        <c:title>
-          <c:layout/>
-        </c:title>
+        <c:title/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49443200"/>
+        <c:crossAx val="110559232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49443200"/>
+        <c:axId val="110559232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4569,7 +4567,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:layout/>
           <c:txPr>
             <a:bodyPr rot="-5400000" vert="horz"/>
             <a:lstStyle/>
@@ -4583,20 +4580,19 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49428736"/>
+        <c:crossAx val="116189056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4606,9 +4602,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -4632,7 +4626,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -4716,11 +4709,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="169807872"/>
-        <c:axId val="169809408"/>
+        <c:axId val="110574976"/>
+        <c:axId val="110597248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="169807872"/>
+        <c:axId val="110574976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="250"/>
@@ -4728,12 +4721,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169809408"/>
+        <c:crossAx val="110597248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="169809408"/>
+        <c:axId val="110597248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4741,20 +4734,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169807872"/>
+        <c:crossAx val="110574976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5341,14 +5333,14 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="169842176"/>
-        <c:axId val="169844096"/>
+        <c:axId val="116213632"/>
+        <c:axId val="116232192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="169842176"/>
+        <c:axId val="116213632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="2.0000000000000005E-3"/>
+          <c:min val="2.0000000000000009E-3"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorGridlines/>
@@ -5369,12 +5361,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169844096"/>
+        <c:crossAx val="116232192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="169844096"/>
+        <c:axId val="116232192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.5"/>
@@ -5408,7 +5400,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="169842176"/>
+        <c:crossAx val="116213632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="0.1"/>
@@ -5422,7 +5414,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6030,37 +6022,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AH184"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B145" sqref="B145:C146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="16"/>
+    <col min="1" max="1" width="8.85546875" style="16"/>
     <col min="2" max="2" width="10" style="13" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="8.88671875" style="13"/>
+    <col min="3" max="3" width="12.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="8.85546875" style="13"/>
     <col min="11" max="11" width="9" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="13"/>
+    <col min="12" max="16384" width="8.85546875" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22" ht="24" customHeight="1">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
       <c r="P2" s="19">
         <v>29</v>
       </c>
@@ -6086,12 +6078,12 @@
       <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
       <c r="F4" s="33" t="s">
         <v>24</v>
       </c>
@@ -6272,12 +6264,12 @@
       <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:22">
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
       <c r="F9" s="33" t="s">
         <v>24</v>
       </c>
@@ -6463,28 +6455,28 @@
       <c r="A39" s="16">
         <v>2</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="86"/>
+      <c r="F39" s="86"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
+      <c r="J39" s="86"/>
     </row>
     <row r="41" spans="1:18">
-      <c r="B41" s="79" t="str">
+      <c r="B41" s="85" t="str">
         <f>CONCATENATE("Зависимость концентрации NO2 от Т (",H41," = ",J41," ",I41,")")</f>
         <v>Зависимость концентрации NO2 от Т (λ = 490 нм)</v>
       </c>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="86"/>
+      <c r="F41" s="86"/>
+      <c r="G41" s="86"/>
       <c r="H41" s="18" t="str">
         <f t="shared" ref="H41:J41" si="0">F4</f>
         <v>λ</v>
@@ -6639,15 +6631,15 @@
       </c>
     </row>
     <row r="46" spans="1:18">
-      <c r="B46" s="79" t="str">
+      <c r="B46" s="85" t="str">
         <f>CONCATENATE("Зависимость концентрации NO2 от Т (",H46," = ",J46," ",I46,")")</f>
         <v>Зависимость концентрации NO2 от Т (λ = 540 нм)</v>
       </c>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="18" t="str">
         <f t="shared" ref="H46" si="2">F9</f>
         <v>λ</v>
@@ -6662,22 +6654,22 @@
       </c>
     </row>
     <row r="47" spans="1:18">
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-      <c r="F47" s="82"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="82"/>
-      <c r="I47" s="82"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="82"/>
-      <c r="L47" s="82"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="82"/>
-      <c r="O47" s="82"/>
-      <c r="P47" s="82"/>
-      <c r="Q47" s="82"/>
-      <c r="R47" s="82"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="87"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="87"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="87"/>
+      <c r="P47" s="87"/>
+      <c r="Q47" s="87"/>
+      <c r="R47" s="87"/>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="46"/>
@@ -6823,15 +6815,15 @@
       <c r="A76" s="16">
         <v>3</v>
       </c>
-      <c r="B76" s="79" t="s">
+      <c r="B76" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C76" s="80"/>
-      <c r="D76" s="80"/>
-      <c r="E76" s="80"/>
-      <c r="F76" s="80"/>
-      <c r="G76" s="80"/>
-      <c r="H76" s="80"/>
+      <c r="C76" s="86"/>
+      <c r="D76" s="86"/>
+      <c r="E76" s="86"/>
+      <c r="F76" s="86"/>
+      <c r="G76" s="86"/>
+      <c r="H76" s="86"/>
     </row>
     <row r="78" spans="1:34">
       <c r="B78" s="18" t="str">
@@ -7370,16 +7362,16 @@
       <c r="A107" s="16">
         <v>4</v>
       </c>
-      <c r="B107" s="79" t="s">
+      <c r="B107" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="C107" s="80"/>
-      <c r="D107" s="80"/>
-      <c r="E107" s="80"/>
-      <c r="F107" s="80"/>
-      <c r="G107" s="80"/>
-      <c r="H107" s="80"/>
-      <c r="I107" s="80"/>
+      <c r="C107" s="86"/>
+      <c r="D107" s="86"/>
+      <c r="E107" s="86"/>
+      <c r="F107" s="86"/>
+      <c r="G107" s="86"/>
+      <c r="H107" s="86"/>
+      <c r="I107" s="86"/>
     </row>
     <row r="108" spans="1:34">
       <c r="C108" s="13">
@@ -7782,16 +7774,16 @@
       <c r="A138" s="16">
         <v>5</v>
       </c>
-      <c r="B138" s="79" t="s">
+      <c r="B138" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="C138" s="80"/>
-      <c r="D138" s="80"/>
-      <c r="E138" s="80"/>
-      <c r="F138" s="80"/>
-      <c r="G138" s="80"/>
-      <c r="H138" s="80"/>
-      <c r="I138" s="80"/>
+      <c r="C138" s="86"/>
+      <c r="D138" s="86"/>
+      <c r="E138" s="86"/>
+      <c r="F138" s="86"/>
+      <c r="G138" s="86"/>
+      <c r="H138" s="86"/>
+      <c r="I138" s="86"/>
     </row>
     <row r="140" spans="1:34">
       <c r="B140" s="18" t="s">
@@ -8060,12 +8052,12 @@
       </c>
     </row>
     <row r="143" spans="1:34">
-      <c r="B143" s="81" t="s">
+      <c r="B143" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="C143" s="82"/>
-      <c r="D143" s="82"/>
-      <c r="E143" s="82"/>
+      <c r="C143" s="87"/>
+      <c r="D143" s="87"/>
+      <c r="E143" s="87"/>
     </row>
     <row r="145" spans="1:34">
       <c r="A145" s="16">
@@ -8092,15 +8084,15 @@
       <c r="A148" s="16">
         <v>7</v>
       </c>
-      <c r="B148" s="79" t="s">
+      <c r="B148" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="C148" s="80"/>
-      <c r="D148" s="80"/>
-      <c r="E148" s="80"/>
-      <c r="F148" s="80"/>
-      <c r="G148" s="80"/>
-      <c r="H148" s="80"/>
+      <c r="C148" s="86"/>
+      <c r="D148" s="86"/>
+      <c r="E148" s="86"/>
+      <c r="F148" s="86"/>
+      <c r="G148" s="86"/>
+      <c r="H148" s="86"/>
     </row>
     <row r="150" spans="1:34">
       <c r="B150" s="18" t="str">
@@ -8108,7 +8100,7 @@
         <v>T, K</v>
       </c>
       <c r="C150" s="39">
-        <f t="shared" ref="C149:AH150" si="14">C78</f>
+        <f t="shared" ref="C150:AH150" si="14">C78</f>
         <v>303.25</v>
       </c>
       <c r="D150" s="40">
@@ -8610,22 +8602,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B107:I107"/>
+    <mergeCell ref="B138:I138"/>
+    <mergeCell ref="B143:E143"/>
+    <mergeCell ref="B148:H148"/>
     <mergeCell ref="C10:J10"/>
     <mergeCell ref="K10:R10"/>
     <mergeCell ref="B41:G41"/>
     <mergeCell ref="B46:G46"/>
     <mergeCell ref="C47:R47"/>
     <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B107:I107"/>
-    <mergeCell ref="B138:I138"/>
-    <mergeCell ref="B143:E143"/>
-    <mergeCell ref="B148:H148"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:R5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8637,14 +8629,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A23" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" customWidth="1"/>
+    <col min="4" max="5" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -9143,7 +9135,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" ref="B5:O6" si="3">B3*B3</f>
+        <f t="shared" ref="B5:O5" si="3">B3*B3</f>
         <v>11.035722998398636</v>
       </c>
       <c r="C5" s="3">
@@ -10284,43 +10276,43 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="13.9" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="17"/>
-    <col min="2" max="2" width="9.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="17"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18" ht="21.6" customHeight="1">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="88"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="89"/>
       <c r="P2" s="19">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="13.8" customHeight="1">
+    <row r="4" spans="1:18" ht="13.9" customHeight="1">
       <c r="A4" s="17">
         <v>1</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
       <c r="F4" s="33" t="s">
         <v>25</v>
       </c>
@@ -10328,7 +10320,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="13.8" customHeight="1">
+    <row r="5" spans="1:18" ht="13.9" customHeight="1">
       <c r="C5" s="48">
         <v>1</v>
       </c>
@@ -10378,7 +10370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="13.8" customHeight="1">
+    <row r="6" spans="1:18" ht="13.9" customHeight="1">
       <c r="B6" s="20" t="s">
         <v>20</v>
       </c>
@@ -10431,7 +10423,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="13.8" customHeight="1">
+    <row r="7" spans="1:18" ht="13.9" customHeight="1">
       <c r="B7" s="20" t="s">
         <v>21</v>
       </c>
@@ -10500,7 +10492,7 @@
         <v>-2.4280376047079902E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="13.8" customHeight="1">
+    <row r="8" spans="1:18" ht="13.9" customHeight="1">
       <c r="B8" s="20" t="s">
         <v>22</v>
       </c>
@@ -10521,7 +10513,7 @@
       <c r="Q8" s="25"/>
       <c r="R8" s="26"/>
     </row>
-    <row r="9" spans="1:18" ht="13.8" customHeight="1">
+    <row r="9" spans="1:18" ht="13.9" customHeight="1">
       <c r="B9" s="20" t="s">
         <v>23</v>
       </c>
@@ -10542,7 +10534,7 @@
       <c r="Q9" s="28"/>
       <c r="R9" s="29"/>
     </row>
-    <row r="10" spans="1:18" ht="13.8" customHeight="1">
+    <row r="10" spans="1:18" ht="13.9" customHeight="1">
       <c r="B10" s="18" t="s">
         <v>114</v>
       </c>
@@ -10595,16 +10587,16 @@
         <v>0.84599999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="13.8" customHeight="1">
+    <row r="11" spans="1:18" ht="13.9" customHeight="1">
       <c r="A11" s="34">
         <v>2</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
       <c r="F11" s="33" t="s">
         <v>25</v>
       </c>
@@ -10612,7 +10604,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="13.8" customHeight="1">
+    <row r="12" spans="1:18" ht="13.9" customHeight="1">
       <c r="C12" s="48">
         <v>1</v>
       </c>
@@ -10662,7 +10654,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="13.8" customHeight="1">
+    <row r="13" spans="1:18" ht="13.9" customHeight="1">
       <c r="B13" s="20" t="s">
         <v>20</v>
       </c>
@@ -10731,7 +10723,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="13.8" customHeight="1">
+    <row r="14" spans="1:18" ht="13.9" customHeight="1">
       <c r="B14" s="20" t="s">
         <v>21</v>
       </c>
@@ -10800,7 +10792,7 @@
         <v>-3.6419037896966221E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="13.8" customHeight="1">
+    <row r="15" spans="1:18" ht="13.9" customHeight="1">
       <c r="B15" s="20" t="s">
         <v>22</v>
       </c>
@@ -10821,7 +10813,7 @@
       <c r="Q15" s="25"/>
       <c r="R15" s="26"/>
     </row>
-    <row r="16" spans="1:18" ht="13.8" customHeight="1">
+    <row r="16" spans="1:18" ht="13.9" customHeight="1">
       <c r="B16" s="20" t="s">
         <v>23</v>
       </c>
@@ -10842,7 +10834,7 @@
       <c r="Q16" s="28"/>
       <c r="R16" s="29"/>
     </row>
-    <row r="17" spans="1:18" ht="13.8" customHeight="1">
+    <row r="17" spans="1:18" ht="13.9" customHeight="1">
       <c r="B17" s="18" t="s">
         <v>114</v>
       </c>
@@ -10895,23 +10887,23 @@
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="13.8" customHeight="1">
+    <row r="18" spans="1:18" ht="13.9" customHeight="1">
       <c r="A18" s="17">
         <v>3</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-    </row>
-    <row r="19" spans="1:18" ht="13.8" customHeight="1">
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+    </row>
+    <row r="19" spans="1:18" ht="13.9" customHeight="1">
       <c r="C19">
         <v>345</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="13.8" customHeight="1">
+    <row r="20" spans="1:18" ht="13.9" customHeight="1">
       <c r="B20" s="18" t="s">
         <v>26</v>
       </c>
@@ -10931,7 +10923,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="13.8" customHeight="1">
+    <row r="21" spans="1:18" ht="13.9" customHeight="1">
       <c r="B21" s="18" t="s">
         <v>27</v>
       </c>
@@ -10949,7 +10941,7 @@
       </c>
       <c r="G21" s="36"/>
     </row>
-    <row r="22" spans="1:18" ht="13.8" customHeight="1">
+    <row r="22" spans="1:18" ht="13.9" customHeight="1">
       <c r="B22" s="33" t="s">
         <v>28</v>
       </c>
@@ -10971,7 +10963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="13.8" customHeight="1">
+    <row r="23" spans="1:18" ht="13.9" customHeight="1">
       <c r="B23" s="38" t="s">
         <v>30</v>
       </c>
@@ -10985,7 +10977,7 @@
         <v>46.01</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="13.8" customHeight="1">
+    <row r="24" spans="1:18" ht="13.9" customHeight="1">
       <c r="B24" s="38" t="s">
         <v>31</v>
       </c>
@@ -11000,7 +10992,7 @@
         <v>92.01</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="13.8" customHeight="1">
+    <row r="25" spans="1:18" ht="13.9" customHeight="1">
       <c r="B25" s="38" t="s">
         <v>32</v>
       </c>
@@ -11011,12 +11003,12 @@
         <v>5.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="13.8" customHeight="1">
+    <row r="26" spans="1:18" ht="13.9" customHeight="1">
       <c r="C26" s="78">
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="13.8" customHeight="1">
+    <row r="27" spans="1:18" ht="13.9" customHeight="1">
       <c r="C27" s="78">
         <v>0.95</v>
       </c>
@@ -11027,7 +11019,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="13.8" customHeight="1">
+    <row r="28" spans="1:18" ht="13.9" customHeight="1">
       <c r="B28" s="77">
         <v>0.92200000000000004</v>
       </c>
@@ -11035,7 +11027,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="13.8" customHeight="1">
+    <row r="29" spans="1:18" ht="13.9" customHeight="1">
       <c r="B29">
         <v>0.98199999999999998</v>
       </c>
@@ -11058,36 +11050,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:P168"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="P160" sqref="P160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="12.6" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.6" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="54"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="54"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="12.6" customHeight="1">
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="89" t="str">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="90" t="str">
         <f>CONCATENATE("1 кал/(г*К) = ",L2," Дж/(кг*К)")</f>
         <v>1 кал/(г*К) = 4186,800000009 Дж/(кг*К)</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
       <c r="L2">
         <v>4186.8000000089996</v>
       </c>
@@ -11381,20 +11373,20 @@
       </c>
     </row>
     <row r="31" spans="2:11" ht="12.6" customHeight="1">
-      <c r="B31" s="79" t="s">
+      <c r="B31" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="89" t="s">
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="90"/>
     </row>
     <row r="33" spans="2:12" ht="12.6" customHeight="1">
       <c r="B33" s="20" t="s">
@@ -11585,18 +11577,18 @@
       </c>
     </row>
     <row r="58" spans="2:9" ht="12.6" customHeight="1">
-      <c r="B58" s="79" t="s">
+      <c r="B58" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="87"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="87"/>
-      <c r="G58" s="87"/>
-      <c r="H58" s="89" t="s">
+      <c r="C58" s="82"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="82"/>
+      <c r="G58" s="82"/>
+      <c r="H58" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="I58" s="89"/>
+      <c r="I58" s="90"/>
     </row>
     <row r="60" spans="2:9" ht="12.6" customHeight="1">
       <c r="B60" s="20" t="s">
@@ -11617,14 +11609,14 @@
       </c>
     </row>
     <row r="64" spans="2:9" ht="12.6" customHeight="1">
-      <c r="B64" s="79" t="s">
+      <c r="B64" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="C64" s="87"/>
-      <c r="D64" s="87"/>
-      <c r="E64" s="87"/>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="82"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="82"/>
     </row>
     <row r="66" spans="2:13" ht="12.6" customHeight="1">
       <c r="C66" t="s">
@@ -11683,16 +11675,16 @@
       </c>
     </row>
     <row r="71" spans="2:13" ht="12.6" customHeight="1">
-      <c r="B71" s="79" t="s">
+      <c r="B71" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="C71" s="80"/>
-      <c r="D71" s="80"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="80"/>
-      <c r="G71" s="80"/>
-      <c r="H71" s="80"/>
-      <c r="I71" s="80"/>
+      <c r="C71" s="86"/>
+      <c r="D71" s="86"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="86"/>
+      <c r="I71" s="86"/>
     </row>
     <row r="72" spans="2:13" ht="12.6" customHeight="1">
       <c r="D72">
@@ -11974,15 +11966,15 @@
       </c>
     </row>
     <row r="132" spans="2:12" ht="12.6" customHeight="1">
-      <c r="B132" s="79" t="s">
+      <c r="B132" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="C132" s="80"/>
-      <c r="D132" s="80"/>
-      <c r="E132" s="80"/>
-      <c r="F132" s="80"/>
-      <c r="G132" s="80"/>
-      <c r="H132" s="80"/>
+      <c r="C132" s="86"/>
+      <c r="D132" s="86"/>
+      <c r="E132" s="86"/>
+      <c r="F132" s="86"/>
+      <c r="G132" s="86"/>
+      <c r="H132" s="86"/>
     </row>
     <row r="134" spans="2:12" ht="12.6" customHeight="1">
       <c r="B134" s="20" t="s">
@@ -12033,43 +12025,43 @@
       <c r="B135" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C135" s="90">
+      <c r="C135" s="79">
         <f>EXP(D77)/C134/Лаб.Журнал!$E$22</f>
         <v>6.98181686622265E-6</v>
       </c>
-      <c r="D135" s="90">
+      <c r="D135" s="79">
         <f>EXP(E77)/D134/Лаб.Журнал!$E$22</f>
         <v>1.7139359652543874E-5</v>
       </c>
-      <c r="E135" s="90">
+      <c r="E135" s="79">
         <f>EXP(F77)/E134/Лаб.Журнал!$E$22</f>
         <v>3.8755632593069884E-5</v>
       </c>
-      <c r="F135" s="90">
+      <c r="F135" s="79">
         <f>EXP(G77)/F134/Лаб.Журнал!$E$22</f>
         <v>8.1362028016547657E-5</v>
       </c>
-      <c r="G135" s="90">
+      <c r="G135" s="79">
         <f>EXP(H77)/G134/Лаб.Журнал!$E$22</f>
         <v>1.5967468762854176E-4</v>
       </c>
-      <c r="H135" s="90">
+      <c r="H135" s="79">
         <f>EXP(I77)/H134/Лаб.Журнал!$E$22</f>
         <v>2.9469834185020573E-4</v>
       </c>
-      <c r="I135" s="90">
+      <c r="I135" s="79">
         <f>EXP(J77)/I134/Лаб.Журнал!$E$22</f>
         <v>5.1419045279040606E-4</v>
       </c>
-      <c r="J135" s="90">
+      <c r="J135" s="79">
         <f>EXP(K77)/J134/Лаб.Журнал!$E$22</f>
         <v>8.5207491822891941E-4</v>
       </c>
-      <c r="K135" s="90">
+      <c r="K135" s="79">
         <f>EXP(L77)/K134/Лаб.Журнал!$E$22</f>
         <v>1.3465013581882795E-3</v>
       </c>
-      <c r="L135" s="90">
+      <c r="L135" s="79">
         <f>EXP(M77)/L134/Лаб.Журнал!$E$22</f>
         <v>2.0364647053933761E-3</v>
       </c>
@@ -12117,13 +12109,13 @@
       </c>
     </row>
     <row r="162" spans="2:8" ht="12.6" customHeight="1">
-      <c r="B162" s="79" t="s">
+      <c r="B162" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="C162" s="87"/>
-      <c r="D162" s="87"/>
-      <c r="E162" s="87"/>
-      <c r="F162" s="87"/>
+      <c r="C162" s="82"/>
+      <c r="D162" s="82"/>
+      <c r="E162" s="82"/>
+      <c r="F162" s="82"/>
     </row>
     <row r="164" spans="2:8" ht="12.6" customHeight="1">
       <c r="B164" s="13" t="s">
@@ -12260,16 +12252,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B162:F162"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B71:I71"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="B132:H132"/>
-    <mergeCell ref="B162:F162"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B71:I71"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="N2" r:id="rId1"/>
@@ -12287,65 +12279,65 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="53"/>
+    <col min="1" max="1" width="8.85546875" style="53"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4">
         <v>418.7</v>
       </c>
-      <c r="C4" s="89" t="str">
+      <c r="C4" s="90" t="str">
         <f>CONCATENATE("кал/(см·с·К) = ",B4," Вт/(м·К)")</f>
         <v>кал/(см·с·К) = 418,7 Вт/(м·К)</v>
       </c>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="56">
         <v>4186.8</v>
       </c>
-      <c r="C5" s="89" t="str">
+      <c r="C5" s="90" t="str">
         <f>CONCATENATE("кал/(г·К) = ",B5," Дж/(кг·К)")</f>
         <v>кал/(г·К) = 4186,8 Дж/(кг·К)</v>
       </c>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="56">
         <v>133.322</v>
       </c>
-      <c r="C6" s="89" t="str">
+      <c r="C6" s="90" t="str">
         <f>CONCATENATE("мм рт. ст. = ",B6," Па")</f>
         <v>мм рт. ст. = 133,322 Па</v>
       </c>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
@@ -12401,18 +12393,18 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="53"/>
+    <col min="1" max="1" width="8.85546875" style="53"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" s="38" t="s">
@@ -12433,12 +12425,12 @@
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="20" t="str">
